--- a/data/Panama.xlsx
+++ b/data/Panama.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E219"/>
+  <dimension ref="A1:E249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -711,22 +711,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MAESTRÍA EN CIENCIAS AGROPECUARIAS 2020</t>
+          <t>CONVOCATORIA PÚBLICA DE BECAS PARA ESTUDIOS DEL PROGRAMA DE MAESTRÍA DUAL EN SUPPLY CHAIN ENGINEERING 2020</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DIRIGIDA A: Panameños con grado de licenciatura o equivalente, interesados en realizar estudios de maestría en las áreas establecidas en el anuncio de la convocatoria. OBJETIVO: Mejorar la calidad de la gestión del Sistema Nacional de la Ciencia y Tecnología, mediante la formación profesional. DURACIÓN: Estas becas tendrán una duración de hasta dos (2) años o de acuerdo al plan de estudio. Este programa contempla la formación del idioma inglés de hasta un (1) año si el programa de estudio lo requiera MONTOS: Financiamiento de hasta B/. 60,000.00 por año de acuerdo a disponibilidad presupuestaria de la SENACYT. • La beca podrá cubrir hasta un 100% del costo según los rubros de gastos permitidos. Sin embargo, SENACYT se reserva el derecho de otorgar becas parciales de acuerdo a su disponibilidad presupuestaria. FECHA DE APERTURA DE LA CONVOCATORIA: 8 DE OCTUBRE DE 2020 PLAZO PARA ENTREGA DE DOCUMENTOS: 21 DE ENERO DE 2021 HASTA LAS 3:00 P.M. HORA EXACTA PARA MAYORES DETALLES VER ANUNCIO ENTRE LOS DOCUMENTOS A DESCARGAR</t>
+          <t>DIRIGIDA A: panameños(as) con formación académica o experiencia en Ingeniería, Logística o carreras afines. OBJETIVO: Este programa está diseñado para apoyar la formación de profesionales para que sean capaces de investigar y diseñar sistemas para lograr eficiencia y capacidad de respuesta en la cadena de suministro. DURACIÓN: Un (1) año y se realiza de la siguiente forma: • Semestre I agosto 2021- Impartido en Panamá en una de las universidades avaladas por el Georgia Institute of Technology (Universidad Tecnológica de Panamá y Universidad Latina de Panamá). • Semestre II enero 2022- Impartido en el campus de Georgia Institute of Technology en Atlanta, Estados Unidos. • Semestre III mayo 2022 – Realización de proyecto final en el Centro de Innovación e Investigación Logística Georgia Tech en Panamá. MONTOS: Financiamiento de hasta Sesenta Mil Balboas con 00/100 (B/. 60,000.00) por el período de duración de la Maestría. La beca es de hasta un 100% del costo en la categoría A, y parcial para la categoría B. Los montos del financiamiento otorgado por la SENACYT estarán a disponibilidad presupuestaria. De no ser aceptado por el Georgia Institute of Technology para continuar el Programa Dual al Semestre II enero en 2022, el monto de la beca desembolsado a la fecha se le convertirá en préstamo según lo establecido en el reglamento del Programa de Becas IFARHU – SENACYT. FECHA DE APERTURA DE LA CONVOCATORIA: 8 DE OCTUBRE DEL 2020 PLAZO PARA TRAMITE DE ADMISIÓN CONDICIONAL DEL PROGRAMA EN GEORGIA INSTITUTE OF TECHNOLOGY: 15 DE FEBRERO DE 2021. PLAZO PARA ENTREGA DE DOCUMENTOS: 4 DE MAYO DE 2021 HASTA LAS 3:00 P.M. PARA MAYORES DETALLES VER ANUNCIO ENTRE LOS DOCUMENTOS A DESCARGAR</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2020/10/ANUNCIO-DE-MAESTRIA-EN-CIENCIAS-AGROPECUARIAS.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/DECLARACION-JURADA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/LISTADO-DE-DOCUMENTOS-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/PASOS-A-SEGUIR-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/FORMULARIO-IFARHU-SENACYT-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2021/03/Anuncio-de-Resultado.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2020/10/ANUNCIO-DE-CONVOCATORIA-PÚBLICA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/DECLARACIÓN-JURADA-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/BEPG-2020-Listado-de-documentos-requeridos.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/PASOS-A-SEGUIR-3.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/Formulario-de-PAZ-Y-SALVO-DE-LA-SENACYT.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/Reglamento-del-Programa-de-Becas-IFARHU-SENACYT-1.pdf</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/maestria-en-ciencias-agropecuarias-2020/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-becas-para-estudios-del-programa-de-maestria-dual-en-supply-chain-engineering-2020/</t>
         </is>
       </c>
     </row>
@@ -736,22 +736,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DOCTORADO EN CIENCIAS AGROPECUARIAS 2020</t>
+          <t>CONVOCATORIA DE BECAS DE PREGRADO DE EXCELENCIA PARA COLEGIOS OFICIALES 2020</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DIRIGIDA A: Panameños con grado de licenciatura o maestría, interesados en realizar estudios de doctorado en las áreas establecidas en el anuncio de la convocatoria. OBJETIVO: Formar investigadores para la República de Panamá, que garanticen el incremento del capital humano con altas capacidades para actividades científicas y tecnológicas. DURACIÓN: Estas becas tendrán una duración de hasta cuatro (4) años para estudios doctorales si el beneficiario posee grado de maestría o hasta seis (6) años si el beneficiario no posee grado de maestría o de acuerdo con el plan de estudio presentado. Esta convocatoria no excluirá aquellos aspirantes que tengan una maestría únicamente en docencia superior. MONTOS: Financiamiento de hasta B/. 60,000.00 por año de acuerdo con disponibilidad presupuestaria de la SENACYT. • La beca podrá cubrir hasta un 100% del costo según los rubros de gastos permitidos. Sin embargo, SENACYT se reserva el derecho de otorgar becas parciales de acuerdo con su disponibilidad presupuestaria. FECHA DE APERTURA DE LA CONVOCATORIA: 8 DE OCTUBRE DE 2020 PLAZO PARA ENTREGA DE DOCUMENTOS: 21 DE ENERO DE 2021 HASTA LAS 3:00 P.M. HORA EXACTA PARA MAYORES DETALLES VER ANUNCIO ENTRE LOS DOCUMENTOS A DESCARGAR</t>
+          <t>DIRIGIDA A: Estudiantes panameños que posean título de bachiller (máximo 2 años de haber culminado el mismo) o estén cursando el último periodo del último año del bachillerato, en un centro de estudios de educación media oficial en Panamá, con la intención de realizar estudios en la Universidad de Ontario, en la Universidad del Sur de Indiana o en la Universidad de Arkansas. OBJETIVO: Fortalecer al país en áreas de Ciencia, Tecnología e Investigación para contar con profesionales con formación en centros de excelencia y en áreas claves para el desarrollo del país. Duración: La beca tendrá la duración de acuerdo con el Plan de Estudio de la Licenciatura. Este Programa contempla la formación del idioma inglés y nivelación académica por un periodo de hasta un (1) año adicional al plan de la carrera. MONTOS: Las becas de este Programa tendrán una asignación anual de hasta Sesenta Mil Balboas con 00/100 (B/. 60,000.00) y la asignación total no podrá exceder la suma de Doscientos Cincuenta Mil Balboas con 00/100 (B/. 250,000.00). También se podrán dar becas parciales. En caso de que el monto total de la carrera supere los B/. 250,000.00 la beca será parcial. FECHA DE APERTURA DE LA CONVOCATORIA: 8 DE OCTUBRE DEL 2020 PLAZO PARA ENTREGA DE DOCUMENTOS: 5 DE ENERO DE 2021 HASTA LAS 3:00 P.M. HORA EXACTA PARA MAYORES DETALLES VER ANUNCIO ENTRE LOS DOCUMENTOS A DESCARGAR</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2020/10/ANUNCIO-DE-DOCTORADO-EN-CIENCIAS-AGROPECUARIAS-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/DECLARCION-JURADA-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/LISTADO-DE-DOCUMENTOS-3.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/PASOS-A-SEGUIR-4.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/REGLAMENTO-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/FORMULARIO-IFARHU-SENACYT-3.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2021/03/ANUNCIO-DE-RESULTADO1.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2020/10/ANUNCIO-DE-PREGRADO-PARA-COLEGIOS-OFICIALES.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/DECLARACION-JURADA-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/LISTADO-DE-DOCUMENTOS-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/PASOS-A-SEGUIR-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/REGLAMENTO-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/FORMULARIO-IFARHU-SENACYT-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/LISTADO-DE-CARRERA-POR-UNIVERSIDAD.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2021/01/2020-12-31-Resolucion-Administrativa-275-Extender-fecha-de-cierre-Convocatoria-Becas-Pregrado-de-Excelencia-Colegios-Oficiales-2020.pdf</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/doctorado-en-ciencias-agropecuarias-2020/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-de-becas-de-pregrado-de-excelencia-para-colegios-oficiales-2020/</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CONVOCATORIA DE DOCTORADO PARA FORMAR INVESTIGADORES PARA UNIVERSIDADES, CENTROS DE INVESTIGACIÓN O LABORATORIOS DE INTERÉS NACIONAL RONDA II-2020</t>
+          <t>MAESTRÍA EN CIENCIAS AGROPECUARIAS 2020</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DIRIGIDA A: Profesores o Investigadores panameños vinculados a universidades, centros de investigación o laboratorios de interés nacional ubicados en Panamá, que se desempeñen en las áreas de ciencia y tecnología. El doctorado debe realizarse en un centro internacional de reconocida excelencia. OBJETIVO: Fortalecer la planta docente y profesional de las universidades, centros de investigación y laboratorios de interés nacional ubicados en Panamá. DURACIÓN: La beca tendrá una duración de hasta cuatro (4) años si el beneficiario posee grado de maestría y hasta seis (6) años si el beneficiario no posee grado de maestría, más el ciclo del idioma. Este programa contempla la formación del idioma para iniciar sus estudios de hasta un (1) año. MONTOS: Las becas podrán tener una asignación anual de hasta B/. 60,000.00 y la asignación total de la beca no podrá exceder la suma de B/. 250,000.00. El presupuesto se elaborará según los rubros y la tabla de asignación de fondos publicada en la página web de la SENACYT. * Los estudios deberán cursarse en la modalidad presencial y de tiempo completo, sin embargo, se podrá apoyar la modalidad compartida para aquellos programas que permitan desarrollar la investigación en Panamá. En caso de ser seleccionados, deberá iniciar sus estudios una vez se le notifique que ha sido refrendado su contrato por la Contraloría General de la República. En caso de continuación de estudios, los pagos iniciarán al refrendo de su contrato por parte de la Contraloría General de la República. FECHA DE APERTURA DE LA CONVOCATORIA: 8 de octubre de 2020 PLAZO PARA ENTREGA DE PROPUESTAS: 11 de febrero de 2021 hasta las 3:00 P.M. HORA EXACTA PARA MAYORES DETALLES VER ANUNCIO ENTRE LOS DOCUMENTOS A DESCARGAR</t>
+          <t>DIRIGIDA A: Panameños con grado de licenciatura o equivalente, interesados en realizar estudios de maestría en las áreas establecidas en el anuncio de la convocatoria. OBJETIVO: Mejorar la calidad de la gestión del Sistema Nacional de la Ciencia y Tecnología, mediante la formación profesional. DURACIÓN: Estas becas tendrán una duración de hasta dos (2) años o de acuerdo al plan de estudio. Este programa contempla la formación del idioma inglés de hasta un (1) año si el programa de estudio lo requiera MONTOS: Financiamiento de hasta B/. 60,000.00 por año de acuerdo a disponibilidad presupuestaria de la SENACYT. • La beca podrá cubrir hasta un 100% del costo según los rubros de gastos permitidos. Sin embargo, SENACYT se reserva el derecho de otorgar becas parciales de acuerdo a su disponibilidad presupuestaria. FECHA DE APERTURA DE LA CONVOCATORIA: 8 DE OCTUBRE DE 2020 PLAZO PARA ENTREGA DE DOCUMENTOS: 21 DE ENERO DE 2021 HASTA LAS 3:00 P.M. HORA EXACTA PARA MAYORES DETALLES VER ANUNCIO ENTRE LOS DOCUMENTOS A DESCARGAR</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2020/10/ANUNCIO-DOCTORADO-DE-EXCELENCIA-RONDA-II-2020-.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/Declaración-Jurada-Nueva-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/BEPDE-II-2020-Pasos-a-seguir.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/Reglamento-de-Becas-Nuevo-2017-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/Clasificación-principal-y-secundaria-Manual-de-Frascati-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2021/04/Anuncio-de-Resultado-Excelencia.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2020/10/ANUNCIO-DE-MAESTRIA-EN-CIENCIAS-AGROPECUARIAS.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/DECLARACION-JURADA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/LISTADO-DE-DOCUMENTOS-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/PASOS-A-SEGUIR-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/FORMULARIO-IFARHU-SENACYT-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2021/03/Anuncio-de-Resultado.pdf</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-de-doctorado-para-formar-investigadores-para-universidades-centros-de-investigacion-o-laboratorios-de-interes-nacional-ronda-ii-2020/</t>
+          <t>https://www.senacyt.gob.pa/maestria-en-ciencias-agropecuarias-2020/</t>
         </is>
       </c>
     </row>
@@ -786,22 +786,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CONVOCATORIA DE DOCTORADO DE INVESTIGACIÓN RONDA II-2020</t>
+          <t>DOCTORADO EN CIENCIAS AGROPECUARIAS 2020</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DIRIGIDA A: Panameños que deseen formarse como investigadores en centros de estudios de excelencia en el extranjero o que ya se encuentren estudiando un doctorado de investigación en centros de estudio de excelencia en el extranjero. OBJETIVO: Este programa tiene como objetivo la formación de investigadores para la República de Panamá, que garanticen el incremento del capital humano con altas capacidades para actividades científicas y tecnológicas. DURACIÓN: La beca tendrá una duración de hasta cuatro (4) años si el beneficiario posee grado de maestría y hasta seis (6) años si el beneficiario no posee grado de maestría. MONTOS: Las becas podrán tener una asignación anual de hasta B/. 60,000.00 y la asignación total de la beca no podrá exceder la suma de B/. 250,000.00. El presupuesto se elaborará según los rubros y la tabla de asignación de fondos publicada en la página web de la SENACYT. * Los estudios deberán cursarse en la modalidad presencial y de tiempo completo, sin embargo, se podrá apoyar la modalidad compartida para aquellos programas que permitan desarrollar la investigación en Panamá. En caso de ser seleccionados, deberá iniciar sus estudios una vez se le notifique que ha sido refrendado su contrato por la Contraloría General de la República. En caso de continuación de estudios, los pagos iniciarán al refrendo de su contrato por parte de la Contraloría General de la República. FECHA DE APERTURA DE LA CONVOCATORIA: 8 de octubre de 2020 PLAZO PARA ENTREGA DE PROPUESTAS: 11 de febrero de 2021 hasta las 3:00 P.M. HORA EXACTA PARA MAYORES DETALLES VER ANUNCIO ENTRE LOS DOCUMENTOS A DESCARGAR</t>
+          <t>DIRIGIDA A: Panameños con grado de licenciatura o maestría, interesados en realizar estudios de doctorado en las áreas establecidas en el anuncio de la convocatoria. OBJETIVO: Formar investigadores para la República de Panamá, que garanticen el incremento del capital humano con altas capacidades para actividades científicas y tecnológicas. DURACIÓN: Estas becas tendrán una duración de hasta cuatro (4) años para estudios doctorales si el beneficiario posee grado de maestría o hasta seis (6) años si el beneficiario no posee grado de maestría o de acuerdo con el plan de estudio presentado. Esta convocatoria no excluirá aquellos aspirantes que tengan una maestría únicamente en docencia superior. MONTOS: Financiamiento de hasta B/. 60,000.00 por año de acuerdo con disponibilidad presupuestaria de la SENACYT. • La beca podrá cubrir hasta un 100% del costo según los rubros de gastos permitidos. Sin embargo, SENACYT se reserva el derecho de otorgar becas parciales de acuerdo con su disponibilidad presupuestaria. FECHA DE APERTURA DE LA CONVOCATORIA: 8 DE OCTUBRE DE 2020 PLAZO PARA ENTREGA DE DOCUMENTOS: 21 DE ENERO DE 2021 HASTA LAS 3:00 P.M. HORA EXACTA PARA MAYORES DETALLES VER ANUNCIO ENTRE LOS DOCUMENTOS A DESCARGAR</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2020/10/ANUNCIO-DOCTORADO-DE-INVESTIGACIÓN-RONDA-II-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/Declaración-Jurada-Nueva.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/BIDP-II-2020-pasos-a-seguir.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/Reglamento-de-Becas-Nuevo-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/Clasificación-principal-y-secundaria-Manual-de-Frascati.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2021/04/Anuncio-de-Resultados-Doc-Investigacion.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2020/10/ANUNCIO-DE-DOCTORADO-EN-CIENCIAS-AGROPECUARIAS-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/DECLARCION-JURADA-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/LISTADO-DE-DOCUMENTOS-3.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/PASOS-A-SEGUIR-4.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/REGLAMENTO-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/FORMULARIO-IFARHU-SENACYT-3.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2021/03/ANUNCIO-DE-RESULTADO1.pdf</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-de-doctorado-de-investigacion-ronda-ii-2020/</t>
+          <t>https://www.senacyt.gob.pa/doctorado-en-ciencias-agropecuarias-2020/</t>
         </is>
       </c>
     </row>
@@ -811,18 +811,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA FOMENTO A NUEVOS EMPRENDIMIENTOS EN TECNOLOGÍA: CAPITAL SEMILLA CON ENFOQUE DE IGUALDAD DE GÉNERO 2020 – RONDA I</t>
+          <t>CONVOCATORIA DE DOCTORADO PARA FORMAR INVESTIGADORES PARA UNIVERSIDADES, CENTROS DE INVESTIGACIÓN O LABORATORIOS DE INTERÉS NACIONAL RONDA II-2020</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>OBJETIVO: Apoyar a nuevos emprendedores/as y microempresas en el desarrollo de proyectos de innovación en tecnología liderados por mujeres o con equipos de proyectos con igual participación de hombres y mujeres, que tengan un potencial de crecimiento a nivel internacional. Al finalizar los proyectos, los nuevos emprendedores/as y microempresas deben contar como mínimo con un prototipo. DIRIGIDO A: Nuevos emprendedores/as: personas naturales, de nacionalidad panameña que estén residiendo en Panamá, mayores de edad. Personas jurídicas constituidas como sociedades anónimas debidamente inscritas en el Registro Público de Panamá, que cumplan con las características de Micro y Pequeña empresa. Ver detalle en Información Adicional en las Bases de la Convocatoria. DURACIÓN: Los proyectos presentados deberán tener una duración máxima de ocho (8) meses en los cuales podrá estar incluido el proceso de incubación, aunque este no es de carácter obligatorio. De ser incluido, el proceso de incubación sería desarrollado simultáneamente con la ejecución del proyecto. Este proceso significa la adquisición de servicios ofrecidos por incubadoras para la validación y desarrollo de proyectos de emprendimientos a través de mentorías, asesoramiento, colaboración, creatividad, enseñanzas de metodologías y herramientas empresariales, elaboración y validación de prototipos. MONTOS: El monto máximo del subsidio económico que otorgará la SENACYT es hasta la suma de B/. 30,000.00. Este monto máximo incluirá el desarrollo del proyecto y podrá incorporar un proceso de incubación, aunque no es obligatorio. En el caso que se incluya el proceso de incubación, no deberá destinarse una suma mayor al diez por ciento (10%) del monto total del proyecto. PLAZOS Y FECHA DE PRESENTACIÓN FECHA DE APERTURA DE LA CONVOCATORIA: 15 DE SEPTIEMBRE DE 2020. PLAZO PARA ENTREGA DE PROPUESTAS: 17 DE NOVIEMBRE DE 2020 (HASTA LAS 3:00 PM, HORA EXACTA)</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>DIRIGIDA A: Profesores o Investigadores panameños vinculados a universidades, centros de investigación o laboratorios de interés nacional ubicados en Panamá, que se desempeñen en las áreas de ciencia y tecnología. El doctorado debe realizarse en un centro internacional de reconocida excelencia. OBJETIVO: Fortalecer la planta docente y profesional de las universidades, centros de investigación y laboratorios de interés nacional ubicados en Panamá. DURACIÓN: La beca tendrá una duración de hasta cuatro (4) años si el beneficiario posee grado de maestría y hasta seis (6) años si el beneficiario no posee grado de maestría, más el ciclo del idioma. Este programa contempla la formación del idioma para iniciar sus estudios de hasta un (1) año. MONTOS: Las becas podrán tener una asignación anual de hasta B/. 60,000.00 y la asignación total de la beca no podrá exceder la suma de B/. 250,000.00. El presupuesto se elaborará según los rubros y la tabla de asignación de fondos publicada en la página web de la SENACYT. * Los estudios deberán cursarse en la modalidad presencial y de tiempo completo, sin embargo, se podrá apoyar la modalidad compartida para aquellos programas que permitan desarrollar la investigación en Panamá. En caso de ser seleccionados, deberá iniciar sus estudios una vez se le notifique que ha sido refrendado su contrato por la Contraloría General de la República. En caso de continuación de estudios, los pagos iniciarán al refrendo de su contrato por parte de la Contraloría General de la República. FECHA DE APERTURA DE LA CONVOCATORIA: 8 de octubre de 2020 PLAZO PARA ENTREGA DE PROPUESTAS: 11 de febrero de 2021 hasta las 3:00 P.M. HORA EXACTA PARA MAYORES DETALLES VER ANUNCIO ENTRE LOS DOCUMENTOS A DESCARGAR</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2020/10/ANUNCIO-DOCTORADO-DE-EXCELENCIA-RONDA-II-2020-.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/Declaración-Jurada-Nueva-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/BEPDE-II-2020-Pasos-a-seguir.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/Reglamento-de-Becas-Nuevo-2017-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/Clasificación-principal-y-secundaria-Manual-de-Frascati-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2021/04/Anuncio-de-Resultado-Excelencia.pdf</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-fomento-a-nuevos-emprendimientos-en-tecnologia-capital-semilla-con-enfoque-de-igualdad-de-genero-2020-ronda-i/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-de-doctorado-para-formar-investigadores-para-universidades-centros-de-investigacion-o-laboratorios-de-interes-nacional-ronda-ii-2020/</t>
         </is>
       </c>
     </row>
@@ -832,18 +836,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA PROYECTOS DE INNOVACIÓN EMPRESARIAL 2020 – RONDA I</t>
+          <t>CONVOCATORIA DE DOCTORADO DE INVESTIGACIÓN RONDA II-2020</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>OBJETIVO: Fortalecer la competitividad de las empresas en Panamá, mediante el fomento de su capacidad de innovación. Se busca otorgar subsidios económicos para apoyar parcialmente proyectos que promuevan el desarrollo de innovaciones con impactos a nivel de la empresa, en base a la adaptación, integración y validación de tecnologías y componentes existentes, que estén dirigidos a su introducción exitosa en el mercado. DIRIGIDA A: Personas jurídicas panameñas con fines de lucro debidamente inscritas en el Registro Público de Panamá, con un mínimo de veinticuatro meses de operación en el país, a la fecha de apertura de esta convocatoria. En sus propuestas podrán incluir la participación de universidades nacionales o centros de investigación nacionales. CATEGORÍAS DE EVALUACIÓN: • Categoría de Evaluación A: EMPRESAS TIPO A: Personas jurídicas con fines de lucro, debidamente inscritas en Panamá, que generen ingresos brutos o facturación anual hasta la suma de un millón de balboas (B/.1,000,000.00). • Categoría de Evaluación B: EMPRESAS TIPO B: Personas jurídicas con fines de lucro, debidamente inscritas en Panamá, que generen ingresos brutos o facturación anual desde un millón de balboas con 01/100 (B/.1,000,000.01) hasta la suma de treinta millones de balboas (B/.30,000,000.00). • Categoría de Evaluación C: EMPRESAS TIPO C: Personas jurídicas con fines de lucro, debidamente inscritas en Panamá, que generen ingresos brutos o facturación anual desde treinta millones de balboas con 01/100 (B/.30,000,000.01) en adelante. DURACIÓN: Los proyectos adjudicados podrán tener una duración de hasta veinticuatro (24) meses. MONTOS: El monto máximo del subsidio económico que otorgará la SENACYT es hasta la suma de B/. 200,000.00. FECHA Y PLAZOS DE ENTREGA FECHA DE APERTURA DE LA CONVOCATORIA: 15 DE SEPTIEMBRE DE 2020. PLAZO PARA ENTREGA DE PROPUESTAS: 17 DE NOVIEMBRE DE 2020 (HASTA LAS 4:00 PM, HORA EXACTA)</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>DIRIGIDA A: Panameños que deseen formarse como investigadores en centros de estudios de excelencia en el extranjero o que ya se encuentren estudiando un doctorado de investigación en centros de estudio de excelencia en el extranjero. OBJETIVO: Este programa tiene como objetivo la formación de investigadores para la República de Panamá, que garanticen el incremento del capital humano con altas capacidades para actividades científicas y tecnológicas. DURACIÓN: La beca tendrá una duración de hasta cuatro (4) años si el beneficiario posee grado de maestría y hasta seis (6) años si el beneficiario no posee grado de maestría. MONTOS: Las becas podrán tener una asignación anual de hasta B/. 60,000.00 y la asignación total de la beca no podrá exceder la suma de B/. 250,000.00. El presupuesto se elaborará según los rubros y la tabla de asignación de fondos publicada en la página web de la SENACYT. * Los estudios deberán cursarse en la modalidad presencial y de tiempo completo, sin embargo, se podrá apoyar la modalidad compartida para aquellos programas que permitan desarrollar la investigación en Panamá. En caso de ser seleccionados, deberá iniciar sus estudios una vez se le notifique que ha sido refrendado su contrato por la Contraloría General de la República. En caso de continuación de estudios, los pagos iniciarán al refrendo de su contrato por parte de la Contraloría General de la República. FECHA DE APERTURA DE LA CONVOCATORIA: 8 de octubre de 2020 PLAZO PARA ENTREGA DE PROPUESTAS: 11 de febrero de 2021 hasta las 3:00 P.M. HORA EXACTA PARA MAYORES DETALLES VER ANUNCIO ENTRE LOS DOCUMENTOS A DESCARGAR</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2020/10/ANUNCIO-DOCTORADO-DE-INVESTIGACIÓN-RONDA-II-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/Declaración-Jurada-Nueva.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/BIDP-II-2020-pasos-a-seguir.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/Reglamento-de-Becas-Nuevo-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/Clasificación-principal-y-secundaria-Manual-de-Frascati.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2021/04/Anuncio-de-Resultados-Doc-Investigacion.pdf</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-proyectos-de-innovacion-empresarial-2020-ronda-i/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-de-doctorado-de-investigacion-ronda-ii-2020/</t>
         </is>
       </c>
     </row>
@@ -853,18 +861,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA PROYECTO INNOVATEC: CAPITAL SEMILLA Y NUEVOS EMPRENDIMIENTOS 2020 – RONDA I</t>
+          <t>PROGRAMA DE BECAS DE PREGRADO DE EXCELENCIA PARA ESTUDIOS EN CIENCIAS BÁSICAS O MATEMÁTICAS, 2020</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>OBJETIVO: Fomentar la innovación, apoyando proyectos de estudiantes universitarios, personas naturales mayores de edad de nacionalidad panameña y micro y pequeñas empresas, para generar capacidades, impulsar la economía del conocimiento y fortalecer el ecosistema de emprendimiento e innovación en Panamá. Con esta Convocatoria se busca desarrollar la innovación social, empresarial y gubernamental. DIRIGIDO A: Personas naturales, mayores de edad, de nacionalidad panameña, que estén cursando estudios en universidades en la República de Panamá mínimo el tercer año de carrera. Personas naturales, mayores de edad, de nacionalidad panameña y residentes en la República de Panamá. Personas jurídicas constituidas como sociedades anónimas debidamente inscritas en el Registro Público de Panamá y que cumplan con las características de Micro y Pequeñas empresas. (Ver detalle en las Bases de la Convocatoria). CATEGORÍA DE EVALUACIÓN SEPARADAS: • Categoría de Evaluación A:  Capital Semilla: Personas naturales, mayores de edad, de nacionalidad panameña y que estén cursando estudios en universidades en la República de Panamá. Deben estar cursando mínimo el tercer año de la carrera. Es obligatorio estar acompañados por un/a mentor/a con perfil académico con grado de licenciatura o maestría, o un investigador/a con grado de doctorado o un empresario/a del sector en el que se desarrolla la propuesta y con al menos 10 años de experiencia comprobada en cargos de gerencia. • Categoría de Evaluación B:  Nuevos Emprendimientos: Personas naturales, mayores de edad, de nacionalidad panameña y residentes en la República de Panamá o Personas jurídicas constituidas como sociedades anónimas debidamente inscritas en el Registro Público de Panamá y que cumplan con las características de Micro y Pequeñas empresas. Deben contar con un prototipo validado, innovador, funcional y con un mercado meta definido. Es obligatorio que los proponentes sean acompañados por un/a mentor/a, igual que la categoría A. DURACIÓN: Los proyectos adjudicados podrán tener una duración de: • Categoría de Evaluación A:  Capital Semilla: hasta nueve (9) meses • Categoría de Evaluación B:  Nuevos Emprendimientos: hasta nueve (9) meses MONTOS: El monto máximo del subsidio económico que otorgará la SENACYT dependerá del tipo de acompañamiento con el que cuenten los equipos de proyecto, el cual es de carácter obligatorio. El subsidio es hasta del 100% del costo total de la propuesta. Categoría de Evaluación A: Capital Semilla: • B/. 30,000.00 acompañamiento de un/a profesor/a universitario/a con estudios de licenciatura o maestría. • B/. 35,000.00 acompañamiento de un/a empresario/a del sector en el que se desarrolla la propuesta y cuenta con al menos 10 años de experiencia comprobada en cargos de gerencia o similar. • B/. 40,000.00 acompañamiento de un/a investigador/a con grado de doctorado. Categoría de Evaluación B: Nuevos Emprendimientos: • B/. 40,000.00 acompañamiento de un/a profesor/a universitario/a con estudios de licenciatura o maestría. • B/. 45,000.00 acompañamiento de un/a empresario/a del sector en el que se desarrolla la propuesta y cuenta con al menos 10 años de experiencia comprobada en cargos de gerencia o similar. • B/. 50,000.00 acompañamiento de un/a investigador/a con grado de doctorado. FECHA Y PLAZOS DE PRESENTACIÓN FECHA DE APERTURA DE LA CONVOCATORIA: 15 DE SEPTIEMBRE DE 2020 PLAZO PARA ENTREGA DE PROPUESTAS:  17 DE NOVIEMBRE DE 2020 (HASTA LAS 3:00 PM, HORA EXACTA)</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+          <t>DIRIGIDA A: Estudiantes de nacionalidad panameña que vayan a ingresar por primera vez a universidades oficiales de la República de Panamá o que se encuentren cursando las carreras de licenciaturas en Ciencias Básicas (Biología, Química, Física o Matemáticas). OBJETIVO: Fortalecer al país en las diversas licenciaturas de las áreas de Ciencias Básicas dictadas en las universidades oficiales de la República de Panamá para el desarrollo de futuros profesionales y dar respuestas a las necesidades prioritarias e inmediatas del país. DURACIÓN: La beca tendrá una duración máxima de hasta cinco (5) años. El tiempo de la beca dependerá del plan de estudios. MONTOS: El financiamiento es de hasta el 100% del costo total de la carrera. La beca incluirá un estipendio de manutención de B/.600.00 mensuales por la duración de la carrera, siempre y cuando se mantenga en el índice mínimo de 1.80 de 3.0. FECHA DE APERTURA DE LA CONVOCATORIA: 8 DE OCTUBRE DE 2020. FECHA DE CIERRE DE LA CONVOCATORIA: 28 DE ENERO DE 2021, HASTA LAS 3:00 P.M. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2020/10/Anuncio-Pregrado-de-Excelencia-Ciencias-Básicas-2020-PDF.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/Declaración-Jurada-Nueva-PDF.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/Reglamento-de-Becas-Nuevo-2017-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/Formulario-de-IFARHU.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2021/03/Anuncio-de-Resultados.pdf</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-proyecto-innovatec-capital-semilla-y-nuevos-emprendimientos-2020-ronda-i/</t>
+          <t>https://www.senacyt.gob.pa/programa-de-becas-de-pregrado-de-excelencia-para-estudios-en-ciencias-basicas-o-matematicas-2020/</t>
         </is>
       </c>
     </row>
@@ -874,18 +886,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA INNOVACIÓN EMPRESARIAL PARA MYPYMES EN TICS EN ALIANZA CON LA EMPRESA TRACTORA 2020-RONDA I</t>
+          <t>CONVOCATORIA DE BECAS DE PREGRADO DE EXCELENCIA 2020</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>OBJETIVO: Fortalecer la competitividad de las empresas de desarrollo de software en Panamá, mediante el fomento de su capacidad de desarrollo de productos informáticos innovadores dirigidos a solventar las necesidades tecnológicas de la Empresa Tractora. Se espera que el producto desarrollado pueda luego ser comercializado a nivel nacional y/o internacionalmente por la Empresa Software. DIRIGIDO A: Empresas inscritas en el Registro Público de Panamá, con característica de MYPYMES, con actividad económica en el Aviso de Operaciones relacionadas con temas de programación de software, ejemplo: Actividades de Edición – Edición de programas informáticos, Actividades de la Tecnología de Información y del servicio informático y/o Actividades del servicio informático e informativo – Otras actividades del servicio de información. DURACIÓN: Los proyectos presentados deberán tener una duración máxima de veinticuatro (24) meses en los cuales deberá considerar la inclusión del desarrollo del software en un máximo de doce (12) meses; y el mantenimiento con soporte técnico al software desarrollado en un tiempo obligatorio de doce (12) meses. MONTOS: Subsidio económico de hasta el 90% del costo total de la propuesta, según las necesidades plenamente justificadas de la misma, hasta la suma máxima de B/. 250,000.00. El 10% restante del costo total de la propuesta debe de ser aportado por la Empresa Tractora, este aporte debe ser detallado en la etapa primera (I) del proyecto y NO se permite que dicho aporte sea considerado en especies. FECHA Y PLAZOS DE PRESENTACIÓN FECHA DE APERTURA DE LA CONVOCATORIA: 15 DE SEPTIEMBRE DE 2020. PLAZO PARA ENTREGA DE PROPUESTAS: 17 DE NOVIEMBRE DE 2020 (HASTA LAS 4:00 PM, HORA EXACTA)</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>DIRIGIDA A: a. Estudiantes panameños que posean título de bachiller o estén cursando el último período académico del último año en un centro de estudios de educación media a nivel nacional, debidamente reconocido por la entidad competente en Panamá. b. Estudiantes panameños que estén cursando su primer año de estudios de pregrado (2020-2021) en las universidades y áreas temáticas indicadas en el presente anuncio, o que cuenten con la aceptación para transferirse a una de estas universidades para continuar sus estudios. DURACIÓN: La beca tendrá una duración máxima de cinco (5) años. El tiempo de la beca dependerá del plan de estudios. En caso de ser seleccionado, deberá iniciar sus estudios una vez se le notifique que ha sido refrendado su contrato por la Contraloría General de la República. En caso de continuación de estudios, los pagos iniciarán al refrendo de su contrato por parte de la Contraloría General de la República. MONTOS: Las becas del Programa podrán tener una asignación anual de hasta Sesenta Mil Balboas con 00/100 (B/. 60,000.00) y la asignación total de la beca no podrá exceder la suma de Doscientos Cincuenta Mil Balboas con 00/100 (B/. 250,000.00). En caso de que el monto total de la carrera supere los B/. 250,000.00 la beca será parcial. La SENACYT establecerá una tabla de asignación de fondos indicando el monto correspondiente al estipendio de manutención según el país, región y universidad donde realicen los estudios. La escala de asignaciones monetarias será publicada en la página web de la SENACYT. La SENACYT podrá otorgar becas parciales en atención a su disponibilidad presupuestaria. FECHA DE APERTURA DE LA CONVOCATORIA: 8 DE OCTUBRE DEL 2020 PLAZO PARA ENTREGA DE DOCUMENTOS: 29 DE ABRIL DE 2021 HASTA LAS 3:00 P.M. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2020/10/AFICHE-Pregrado-de-Excelencia-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/ANUNCIO-DE-CONVOCATORIA-PREGRADO-DE-EXCELENCIA-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/BPGE-2020-Formulario-de-PAZ-Y-SALVO-DE-SENACYT.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/BPGE-2020-Listado-de-documentos-requeridos.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/DECLARACIÓN-JURADA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/TABLA-DE-ASIGNACIONES-MONETARIAS.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/Reglamento-del-Programa-de-Becas-IFARHU-SENACYT.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/BPGE-2020-Pasos-a-Seguir.pdf</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-innovacion-empresarial-para-mypymes-en-tics-en-alianza-con-la-empresa-tractora-2020-ronda-i/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-de-becas-de-pregrado-de-excelencia-2020/</t>
         </is>
       </c>
     </row>
@@ -895,22 +911,18 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Premio Nacional L’Orèal UNESCO “Por las Mujeres en la Ciencia” – 2020</t>
+          <t>CONVOCATORIA PÚBLICA FOMENTO A NUEVOS EMPRENDIMIENTOS EN TECNOLOGÍA: CAPITAL SEMILLA CON ENFOQUE DE IGUALDAD DE GÉNERO 2020 – RONDA I</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>OBJETIVO: Fomentar el desarrollo de las mujeres que han dedicado su trabajo y estudios a la ciencia. Fecha de apertura: 22 de mayo de 2020. Fecha de cierre: 23 de julio de 2020 (1:00 p.m. Hora exacta). Adjudicación del Premio: 2 de septiembre de 2020. Para mayores detalles ver anexo 1, bases y condiciones entre los documentos a descargar.</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2020/05/Anexo-1-Bases-y-Condiciones-Premio-Nacional-LOreal-UNESCO-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/08/Listado-de-los-Miembros-del-Comité-Evaluador.pdf</t>
-        </is>
-      </c>
+          <t>OBJETIVO: Apoyar a nuevos emprendedores/as y microempresas en el desarrollo de proyectos de innovación en tecnología liderados por mujeres o con equipos de proyectos con igual participación de hombres y mujeres, que tengan un potencial de crecimiento a nivel internacional. Al finalizar los proyectos, los nuevos emprendedores/as y microempresas deben contar como mínimo con un prototipo. DIRIGIDO A: Nuevos emprendedores/as: personas naturales, de nacionalidad panameña que estén residiendo en Panamá, mayores de edad. Personas jurídicas constituidas como sociedades anónimas debidamente inscritas en el Registro Público de Panamá, que cumplan con las características de Micro y Pequeña empresa. Ver detalle en Información Adicional en las Bases de la Convocatoria. DURACIÓN: Los proyectos presentados deberán tener una duración máxima de ocho (8) meses en los cuales podrá estar incluido el proceso de incubación, aunque este no es de carácter obligatorio. De ser incluido, el proceso de incubación sería desarrollado simultáneamente con la ejecución del proyecto. Este proceso significa la adquisición de servicios ofrecidos por incubadoras para la validación y desarrollo de proyectos de emprendimientos a través de mentorías, asesoramiento, colaboración, creatividad, enseñanzas de metodologías y herramientas empresariales, elaboración y validación de prototipos. MONTOS: El monto máximo del subsidio económico que otorgará la SENACYT es hasta la suma de B/. 30,000.00. Este monto máximo incluirá el desarrollo del proyecto y podrá incorporar un proceso de incubación, aunque no es obligatorio. En el caso que se incluya el proceso de incubación, no deberá destinarse una suma mayor al diez por ciento (10%) del monto total del proyecto. PLAZOS Y FECHA DE PRESENTACIÓN FECHA DE APERTURA DE LA CONVOCATORIA: 15 DE SEPTIEMBRE DE 2020. PLAZO PARA ENTREGA DE PROPUESTAS: 17 DE NOVIEMBRE DE 2020 (HASTA LAS 3:00 PM, HORA EXACTA)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/premio-nacional-loreal-unesco-por-las-mujeres-en-la-ciencia-2020/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-fomento-a-nuevos-emprendimientos-en-tecnologia-capital-semilla-con-enfoque-de-igualdad-de-genero-2020-ronda-i/</t>
         </is>
       </c>
     </row>
@@ -920,22 +932,18 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PROGRAMA DE JÓVENES CIENTÍFICOS PARA EL AÑO 2021</t>
+          <t>CONVOCATORIA PÚBLICA PROYECTOS DE INNOVACIÓN EMPRESARIAL 2020 – RONDA I</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DIRIGIDA A: Jóvenes estudiantes panameños pertenecientes al sistema educativo nacional que cursarán entre octavo a duodécimo grado en el año 2021 y que deseen realizar investigaciones científicas. OBJETIVO: Fomentar el contacto directo de los adolescentes con la investigación científica, facilitando el desarrollo de habilidades de estudio e investigación y promoviendo vocaciones científicas y tecnológicas, por medio de la asesoría de un Mentor Científico. ÁREAS TEMÁTICAS: Biología Ciencias Ambientales Ciencias de la Computación Ciencias Sociales y del Comportamiento Física y Matemática Ingeniería Química Salud y Medicina MONTO: Se otorgará un subsidio económico de B/. 700.00 para la compra y/o utilización de insumos científicos y otros gastos de operación no disponibles y que sean imprescindibles para alcanzar los objetivos del proyecto de investigación.  Este subsidio será entregado en un solo desembolso, al Adulto Coordinador, que se encuentre designado en el Formulario de Aplicación. FECHA Y PLAZOS DE PRESENTACION FECHA DE APERTURA DE LA CONVOCATORIA:	10 de septiembre de 2020 FECHA DE CIERRE DE LA CONVOCATORIA:	11 de noviembre de 2020 a las 3:00 p.m. HORA EXACTA REGISTRATE EN LA PLATAFORMA (Adjuntar documentos)</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2020/09/afiche.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/09/anuncio-de-la-Convocatoria.docx.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/09/Lista-de-mentores-2021.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/09/Reglamento-de-Jóvenes-Científicos.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/12/1Acta-de-recepcion-de-aplicaciones-2020-21-firmado.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/12/Acta-participantes-recomendados.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2021/03/Resolucion-de-subsidio.pdf</t>
-        </is>
-      </c>
+          <t>OBJETIVO: Fortalecer la competitividad de las empresas en Panamá, mediante el fomento de su capacidad de innovación. Se busca otorgar subsidios económicos para apoyar parcialmente proyectos que promuevan el desarrollo de innovaciones con impactos a nivel de la empresa, en base a la adaptación, integración y validación de tecnologías y componentes existentes, que estén dirigidos a su introducción exitosa en el mercado. DIRIGIDA A: Personas jurídicas panameñas con fines de lucro debidamente inscritas en el Registro Público de Panamá, con un mínimo de veinticuatro meses de operación en el país, a la fecha de apertura de esta convocatoria. En sus propuestas podrán incluir la participación de universidades nacionales o centros de investigación nacionales. CATEGORÍAS DE EVALUACIÓN: • Categoría de Evaluación A: EMPRESAS TIPO A: Personas jurídicas con fines de lucro, debidamente inscritas en Panamá, que generen ingresos brutos o facturación anual hasta la suma de un millón de balboas (B/.1,000,000.00). • Categoría de Evaluación B: EMPRESAS TIPO B: Personas jurídicas con fines de lucro, debidamente inscritas en Panamá, que generen ingresos brutos o facturación anual desde un millón de balboas con 01/100 (B/.1,000,000.01) hasta la suma de treinta millones de balboas (B/.30,000,000.00). • Categoría de Evaluación C: EMPRESAS TIPO C: Personas jurídicas con fines de lucro, debidamente inscritas en Panamá, que generen ingresos brutos o facturación anual desde treinta millones de balboas con 01/100 (B/.30,000,000.01) en adelante. DURACIÓN: Los proyectos adjudicados podrán tener una duración de hasta veinticuatro (24) meses. MONTOS: El monto máximo del subsidio económico que otorgará la SENACYT es hasta la suma de B/. 200,000.00. FECHA Y PLAZOS DE ENTREGA FECHA DE APERTURA DE LA CONVOCATORIA: 15 DE SEPTIEMBRE DE 2020. PLAZO PARA ENTREGA DE PROPUESTAS: 17 DE NOVIEMBRE DE 2020 (HASTA LAS 4:00 PM, HORA EXACTA)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/programa-de-jovenes-cientificos-para-el-ano-2021/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-proyectos-de-innovacion-empresarial-2020-ronda-i/</t>
         </is>
       </c>
     </row>
@@ -945,22 +953,18 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Convocatoria de Respuesta Rápida al COVID-19 en Panamá</t>
+          <t>CONVOCATORIA PÚBLICA PROYECTO INNOVATEC: CAPITAL SEMILLA Y NUEVOS EMPRENDIMIENTOS 2020 – RONDA I</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Esta convocatoria hace un llamado a la comunidad científico-tecnológica, emprendedores e innovadores panameños en todas las áreas del conocimiento y del ecosistema de innovación, que puedan desarrollar iniciativas de I+D+i (Investigación + Desarrollo + Innovación) como medio para atender de una manera rápida y efectiva en el país la emergencia sanitaria y social mundial provocada por la pandemia COVID-19. Estas propuestas pueden desarrollarse con apoyo de redes de colaboración internacional. OBJETIVO: El objetivo de la convocatoria es apoyar iniciativas de I+D+i (Investigación + Desarrollo + Innovación) en métodos de diagnóstico, aislamiento viral, seroprevalencia, trazabilidad (patogenicidad, estudios genéticos, diseminación, clústeres, entre otros), evaluación de vacunas, análisis, desarrollo de pruebas, disponibilidad o accesos a datos, tratamiento, monitoreo de casos y seguimiento al recobro, prevención a futuros brotes, instalaciones o equipos especializados y el desarrollo de innovaciones de base tecnológica como la utilización de inteligencia artificial, desarrollos de software, drones y retos sociales en otros aspectos relevantes a la pandemia COVID-19. MONTO: El financiamiento podrá ser de hasta Doscientos Mil Balboas (B/. 200,000.00) de la totalidad del proyecto, y será de acuerdo con la naturaleza de la organización proponentes y el tipo de proyecto. Los proponentes deberán procurar la pertinencia del presupuesto presentado acorde con las actividades y el tiempo de ejecución del proyecto, los cuales deben ser aprobados por la SENACYT. FECHA DE APERTURA: 20 de marzo de 2020 PLAZO PARA ENTREGA: 27 de marzo de 2020 (1:00 p.m. Hora exacta.) CONSULTAS:  Convocatoria finalizada . covid19@senacyt.gob.pa Teléfono: 517-0014 Para mayores detalles ver anuncio entre los documentos a descargar</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2020/03/2-Anuncio-COVID19-IDi-Resolucion-No.-104.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Reglamento-de-la-Convocatoria-Resolución-104.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/GacetaNo_28985b_20200320.pdf.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/04/Lista-Recepción-de-Propuestas-COVID-19-v0.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/04/SUBSANACION-Lista-Recepción-de-Propuestas-COVID-19.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/04/Lista-Propuestas-Seleccionadas-COVID-19.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/06/Resolución-135-COVID19-180-Dr.-Xavier-Sáez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/06/Resolución-136-COVID19-246-Dr.-Ediner-Fuentes.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/06/Resolución-137-COVID19-045-Dra.-Lilia-Muñoz.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/06/Resolución-138-COVID19-114-Dra.-Sandra-Gomez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/06/Resolución-139-COVID19-041-Dr.-Nicanor-Obaldía.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/06/Resolución-No.-143-COVID19-040-Dra.-Gina-Togna.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/06/Resolucion-No140-COVID19-163-Dr-Humberto-Rodriguez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/06/Resolución-Administrativa-148-subsanando-la-publicación-del-16-de-junio-de-2020-por-ID-COVID19-firmado.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/06/Resolución-Administrativa-149-subsanando-la-publicación-del-16-de-junio-de-2020-por-ID-COVID19-firmado.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/06/Resolución-Administrativa-150-subsanando-la-publicación-del-16-de-junio-de-2020-por-ID-COVID19-firmado.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/06/Resolución-Administrativa-151-subsanando-la-publicación-del-16-de-junio-de-2020-por-ID-COVID19-firmado.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/06/Resolución-Administrativa-152-subsanando-la-publicación-del-16-de-junio-de-2020-por-ID-COVID19-firmado.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/06/Resolución-Administrativa-153-subsanando-la-publicación-del-16-de-junio-de-2020-por-ID-COVID19-firmado.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/07/18.-Resolución-de-Adjudicación-No.-172-COVID19-281-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/08/18.-Resolución-de-Adjudicación-No.-179-COVID19-052.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/09/Resolución-de-Adjudicación-COVID19-131-José-Alfredo-Guerrero.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/09/Resolución-de-Adjudicación-COVID19-031-CEMCIT-A.-Von-Chong.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/09/18.-Resolución-de-Adjudicación-No.-203-COVID19-108.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/OAL-Resolución-de-Adjudicación-COVID19-236-Sherlie-Portugal-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/18.-Resolución-de-Adjudicación-No.-222-COVID19-233.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/18.-Resolucion-de-Adjudicacion-No.-239-COVID19-058.pdf</t>
-        </is>
-      </c>
+          <t>OBJETIVO: Fomentar la innovación, apoyando proyectos de estudiantes universitarios, personas naturales mayores de edad de nacionalidad panameña y micro y pequeñas empresas, para generar capacidades, impulsar la economía del conocimiento y fortalecer el ecosistema de emprendimiento e innovación en Panamá. Con esta Convocatoria se busca desarrollar la innovación social, empresarial y gubernamental. DIRIGIDO A: Personas naturales, mayores de edad, de nacionalidad panameña, que estén cursando estudios en universidades en la República de Panamá mínimo el tercer año de carrera. Personas naturales, mayores de edad, de nacionalidad panameña y residentes en la República de Panamá. Personas jurídicas constituidas como sociedades anónimas debidamente inscritas en el Registro Público de Panamá y que cumplan con las características de Micro y Pequeñas empresas. (Ver detalle en las Bases de la Convocatoria). CATEGORÍA DE EVALUACIÓN SEPARADAS: • Categoría de Evaluación A:  Capital Semilla: Personas naturales, mayores de edad, de nacionalidad panameña y que estén cursando estudios en universidades en la República de Panamá. Deben estar cursando mínimo el tercer año de la carrera. Es obligatorio estar acompañados por un/a mentor/a con perfil académico con grado de licenciatura o maestría, o un investigador/a con grado de doctorado o un empresario/a del sector en el que se desarrolla la propuesta y con al menos 10 años de experiencia comprobada en cargos de gerencia. • Categoría de Evaluación B:  Nuevos Emprendimientos: Personas naturales, mayores de edad, de nacionalidad panameña y residentes en la República de Panamá o Personas jurídicas constituidas como sociedades anónimas debidamente inscritas en el Registro Público de Panamá y que cumplan con las características de Micro y Pequeñas empresas. Deben contar con un prototipo validado, innovador, funcional y con un mercado meta definido. Es obligatorio que los proponentes sean acompañados por un/a mentor/a, igual que la categoría A. DURACIÓN: Los proyectos adjudicados podrán tener una duración de: • Categoría de Evaluación A:  Capital Semilla: hasta nueve (9) meses • Categoría de Evaluación B:  Nuevos Emprendimientos: hasta nueve (9) meses MONTOS: El monto máximo del subsidio económico que otorgará la SENACYT dependerá del tipo de acompañamiento con el que cuenten los equipos de proyecto, el cual es de carácter obligatorio. El subsidio es hasta del 100% del costo total de la propuesta. Categoría de Evaluación A: Capital Semilla: • B/. 30,000.00 acompañamiento de un/a profesor/a universitario/a con estudios de licenciatura o maestría. • B/. 35,000.00 acompañamiento de un/a empresario/a del sector en el que se desarrolla la propuesta y cuenta con al menos 10 años de experiencia comprobada en cargos de gerencia o similar. • B/. 40,000.00 acompañamiento de un/a investigador/a con grado de doctorado. Categoría de Evaluación B: Nuevos Emprendimientos: • B/. 40,000.00 acompañamiento de un/a profesor/a universitario/a con estudios de licenciatura o maestría. • B/. 45,000.00 acompañamiento de un/a empresario/a del sector en el que se desarrolla la propuesta y cuenta con al menos 10 años de experiencia comprobada en cargos de gerencia o similar. • B/. 50,000.00 acompañamiento de un/a investigador/a con grado de doctorado. FECHA Y PLAZOS DE PRESENTACIÓN FECHA DE APERTURA DE LA CONVOCATORIA: 15 DE SEPTIEMBRE DE 2020 PLAZO PARA ENTREGA DE PROPUESTAS:  17 DE NOVIEMBRE DE 2020 (HASTA LAS 3:00 PM, HORA EXACTA)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-de-respuesta-rapida-al-covid-19-en-panama/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-proyecto-innovatec-capital-semilla-y-nuevos-emprendimientos-2020-ronda-i/</t>
         </is>
       </c>
     </row>
@@ -970,22 +974,18 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA DE CONCURSO NACIONAL “PREMIO INSPIRA” 2020</t>
+          <t>CONVOCATORIA PÚBLICA INNOVACIÓN EMPRESARIAL PARA MYPYMES EN TICS EN ALIANZA CON LA EMPRESA TRACTORA 2020-RONDA I</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DIRIGIDA A: Maestros de grado o de laboratorio de educación primaria y profesores de ciencias naturales, biología, química o física de todas las regiones escolares, en servicio activo de las escuelas oficiales del Ministerio de Educación, tanto de la sección de Básica General Primaria y Premedia como de la sección de Media Académica y Profesional y Técnica. OBJETIVO: Identificar y reconocer a los docentes destacados activos en aulas de escuelas oficiales del sistema educativo nacional, quienes, a través del uso de herramientas y estrategias innovadoras e inspiradoras en las clases de ciencias, permiten el desarrollo de habilidades en los estudiantes y promueven sus talentos, transformando sus vidas. PREMIOS PARA EL GANADOR POR CATEGORÍA:  • Visita a los Museos del Instituto Smithsonian en la ciudad de Washington, Estados Unidos. • Medalla de reconocimiento • Tres mil Balboas (B/. 3,000.00) en insumos para el aula de ciencias y/o tecnología, para el Centro Educativo del cual proviene el docente ganador (a) FECHA DE APERTURA DE LA CONVOCATORIA: 10 de marzo de 2020 FECHA DE CIERRE DE LA CONVOCATORIA: CONVOCATORIA SUSPENDIDA HASTA NUEVO AVISO. Para mayores detalles ver anuncio entre los documentos a descargar. CONSULTAS:   premioinspira@senacyt.gob.pa o al 517-0149 o al 517-0186</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2020/02/2-ANUNCIO-DE-CONVOCATORIA-PREMIO-INSPIRA-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/3-BASES-DEL-CONCURSO-NAC-PREMIO-INSPIRA-2020-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/5-FORMULARIO-DE-INSCRIPCIÓN-PREMIO-INSPIRA-2020-.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/4-LISTA-de-Cotejo-PREMIO-INSPIRA-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/1-Gaceta_Reglamento-PREMIO-INSPIRA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/6-FORMATO-DE-PAZ-Y-SALVO-SENACYT-1.pdf</t>
-        </is>
-      </c>
+          <t>OBJETIVO: Fortalecer la competitividad de las empresas de desarrollo de software en Panamá, mediante el fomento de su capacidad de desarrollo de productos informáticos innovadores dirigidos a solventar las necesidades tecnológicas de la Empresa Tractora. Se espera que el producto desarrollado pueda luego ser comercializado a nivel nacional y/o internacionalmente por la Empresa Software. DIRIGIDO A: Empresas inscritas en el Registro Público de Panamá, con característica de MYPYMES, con actividad económica en el Aviso de Operaciones relacionadas con temas de programación de software, ejemplo: Actividades de Edición – Edición de programas informáticos, Actividades de la Tecnología de Información y del servicio informático y/o Actividades del servicio informático e informativo – Otras actividades del servicio de información. DURACIÓN: Los proyectos presentados deberán tener una duración máxima de veinticuatro (24) meses en los cuales deberá considerar la inclusión del desarrollo del software en un máximo de doce (12) meses; y el mantenimiento con soporte técnico al software desarrollado en un tiempo obligatorio de doce (12) meses. MONTOS: Subsidio económico de hasta el 90% del costo total de la propuesta, según las necesidades plenamente justificadas de la misma, hasta la suma máxima de B/. 250,000.00. El 10% restante del costo total de la propuesta debe de ser aportado por la Empresa Tractora, este aporte debe ser detallado en la etapa primera (I) del proyecto y NO se permite que dicho aporte sea considerado en especies. FECHA Y PLAZOS DE PRESENTACIÓN FECHA DE APERTURA DE LA CONVOCATORIA: 15 DE SEPTIEMBRE DE 2020. PLAZO PARA ENTREGA DE PROPUESTAS: 17 DE NOVIEMBRE DE 2020 (HASTA LAS 4:00 PM, HORA EXACTA)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-concurso-nacional-premio-inspira-2020/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-innovacion-empresarial-para-mypymes-en-tics-en-alianza-con-la-empresa-tractora-2020-ronda-i/</t>
         </is>
       </c>
     </row>
@@ -995,22 +995,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA PARA EL FOMENTO A LA INNOVACIÓN EDUCATIVA RONDA II</t>
+          <t>Premio Nacional L’Orèal UNESCO “Por las Mujeres en la Ciencia” – 2020</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>OBJETIVO: Generar innovaciones para la educación formal y no formal del país, que propicien una mejora en la formación y actitud hacia las ciencias, y estén acordes con las políticas educativas nacionales. DIRIGIDO A: Personas naturales panameñas o extranjeras residentes en Panamá, Personas Jurídicas panameñas inscritas en el Registro Público de Panamá con o sin fines de lucro, Instituciones Públicas, Patronatos creados por Ley, Organizaciones no gubernamentales, Fundaciones de interés privado, con o sin fines de lucro, Asociaciones de interés público. Podrán participar de CATEGORÍA DE EVALUACIÓN SEPARADAS: -Categoría de Evaluación A: Propuestas de Proyectos educativos innovadores en Ciencias, Investigación Educativa, Evaluación Educativa, Educación Ambiental, Educación inclusiva y/o Tecnología en las áreas temáticas definidas. – Categoría de Evaluación B: Propuestas de Talleres Científicos, Tecnológicos y/o en Educación Inclusiva innovadores en las áreas temáticas definidas. DURACIÓN: • Categoría de Evaluación A: 24 Meses • Categoría de Evaluación B: 12 Meses MONTOS: • Categoría de Evaluación A: 30000 Balboas • Categoría de Evaluación B: 15000 Balboas FECHA Y PLAZOS DE PRESENTACIÓN FECHA DE APERTURA DE LA CONVOCATORIA: 10 DE MARZO DE 2020 PLAZO PARA ENTREGA DE PROPUESTAS: CONVOCATORIA SUSPENDIDA HASTA NUEVO AVISO.</t>
+          <t>OBJETIVO: Fomentar el desarrollo de las mujeres que han dedicado su trabajo y estudios a la ciencia. Fecha de apertura: 22 de mayo de 2020. Fecha de cierre: 23 de julio de 2020 (1:00 p.m. Hora exacta). Adjudicación del Premio: 2 de septiembre de 2020. Para mayores detalles ver anexo 1, bases y condiciones entre los documentos a descargar.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Bases_Convocatoria-Educativa-2020-RII.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Modelo-del-Contrato-por-Mérito.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/manual-para-aplicar-en-CENIT.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/PENCYT-2019-2024-GacetaNo_28936b_202001081-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Reglamento-de-Contratación-por-Mérito.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2020/05/Anexo-1-Bases-y-Condiciones-Premio-Nacional-LOreal-UNESCO-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/08/Listado-de-los-Miembros-del-Comité-Evaluador.pdf</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-fomento-a-la-innovacion-educativa-ronda-ii/</t>
+          <t>https://www.senacyt.gob.pa/premio-nacional-loreal-unesco-por-las-mujeres-en-la-ciencia-2020/</t>
         </is>
       </c>
     </row>
@@ -1020,22 +1020,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PARA LAS UNIVERSIDADES ACREDITADAS EN LA REPÚBLICA DE PANAMÁ PARA PRESENTACIÓN DE PROPUESTAS DE MAESTRÍA ACADÉMICA CONSOLIDADAS O ACREDITADAS 2020</t>
+          <t>PROGRAMA DE JÓVENES CIENTÍFICOS PARA EL AÑO 2021</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DIRIGIDA A: Universidades debidamente acreditadas por CONEAUPA en la República de Panamá con programas de maestrías académicas consolidadas o acreditadas presenciales de tiempo completo. OBJETIVO: Fortalecer la capacidad nacional de investigación, fomentar la generación de conocimiento y estimular su proyección hacia la sociedad por medio de la formación de los recursos humanos necesarios para el desarrollo de la ciencia, la tecnología y la innovación, con la ejecución de programas de postgrado a tiempo completo, cuyos beneficiarios se dediquen a tiempo completo y de manera exclusiva a culminar sus estudios. DURACIÓN: Todos los programas académicos deberán desarrollarse en un período de 24 meses. Sin embargo, los Convenios de Colaboración Educativa que se suscriban para amparar su ejecución tendrán una duración de hasta 36 meses contados a partir del refrendo por parte de la Contraloría General de la República. FECHA DE APERTURA DE LA CONVOCATORIA: JUEVES 6 DE FEBRERO DE 2020. PLAZO PARA ENTREGA DE PROPUESTAS: 20 de Agosto de 2020 hasta las 3:00 pm CONSULTAS: mcn1@senacyt.gob.pa o al teléfono: 517-0014 ext. 1122</t>
+          <t>DIRIGIDA A: Jóvenes estudiantes panameños pertenecientes al sistema educativo nacional que cursarán entre octavo a duodécimo grado en el año 2021 y que deseen realizar investigaciones científicas. OBJETIVO: Fomentar el contacto directo de los adolescentes con la investigación científica, facilitando el desarrollo de habilidades de estudio e investigación y promoviendo vocaciones científicas y tecnológicas, por medio de la asesoría de un Mentor Científico. ÁREAS TEMÁTICAS: Biología Ciencias Ambientales Ciencias de la Computación Ciencias Sociales y del Comportamiento Física y Matemática Ingeniería Química Salud y Medicina MONTO: Se otorgará un subsidio económico de B/. 700.00 para la compra y/o utilización de insumos científicos y otros gastos de operación no disponibles y que sean imprescindibles para alcanzar los objetivos del proyecto de investigación.  Este subsidio será entregado en un solo desembolso, al Adulto Coordinador, que se encuentre designado en el Formulario de Aplicación. FECHA Y PLAZOS DE PRESENTACION FECHA DE APERTURA DE LA CONVOCATORIA:	10 de septiembre de 2020 FECHA DE CIERRE DE LA CONVOCATORIA:	11 de noviembre de 2020 a las 3:00 p.m. HORA EXACTA REGISTRATE EN LA PLATAFORMA (Adjuntar documentos)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2020/02/Formato-de-evaluador-de-propuesta-Maest.-Cons.-y-Acred.-2020-PDF.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/Lista-de-Requisitos-Univ.-Oficiales-y-Privadas-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/Lista-de-Requisitos-Univ.-Oficiales-y-Privadas-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/Resol.-de-JD-No.-03-del-26-de-dic-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/Resolución-Administrativa-No.-188-del-5-de-septiembre-de-2011-REGLAMENTO-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Resolución-de-extensión-Convocatorias-Para-Presentación-de-Propuestas-de-Maestría-Académicas-Consolidadas-o-Acreditadas-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/07/Resolución-de-Adminsitrativa-No.-170-del-1ero-de-Julio-de-2020-Extensión-de-Convocatoria.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/09/Acta-de-Recepción-de-Propuesta.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/12/Resultados-de-la-Convocatoria-Publica-Maestrias-consolidadas-2020.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2020/09/afiche.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/09/anuncio-de-la-Convocatoria.docx.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/09/Lista-de-mentores-2021.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/09/Reglamento-de-Jóvenes-Científicos.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/12/1Acta-de-recepcion-de-aplicaciones-2020-21-firmado.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/12/Acta-participantes-recomendados.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2021/03/Resolucion-de-subsidio.pdf</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-para-las-universidades-acreditadas-en-la-republica-de-panama-para-presentacion-de-propuestas-de-maestria-academica-consolidadas-o-acreditadas-2020/</t>
+          <t>https://www.senacyt.gob.pa/programa-de-jovenes-cientificos-para-el-ano-2021/</t>
         </is>
       </c>
     </row>
@@ -1045,10 +1045,110 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>Convocatoria de Respuesta Rápida al COVID-19 en Panamá</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>DIRIGIDO A: Esta convocatoria hace un llamado a la comunidad científico-tecnológica, emprendedores e innovadores panameños en todas las áreas del conocimiento y del ecosistema de innovación, que puedan desarrollar iniciativas de I+D+i (Investigación + Desarrollo + Innovación) como medio para atender de una manera rápida y efectiva en el país la emergencia sanitaria y social mundial provocada por la pandemia COVID-19. Estas propuestas pueden desarrollarse con apoyo de redes de colaboración internacional. OBJETIVO: El objetivo de la convocatoria es apoyar iniciativas de I+D+i (Investigación + Desarrollo + Innovación) en métodos de diagnóstico, aislamiento viral, seroprevalencia, trazabilidad (patogenicidad, estudios genéticos, diseminación, clústeres, entre otros), evaluación de vacunas, análisis, desarrollo de pruebas, disponibilidad o accesos a datos, tratamiento, monitoreo de casos y seguimiento al recobro, prevención a futuros brotes, instalaciones o equipos especializados y el desarrollo de innovaciones de base tecnológica como la utilización de inteligencia artificial, desarrollos de software, drones y retos sociales en otros aspectos relevantes a la pandemia COVID-19. MONTO: El financiamiento podrá ser de hasta Doscientos Mil Balboas (B/. 200,000.00) de la totalidad del proyecto, y será de acuerdo con la naturaleza de la organización proponentes y el tipo de proyecto. Los proponentes deberán procurar la pertinencia del presupuesto presentado acorde con las actividades y el tiempo de ejecución del proyecto, los cuales deben ser aprobados por la SENACYT. FECHA DE APERTURA: 20 de marzo de 2020 PLAZO PARA ENTREGA: 27 de marzo de 2020 (1:00 p.m. Hora exacta.) CONSULTAS:  Convocatoria finalizada . covid19@senacyt.gob.pa Teléfono: 517-0014 Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2020/03/2-Anuncio-COVID19-IDi-Resolucion-No.-104.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Reglamento-de-la-Convocatoria-Resolución-104.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/GacetaNo_28985b_20200320.pdf.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/04/Lista-Recepción-de-Propuestas-COVID-19-v0.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/04/SUBSANACION-Lista-Recepción-de-Propuestas-COVID-19.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/04/Lista-Propuestas-Seleccionadas-COVID-19.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/06/Resolución-135-COVID19-180-Dr.-Xavier-Sáez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/06/Resolución-136-COVID19-246-Dr.-Ediner-Fuentes.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/06/Resolución-137-COVID19-045-Dra.-Lilia-Muñoz.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/06/Resolución-138-COVID19-114-Dra.-Sandra-Gomez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/06/Resolución-139-COVID19-041-Dr.-Nicanor-Obaldía.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/06/Resolución-No.-143-COVID19-040-Dra.-Gina-Togna.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/06/Resolucion-No140-COVID19-163-Dr-Humberto-Rodriguez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/06/Resolución-Administrativa-148-subsanando-la-publicación-del-16-de-junio-de-2020-por-ID-COVID19-firmado.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/06/Resolución-Administrativa-149-subsanando-la-publicación-del-16-de-junio-de-2020-por-ID-COVID19-firmado.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/06/Resolución-Administrativa-150-subsanando-la-publicación-del-16-de-junio-de-2020-por-ID-COVID19-firmado.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/06/Resolución-Administrativa-151-subsanando-la-publicación-del-16-de-junio-de-2020-por-ID-COVID19-firmado.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/06/Resolución-Administrativa-152-subsanando-la-publicación-del-16-de-junio-de-2020-por-ID-COVID19-firmado.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/06/Resolución-Administrativa-153-subsanando-la-publicación-del-16-de-junio-de-2020-por-ID-COVID19-firmado.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/07/18.-Resolución-de-Adjudicación-No.-172-COVID19-281-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/08/18.-Resolución-de-Adjudicación-No.-179-COVID19-052.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/09/Resolución-de-Adjudicación-COVID19-131-José-Alfredo-Guerrero.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/09/Resolución-de-Adjudicación-COVID19-031-CEMCIT-A.-Von-Chong.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/09/18.-Resolución-de-Adjudicación-No.-203-COVID19-108.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/OAL-Resolución-de-Adjudicación-COVID19-236-Sherlie-Portugal-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/18.-Resolución-de-Adjudicación-No.-222-COVID19-233.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/18.-Resolucion-de-Adjudicacion-No.-239-COVID19-058.pdf</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/convocatoria-de-respuesta-rapida-al-covid-19-en-panama/</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CONVOCATORIA PÚBLICA DE CONCURSO NACIONAL “PREMIO INSPIRA” 2020</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>DIRIGIDA A: Maestros de grado o de laboratorio de educación primaria y profesores de ciencias naturales, biología, química o física de todas las regiones escolares, en servicio activo de las escuelas oficiales del Ministerio de Educación, tanto de la sección de Básica General Primaria y Premedia como de la sección de Media Académica y Profesional y Técnica. OBJETIVO: Identificar y reconocer a los docentes destacados activos en aulas de escuelas oficiales del sistema educativo nacional, quienes, a través del uso de herramientas y estrategias innovadoras e inspiradoras en las clases de ciencias, permiten el desarrollo de habilidades en los estudiantes y promueven sus talentos, transformando sus vidas. PREMIOS PARA EL GANADOR POR CATEGORÍA:  • Visita a los Museos del Instituto Smithsonian en la ciudad de Washington, Estados Unidos. • Medalla de reconocimiento • Tres mil Balboas (B/. 3,000.00) en insumos para el aula de ciencias y/o tecnología, para el Centro Educativo del cual proviene el docente ganador (a) FECHA DE APERTURA DE LA CONVOCATORIA: 10 de marzo de 2020 FECHA DE CIERRE DE LA CONVOCATORIA: CONVOCATORIA SUSPENDIDA HASTA NUEVO AVISO. Para mayores detalles ver anuncio entre los documentos a descargar. CONSULTAS:   premioinspira@senacyt.gob.pa o al 517-0149 o al 517-0186</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2020/02/2-ANUNCIO-DE-CONVOCATORIA-PREMIO-INSPIRA-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/3-BASES-DEL-CONCURSO-NAC-PREMIO-INSPIRA-2020-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/5-FORMULARIO-DE-INSCRIPCIÓN-PREMIO-INSPIRA-2020-.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/4-LISTA-de-Cotejo-PREMIO-INSPIRA-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/1-Gaceta_Reglamento-PREMIO-INSPIRA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/6-FORMATO-DE-PAZ-Y-SALVO-SENACYT-1.pdf</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-concurso-nacional-premio-inspira-2020/</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CONVOCATORIA PÚBLICA PARA EL FOMENTO A LA INNOVACIÓN EDUCATIVA RONDA II</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>OBJETIVO: Generar innovaciones para la educación formal y no formal del país, que propicien una mejora en la formación y actitud hacia las ciencias, y estén acordes con las políticas educativas nacionales. DIRIGIDO A: Personas naturales panameñas o extranjeras residentes en Panamá, Personas Jurídicas panameñas inscritas en el Registro Público de Panamá con o sin fines de lucro, Instituciones Públicas, Patronatos creados por Ley, Organizaciones no gubernamentales, Fundaciones de interés privado, con o sin fines de lucro, Asociaciones de interés público. Podrán participar de CATEGORÍA DE EVALUACIÓN SEPARADAS: -Categoría de Evaluación A: Propuestas de Proyectos educativos innovadores en Ciencias, Investigación Educativa, Evaluación Educativa, Educación Ambiental, Educación inclusiva y/o Tecnología en las áreas temáticas definidas. – Categoría de Evaluación B: Propuestas de Talleres Científicos, Tecnológicos y/o en Educación Inclusiva innovadores en las áreas temáticas definidas. DURACIÓN: • Categoría de Evaluación A: 24 Meses • Categoría de Evaluación B: 12 Meses MONTOS: • Categoría de Evaluación A: 30000 Balboas • Categoría de Evaluación B: 15000 Balboas FECHA Y PLAZOS DE PRESENTACIÓN FECHA DE APERTURA DE LA CONVOCATORIA: 10 DE MARZO DE 2020 PLAZO PARA ENTREGA DE PROPUESTAS: CONVOCATORIA SUSPENDIDA HASTA NUEVO AVISO.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Bases_Convocatoria-Educativa-2020-RII.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Modelo-del-Contrato-por-Mérito.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/manual-para-aplicar-en-CENIT.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/PENCYT-2019-2024-GacetaNo_28936b_202001081-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Reglamento-de-Contratación-por-Mérito.pdf</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-fomento-a-la-innovacion-educativa-ronda-ii/</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CONVOCATORIA PARA LAS UNIVERSIDADES ACREDITADAS EN LA REPÚBLICA DE PANAMÁ PARA PRESENTACIÓN DE PROPUESTAS DE MAESTRÍA ACADÉMICA CONSOLIDADAS O ACREDITADAS 2020</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>DIRIGIDA A: Universidades debidamente acreditadas por CONEAUPA en la República de Panamá con programas de maestrías académicas consolidadas o acreditadas presenciales de tiempo completo. OBJETIVO: Fortalecer la capacidad nacional de investigación, fomentar la generación de conocimiento y estimular su proyección hacia la sociedad por medio de la formación de los recursos humanos necesarios para el desarrollo de la ciencia, la tecnología y la innovación, con la ejecución de programas de postgrado a tiempo completo, cuyos beneficiarios se dediquen a tiempo completo y de manera exclusiva a culminar sus estudios. DURACIÓN: Todos los programas académicos deberán desarrollarse en un período de 24 meses. Sin embargo, los Convenios de Colaboración Educativa que se suscriban para amparar su ejecución tendrán una duración de hasta 36 meses contados a partir del refrendo por parte de la Contraloría General de la República. FECHA DE APERTURA DE LA CONVOCATORIA: JUEVES 6 DE FEBRERO DE 2020. PLAZO PARA ENTREGA DE PROPUESTAS: 20 de Agosto de 2020 hasta las 3:00 pm CONSULTAS: mcn1@senacyt.gob.pa o al teléfono: 517-0014 ext. 1122</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2020/02/Formato-de-evaluador-de-propuesta-Maest.-Cons.-y-Acred.-2020-PDF.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/Lista-de-Requisitos-Univ.-Oficiales-y-Privadas-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/Lista-de-Requisitos-Univ.-Oficiales-y-Privadas-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/Resol.-de-JD-No.-03-del-26-de-dic-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/Resolución-Administrativa-No.-188-del-5-de-septiembre-de-2011-REGLAMENTO-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Resolución-de-extensión-Convocatorias-Para-Presentación-de-Propuestas-de-Maestría-Académicas-Consolidadas-o-Acreditadas-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/07/Resolución-de-Adminsitrativa-No.-170-del-1ero-de-Julio-de-2020-Extensión-de-Convocatoria.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/09/Acta-de-Recepción-de-Propuesta.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/12/Resultados-de-la-Convocatoria-Publica-Maestrias-consolidadas-2020.pdf</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/convocatoria-para-las-universidades-acreditadas-en-la-republica-de-panama-para-presentacion-de-propuestas-de-maestria-academica-consolidadas-o-acreditadas-2020/</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>CONVOCATORIA PÚBLICA PROGRAMA DE FORTALECIMIENTO A LOS POSTGRADOS NACIONALES  PARA PRESENTACIÓN DE PROPUESTAS DE PROGRAMAS DE MAESTRÍAS ACADÉMICAS NUEVAS 2020</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>DIRIGIDA A: Universidades debidamente acreditadas por CONEAUPA en la República de Panamá con programas de maestrías académicas nuevas presenciales de tiempo completo. OBJETIVO: Fortalecer la capacidad nacional de investigación, fomentar la generación de conocimiento y estimular su proyección hacia la sociedad por medio del fortalecimiento de las capacidades de las universidades para el desarrollo de la ciencia, la tecnología y la innovación, con la ejecución de programas de postgrado a tiempo completo, cuyos beneficiarios se dediquen a tiempo completo y de manera exclusiva a culminar sus estudios. ÁREAS TEMÁTICAS*: A.           Ciencias
 agrícolas B.            Ciencias
@@ -1066,283 +1166,283 @@
 generación de conocimiento enfocado en la resolución de problemas actuales. CONSULTAS: mcn@senacyt.gob.pa o al teléfono: 517-0014 ext. 1244</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/wp-content/uploads/2020/02/FORMULARIO-EVALUADOR-Propuestas-Nuevas-Maestrías-2020-PDF.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/Lista-de-Requisitos-UP-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/Lista-de-Requisitos-UO-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/Resol.-de-JD.-No.-04-del-26-de-Dic-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/Resolución-Administrativa-No.-188-del-5-de-septiembre-de-2011-REGLAMENTO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Resolución-de-Extensión-Nuevas-Maestrías-Fortalecimiento-Firma525.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/07/2020-07-10-Resolución-Administración-175-Maestrias-Academicas-Nuevas-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/09/ACTA-DE-RECEPCIÓN-DE-PROPUESTAS-2020-MAEST.-NUEVAS-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/12/Hoja-aclaratoria-para-codigo-de-propuesta-de-Categoria-B-.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/12/Resultados-de-la-Convocatoria-Publica-Maestrias-nuevas-20201.pdf</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/convocatoria-publica-programa-de-fortalecimiento-a-los-postgrados-nacionales-para-presentacion-de-propuestas-de-programas-de-maestrias-academicas-nuevas-2020/</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>CONVOCATORIA PÚBLICA CONTINUA PARA APOYO A ACTIVIDADES DE CTI</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>OBJETIVO: Cofinanciamiento para actividades como congresos, jornadas, seminarios, simposios, foros o talleres en Panamá, que fortalezcan el ambiente de Ciencia, Tecnología e Innovación, para incentivar el interés por estas áreas de conocimiento.  DIRIGIDO A: Personas jurídicas con o sin fines de lucro debidamente inscrita en el Registro Público de Panamá o personas naturales de nacionalidad panameña, residentes en el país dedicadas a realizar actividades que fortalezcan el Sistema de Ciencia, Tecnología e Innovación. Las personas naturales deben estar afiliadas a entidades públicas o privadas, universidades organizaciones no gubernamentales, asociaciones de interés público o centros de investigación.  DURACIÓN: Para la Categoría de Evaluación A, B y C, la duración máxima de la propuesta es de hasta nueve (9) meses calendario.  MONTOS: Categoría de Evaluación A: hasta B/. 10,000.00. Categoría de Evaluación B: hasta B/. 20,000.00. Categoría de Evaluación C: hasta B/. 50,000.00. FECHA DE APERTURA DE LA CONVOCATORIA: 31 DE ENERO DE 2020 PLAZO PARA ENTREGA DE PROPUESTAS: CANCELADO.</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Anuncio_Convocatoria-ACT-Ronda-I.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Anuncio_Convocatoria-ACT-RONDA-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Anuncio_Convocatoria-ACT-Ronda-III.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Anuncio_Convocatoria-ACT-Ronda-IV.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Anuncio_Convocatoria-RONDA-V.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Bases_Convocatoria-ACT-I.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Bases_Convocatoria-ACT-II.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Bases_Convocatoria-ACT-III.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Bases_Convocatoria-ACT-IV.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Bases_Convocatoria-RONDA-V.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/8-MODELO-CONTRATO-POR-MERITO-REVISADO-JULIO-2018-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/9-REGLAMENTO-DE-CONTRATACIÓN-POR-MÉRITO-DE-SENACYT-RESOLUCIÓN-NO.-191-DE-2017-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/OAL-ACTI-Resolución-de-cancelación-pdf-Firmado.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/06/Resolución-de-Cancelación-de-la-Convocatoria-Pública-Continua-para-Apoyar-a-Actividades-de-CTI.pdf</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/convocatoria-publica-continua-para-apoyo-a-actividades-de-cti/</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>MAESTRÍA EN ÁREAS ESPECÍFICAS DEL CONOCIMIENTO – CANADÁ 2020</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>DIRIGIDA A: Panameños con grado de licenciatura o equivalente interesados en adquirir especialidades en grado de maestría en Canadá, en las áreas establecidas en la Convocatoria. OBJETIVO: Este programa tiene como objetivo mejorar la calidad de la gestión   del Sistema Nacional de Ciencia y Tecnología, mediante la formación   profesional en áreas de ciencia, tecnología y en investigación en otras áreas   del conocimiento de interés para el país. CONSULTAS PARA BECAS
 SENACYT: mcaldo@senacyt.gob.pa o al 517-0014,
 ext. 1154 o 517-0154.</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/wp-content/uploads/2020/01/ANUNCIO-MAESTRÍA-CALDO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Pasos-a-seguir-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/declaracion-Jurada-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Reglamento-de-Becas-Nuevo-2017-3.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Convenio.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/LISTADO-DE-PROGRAMAS-DE-MAESTRÍA-CANADÁ-CALDO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Resolución-de-Extensión-Maestría-Canadá.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/07/Resolución-de-Extensión-Maestría-Canadá.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/Anuncio-de-resultados-Maestria-CALDO.pdf</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/maestria-en-areas-especificas-del-conocimiento-canada-2020/</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>DOCTORADO EN ÁREAS ESPECÍFICAS DEL CONOCIMIENTO – CANADÁ 2020</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>DIRIGIDA A: Panameños con grado de maestría interesados en adquirir especialidades en grado de doctorado en Canadá, en las áreas establecidas en la Convocatoria. OBJETIVO: Este programa tiene como objetivo mejorar la calidad de la gestión del Sistema Nacional de Ciencia y Tecnología, mediante la formación profesional en áreas de ciencia, tecnología y en investigación en otras áreas del conocimiento de interés para el país. *Cada aspirante debe incluir tres sugerencias de universidades de la lista que ofrezcan doctorado en el área escogida. SENACYT se reserva la facultad de recomendar la universidad de acuerdo con otras opciones que considere. PLAZO PARA ENTREGA DE DOCUMENTOS: 25 DE AGOSTO DE 2020 A LAS 3:00 P.M. CONSULTAS PARA BECAS SENACYT: docaldo@senacyt.gob.pa o al 517-0014, ext. 1154 o 517-0154.</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/wp-content/uploads/2020/01/ANUNCIO-DOCTORADO-CALDO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Pasos-a-seguir.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/declaracion-Jurada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Reglamento-de-Becas-Nuevo-2017-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Convenio.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Carreras-para-estudios-de-Doctorado.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Resolución-de-Extención-Doctorado-Canadá.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/07/Resolución-de-Extensión-Doctorado-Canadá.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/Anuncio-de-resultados-Doctorado-CALDO.pdf</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/doctorado-en-areas-especificas-del-conocimiento-canada-2020/</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>CONVOCATORIA PÚBLICA DE GENERACIÓN DE CAPACIDADES CIENTÍFICAS Y TECNOLÓGICAS 2020 RONDA I</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>OBJETIVO: Proporcionar financiamiento o co-financiamiento a actividades que fortalezcan el ambiente de ciencia y tecnología con el fin de incentivar el interés por estas áreas del conocimiento. DIRIGIDO A: Personas jurídicas con o sin fines de lucro debidamente inscritas en el Registro Público de Panamá o personas naturales de nacionalidad panameña, residentes en el país, dedicadas a realizar actividades que fortalezcan el Sistema de Ciencia, Tecnología e Innovación. Personas naturales pueden participar individualmente o afiliadas a entidades públicas o privadas, universidades, organizaciones no gubernamentales, asociaciones de interés público o centros de investigación en la República de Panamá. ÁREAS TEMÁTICAS -Lógica    -Matemáticas    -Astronomía y Astrofísica    -Física    -Química    -Ciencias de la Vida    -Ciencias de la Tierra y del Espacio -Ciencias Agrarias -Ciencias Médicas -Ciencias Tecnológicas -Antropología -Demografía – Geografía    -Historia    -Pedagogía    -Psicología    -Sociología    -Ética    -Arquitectura DURACIÓN: Para la Categoría de Evaluación A, B y C, la duración máxima de la propuesta es de hasta doce (12) meses. Para la Categoría A el tiempo máximo efectivo de la estadía del o los expertos científicos o tecnológicos debe ser de hasta tres (3) meses. Para la Categoría C el tiempo máximo pasantía en el extranjero será de hasta tres (3) meses. NOTA: Se requiere que las actividades a desarrollar indicadas en el cronograma se inicien aproximadamente seis (6) meses después de la fecha de cierre de la convocatoria. MONTOS: Categoría de Evaluación A: hasta B/. 10,000.00. Categoría de Evaluación B: hasta B/. 15,000.00. Categoría de Evaluación C: hasta B/. 12,000.00. FECHA DE APERTURA DE LA CONVOCATORIA: 31 DE ENERO DE 2020 PLAZO PARA ENTREGA DE PROPUESTAS: 21 DE ABRIL DE 2020 (HASTA LAS 3:00 PM, HORA EXACTA)  Para mayores detalles ver anuncio entre los documentos a descargar . PARA CONSULTAS: 517-0014 ext. 1047 ó 1170</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Anuncio_Convocatoria-38.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Bases_Convocatoria-24.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/9-Tabla-de-viático-GC.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/10-MODELO-CONTRATO-POR-MERITO-REVISADO-JULIO-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/11-REGLAMENTO-DE-CONTRATACIÓN-POR-MÉRITO-DE-SENACYT-RESOLUCIÓN-NO.-191-DE-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/OAL-GC-Resolución-de-cancelación-pdf-Firmado.pdf</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/convocatoria-publica-de-generacion-de-capacidades-cientificas-y-tecnologicas-2020-ronda-i/</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>CONVOCATORIA PÚBLICA DE NUEVOS INVESTIGADORES 2020 RONDA I</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>OBJETIVO: Proporcionar financiamiento o co-financiamiento para la promover la formación de nuevos investigadores a través de apoyo para recursos directamente relacionados con su investigación en las áreas temáticas de la convocatoria. DIRIGIDO A: Estudiantes Panameños residentes en Panamá que estén cursando los dos últimos años de la licenciatura, o cursando un posgrado, afiliados a una entidad pública, universidad, asociaciones de interés público o personas jurídicas con o sin fines de lucro, con capacidad para realizar investigaciones científicas y desarrollo tecnológico e innovación. ÁREAS TEMÁTICAS -Lógica    -Matemáticas    -Astronomía y Astrofísica    -Física    -Química    -Ciencias de la Vida    -Ciencias de la Tierra y del Espacio -Ciencias Agrarias -Ciencias Médicas -Ciencias Tecnológicas -Antropología -Demografía – Geografía    -Historia    -Pedagogía    -Psicología    -Sociología    -Ética    -Filosofía    -Arquitectura DURACIÓN: Para la Categoría de Evaluación A, B y C, la duración máxima de la propuesta es de hasta doce (12) meses a partir de la firma de la orden de proceder del Contrato por Mérito. Se requiere que las actividades a desarrollar plasmadas en el cronograma de actividades se inicien aproximadamente seis (6) meses después de la fecha de cierre de la convocatoria. MONTOS: Categoría de Evaluación A: hasta B/. 15,000.00. Categoría de Evaluación B: hasta B/. 30,000.00. Categoría de Evaluación C: hasta B/. 25,000.00. FECHA DE APERTURA DE LA CONVOCATORIA: 31 DE ENERO DE 2020 PLAZO PARA ENTREGA DE PROPUESTAS: 14 DE ABRIL DE 2020 (HASTA LAS 3:00 PM, HORA EXACTA)  Para mayores detalles ver anuncio entre los documentos a descargar . PARA CONSULTAS: 517-0014 ext. 1047 ó 1170</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Anuncio_Convocatoria-.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Bases-Convocatoria-.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/8-MODELO-CONTRATO-POR-MERITO-REVISADO-JULIO-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/9-REGLAMENTO-DE-CONTRATACIÓN-POR-MÉRITO-DE-SENACYT-RESOLUCIÓN-NO.-191-DE-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/OAL-NI-Resolución-de-cancelación-pdf-Firmado.pdf</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/convocatoria-publica-de-nuevos-investigadores-2020-ronda-i/</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>CONVOCATORIA PÚBLICA PARA EL PROGRAMA CAMPAMENTO CIENTÍFICO Y TECNOLÓGICO 2020</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>DIRIGIDA: Universidades debidamente acreditadas por el CONEAUPA y a centros de investigación públicos o privados sin fines de lucro, que operen en el territorio de la República de Panamá. OBJETIVO: Incentivar a las universidades acreditadas y centros de investigación públicos y privados sin fines de lucro para que realicen actividades que desarrollen el pensamiento crítico y las habilidades en áreas científicas de estudiantes en edades tempranas. MONTO: Se otorgarán subsidios económicos por el monto de hasta B/. 50,000.00, para cubrir los siguientes rubros: 1. Inscripción de los estudiantes panameños al Campamento
 Científico 2. Alimentación y alojamiento de los estudiantes 3. Reconocimiento a facilitadores (hasta B/. 500.00 por cada uno). 4. Seguro estudiantil 5. Gastos de movilización para las actividades que se desarrollen en el Campamento Científico. 6. Material didáctico y equipamiento menor para el desarrollo de
 cursos y talleres. 7. Gastos de manejo administrativo hasta el 7% del monto total de la propuesta. Nota: El subsidio económico sólo contempla apoyo para participantes panameños en edades de 14 a 17 años matriculados en el sistema educativo nacional de media y pre-media. DURACIÓN: Todos los campamentos deberán desarrollarse en un período de 4 a 8 días, en vacaciones y recesos escolares. Sin embargo, los Contratos de Subsidio Económico que se suscriban para amparar su ejecución tendrán una duración de 9 meses contados a partir de la notificación del refrendo de Contraloría General de la República. FECHA DE APERTURA DE LA CONVOCATORIA: 31 de enero de 2020. FECHA DE CIERRE DE LA CONVOCATORIA: CONVOCATORIA SUSPENDIDA HASTA NUEVO AVISO. CONSULTAS: camp@senacyt.gob.pa o al 517-0014 ext. 1122</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Anuncio-CONVOCATORIA-PÚBLICA-PARA-EL-PROGRAMA-CAMPAMENTO-CIENTÍFICO-Y-TECNOLÓGICO-2020-002.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/FORMULARIO-DE-EVALUACIÓN-CAMP-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/GUÍA-DE-CAMPAMENTO-2020F.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Resolución92.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/07/Resolución-No.-173-del-6-de-julio-de-2020-Cierre-de-Convocatoria-del-Prog.-Campamento-CyT.pdf</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-programa-campamento-cientifico-y-tecnologico-2020/</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>CONVOCATORIA DE DOCTORADO PARA FORMAR INVESTIGADORES PARA UNIVERSIDADES, CENTROS DE INVESTIGACIÓN O LABORATORIOS DE INTERÉS NACIONAL  RONDA I-2020</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>DIRIGIDA A: Profesores o Investigadores panameños vinculados a universidades, centros de investigación o laboratorios de interés nacional ubicados en Panamá, que se desempeñen en las áreas de ciencia y tecnología. El doctorado debe realizarse en un centro internacional de reconocida excelencia. OBJETIVO: Fortalecer la planta docente y profesional de las universidades, centros de investigación y laboratorios de interés nacional ubicados en Panamá. DURACIÓN: La beca tendrá una duración de hasta cuatro (4) años si el beneficiario posee grado de maestría y hasta seis (6) años si el beneficiario no posee grado de maestría. MONTOS: Las becas podrán tener una asignación anual de hasta B/. 60,000.00 y la asignación total de la beca no podrá exceder la suma de B/. 250,000.00. El presupuesto se elaborará según los rubros y la tabla de asignación de fondos publicada en la página web de la SENACYT. En caso de ser seleccionados, deberá iniciar sus estudios una vez se le notifique que ha sido refrendado su contrato por la  Contraloría General de la República.  En caso de continuación de estudios, los pagos iniciarán al refrendo de su contrato por parte de la Contraloría General de la República. FECHA DE APERTURA DE LA CONVOCATORIA:  31 DE ENERO DE 2020. PLAZO PARA ENTREGA DE PROPUESTAS: 20 DE AGOSTO DE 2020 A LAS 3:00 P.M. CONSULTAS: docexce@senacyt.gob.pa o al 517-0014, ext. 1154 o  517-0154</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/wp-content/uploads/2020/01/BEPDE-I-2020-ANUNCIO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/BEPDE-I-2020-Pasos-a-seguir.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Clasificación-principal-y-secundaria-Manual-de-Frascati-final-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Declaración-Jurada-Nueva-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Reglamento-de-Becas-Nuevo-2017-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Resolución-de-Extensión-Doctorado-de-Excelencia-Ronda-I-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/07/Resolución-de-Extensión-Doctorado-de-Excelencia-Ronda-I-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/Anuncio-de-Resultado-Excelencia.pdf</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/convocatoria-de-doctorado-para-formar-investigadores-para-universidades-centros-de-investigacion-o-laboratorios-de-interes-nacional-ronda-i-2020/</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>CONVOCATORIA DE DOCTORADO DE INVESTIGACIÓN RONDA I-2020</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>DIRIGIDA A: Panameños que deseen formarse como investigadores en centros de estudios de excelencia en el extranjero o que ya se encuentren estudiando un doctorado de investigación en centros de estudio de excelencia en el extranjero. OBJETIVO: Este programa tiene como objetivo la formación de investigadores para la República de Panamá, que garanticen el incremento del capital humano con altas capacidades para actividades científicas y tecnológicas. DURACIÓN: La beca tendrá una duración de hasta cuatro (4) años si el beneficiario posee grado de maestría y hasta seis (6) años si el beneficiario no posee grado de maestría.  MONTOS: Las becas podrán tener una asignación anual de hasta B/. 60,000.00 y la asignación total de la beca no podrá exceder la suma de B/. 250,000.00. El presupuesto se elaborará según los rubros y la tabla de asignación de fondos publicada en la página web de la SENACYT. En caso de ser seleccionados, deberá iniciar sus estudios una vez se le notifique que ha sido refrendado su contrato por la Contraloría General de la República. En caso de continuación de estudios, los pagos iniciarán al refrendo de su contrato por parte de la Contraloría General de la República. FECHA DE APERTURA DE LA CONVOCATORIA:  31 DE ENERO DE 2020. PLAZO PARA ENTREGA DE PROPUESTAS:  20 DE AGOSTO DE 2020 A LAS 3:00 P.M. CONSULTAS: doctorado@senacyt.gob.pa o al 517-0014, ext. 1154 o  517-0154.</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/wp-content/uploads/2020/01/BIDP-I-2020-ANUNCIO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/BIDP-I-2020-pasos.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Clasificación-principal-y-secundaria-Manual-de-Frascati-final.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Declaración-Jurada-Nueva-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Reglamento-de-Becas-Nuevo-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Resolución-de-Extensión-Doctorado-de-Investigación-Ronda-I-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/07/Resolución-de-Extensión-Doctorado-de-Investigación-Ronda-I-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/Anuncio-de-Resultados-Doc-Investigación.pdf</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/convocatoria-de-doctorado-de-investigacion-ronda-i-2020/</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>CONVOCATORIA PÚBLICA DE MOVILIDAD ACADÉMICA 2020</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>DIRIGIDA A: Universidades públicas y privadas que operen en la República de Panamá y que se encuentren acreditadas por el Consejo Nacional de Evaluación y Acreditación Universitaria de Panamá (CONEAUPA). Cada universidad podrá someter hasta 3 propuestas, siempre y cuando sean para sedes (campus) distintas. OBJETIVO: Contribuir al mejoramiento de la calidad de la formación académica, mediante estancias cortas en instituciones académicas de educación superior o centros de investigación de excelencia internacional, en Panamá o en el extranjero con el propósito de incentivar la producción, difusión, vinculación y transferencia de conocimiento científico-tecnológico. DURACIÓN : Todas las propuestas deberán desarrollarse en un período de 12 meses. Sin embargo, los Convenios que se suscriban para amparar su ejecución tendrán una duración de 18 meses contados a partir del refrendo por parte de la Contraloría General de la República. MONTO: Hasta B/. 100,000.00 de acuerdo al programa. Dentro de esta categoría se podrán cubrir los siguientes rubros de gastos: 1. Inscripción o matrícula en el lugar de acogida 2. Insumos científicos 3. Transporte aéreo 4. Seguro médico 5. Costo de trámite de visado migratorio 6. Viáticos* 7. Gastos por manejo administrativo * Se usará Tabla de viáticos de asignaciones
 monetarias del Programa de Movilidad de Investigación publicada en el presente
 anuncio de Convocatoria. FECHA DE APERTURA DE LA CONVOCATORIA:  31 de enero de 2020 PLAZOPARA ENTREGA DE PROPUESTAS: CONVOCATORIA SUSPENDIDA HASTA NUEVO AVISO. CONSULTAS: mov@senacyt.gob.pa o al teléfono: 517-0014 ext. 1175</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/wp-content/uploads/2020/02/ANUNCIO-CONVOCATORIA-PÚBLICA-DE-MOVILIDAD-ACADÉMICA-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/FORMATO-DE-EVALUADOR-DE-MOVILIDAD-ACADÉMICA-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/LISTA-DE-VERIFICACIÓN-DE-REQUISITOS.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/TABLA-DE-ASIGNACIONES-MONETARIAS-MOV-DE-INV-Y-ACADÉMICA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/REGLAMENTO-DE-MOVILIDAD-ACADÉMICA-Y-DE-INVESTIGACIÓN.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Resolución-de-extensión-Programa-de-Movilidad-Académica-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/07/Resolución-174-Cancelación-de-Convocatoria-de-Movilidad-Académica-2020-Programas-de-Movildad-Académica-y-de-Investigación.pdf</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/convocatoria-publica-de-movilidad-academica-2020/</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>CONVOCATORIA PÚBLICA PARA LAS UNIVERSIDADES GESTORAS DEL PROGRAMA PISTA 2020</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>DIRIGIDA A: Universidades oficiales o privadas, debidamente acreditadas por la CONEAUPA, que operen en el territorio de la República de Panamá. OBJETIVO: Seleccionar a universidades oficiales o privadas, debidamente acreditadas en Panamá, para gestionar el Programa PISTA, con la finalidad de detectar, desarrollar y dar seguimiento a niños y jóvenes panameños con talento académico, a través de un programa de enriquecimiento extracurricular de formación integral. Esta Convocatoria está diseñada para que se pueda atender jóvenes con talento académico. MONTO Esta convocatoria cubrirá los siguientes objetos de gastos permisibles hasta un monto de B/. 480,000.00 para ambas categorías: · Matrícula para los estudiantes de PISTA (Se cubrirá hasta B/.1,100.00 anual por estudiante). · Alimentación · Seguro estudiantil · Gastos de movilización para los estudiantes de colegios oficiales o para los estudiantes de escasos recursos que cursen su periodo académico en colegios privados, siempre que conste una evaluación socioeconómica, realizada por un profesional idóneo, que demuestre su situación. · Material didáctico y equipo para el desarrollo de los cursos y talleres. · Gastos administrativos hasta el 5% del monto total adjudicado. DURACIÓN: Las universidades deberán desarrollar el programa PISTA en un período de 36 meses. Sin embargo, los Convenios de Colaboración Educativa que suscriban con la SENACYT para amparar la ejecución del Programa PISTA tendrán una duración de 42 meses contados a partir de la notificación del refrendo del Convenio. FECHA DE APERTURA DE LA CONVOCATORIA: 31 de enero de 2020. FECHA DE CIERRE DE LA CONVOCATORIA: 5 de Agosto  de 2020 hasta las 3:00 pm. CONSULTAS: pista@senacyt.gob.pa o al 517-0014 ext. 1126</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/wp-content/uploads/2020/01/1.-Anuncio-de-Convocatoria-Pública-2020-PISTA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/2.-Resolución-Administrativa-N°142.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/3.-Resolución-Administrativa-N°85.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/4.-Manual-de-PISTA-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/5.-Lista-de-Requisitos-Programas-2020-PISTA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/10.-Formato-de-Evaluacion-2020-PISTA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Resolución93.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/07/Resolución-de-Extención-No.-164-de-30-de-junio-de-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/08/Acta-de-Recepción-de-Propuestas-PISTA-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/12/Resultados-de-la-Convocatoria-Publica-de-PISTA-2020.pdf</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/convocatoria-publica-para-las-universidades-gestoras-del-programa-pista-2020/</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>CONVOCATORIA PÚBLICA DE MOVILIDAD DE INVESTIGACIÓN 2020</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>DIRIGIDA A: Universidades pública y privada debidamente acreditadas por CONEAUPA  y a Centros de Investigación públicos o privados sin fines de lucro, que operan en la República de Panamá. OBJETIVO: Contribuir al mejoramiento de la calidad de la formación de investigación, mediante estancias cortas en instituciones académicas de educación superior o centros de investigación de excelencia internacional, en Panamá o en el extranjero, así como mediante la invitación a expertos internacionales a realizar estancias cortas en unidades académicas con investigaciones en marcha y centros de investigación en Panamá; con el propósito de incentivar la producción, difusión, vinculación y transferencia de conocimiento científico-tecnológico. DURACIÓN: Todas las propuestas deberán desarrollarse en un período de hasta 12 meses. Sin embargo los Convenios que se suscriban para amparar su ejecución tendrán una duración de 18 meses contados a partir del refrendo por parte de la Contraloría General de la República. MONTO: Hasta B/. 100,000.00 de acuerdo al Programa. Dentro de esta convocatoria se cubrirán los siguientes
 objetos de gastos permisibles: 1. Insumos científicos 2. Transporte aéreo 3. Seguro médico 4. Viáticos* 5. Gastos por manejo administrativo *Al momento de la fase de negociación la SENACYT entregará
@@ -1351,54 +1451,54 @@
 los gastos debidamente sustentados y aprobados por la SENACYT. FECHA DE APERTURA DE LA CONVOCATORIA:  31 de enero de 2020 PLAZO PARA ENTREGA DE PROPUESTAS:  6 de Agosto de 2020 hasta las 3:00 pm CONSULTAS: mov1@senacyt.gob.pa o al teléfono: 517-0014 ext. 1175</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/wp-content/uploads/2020/02/ANUNCIO-MOVILIDAD-DE-INVESTIGACIÓN-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/FORMULARIO-DE-EVALUADOR-MOV-DE-INVESTIGACIÓN-.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/LISTA-DE-VERIFICACIÓN-DE-REQUISITOS-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/TABLA-DE-ASIGNACIONES-MONETARIAS-MOV-DE-INV-Y-ACADÉMICA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/REGLAMENTO-DE-MOVILIDAD-ACADÉMICA-Y-DE-INVESTIGACIÓN.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Resolución-de-extensión-Programa-de-Movilidad-de-Investigación-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/07/Resolucion-171-Extencion-de-cierre-de-Convocatoria-de-Movilidad-de-Investigacion-2020-07-06-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/08/ACTA-DE-RECEPCIÓN-DE-PROPUESTAS-MOVILIDAD-DE-INVESTIGACIÓN-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/11/Movde-Inv2020-WEB_Optimized.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2021/02/Resolucion-Administrativa-STRI.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2021/02/Resolucion-administrativa-No-27.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2021/03/Resolucion-administrativa-No.-34.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2021/03/Resolucion-administrativa-No.-40.pdf</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/convocatoria-publica-de-movilidad-de-investigacion-2020/</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>CONVOCATORIA DE MAESTRÍA EN ÁREAS ESPECÍFICAS DEL CONOCIMIENTO IDENTIFICADAS POR LA SENACYT, 2020</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>DIRIGIDA A: panameños con grado de licenciatura o equivalente, interesados en realizar estudios de maestría en las áreas establecidas en el anuncio de la convocatoria. OBJETIVO: Mejorar la calidad de la gestión del Sistema Nacional de la Ciencia y Tecnología, mediante la formación profesional. DURACIÓN: Estas becas tendrán una duración de hasta dos (2) años o de acuerdo al plan de estudio. MONTOS: Financiamiento de hasta B/. 60,000.00 por año de acuerdo a disponibilidad presupuestaria de la SENACYT. La beca podrá cubrir hasta un 100% del costo según los
 rubros de gastos permitidos. Sin embargo, SENACYT se reserva el derecho de otorgar
 becas parciales de acuerdo a su disponibilidad presupuestaria. FECHA DE APERTURA DE LA CONVOCATORIA:      31 DE ENERO DE 2020 PLAZO PARA ENTREGA DE PROPUESTAS:  20 DE AGOSTO DE 2020 A LAS 3:00 P.M. CONSULTAS: mbae@senacyt.gob.pa 517-0014     Ext 1133 o al 517-0133</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Anuncio-BAE-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Formulario-IFARHU-SENACYT.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Declaración-Jurada-Nueva.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Resolución-de-Extensión-de-Maestría-en-Áreas-Específicas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/07/Resolución-de-Extensión-Maestría-en-Áreas-Específicas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/ANUNCIO-DE-RESULTADOS.pdf</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/convocatoria-de-maestria-en-areas-especificas-del-conocimiento-identificadas-por-la-senacyt-2020/</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>CONVOCATORIA PÚBLICA PARA PROYECTOS DE INNOVACIÓN EMPRESARIAL 2019</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>OBJETIVO: Fortalecer la competitividad de las
 empresas en Panamá, mediante el fomento de su capacidad de innovación. Se busca
@@ -1443,102 +1543,102 @@
 2019. SESIONES DE ASESORÍA DE LA CONVOCATORIA, SENACYT BRINDARÁ ESTAS SESIONES PARA ORIENTAR SOBRE EL PROCESO DE LA CONVOCATORIA Y ACLARAR DUDAS SOBRE LOS FORMULARIOS. SE INFORMARÁ A LOS INTERESADOS, LAS FECHAS, HORAS Y LUGARES DISPONIBLES PARA ASISTIR. (La asistencia NO es obligatoria). PLAZO PARA ENTREGA DE PROPUESTAS: 5 DE MARZO DE 2020. HASTA LAS 4:00 P.M., HORA EXACTA</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Afiche-FIE2019-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Anuncio-FIE2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/Bases-FIE-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/1.-Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/09/Resolucion-de-cancelacion-de-convocatoria-FIE.pdf</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/convocatoria-publica-para-proyectos-de-innovacion-empresarial-2019/</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>CONVOCATORIA PÚBLICA PARA EL FOMENTO A LA INVESTIGACIÓN Y DESARROLLO FID 2020</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>DIRIGIDO A: Personas naturales o jurídicas, en calidad de investigadores individuales o afiliados, o grupos de investigación representados por entidades públicas, empresas privadas, universidades, escuelas técnicas, organizaciones no gubernamentales, laboratorios y demás entidades, con o sin fines de lucro, con capacidad de llevar a cabo investigación básica, aplicada o desarrollo tecnológico. OBJETIVO: Fortalecer la capacidad nacional de investigación y desarrollo (I+D) en ciencia y/o tecnología para enfrentarnos con éxito a los grandes desafíos del desarrollo nacional. ÁREAS TEMÁTICAS: -Lógica    -Antropología    -Demografía    -Ciencias Económicas    -Geografía    -Historia    -Ciencias Jurídicas y Derecho -Lingüística -Pedagogía -Ciencia Política -Psicología -Ciencias de las Artes y las Letras -Sociología -Ética – Filosofía    -Ciencias Agrarias    -Ciencias Médicas    -Astronomía y Astrofísica    -Química    -Ciencias de la Vida    -Ciencias de la Tierra y del Espacio    -Matemáticas    -Física    -Ciencias Tecnológicas. DURACIÓN: Los proyectos adjudicados podrán tener una duración de hasta dos (2) años. En casos excepcionales y debidamente justificados podrán  extenderse hasta 36 meses. Los contratos de los proyectos adjudicados que suscriban con la SENACYT, para amparar su ejecución, tendrán una duración de hasta  42 meses contados a partir de la notificación del refrendo del contrato. MONTOS: La asignación presupuestaria para las propuestas que salgan seleccionadas, se hará de acuerdo con la modalidad de aplicación descrita a continuación: Categoría A: Fomento a la Investigación y Desarrollo. Modalidad de Investigadores: Hasta B/. 60,000.00 Modalidad de Grupos de Investigación: Hasta B/. 100,000.00 Modalidad de Colaboración Internacional : Hasta B/. 120,000.00 Categoría B: Continuidad en Investigación y Fortalecimiento de Productividad. Modalidad de Investigadores: Hasta B/. 75,000.00 Modalidad de Grupos de Investigación: Hasta B/. 150,000.00 Modalidad de Colaboración Internacional : Hasta B/. 200,000.00 FECHA DE APERTURA DE LA CONVOCATORIA: 22 DE ENERO DE 2020 PLAZO PARA ENTREGA DE PROPUESTAS:* Candelada  la Convocatoria * 27 DE MARZO DE 2020 (HASTA LAS 1:00 PM, HORA EXACTA)  Para mayores detalles ver anuncio entre los documentos a descargar .  Si requiere información adicional contactar al correo: fid20@senacyt.gob.pa o al teléfono 517-0129</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/wp-content/uploads/2020/01/FID-2020-Afiche.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/2AnuncioConvocatoria.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/3Bases_Convocatoria.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/15PENCYT_2015_2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/16_Reglamento_de_Contratacion_por_Merito.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Resolución-N.-091-Cancelación-de-Convocatoria.pdf</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-fomento-a-la-investigacion-y-desarrollo-2020/</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>CONVOCATORIA PÚBLICA PARA EL REINGRESO DE MIEMBROS AL SISTEMA NACIONAL DE INVESTIGACIÓN (SNI) DE PANAMÁ 2020</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>DIRIGIDA A: Miembros   actuales del SNI, que hayan ingresado por primera vez al Sistema en la Convocatoria   Pública lanzada en marzo del año 2017, en categoría de Investigador Nacional o Investigador Distinguido , panameños o   extranjeros residentes en Panamá, siempre que dichos investigadores cumplan   con los requisitos   establecidos en el Reglamento, los Criterios Internos de Evaluación y el   anuncio de la convocatoria del SNI. OBJETIVO: Promover la investigación científica   y tecnológica y su calidad, mediante el reconocimiento de la excelencia de la   labor de investigación y desarrollo científico y tecnológico de personas   naturales, a través de incentivos que pueden ser distinciones o estímulos   económicos, otorgados en función de la calidad, la producción, la   trascendencia y del impacto de dicha labor. PLAZO PARA ENTREGA DE DOCUMENTACIÓN: 25 de Septiembre de 2020 hasta las 3:00PM. CONSULTAS:  sni_reingreso2020@senacyt.gob.pa o al   teléfono 517- 0095 / 517-0163.</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Anuncio-Reingreso-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Ley-56-SNI-de-Panamá.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Resolución-de-CDN-No.-30-de-9-de-nov.-de-2016-Reglamento-del-SNI-Gaceta-Oficial.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Resolución-de-CDN-No.-02-de-26-de-abril-de-2018-Modificaciones-al-Reglamento-Gaceta-Oficial.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Texto-Único-Reglamento-del-SNI-18-de-mayo-de-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Código-de-Ética-del-SNI-19-de-julio-de-2016.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Objetos-de-Gastos-Permisibles-del-SNI-26-de-julio-de-2016.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Objetos-de-Gastos-Permisibles-del-SNI-modificación-29-de-enero-de-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Resolución-de-CDN-No.-03-de-4-de-mayo-de-2018-Criterios-Internos-del-SNI-Gaceta-Oficial-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/08/resolución.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/11/Lista-para-la-web-Investigadores-R2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/12/Resolucion-No.-7-Dra.-Zohre-Kurt.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/12/Resolucion-No.8-Dr.-Dumas-Galvez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/12/Resolucion-No.9-Dra.-Virginia-Torres.pdf</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-reingreso-de-miembros-al-sistema-nacional-de-investigacion-sni-de-panama-2020/</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>CONVOCATORIA PÚBLICA PARA EL INGRESO DE NUEVOS MIEMBROS AL SISTEMA NACIONAL DE INVESTIGACIÓN (SNI) DE PANAMÁ 2020</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>DIRIGIDA A: Investigadores   panameños o extranjeros residentes en Panamá, o investigadores panameños residentes   en el extranjero; siempre que dichos investigadores cumplan con los requisitos   establecidos en el Reglamento, los Criterios Internos de Evaluación y el   anuncio de la convocatoria del SNI. OBJETIVO: Promover la investigación científica   y tecnológica y su calidad, mediante el reconocimiento de la excelencia de la   labor de investigación y desarrollo científico y tecnológico de personas   naturales, a través de incentivos que pueden ser distinciones o estímulos   económicos, otorgados en función de la calidad, la producción, la   trascendencia y del impacto de dicha labor. PLAZO PARA ENTREGA DE DOCUMENTACIÓN: 28 DE AGOSTO DE 2020 HASTA LAS 3:00 P.M. CONSULTAS: sni_nm2020@senacyt.gob.pa o al teléfono 517- 0095 / 517-0163.</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Anuncio-Nuevos-Miembros-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Ley-56-SNI-de-Panamá.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Resolución-de-CDN-No.-30-de-9-de-nov.-de-2016-Reglamento-del-SNI-Gaceta-Oficial.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Resolución-de-CDN-No.-02-de-26-de-abril-de-2018-Modificaciones-al-Reglamento-Gaceta-Oficial.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Texto-Único-Reglamento-del-SNI-18-de-mayo-de-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Código-de-Ética-del-SNI-19-de-julio-de-2016.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Objetos-de-Gastos-Permisibles-del-SNI-26-de-julio-de-2016-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Objetos-de-Gastos-Permisibles-del-SNI-modificación-29-de-enero-de-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Resolución-de-CDN-No.-03-de-4-de-mayo-de-2018-Criterios-Internos-del-SNI-Gaceta-Oficial.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Resolución-01-del-CDN-Extension-del-Cierre-NM2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/07/Resolucion-No-2-del-CDN-Fecha-de-Cierre-NM2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/11/Lista-de-resultados-NM2020-estudiantes-de-maestria.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/11/Lista-de-resultados-NM2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/12/Resolucion-No.1-Dr.-Eufemio-Moreno.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/12/Resolucion-No.2-Dr.-Euclides-Deago.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/12/Resolucion-No.3-Dr.-Jorge-Mendez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/12/Resolucion-No.4-Dra.-Denise-Delvalle.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/12/Resolucion-No.5-Dr.-Javier-Stanziola.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/12/Resolucion-No.1-Dr.-Eufemio-Moreno.pdf</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-ingreso-de-nuevos-miembros-al-sistema-nacional-de-investigacion-sni-de-panama-2020/</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>CONVOCATORIA PÚBLICA DEL PROYECTO INNOVATEC:CAPITAL SEMILLA Y NUEVOS EMPRENDIMIENTOS 2019 RONDA I</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>OBJETIVO: Fomentar la innovación, apoyando proyectos de estudiantes universitarios, personas naturales mayores de edad de nacionalidad panameña y micro y pequeñas empresas, para generar capacidades, impulsar la economía del conocimiento y fortalecer el ecosistema de emprendimiento e innovación en Panamá. Con esta Convocatoria se busca desarrollar la innovación social, empresarial y gubernamental. DIRIGIDO A: Personas naturales, mayores de edad, de nacionalidad panameña, que estén cursando estudios en universidades en la República de Panamá mínimo el tercer año de carrera. Personas naturales, mayores de edad, de nacionalidad panameña y residentes en la República de Panamá. Personas jurídicas constituidas como sociedades anónimas debidamente inscritas en el Registro Público de Panamá y que cumplan con las características de Micro-Pequeñas empresas. (Ver detalle en las Bases de la Convocatoria). ÁREAS TEMÁTICAS: -Ciencias de la Vida -Ciencias de la Tierra y del Espacio -Ciencias Agrarias -Ciencias Médicas -Ciencias Tecnológicas -Ciencias Económicas -Arquitectura -Sociología. DURACIÓN: Los
 proyectos adjudicados podrán tener una duración de: • Categoría
@@ -1547,116 +1647,14 @@
 PLAZOS DE PRESENTACIÓN FECHA DE APERTURA DE LA CONVOCATORIA: 19 DE DICIEMBRE DE 2019 PLAZO PARA ENTREGA DE PROPUESTAS: 28 DE FEBRERO DE 2020 (HASTA LAS 3:00 PM, HORA EXACTA )</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/12/2-Anuncio_Convocatoria-INNOVATEC-2019-3.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/3-Bases_Convocatoria-INNOVATEC-2019-3.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/12-Modelo-Contrato-por-Mérito-Rev.-Julio2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/13-Resolución-Administrativa-No.-191-de-31-de-julio-de-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Lista-de-propuestas-PFIE-NE-2020-I-recibidas-para-publicación-en-web-firmada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/09/Resolucion-de-cancelacion-de-convocatoria-Innovatec.pdf</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/convocatoria-publica-del-proyecto-innovateccapital-semilla-y-nuevos-emprendimientos-2019-ronda-i/</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>ESTADÍAS CLÍNICAS POSDOCTORALES EN ÁREAS PRIORITARIAS DEL SECTOR SALUD A REALIZAR EN EL EXTRANJERO 2019</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>DIRIGIDA A: Médicos panameños idóneos que se encuentren laborando en el sistema público de salud, interesados en adquirir. Estadía Clínicas Postdoctoral (Clínical Fellowship) en el extranjero, a fin de perfeccionar su desempeño laboral en las áreas del conocimiento priorizadas por el sector salud. DURACIÓN: La duración de esta beca será de acuerdo al programa correspondiente. MONTOS: La beca cubrirá hasta el 100% del programa, según lo establecido en el Reglamento de Becas IFARHU-SENACYT. FECHA DE
-APERTURA DE LA CONVOCATORIA: 18 DE DICIEMBRE DE 2019 PLAZO PARA ENTREGA DE SOLICITUD: 20 DE AGOSTO DE 2020 A LAS 3:00 P.M. PARA MAYORES DETALLES VER ANUNCIO ENTRE LOS DOCUMENTOS A DESCARGAR</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/12/Anuncio-de-Estadías-Postdoctorales-2020-.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/Declaracion-Jurada-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/Reglamento-de-Becas-Nuevo-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Resolución-de-Extensión-de-Estadias-Clínicas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/07/Resolución-No.-161-Estadías-Clínicas-Posdoctorales-Extensión-de-Cierre.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/Anuncio-de-Resultado-Estadias-Clinicas-Posdoctorales.pdf</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/estadias-clinicas-posdoctorales-en-areas-prioritarias-del-sector-salud-a-realizar-en-el-extranjero-2019/</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>ESPECIALIDADES Y SUBESPECIALIDADES MÉDICAS EN ÁREAS PRIORITARIAS DEL SECTOR SALUD A REALIZAR EN EL EXTRANJERO II RONDA 2019</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>DIRIGIDA A: Médicos panameños idóneos que se encuentren o no laborando en el sistema público de salud, interesados en adquirir especialidades o subespecialidades médicas en el extranjero, a fin de perfeccionar su desempeño laboral en las áreas del conocimiento priorizadas por el sector salud. OBJETIVO: Este programa está diseñado para fortalecer la formación del recurso humano especializado en áreas del conocimiento donde hay necesidad de formación en el país, a fin de mejorar la calidad de los servicios de salud brindados a nivel nacional. DURACIÓN: La duración de esta beca será de acuerdo al programa de la especialidad, subespecialidad médica que va a realizar de acuerdo al programa correspondiente. MONTOS: La beca cubrirá hasta el 100% de la especialidad, subespecialidad médica, según lo establecido en el Reglamento de Becas IFARHU-SENACYT. FECHA DE
-APERTURA DE LA CONVOCATORIA: 18 DE DICIEMBRE DE 2019. PLAZO PARA ENTREGA DE SOLICITUD: 20 DE AGOSTO DE 2020 A LAS 3:00 P.M. PARA MAYORES DETALLES VER ANUNCIO ENTRE LOS DOCUMENTOS A DESCARGAR</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/12/Anuncio-de-Esp.-y-Subesp.-Médicas-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/Declaracion-Jurada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/Reglamento-de-Becas-Nuevo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Resolución-de-Extensión-de-Especialidades.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/07/Resolución-No.166-Especialidades-y-Subesp-Extensión-de-Cierre.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/Anuncio-de-Resultados-de-Esp.-y-Subesp-Médicas-II-Ronda-2019.pdf</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/especialidades-y-subespecialidades-medicas-en-areas-prioritarias-del-sector-salud-a-realizar-en-el-extranjero-ii-ronda-2019/</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>CONVOCATORIA PÚBLICA INNOVACIÓN EMPRESARIAL PARA MYPYMES EN TICS EN ALIANZA CON LA EMPRESA TRACTORA 2019 RONDA I</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>OBJETIVO: Fortalecer la competitividad de las empresas de desarrollo de software en Panamá, mediante el fomento de su capacidad de desarrollo de productos informáticos innovadores dirigidos a solventar las necesidades tecnológicas de la empresa Tractora. Se espera que el producto desarrollado pueda luego ser comercializado a nivel nacional e internacionalmente por la empresa software. DIRIGIDO A: Empresas inscritas en el Registro Público de Panamá, con característica de MYPYMES, con actividad económica en el Aviso de Operaciones relacionadas con temas de programación de software, ejemplo: Actividades de Edición – Edición de programas informáticos, Actividades de la Tecnología de Información y del servicio informático y/o Actividades del servicio informático e informativo – Otras actividades del servicio de información. DURACIÓN: Categoría de Evaluación A: Los proyectos presentados deberán tener una duración máxima de veinticuatro (24) meses en los cuales deberá considerar la inclusión del desarrollo del software en un máximo de doce (12) meses; y el mantenimiento con soporte técnico al software desarrollado en un tiempo obligatorio de doce (12) meses. MONTOS: Categoría de Evaluación A: Subsidio económico de hasta el 90% del costo total de la propuesta, según las necesidades plenamente justificadas de la misma, hasta la suma máxima de B/. 250,000.00. El 10% restante del costo total de la propuesta debe de ser aportado por la empresa Tractora, este aporte debe ser detallado en la etapa primera (I) del proyecto y NO se permite que dicho aporte sea considerado en especies.  FECHA Y PLAZOS DE PRESENTACIÓN FECHA DE APERTURA DE LA CONVOCATORIA: 3 de diciembre de 2019 PLAZO PARA ENTREGA DE PROPUESTAS: 14 de febrero de 2020 (HASTA LAS 3:00 PM, HORA EXACTA).  PARA MAYORES DETALLES VER ANUNCIO ENTRE LOS DOCUMENTOS A DESCARGAR O SI REQUIERE INFORMACIÓN ADICIONAL  CONTACTAR AL CORREO iet2019@senacyt.gob.pa O AL TELÉFONO 517-0014</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/12/CONVOCATORIAS-TRACTORA-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/ANUNCIO-CONVOCATORIA-TRACTORA2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/BASES-CONVOCATORIA-TRACTORA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/6-Modelo-Contrato-por-Mérito-Rev.-Julio2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/1.-Resolución-191-de-31-de-julio-de-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/Lista-de-propuestas-PFIE-FIE-2020-recibidasCENIT.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/09/Resolucion-de-cancelacion-de-convocatoria-Tractora.pdf</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-innovacion-empresarial-para-mypymes-en-tics-en-alianza-con-la-empresa-tractora-2019-ronda-i/</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Convocatoria de Doctorado en Biotecnología</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>DIRIGIDA A: Está dirigido a estudiantes panameños con título universitario en áreas de estudio como biología, nutrición, agricultura, química, alimentos, farmacia, medicina, odontología, tecnología médica, ingenierías y áreas afines, que deseen adquirir conocimiento y destrezas sobre las técnicas y metodologías básicas y avanzadas implicadas en la generación de conocimientos bio-científicos y en su utilización para el desarrollo de biotecnologías. OBJETIVO: Formación de recurso humano en las áreas de Biociencias y Biotecnología mediante un Doctorado en Biociencias y Biotecnología para formar doctores investigadores. *Este periodo podrá incluir una estancia por hasta un (1) año en el exterior, para la cual se contemplan los costos de pasaje aéreo y un incremento de manutención mensual. PLAZO PARA ENTREGA DE PROPUESTAS: 14 de febrero de 2020 hasta las 3:00 P.M. HORA EXACTA  PARA MAYORES DETALLES VER ANUNCIO ENTRE LOS DOCUMENTOS A DESCARGAR</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/12/ANUNCIO-Doctorado-de-Biotecnología-05-de-dic.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/CONVENIO-ENTRE-SENACYT-IFARHU-UTP-INDICASAT.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/Declaración-Jurada-Nueva.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/Pasos-a-Seguir.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/Reglamento-de-Becas-Nuevo-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Anuncio-de-Resultados.pdf</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-de-doctorado-en-biotecnologia/</t>
         </is>
       </c>
     </row>
@@ -1666,22 +1664,23 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Convocatoria Pública Fomento a Nuevos Emprendimientos en Tecnología: Capital Semilla con enfoque de igualdad de género 2019</t>
+          <t>ESTADÍAS CLÍNICAS POSDOCTORALES EN ÁREAS PRIORITARIAS DEL SECTOR SALUD A REALIZAR EN EL EXTRANJERO 2019</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>OBJETIVO: Apoyar a nuevos emprendedores/as y microempresas en el desarrollo de proyectos de innovación en tecnología liderados por mujeres o con equipos de proyectos con igual participación de hombres y mujeres, que tengan un potencial de crecimiento a nivel  internacional. Al finalizar los proyectos, los nuevos emprendedores/as y microempresas deben contar como mínimo con un prototipo. DIRIGIDO A: Nuevos emprendedores/as: personas naturales, de nacionalidad panameña que estén residiendo en Panamá, mayores de edad. Personas jurídicas constituidas como sociedades anónimas debidamente inscritas en el Registro Público de Panamá, que cumplan con las características de Micro y Pequeña empresa. Ver detalle en Información Adicional en las Bases de la Convocatoria. DURACIÓN: Los proyectos presentados deberán tener una duración máxima de ocho (8) meses en los cuales podrá estar incluido el proceso de incubación, aunque este no es de carácter obligatorio. De ser incluido, el proceso de incubación sería desarrollado simultáneamente con la ejecución del proyecto. MONTOS: El monto máximo del subsidio económico que otorgará la SENACYT es hasta la suma de B/. 30,000.00. Este monto máximo incluirá el desarrollo del proyecto y podrá incorporar un proceso de incubación, aunque no es obligatorio. En el caso que se incluya el proceso de incubación, no deberá destinarse una suma mayor al diez por ciento (10%) del monto total del proyecto. FECHA Y PLAZOS DE PRESENTACIÓN  FECHA DE APERTURA DE LA CONVOCATORIA: 2  de diciembre de 2019  PLAZO PARA ENTREGA DE PROPUESTAS: 7  de febrero de 2020  (HASTA LAS 2:00 PM, HORA EXACTA) PARA MAYORES DETALLES VER ANUNCIO ENTRE LOS DOCUMENTOS A DESCARGAR O SI REQUIERE INFORMACIÓN ADICIONAL  CONTACTAR AL CORREO capitalsemilla2019@senacyt.gob.pa O AL TELÉFONO 517-0049</t>
+          <t>DIRIGIDA A: Médicos panameños idóneos que se encuentren laborando en el sistema público de salud, interesados en adquirir. Estadía Clínicas Postdoctoral (Clínical Fellowship) en el extranjero, a fin de perfeccionar su desempeño laboral en las áreas del conocimiento priorizadas por el sector salud. DURACIÓN: La duración de esta beca será de acuerdo al programa correspondiente. MONTOS: La beca cubrirá hasta el 100% del programa, según lo establecido en el Reglamento de Becas IFARHU-SENACYT. FECHA DE
+APERTURA DE LA CONVOCATORIA: 18 DE DICIEMBRE DE 2019 PLAZO PARA ENTREGA DE SOLICITUD: 20 DE AGOSTO DE 2020 A LAS 3:00 P.M. PARA MAYORES DETALLES VER ANUNCIO ENTRE LOS DOCUMENTOS A DESCARGAR</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/12/1.-AFICHE-CONVOCATORIA-GÉNERO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/2.-ANUNCIO-CONVOCATORIA-GÉNERO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/3.-BASES-CONVOCATORIA-GÉNERO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/1.-Resolución-191-de-31-de-julio-de-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/10.-Modelo-Contrato-por-Mérito-Rev.-Julio2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/Lista-de-propuestas-recibidas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/09/Resolucion-de-cancelacion-de-convocatoria-NECS-Enfoque-de-genero.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/12/Anuncio-de-Estadías-Postdoctorales-2020-.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/Declaracion-Jurada-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/Reglamento-de-Becas-Nuevo-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Resolución-de-Extensión-de-Estadias-Clínicas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/07/Resolución-No.-161-Estadías-Clínicas-Posdoctorales-Extensión-de-Cierre.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/Anuncio-de-Resultado-Estadias-Clinicas-Posdoctorales.pdf</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-fomento-a-nuevos-emprendimientos-en-tecnologia-capital-semilla-con-enfoque-de-igualdad-de-genero-2019/</t>
+          <t>https://www.senacyt.gob.pa/estadias-clinicas-posdoctorales-en-areas-prioritarias-del-sector-salud-a-realizar-en-el-extranjero-2019/</t>
         </is>
       </c>
     </row>
@@ -1691,22 +1690,23 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Convocatoria Pública Para el Fomento a la Innovación Educativa</t>
+          <t>ESPECIALIDADES Y SUBESPECIALIDADES MÉDICAS EN ÁREAS PRIORITARIAS DEL SECTOR SALUD A REALIZAR EN EL EXTRANJERO II RONDA 2019</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>OBJETIVO: Generar innovaciones para la educación formal y no formal del país, que propicien una mejora en la formación y actitud hacia las ciencias, y estén acordes con las políticas educativas nacionales. DIRIGIDO A: Personas naturales panameñas o extranjeras residentes en Panamá, Personas Jurídicas panameñas inscritas en el Registro Público de Panamá con o sin fines de lucro, Instituciones Públicas, Patronatos creados por Ley, Organizaciones no gubernamentales, Fundaciones de interés privado, con o sin fines de lucro, Asociaciones de interés público. Podrán participar de manera individual o afiliados. CATEGORÍA DE EVALUACIÓN SEPARADAS: • Categoría de Evaluación A: Propuestas de Proyectos educativos innovadores y de Educación Inclusiva en las áreas temáticas definidas. • Categoría de Evaluación B: Propuestas de Talleres en Ciencia, Tecnología y Educación Inclusiva en las áreas temáticas definidas. Observación: En las áreas temáticas definidas, específicamente en Pedagogía, se considerarán propuestas enfocadas a Evaluación y a Educación Inclusiva. DURACIÓN: • Categoría de Evaluación A: 24 Meses • Categoría de Evaluación B: 12 Meses MONTOS: • Categoría de Evaluación A: 30000 Balboas • Categoría de Evaluación B: 15000 Balboas FECHA Y PLAZOS DE PRESENTACIÓN FECHA DE APERTURA DE LA CONVOCATORIA: 22 DE OCTUBRE DE 2019  PLAZO PARA ENTREGA DE PROPUESTAS: 13 DE ENERO DE 2020 (HASTA LAS 3:00 PM, HORA EXACTA)</t>
+          <t>DIRIGIDA A: Médicos panameños idóneos que se encuentren o no laborando en el sistema público de salud, interesados en adquirir especialidades o subespecialidades médicas en el extranjero, a fin de perfeccionar su desempeño laboral en las áreas del conocimiento priorizadas por el sector salud. OBJETIVO: Este programa está diseñado para fortalecer la formación del recurso humano especializado en áreas del conocimiento donde hay necesidad de formación en el país, a fin de mejorar la calidad de los servicios de salud brindados a nivel nacional. DURACIÓN: La duración de esta beca será de acuerdo al programa de la especialidad, subespecialidad médica que va a realizar de acuerdo al programa correspondiente. MONTOS: La beca cubrirá hasta el 100% de la especialidad, subespecialidad médica, según lo establecido en el Reglamento de Becas IFARHU-SENACYT. FECHA DE
+APERTURA DE LA CONVOCATORIA: 18 DE DICIEMBRE DE 2019. PLAZO PARA ENTREGA DE SOLICITUD: 20 DE AGOSTO DE 2020 A LAS 3:00 P.M. PARA MAYORES DETALLES VER ANUNCIO ENTRE LOS DOCUMENTOS A DESCARGAR</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Anuncio_Convocatoria-final.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/11/BASESAPRENDIZAJE_BASES.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/PENCYT-2015-2019-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Reglamento-Resolución-No.-191-de-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/Acta_recepcion_propuesta-webfinal.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Comunicación-de-Aplazamiento-de-Resultados.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/09/Resolución-de-cierre-de-Convocatoria-Pública-FIE.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/12/Anuncio-de-Esp.-y-Subesp.-Médicas-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/Declaracion-Jurada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/Reglamento-de-Becas-Nuevo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Resolución-de-Extensión-de-Especialidades.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/07/Resolución-No.166-Especialidades-y-Subesp-Extensión-de-Cierre.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/Anuncio-de-Resultados-de-Esp.-y-Subesp-Médicas-II-Ronda-2019.pdf</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-fomento-a-la-innovacion-educativa/</t>
+          <t>https://www.senacyt.gob.pa/especialidades-y-subespecialidades-medicas-en-areas-prioritarias-del-sector-salud-a-realizar-en-el-extranjero-ii-ronda-2019/</t>
         </is>
       </c>
     </row>
@@ -1716,22 +1716,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Convocatoria Pública de Fortalecimiento a Equipamiento e Instrumentación Especializado para Actividades de I+D (EIE) 2019</t>
+          <t>CONVOCATORIA PÚBLICA INNOVACIÓN EMPRESARIAL PARA MYPYMES EN TICS EN ALIANZA CON LA EMPRESA TRACTORA 2019 RONDA I</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>OBJETIVO: Dotar con equipos e instrumentos especializados a centros o laboratorios que desarrollan actividades de I+D, que permitan establecer o mejorar sus capacidades elevando su competitividad científica, a través de una misión/visión a mediano y largo plazo de impacto al Sistema de Ciencia, Tecnología e Innovación de Panamá. DIRIGIDO A: Son elegibles para participar instituciones que realicen investigación, constituidas como entidades públicas, centros de docencia superior acreditadas por CONEAUPA (con o sin fines de lucro), centros de investigación públicos o privados sin fines de lucro, asociaciones de interés público, organizaciones no gubernamentales y fundaciones sin fines de lucro; debidamente domiciliadas en Panamá. CATEGORÍA DE EVALUACIÓN SEPARADAS: Categoría de Evaluación A: CIENCIAS MÉDICAS: Categoría de Evaluación B: INGENIERÍAS Y TECNOLOGÍA: Categoría de Evaluación C: CIENCIAS NATURALES: Categoría de Evaluación D: OTRAS RAMAS DE LA CIENCIA: Para mayor detalle sobre las áreas temáticas, ver el Código UNESCO que se encuentra en la página web de la SENACYT. FECHAS Y PLAZOS DE PRESENTACIÓN: Fecha de apertura de la convocatoria:             11 de octubre de 2019 Plazo para entrega de propuestas:                    7 de enero de 2020 (hasta las 1:00 p.m., hora exacta)</t>
+          <t>OBJETIVO: Fortalecer la competitividad de las empresas de desarrollo de software en Panamá, mediante el fomento de su capacidad de desarrollo de productos informáticos innovadores dirigidos a solventar las necesidades tecnológicas de la empresa Tractora. Se espera que el producto desarrollado pueda luego ser comercializado a nivel nacional e internacionalmente por la empresa software. DIRIGIDO A: Empresas inscritas en el Registro Público de Panamá, con característica de MYPYMES, con actividad económica en el Aviso de Operaciones relacionadas con temas de programación de software, ejemplo: Actividades de Edición – Edición de programas informáticos, Actividades de la Tecnología de Información y del servicio informático y/o Actividades del servicio informático e informativo – Otras actividades del servicio de información. DURACIÓN: Categoría de Evaluación A: Los proyectos presentados deberán tener una duración máxima de veinticuatro (24) meses en los cuales deberá considerar la inclusión del desarrollo del software en un máximo de doce (12) meses; y el mantenimiento con soporte técnico al software desarrollado en un tiempo obligatorio de doce (12) meses. MONTOS: Categoría de Evaluación A: Subsidio económico de hasta el 90% del costo total de la propuesta, según las necesidades plenamente justificadas de la misma, hasta la suma máxima de B/. 250,000.00. El 10% restante del costo total de la propuesta debe de ser aportado por la empresa Tractora, este aporte debe ser detallado en la etapa primera (I) del proyecto y NO se permite que dicho aporte sea considerado en especies.  FECHA Y PLAZOS DE PRESENTACIÓN FECHA DE APERTURA DE LA CONVOCATORIA: 3 de diciembre de 2019 PLAZO PARA ENTREGA DE PROPUESTAS: 14 de febrero de 2020 (HASTA LAS 3:00 PM, HORA EXACTA).  PARA MAYORES DETALLES VER ANUNCIO ENTRE LOS DOCUMENTOS A DESCARGAR O SI REQUIERE INFORMACIÓN ADICIONAL  CONTACTAR AL CORREO iet2019@senacyt.gob.pa O AL TELÉFONO 517-0014</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/11/Anuncio-Convocatoria-EIE-2019-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Bases-Convocatoria-EIE-2019-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Modelo-de-Contrato-por-Mérito.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/PENCYT-2015-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Reglamento - Resolución No. 191 de 2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/08/1.a.-Listado-de-Propuestas-Recibidas-EIE19.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/3.-Resolución-de-extensión-de-tiempo-EIE-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/08/Lista-de-Resultados-EIE19.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/RESOLUCION-ADMINISTRATIVA-CEN-22.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/RESOLUCION-ADMINISTRATIVA-CEN-23.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/RESOLUCION-ADMINISTRATIVA-CEN-24.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/RESOLUCION-ADMINISTRATIVA-CEN-25.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/RESOLUCION-ADMINISTRATIVA-CEN-26.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/12/CONVOCATORIAS-TRACTORA-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/ANUNCIO-CONVOCATORIA-TRACTORA2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/BASES-CONVOCATORIA-TRACTORA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/6-Modelo-Contrato-por-Mérito-Rev.-Julio2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/1.-Resolución-191-de-31-de-julio-de-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/Lista-de-propuestas-PFIE-FIE-2020-recibidasCENIT.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/09/Resolucion-de-cancelacion-de-convocatoria-Tractora.pdf</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-fortalecimiento-a-equipamiento-e-instrumentacion-especializado-para-actividades-de-id-eie-2019-2/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-innovacion-empresarial-para-mypymes-en-tics-en-alianza-con-la-empresa-tractora-2019-ronda-i/</t>
         </is>
       </c>
     </row>
@@ -1741,22 +1741,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Convocatoria Pública para el Apoyo de Actividades que fomenten la Innovación y el Emprendimiento 2019</t>
+          <t>Convocatoria de Doctorado en Biotecnología</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>DIRIGIDO A:  Sociedades anónimas y centros de investigación públicos o privados sin fines de lucro, formalmente registradas en la República de Panamá y universidades nacionales, debidamente autorizadas . ÁREAS TEMÁTICAS:</t>
+          <t>DIRIGIDA A: Está dirigido a estudiantes panameños con título universitario en áreas de estudio como biología, nutrición, agricultura, química, alimentos, farmacia, medicina, odontología, tecnología médica, ingenierías y áreas afines, que deseen adquirir conocimiento y destrezas sobre las técnicas y metodologías básicas y avanzadas implicadas en la generación de conocimientos bio-científicos y en su utilización para el desarrollo de biotecnologías. OBJETIVO: Formación de recurso humano en las áreas de Biociencias y Biotecnología mediante un Doctorado en Biociencias y Biotecnología para formar doctores investigadores. *Este periodo podrá incluir una estancia por hasta un (1) año en el exterior, para la cual se contemplan los costos de pasaje aéreo y un incremento de manutención mensual. PLAZO PARA ENTREGA DE PROPUESTAS: 14 de febrero de 2020 hasta las 3:00 P.M. HORA EXACTA  PARA MAYORES DETALLES VER ANUNCIO ENTRE LOS DOCUMENTOS A DESCARGAR</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/11/8.5-X-11_Convocatoria_NaIEmP.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/11/Anuncio_Convocatoria-min.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/11/BASES_Innovacion.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Resolución-191-de-31-de-julio-Contratación-por-Merito.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/Listado-de-Propuestas-Recibidas.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/12/ANUNCIO-Doctorado-de-Biotecnología-05-de-dic.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/CONVENIO-ENTRE-SENACYT-IFARHU-UTP-INDICASAT.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/Declaración-Jurada-Nueva.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/Pasos-a-Seguir.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/Reglamento-de-Becas-Nuevo-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Anuncio-de-Resultados.pdf</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-fomento-a-nuevos-emprendimiento-2019-2/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-de-doctorado-en-biotecnologia/</t>
         </is>
       </c>
     </row>
@@ -1766,22 +1766,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>PREMIO NACIONAL A LA INNOVACIÓN EMPRESARIAL 2020</t>
+          <t>Convocatoria Pública Fomento a Nuevos Emprendimientos en Tecnología: Capital Semilla con enfoque de igualdad de género 2019</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>OBJETIVO: Promover y fortalecer la capacidad de innovación en las empresas en Panamá mediante el reconocimiento de actividades exitosamente probadas de innovación empresarial. Fecha de apertura: ; 21 DE NOVIEMBRE DE 2019 Cierre de recepción de propuestas: 07 DE FEBRERO DE 2020 HASTA LAS 11:30 P.M. (HORA EXACTA). Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>OBJETIVO: Apoyar a nuevos emprendedores/as y microempresas en el desarrollo de proyectos de innovación en tecnología liderados por mujeres o con equipos de proyectos con igual participación de hombres y mujeres, que tengan un potencial de crecimiento a nivel  internacional. Al finalizar los proyectos, los nuevos emprendedores/as y microempresas deben contar como mínimo con un prototipo. DIRIGIDO A: Nuevos emprendedores/as: personas naturales, de nacionalidad panameña que estén residiendo en Panamá, mayores de edad. Personas jurídicas constituidas como sociedades anónimas debidamente inscritas en el Registro Público de Panamá, que cumplan con las características de Micro y Pequeña empresa. Ver detalle en Información Adicional en las Bases de la Convocatoria. DURACIÓN: Los proyectos presentados deberán tener una duración máxima de ocho (8) meses en los cuales podrá estar incluido el proceso de incubación, aunque este no es de carácter obligatorio. De ser incluido, el proceso de incubación sería desarrollado simultáneamente con la ejecución del proyecto. MONTOS: El monto máximo del subsidio económico que otorgará la SENACYT es hasta la suma de B/. 30,000.00. Este monto máximo incluirá el desarrollo del proyecto y podrá incorporar un proceso de incubación, aunque no es obligatorio. En el caso que se incluya el proceso de incubación, no deberá destinarse una suma mayor al diez por ciento (10%) del monto total del proyecto. FECHA Y PLAZOS DE PRESENTACIÓN  FECHA DE APERTURA DE LA CONVOCATORIA: 2  de diciembre de 2019  PLAZO PARA ENTREGA DE PROPUESTAS: 7  de febrero de 2020  (HASTA LAS 2:00 PM, HORA EXACTA) PARA MAYORES DETALLES VER ANUNCIO ENTRE LOS DOCUMENTOS A DESCARGAR O SI REQUIERE INFORMACIÓN ADICIONAL  CONTACTAR AL CORREO capitalsemilla2019@senacyt.gob.pa O AL TELÉFONO 517-0049</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/11/Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/11/Nota-de-prensa-Ceremonia.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/12/1.-AFICHE-CONVOCATORIA-GÉNERO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/2.-ANUNCIO-CONVOCATORIA-GÉNERO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/3.-BASES-CONVOCATORIA-GÉNERO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/1.-Resolución-191-de-31-de-julio-de-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/10.-Modelo-Contrato-por-Mérito-Rev.-Julio2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/Lista-de-propuestas-recibidas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/09/Resolucion-de-cancelacion-de-convocatoria-NECS-Enfoque-de-genero.pdf</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/premio-nacional-a-la-innovacion-empresarial-2020/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-fomento-a-nuevos-emprendimientos-en-tecnologia-capital-semilla-con-enfoque-de-igualdad-de-genero-2019/</t>
         </is>
       </c>
     </row>
@@ -1791,22 +1791,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Premio Nacional L’Oréal “Por las Mujeres en la Ciencia” – 2019</t>
+          <t>Convocatoria Pública Para el Fomento a la Innovación Educativa</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>OBJETIVO: Fomentar el desarrollo de las mujeres que han dedicado su trabajo y estudios a la ciencia. Fecha de apertura: 20 de septiembre de 2019. Fecha de cierre: 21 de octubre de 2019. Adjudicación del Premio: Lunes 18 de noviembre 2019. Para mayores detalles ver anexo 1, bases y condiciones entre los documentos a descargar.</t>
+          <t>OBJETIVO: Generar innovaciones para la educación formal y no formal del país, que propicien una mejora en la formación y actitud hacia las ciencias, y estén acordes con las políticas educativas nacionales. DIRIGIDO A: Personas naturales panameñas o extranjeras residentes en Panamá, Personas Jurídicas panameñas inscritas en el Registro Público de Panamá con o sin fines de lucro, Instituciones Públicas, Patronatos creados por Ley, Organizaciones no gubernamentales, Fundaciones de interés privado, con o sin fines de lucro, Asociaciones de interés público. Podrán participar de manera individual o afiliados. CATEGORÍA DE EVALUACIÓN SEPARADAS: • Categoría de Evaluación A: Propuestas de Proyectos educativos innovadores y de Educación Inclusiva en las áreas temáticas definidas. • Categoría de Evaluación B: Propuestas de Talleres en Ciencia, Tecnología y Educación Inclusiva en las áreas temáticas definidas. Observación: En las áreas temáticas definidas, específicamente en Pedagogía, se considerarán propuestas enfocadas a Evaluación y a Educación Inclusiva. DURACIÓN: • Categoría de Evaluación A: 24 Meses • Categoría de Evaluación B: 12 Meses MONTOS: • Categoría de Evaluación A: 30000 Balboas • Categoría de Evaluación B: 15000 Balboas FECHA Y PLAZOS DE PRESENTACIÓN FECHA DE APERTURA DE LA CONVOCATORIA: 22 DE OCTUBRE DE 2019  PLAZO PARA ENTREGA DE PROPUESTAS: 13 DE ENERO DE 2020 (HASTA LAS 3:00 PM, HORA EXACTA)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/09/2.-Anexo-No.-1-Bases-y-Condiciones-Premio-LOreal-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Listado_Miembros_Comité_Evaluación_Premio_Nacional_L_Oréal-UNESCO-2019.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Anuncio_Convocatoria-final.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/11/BASESAPRENDIZAJE_BASES.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/PENCYT-2015-2019-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Reglamento-Resolución-No.-191-de-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/Acta_recepcion_propuesta-webfinal.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Comunicación-de-Aplazamiento-de-Resultados.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/09/Resolución-de-cierre-de-Convocatoria-Pública-FIE.pdf</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/premio-nacional-por-las-mujeres-en-la-ciencia-2019/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-fomento-a-la-innovacion-educativa/</t>
         </is>
       </c>
     </row>
@@ -1816,10 +1816,148 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>Convocatoria Pública de Fortalecimiento a Equipamiento e Instrumentación Especializado para Actividades de I+D (EIE) 2019</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>OBJETIVO: Dotar con equipos e instrumentos especializados a centros o laboratorios que desarrollan actividades de I+D, que permitan establecer o mejorar sus capacidades elevando su competitividad científica, a través de una misión/visión a mediano y largo plazo de impacto al Sistema de Ciencia, Tecnología e Innovación de Panamá. DIRIGIDO A: Son elegibles para participar instituciones que realicen investigación, constituidas como entidades públicas, centros de docencia superior acreditadas por CONEAUPA (con o sin fines de lucro), centros de investigación públicos o privados sin fines de lucro, asociaciones de interés público, organizaciones no gubernamentales y fundaciones sin fines de lucro; debidamente domiciliadas en Panamá. CATEGORÍA DE EVALUACIÓN SEPARADAS: Categoría de Evaluación A: CIENCIAS MÉDICAS: Categoría de Evaluación B: INGENIERÍAS Y TECNOLOGÍA: Categoría de Evaluación C: CIENCIAS NATURALES: Categoría de Evaluación D: OTRAS RAMAS DE LA CIENCIA: Para mayor detalle sobre las áreas temáticas, ver el Código UNESCO que se encuentra en la página web de la SENACYT. FECHAS Y PLAZOS DE PRESENTACIÓN: Fecha de apertura de la convocatoria:             11 de octubre de 2019 Plazo para entrega de propuestas:                    7 de enero de 2020 (hasta las 1:00 p.m., hora exacta)</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/11/Anuncio-Convocatoria-EIE-2019-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Bases-Convocatoria-EIE-2019-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Modelo-de-Contrato-por-Mérito.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/PENCYT-2015-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Reglamento - Resolución No. 191 de 2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/08/1.a.-Listado-de-Propuestas-Recibidas-EIE19.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/3.-Resolución-de-extensión-de-tiempo-EIE-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/08/Lista-de-Resultados-EIE19.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/RESOLUCION-ADMINISTRATIVA-CEN-22.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/RESOLUCION-ADMINISTRATIVA-CEN-23.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/RESOLUCION-ADMINISTRATIVA-CEN-24.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/RESOLUCION-ADMINISTRATIVA-CEN-25.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/RESOLUCION-ADMINISTRATIVA-CEN-26.pdf</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-fortalecimiento-a-equipamiento-e-instrumentacion-especializado-para-actividades-de-id-eie-2019-2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Convocatoria Pública para el Apoyo de Actividades que fomenten la Innovación y el Emprendimiento 2019</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>DIRIGIDO A:  Sociedades anónimas y centros de investigación públicos o privados sin fines de lucro, formalmente registradas en la República de Panamá y universidades nacionales, debidamente autorizadas . ÁREAS TEMÁTICAS:</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/11/8.5-X-11_Convocatoria_NaIEmP.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/11/Anuncio_Convocatoria-min.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/11/BASES_Innovacion.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Resolución-191-de-31-de-julio-Contratación-por-Merito.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/Listado-de-Propuestas-Recibidas.pdf</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-fomento-a-nuevos-emprendimiento-2019-2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>PREMIO NACIONAL A LA INNOVACIÓN EMPRESARIAL 2020</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>OBJETIVO: Promover y fortalecer la capacidad de innovación en las empresas en Panamá mediante el reconocimiento de actividades exitosamente probadas de innovación empresarial. Fecha de apertura: ; 21 DE NOVIEMBRE DE 2019 Cierre de recepción de propuestas: 07 DE FEBRERO DE 2020 HASTA LAS 11:30 P.M. (HORA EXACTA). Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/11/Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/11/Nota-de-prensa-Ceremonia.pdf</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/premio-nacional-a-la-innovacion-empresarial-2020/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>PROGRAMA DE INSERCIÓN DE BECARIOS DE LA SENACYT EN INSTITUTOS, CENTROS DE INVESTIGACIÓN,UNIVERSIDADES, INSTITUCIONES PÚBLICAS O EMPRESAS PRIVADAS, 2019</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>DIRIGIDA A: Profesionales con grado de maestría o
+doctorado, que hayan sido becados a través de los Programas de Becas
+financiados por la SENACYT y que quieran insertarse en el mercado laboral de la
+República de Panamá, en institutos, centros de investigación, universidades,
+instituciones públicas o empresas privadas, que hayan suscrito Convenio con la
+SENACYT. En esta Convocatoria podrán participar los ex becarios que hayan retornado
+al país del 16 de abril de 2019 al 15 de enero de 2020.  OBJETIVO: Insertar en el mercado laboral de la
+República de Panamá a los ex becarios de la SENACYT en posiciones acorde con su
+nivel académico y profesional, con la finalidad de mejorar la capacidad
+científica, técnica y productiva de Panamá. FECHA DE
+APERTURA DE LA CONVOCATORIA:      24 de
+septiembre de 2019 PLAZO
+PARA ENTREGA DE SOLICITUD:                   
+30 de enero de 2020 a las 3:00 p.m. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/09/ANUNCIO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/DECLARACIÓN-JURADA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/PASOS-A-SEGUIR.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Reglamento-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/OFERTA-ABCO-Global.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/OFERTA-MIDA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/OFERTA-IDIAP.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/OFERTA-MINSA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/OFERTA-INDICASAT-AIP.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/OFERTA-ICGES.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/OFERTA-UDELAS.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/OFERTA-UMIP1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/OFERTA-UMIP2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/OFERTA-UP.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/OFERTA-USMA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/OFERTA-UTP.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/ACTA-DE-RECEPCIÓN-DE-APLICACIONES-SEPTIEMBRE-DE-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/ANUNCIO-DE-RESULTADOS.pdf</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/programa-de-insercion-de-becarios-de-la-senacyt-en-institutos-centros-de-investigacionuniversidades-instituciones-publicas-o-empresas-privadas-2019-2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Premio Nacional L’Oréal “Por las Mujeres en la Ciencia” – 2019</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>OBJETIVO: Fomentar el desarrollo de las mujeres que han dedicado su trabajo y estudios a la ciencia. Fecha de apertura: 20 de septiembre de 2019. Fecha de cierre: 21 de octubre de 2019. Adjudicación del Premio: Lunes 18 de noviembre 2019. Para mayores detalles ver anexo 1, bases y condiciones entre los documentos a descargar.</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/09/2.-Anexo-No.-1-Bases-y-Condiciones-Premio-LOreal-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Listado_Miembros_Comité_Evaluación_Premio_Nacional_L_Oréal-UNESCO-2019.pdf</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/premio-nacional-por-las-mujeres-en-la-ciencia-2019/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
           <t>CONVOCATORIA PÚBLICA PARA PARTICIPAR EN EL TALLER PARA LA FORMULACIÓN DE PROYECTOS DE INNOVACIÓN 2019</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>DIRIGIDO A: Personas naturales panameñas o
 extranjeras residentes en la República de Panamá, mayores de edad. OBJETIVO: Construir y fortalecer la
@@ -1837,27 +1975,27 @@
 legales y financieros de cualquier tipo de proyecto.</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Resolución-Administrativa-122-de-7-5-2018-Reglamento-Programa-para-la-Competitividad.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Lunes-23-de-septiembre-de-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Martes-24-de-septiembre-de-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/2019-234-Nota-DINE-Taller-Innovación.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Resultados-25-de-septiembre.pdf</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/convocatoria-publica-para-participar-en-el-taller-para-la-formulacion-de-proyectos-de-innovacion-2019/</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>CONVOCATORIA PÚBLICA PARA PARTICIPAR EN EL TALLER PARA LA FORMULACIÓN DE PROYECTOS DE INNOVACIÓN 2019 – RONDA II</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>DIRIGIDO A: Personas naturales panameñas o
 extranjeras residentes en la República de Panamá, mayores de edad. OBJETIVO: Construir y fortalecer la
@@ -1875,77 +2013,141 @@
 legales y financieros de cualquier tipo de proyecto. FECHA DE APERTURA DE LA CONVOCATORIA:  23 DE SEPTIEMBRE DE 2019 PLAZO PARA COMPLETAR FORMULARIO EN LÍNEA: 24 DE SEPTIEMBRE DE 2019. HASTA LA 12:00 M.D., HORA EXACTA.</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Resultados-25-de-septiembre-RONDA-II.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Resultados-28-de-septiembre-RONDA-II.pdf</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/convocatoria-publica-para-participar-en-el-taller-para-la-formulacion-de-proyectos-de-innovacion-2019-ronda-ii/</t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>CONVOCATORIA PÚBLICA DE DIPLOMADO EN CIENCIAS NATURALES</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>DIRIGIDA A: Docentes de educación primaria, con funciones relacionadas a la enseñanza de las Ciencias Naturales, que atiendan preferiblemente niveles de 4° a 6°, que posean nombramiento del Ministerio de Educación y que se encuentren en servicio en escuelas oficiales de la región de Chiriquí. OBJETIVO: Contribuir con la formación continua de los docentes en servicio, para mejorar la enseñanza de las Ciencias Naturales en la región escolar de Chiriquí. ÁREA TEMÁTICA: CIENCIAS NATURALES La SENACYT otorgará hasta 35 becas para la región escolar de Chiriquí. DURACIÓN: El Diplomado tendrá una duración de 5 meses. HORARIO PROPUESTO: miércoles de 5:00 p.m. a 8:00 p.m. y sábados de 8:00 a.m. a 5:00 p.m. Este horario, está sujeto a cambios dependiendo de la necesidad de la región escolar. MONTOS DEL SUBSIDIO: La SENACYT cubrirá el 100% del monto del Diplomado. FECHA DE APERTURA DE LA CONVOCATORIA: 5 de septiembre de 2019 FECHA DE CIERRE DE LA CONVOCATORIA: 8 de noviembre de 2019. Hasta las 3:30 p.m. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar.</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/09/ANUNCIO-DE-CONVOCATORIA-DIPLOMADO-CN-UNACHI-2019-.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Formulario-de-Aplicación-Diplomado-CN-2019-f.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Relación-de-Documentos-Entregados-DiplomadoCN-2019-f.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Formato-de-Paz-y-Salvo-SENACYT-Diplomado-CN-CH-2019.pdf</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/convocatoria-publica-de-diplomado-en-ciencias-naturales/</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>BECAS DE PREGRADO DE EXCELENCIA 2019</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>DIRIGIDA A: Estudiantes panameños que posean título de bachiller o estén en su último período académico en un centro de estudios de educación media a nivel nacional, debidamente reconocido por la entidad competente en Panamá. OBJETIVO: Fortalecer al país en áreas de Ciencia, Tecnología y en Investigación para contar con grupo de profesionales con formación en centros de excelencia y en áreas claves para el desarrollo del país. Duración: La beca tendrá la duración máxima de cinco (5) años. MONTOS: La SENACYT establecerá una tabla de asignación de fondos indicando el monto correspondiente al estipendio de manutención según el país, región y universidad donde realicen los estudios. La escalada de asignaciones monetarias será publicada en la página web de la SENACYT. Las becas del Programa podrán tener una asignación anual de hasta Sesenta Mil Balboas con 00/100 (B/.60,0000.00) y la asignación total de la beca no podrá exceder la suma de Doscientos Cincuenta Mil Balboas con 00/100 (B/.250,000.00). La SENACYT podrá otorgar becas parciales en atención a su disponibilidad presupuestaria. FECHA DE APERTURA DE LA CONVOCATORIA: 29 DE AGOSTO DE 2019  PLAZO PARA ENTREGA DE DOCUMENTOS: 20 DE AGOSTO DE 2020 A LAS 3:00 P.M.</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/08/BPGE-2019-Anuncio.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Reglamento-de-Becas-Nuevo-2017-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Declaracion-Jurada-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/BPGE-2019-Pasos-a-seguir.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/BPGE-2019-Checklist.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/BPGE-2019-Áreas-Temáticas-Carreras.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/BPGE-2019-Lista-de-Universidades-Sugeridas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Tabla-de-Asignaciones-Monetarias.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/11/Resolución-de-Extensión-Junio-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/07/Resolución-No.165-Pregrado-de-Excelencia-Extensión-de-cierre.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/Anuncio-de-Resultados-Pregrado-de-Excelencia-2019.pdf</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/convocatorias-becas-de-excelencia-2019/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>ESPECIALIDADES Y SUBESPECIALIDADES MÉDICAS EN ÁREAS PRIORITARIAS DEL SECTOR SALUD A REALIZAR EN EL EXTRANJERO 2019</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>DIRIGIDA A: Médicos panameños idóneos que se encuentren o no  laborando en el sistema público de salud, interesados en adquirir especialidades o subespecialidades médicas en el extranjero, a fin de perfeccionar su desempeño laboral en las áreas del conocimiento priorizadas por el sector salud. OBJETIVO: Este programa está diseñado para fortalecer la formación del recurso humano especializado en áreas del conocimiento donde hay necesidad de formación en el país, a fin de mejorar la calidad de los servicios de salud brindados a nivel nacional. ÁREAS TEMÁTICAS: Las siguientes especialidades y subespecialidades médicas priorizadas actualmente por el Sector Salud, las  cuales además cuentan con aval del Consejo Técnico de Salud: Duración: La duración de esta beca será de acuerdo al programa de la especialidad o de la subespecialidad médica que va a realizar y de conformidad con lo establecido por el Consejo Técnico de Salud. MONTOS: La beca cubrirá hasta el 100% de la especialidad o de la subespecialidad médica, según lo establecido en el Reglamento de Becas IFARHU-SENACYT. FECHA DE APERTURA DE LA CONVOCATORIA: 16 DE AGOSTO DE 2019 PLAZO PARA ENTREGA DE DOCUMENTOS: 22 DE NOVIEMBRE DE 2019 a las 3:00 p.m. HORA EXACTA .</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Anuncio_de_Esp._y_Subesp._Médicas_20191.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Reglamento_de_Becas_Nuevo1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Declaracion_Jurada1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Pasos_a_seguir1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/Anuncio-de-Resultados.pdf</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/especialidades-y-subespecialidades-medicas-en-areas-prioritarias-del-sector-salud-a-realizar-en-el-extranjero-2019/</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>CONVOCATORIA DE BECAS DE PREGRADO DE EXCELENCIA PARA COLEGIOS OFICIALES RONDA II 2019</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>DIRIGIDA A: Estudiantes panameños que posean título
+de bachiller o estén cursando el último periodo del último año del bachillerato,
+en un centro de estudios de educación media oficial en Panamá, con la intención
+de realizar estudios en la Universidad de Waterloo, en la Universidad de
+Ontario, en la Universidad del Sur de Indiana o en la Universidad de Arkansas. OBJETIVO: Fortalecer al país en áreas de Ciencia,
+Tecnología e Investigación para contar con profesionales con formación en
+centros de excelencia y en áreas claves para el desarrollo del país. Duración: La beca tendrá la duración de acuerdo con
+el Plan de Estudio de la Licenciatura. Este Programa contempla la formación del
+idioma inglés y nivelación académica por un periodo de hasta un (1) año
+adicional. MONTOS: Las becas de este Programa tendrán una
+asignación anual de hasta Sesenta Mil Balboas con 00/100 (B/. 60,000.00) y la asignación
+total no podrá exceder la suma de Doscientos Cincuenta Mil Balboas con 00/100
+(B/. 250,000.00). También se podrán dar becas parciales. FECHA DE APERTURA DE LA CONVOCATORIA: 13 DE AGOSTO DE
+2019 PLAZO PARA ENTREGA DE DOCUMENTOS: 7 DE ENERO DE 2020
+HASTA LAS 3:00 P.M. HORA EXACTA</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Anuncio-2019-PDF.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Formulario-de-IFARHU-SENACYT.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Reglamento-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Declaración-Jurada-Nueva-3.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Pasos-a-seguir-PDF-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/ÁREAS-TEMÁTICAS-ARKANSAS-PDF.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/ÁREAS-TEMÁTICAS-INDIANA-PDF.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/ÁREAS-TEMATICAS-ONTARIO-PDF.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/ÁREAS-WATERLOO-PDF.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/Anuncio-de-Resultado.pdf</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/convocatoria-de-becas-de-pregrado-de-excelencia-para-colegios-oficiales-ronda-ii-2019/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>MAESTRÍA EN CIENCIAS AGROPECUARIAS 2019</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>DIRIGIDA A: Panameños con grado de licenciatura o
 equivalente, interesados en realizar estudios de maestría en las áreas
@@ -1963,27 +2165,27 @@
 HASTA LAS 3:00 P.M. HORA EXACTA</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/08/BEPA_Anuncio-PDF.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Reglamento-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Declaracion-Jurada-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/BEPA_Pasos-a-seguir-PDF.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Formulario-IFARHU-SENACYT.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Anuncio-de-Resultados-Maestría-en-Ciencias-Agropecuarias.pdf</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/maestria-en-ciencias-agropecuarias-2019/</t>
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>DOCTORADO EN CIENCIAS AGROPECUARIAS 2019</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>DIRIGIDA A: Panameños con grado de licenciatura o
 maestría, interesados en realizar estudios de doctorado en las áreas
@@ -2005,27 +2207,27 @@
 HASTA LAS 3:00 P.M. HORA EXACTA</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Anuncio-de-la-Convocatoria-PDF.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Reglamento-de-Becas-IFARHU-SENACYT.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Declaracion-Jurada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Pasos-a-seguir-PDF.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Formulario-IFARHU-SENACYT.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Anuncio-de-Doctorado.pdf</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/doctorado-en-ciencias-agropecuarias-2019/</t>
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>CONVOCATORIA DE MAESTRÍA EN ÁREAS ESPECÍFICAS DEL CONOCIMIENTO IDENTIFICADAS POR LA SENACYT MAESTRÍA EN EDUCACIÓN 2019.</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>DIRIGIDA A: Panameños con grado de licenciatura o
 equivalente, interesados en realizar estudios de maestría en las áreas
@@ -2042,27 +2244,27 @@
 HASTA LAS 3:00 P.M. HORA EXACTA</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Anuncio-de-Educación-2019-PDF.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Declaración-Jurada-Nueva-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Pasos-a-Seguir-PDF.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Formulario-IFARHU-SENACYT.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Anuncio-de-Resultados-Maestría-en-Educación.pdf</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/convocatoria-de-maestria-en-areas-especificas-del-conocimiento-identificadas-por-la-senacyt-maestria-en-educacion-2019/</t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>CONVOCATORIA DE DOCTORADO DE INVESTIGACIÓN RONDA II-2019</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>DIRIGIDA A: Panameños que deseen formarse como
 investigadores en centros de estudios de excelencia en el extranjero o que ya
@@ -2086,27 +2288,27 @@
 hasta las 3:00 P.M. HORA EXACTA</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/08/BIDP-II-2019-ANUNCIO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Reglamento-de-Becas-Nuevo-2017-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Declaración-Jurada-Nueva-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/BIDP-II-2019-pasos.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/Resultados-de-Doctorado-de-Investigación-IIRONDA.pdf</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/convocatoria-de-doctorado-de-investigacion-ronda-ii-2019/</t>
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t>CONVOCATORIA DE DOCTORADO PARA FORMAR INVESTIGADORES PARA UNIVERSIDADES, CENTROS DE INVESTIGACIÓN O LABORATORIOS DE INTERÉS NACIONAL RONDA II-2019</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>DIRIGIDA A: Profesores o Investigadores panameños
 vinculados a universidades, centros de investigación o laboratorios de interés
@@ -2130,52 +2332,52 @@
 hasta las 3:00 P.M. HORA EXACTA</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/08/BEPDE-II-2019-Anuncio.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Reglamento-de-Becas-Nuevo-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Declaración-Jurada-Nueva.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/BEPDE-II-2019-Pasos-a-seguir.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/Resultado-de-Doctorado-para-Formar-Investigadores-II-Ronda.pdf</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/convocatoria-de-doctorado-para-formar-investigadores-para-universidades-centros-de-investigacion-o-laboratorios-de-interes-nacional-ronda-ii-2019/</t>
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>PROGRAMA DE JÓVENES CIENTÍFICOS PARA EL AÑO 2020</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>DIRIGIDA A: Jóvenes estudiantes panameños pertenecientes al sistema educativo nacional que cursarán entre octavo a duodécimo grado en el año 2020 y que deseen realizar investigaciones científicas. OBJETIVO: Fomentar el contacto directo de los adolescentes con la investigación científica, facilitando el desarrollo de habilidades de estudio e investigación y promoviendo vocaciones científicas y tecnológicas, por medio de la asesoría de un Mentor Científico. MONTO: Se otorgará un subsidio económico de B/. 700.00 para la compra y/o utilización de insumos científicos y otros gastos de operación no disponibles y que sean imprescindibles para alcanzar los objetivos del proyecto de investigación. Este subsidio será entregado en un solo desembolso, al Adulto Coordinador, que se encuentre designado en el Formulario de Aplicación. FECHA DE APERTURA DE LA CONVOCATORIA: 2 de agosto de 2019 FECHA DE CIERRE DE LA CONVOCATORIA: 31 de octubre de 2019 a las 3:00 p.m. HORA EXACTA. Para mayores detalles ver anuncio entre los documentos a descargar.</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/08/anuncio-Convocatoria.doc.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Carta-de-autorización-del-tutor-legal.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Carta-de-compromiso-adulto-coordinador.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Carta-de-compromiso-Participantes-y-Tutores-Legales.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/lista-de-mentores-2020-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Reglamento-Jóvenes-Científicos.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/11/Acta-de-recepción-de-aplicaciones-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/1-Acta-de-recepción-de-aplicaciones-2020-subsanación.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/Acta-de-la-lista-de-participantes-recomendados.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/Anuncio-de-Resultados-de-la-Convocatoria-min.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/06/Resolución-de-subsidio-firmada.pdf</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/programa-de-jovenes-cientificos-para-el-ano-2020/</t>
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>CONVOCATORIA PÚBLICA DE GENERACIÓN DE CAPACIDADES CIENTÍFICAS Y TECNOLÓGICAS  2019 RONDA II</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>DIRIGIDA A: Personas jurídicas con o sin fines de lucro
 debidamente inscritas en el Registro Público de Panamá o personas naturales de
@@ -2185,52 +2387,77 @@
 interés público o centros de investigación en la República de Panamá. MONTO DE ADJUDICACIÓN MÁXIMO POR CATEGORÍA: FECHA DE APERTURA DE LA CONVOCATORIA: 30 de julio de 2019.  PLAZO PARA ENTREGA DE PROPUESTAS: 01 de octubre de 2019 Hasta las 3:00 PM HORA EXACTA.</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/07/2REGLAMENTO-DE-CONTRATACIÓN-POR-MÉRITO-DE-SENACYT-RESOLUCIÓN-NO.-191-DE-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/3BASES-DE-LA-CONVOCATORIA-.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/5FORMULARIO-DE-EVALUACIÓN-DE-PROPUESTAS.docxr.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/7MODELO-CONTRATO-POR-MERITO-REVISADO-JULIO-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/11Tabla-de-viático-GC.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/ACTA-DE-RECEPCION-DE-PROPUESTA-DE-GC-2019B.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/Lista-de-Resultados-GC-2019-RONDA-II-.docx.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Resolución-de-adjudicación-09.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/Resolución-No.49-de-Frank-Aguilar.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/Resolución-No.-62-de-Hector-Miranda.pdf</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/convocatoria-publica-de-generacion-de-capacidades-cientificas-y-tecnologicas-2019-ronda-ii/</t>
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>PROGRAMA DE BECAS FULBRIGHT-SENACYT-IFARHU 2020-2021 II Ronda</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>DIRIGIDA A: Profesionales panameños residentes en Panamá que han terminado su licenciatura al 30 de mayo del 2019, incluyendo el proyecto final de graduación. Los panameños con residencia en Estados Unidos o con doble nacionalidad (panameño / estadounidense) no serán considerados. Se les dará preferencia a aquellos candidatos que nunca han estudiado en Estados Unidos. Personas que hayan recibido una beca Fulbright anteriormente no son elegibles para este programa.  DURACIÓN: La maestría tiene una duración máxima de dos (2) años. El doctorado tiene una duración máxima de cuatro (4) años.  Fecha de Apertura: ; 17 DE JULIO DE 2019.  Fecha límite de entrega de solicitud: 20 DE AGOSTO DE 2019 HASTA LAS 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/07/Flyer-FUL-SEN-2019-II-Ronda.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/Áreas-temáticas-FUL-SEN-2019-II-Ronda.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/Como-aplicar-FUL-SEN-2019-II-Ronda.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/Paz-Salvo-FUL-SEN-2019-II-Ronda.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/Checklist-FUL-SEN-2019-II-Ronda.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/Reglamento-de-Becas-Nuevo-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/Declaracion-Jurada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/11/Acta-de-Resultados-FULBRIGHT-2020-2021-Ronda-II.pdf</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/programa-de-becas-fulbright-senacyt-ifarhu-2020-2021-ii-ronda/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>Doctorado en Investigación Biomédica y clínica 2019</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>DIRIGIDA A: Médicos panameños que deseen formarse como investigadores. y den respuesta a la necesidad que tiene la sociedad a nivel nacional de médicos con formación científica que realicen investigaciones y contribuyan al diagnóstico, tratamiento, pronostico y prevención de enfermedades. OBJETIVO: Formación de recurso humano en el área de biomédica y clínica mediante un Doctorado de Investigación Biomédica y Clínica para formar médicos investigadores. MONTOS: La beca es hasta un 100% del costo, según Anexo l del Convenio IFARHU-SENACYT-UP-INDICASAT AIP. Los estudios del doctorado deberán cursarse en la modalidad de tiempo completo y dedicación exclusiva. *Este periodo podrá incluir una estancia por hasta dos (2) años en el exterior. para la cual se contemplan los costos de pasaje aéreo, sequros médicos y un incremento de manutención mensual. Fecha de Apertura: 25 DE JUNIO DE 2019 Plazo para Entrega: 25 DE JULIO DE 2019 (3:00 P.M. HORA EXACTA) Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Anuncio-Doc.-Investigación-B-y-C.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Reglamento-de-Becas-Nuevo-2017-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/declaracion-Jurada-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Anuncio-de-Resultados-Doc.-Investigación-Biomédica.pdf</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/doctorado-en-investigacion-biomedica-y-clinica-2019/</t>
         </is>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
         <is>
           <t>Doctorado en áreas específicas del conocimiento- Embajada de Francia</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>DIRIGIDA A: Panameños que posean un diploma de maestría, interesados en adquirir un título doctoral en Francia, en las áreas establecidas
 en el anuncio de la Convocatoria.
@@ -2238,210 +2465,14 @@
 programa prevé un ciclo completo de formación y aprendizaje del idioma en Panamá (enero -julio 2020) y en Francia (agosto 2020). OBJETIVO: Este programa tiene como objetivo mejorar la calidad de la gestión del Sistema Nacional de Ciencia y Tecnología, mediante la formación profesional en áreas de ciencia, tecnología y en investigación en otras áreas del conocimiento de interés para el país. MONTOS: Las becas podrán tener una asignación anual de hasta B/. 60,000.00 y la asignación total de la beca no podrá exceder la suma de B/. 250,000.00. El presupuesto se elaborará según los rubros y la tabla de asignación de fondos publicada en la página web de la SENACYT. Fecha de Apertura: 25 DE JUNIO DE 2019 Plazo para Entrega: 12 DE SEPTIEMBRE DE 2019 (3:00 P.M. HORA EXACTA) Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Anuncio-Doctorado-Embajada-de-Francia.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Reglamento-de-Becas-Nuevo-2017-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/declaracion-Jurada-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Pasos-a-seguir-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Anuncio-de-Resultados-Doctorado-1.pdf</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/doctorado-en-areas-especificas-del-conocimiento-embajada-de-francia/</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>CONVOCATORIA PÚBLICA DE NUEVOS INVESTIGADORES 2019 RONDA II</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>DIRIGIDA A: Estudiantes Panameños residentes en Panamá que estén cursando los dos últimos años de la licenciatura, o cursando un posgrado, afiliados a una entidad pública, universidad, asociaciones de interés público o personas jurídicas con o sin fines de lucro, con capacidad para realizar investigaciones científicas y desarrollo tecnológico e innovación. OBJETIVO: Proporcionar financiamiento o co-financiamiento para la promover la formación de nuevos investigadores a través deapoyo para recursos directamente relacionados con su investigación en las áreas temáticas de la convocatoria. MONTO MÁXIMO DE ADJUDICACIÓN POR CATEGORÍA: Estudiantes que estén cursando los dos (2) últimos años de la licenciatura y que estén vinculados a un investigador con grado de doctorado. Monto de adjudicación de hasta  B/. 20,000.00. Estudiantes de posgrado que estén vinculados a un investigador con grado de doctorado. Monto de adjudicación de hasta B/. 25,000.00 . FECHA DE APERTURA DE LA CONVOCATORIA: 30 de julio de 2019 PLAZO PARA ENTREGA DE PROPUESTAS: 08 de octubre 2019  Hasta las 3:00 PM HORA EXACTA.</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/07/2REGLAMENTO-DE-CONTRATACIÓN-POR-MÉRITO-DE-SENACYT-RESOLUCIÓN-NO.-191-DE-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/4LAS-BASES-DE-LA-CONVOCATORIA-.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/6FORMULARIO-DE-EVALUACIÓN-.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/7MODELO-CONTRATO-POR-MERITO-REVISADO-JULIO-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/ACTA-DE-RECEPCIÓN-DE-PROPUESTAS-DE-NUEVOS-INVESTIGADORES-2019-RONDA-II.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/11/SUBSANACION-DEL-ACTA-DE-RECEPCIÓN-DE-PROPUESTAS-DE-NUEVOS-INVESTIGADORES-2019-RONDA-II.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/Lista-de-Resultados-NI-2019-RONDA-II.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/Informe-de-subsanacion-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/Resolución-No.041-de-Madelaine-Sugasti.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/Resolución-No.42-de-Ulises-Melchor.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/Resolución-No.044-de-Hillary-Sandoval.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/Resolución-No.-63-de-Alexander-Pastor-González.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Resolución-No.-72-de-Ediner-Fuentes.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Resolución-No.78-de-Ana-Boyd.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Resolución-No.100-DE-Ana-Aizpurua.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Resolución-No.101-de-Adelys-Reina.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Resolución-No.102-de-Luis-Hidalgo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Resolución-No.103-de-Louise-Rodríguez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Resolución-No.-117-de-Ramy-Martinez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/08/Resolucion-193-de-LIANNE-SOFIA-BARRAGAN.pdf</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-nuevos-investigadores-2019-ronda-ii/</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>CONVOCATORIA PÚBLICA DE FORTALECIMIENTO A EQUIPAMIENTO E INSTRUMENTACIÓN ESPECIALIZADO PARA ACTIVIDADES DE I+D (EIE) 2019</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Dirigido a: Son elegibles para participar instituciones que realicen investigación, constituidas como entidades públicas, centros de docencia superior acreditadas por CONEAUPA (sin fines de lucro) y asociaciones de interés público; debidamente domiciliadas en Panamá y con demostrada capacidad de aprovechar efectivamente equipos e instrumentos especializados para desarrollar I+D en Panamá. Duración: Las propuestas de proyectos presentadas podrán tener una duración de hasta dos (2) años. Fecha de Apertura: 18 de Julio de 2019. Fecha límite de entrega de solicitud: 30 DE SEPTIEMBRE DE 2019 HASTA LA 1:00 P.M. HORA EXACTA [ Cancelada mediante Resolución 242]</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/07/2.-Bases-de-la-convocatoria-EIE19.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/3.-Clasificación-de-las-ciencias-según-Frascatti.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/5.-PENCYT-2015-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/6.-Formulario-evaluación-EIE19.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/7.-Reglamento-Resolución-No.-191-de-2017.pdf, https://www.senacyt.gob.pa/publicaciones/wp-content/uploads/2019/07/Resolución-Administrativa-de-Cancelación-EIE-2019-242.pdf</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-fortalecimiento-a-equipamiento-e-instrumentacion-especializado-para-actividades-de-id-eie-2019/</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Maestría en áreas específicas del conocimiento- Embajada de Francia</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>DIRIGIDA A: Panameños con grado de licenciatura o equivalente interesados en adquirir especialidades en grado de maestría en Francia, en las áreas establecidas en el anuncio de la Convocatoria. Nota: Para este programa el participante no necesita disponer del conocimiento del idioma francés al momento de la aplicación. El programa prevé un ciclo completo de formación y aprendizaje del idioma en Panamá (enero – julio 2020) y en Francia (agosto 2020). OBJETIVO: Este programa tiene como objetivo mejorar la calidad de la gestión del Sistema Nacional de Ciencia y Tecnología, mediante la formación profesional en áreas de ciencia, tecnología y en investigación en otras áreas del conocimiento de interés para el país. MONTOS: Las becas podrán tener una asignación de hasta B/. 60,000.00 por año. Fecha de Apertura: 25 DE JUNIO DE 2019 Plazo para Entrega: 12 DE SEPTIEMBRE DE 2019 (3:00 P.M. HORA EXACTA) Para mayores detalles ver anuncio entre los documentos a descargar</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Anuncio_Maestria_Embajada_de_Francia.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Reglamento-de-Becas-Nuevo-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/declaracion-Jurada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Pasos-a-seguir.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Anuncio-de-resultados-Maestría-1.pdf</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/maestria-en-areas-especificas-del-conocimiento-embajada-de-francia/</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>CONVOCATORIA PÚBLICA DE DIPLOMADO EN MATEMÁTICA</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>DIRIGIDA A: Docentes de educación primaria, con funciones relacionadas a la enseñanza de la Matemática, que posean nombramiento del Ministerio de Educación y que se encuentren en servicio en escuelas oficiales de las regiones de Darién y Herrera. OBJETIVO: Contribuir con la formación continua de los docentes en servicio, para mejorar la enseñanza de la Matemática en las regiones escolares de Darién y Herrera. DURACIÓN: Los Diplomados tendrán una duración de 5 meses. Fecha de Apertura: 18 de junio 2019. Plazo para Entrega: 12 de julio de 2019. Hasta las 3:30 p.m. HORA EXACTA.  Para mayores detalles ver anuncio entre los documentos a descargar.</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/06/ANUNCIO-DE-CONVOCATORIA-DIPLOMADOS-2019-f.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Formulario-de-Aplicación-Diplomados-2019-f.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Formato-de-Paz-y-Salvo-SENACYT-Diplomado-2019-f.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Reglamento-resolución-36.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Relación-de-Documentos-Entregados-Diplomados-2019-f.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/PUBLICACIÓN-DE-LISTA-PRIORIZADA-DIPLOMADOSDE-MATEMATICAS-2019.pdf</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-diplomado-en-matematica/</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Convocatoria Pública para las Universidades Acreditadas en la República de Panamá para la Presentación de Propuestas de Programas de Postgrado de Investigación 2019</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>DIRIGIDA A: Universidades debidamente acreditadas por CONEAUPA en la República de Panamá con programas de postgrado presenciales de tiempo completo.  OBJETIVO: Fortalecer la capacidad nacional de investigación, fomentar la generación de conocimiento y estimular su proyección hacia la sociedad por medio de la formación de los recursos humanos necesarios para el desarrollo de la ciencia, la tecnología y la innovación, con la ejecución de programas de postgrado a tiempo completo, cuyos beneficiarios se dediquen a tiempo completo y de manera exclusiva a culminar sus estudios.  DURACIÓN: Todos los programas académicos deberán desarrollarse en un período de 24 meses. Sin embargo, los Convenios de Colaboración Educativa que se suscriban para amparar su ejecución tendrán una duración de hasta 36 meses contados a partir del refrendo por parte de la Contraloría General de la República.  Fecha de Apertura: ; 09 DE ABRIL DE 2019  Plazo para Entrega: 11 DE JUNIO DE 2019 HASTA LAS 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Anuncio-de-Convocatoria-de-Programas-de-Postgrado-de-Investigación-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Lista-de-Requisitos.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Formulario-de-Evaluación-de-Programas-de-Postgrado-de-Investigación-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Resolución-Administrativa-No.-188-del-5-de-septiembre-de-2011.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Resolución-de-Junta-Directiva-No.-70-del-21-de-marzo-de-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/ACTA-DE-RECEPCIÓN-DE-PROPUESTAS-2019-PDF.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Resol.-Administrativa-270-A-del-8-de-agosto-de-2019-Acreditadas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/Programas-de-Postgrado-de-Investigación-2019.pdf</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-las-universidades-acreditadas-en-la-republica-de-panama-para-la-presentacion-de-propuestas-de-programas-de-postgrado-de-investigacion-2019/</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>CONVOCATORIA PÚBLICA DE FOMENTO A I+D PARA EL DESARROLLO SOSTENIBLE MISIÓN ENERGÍA (IDDSE) 2018</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>DIRIGIDO A: Grupo de expertos interdisciplinarios, con interés específico en los temas de esta convocatoria, representado por: entidades públicas, personas jurídicas, con o sin fines de lucro, organizaciones no gubernamentales o asociaciones de interés público, debidamente registradas en Panamá. OBJETIVO: Apoyar iniciativas de I+D+i que, a través de la creatividad, la generación de conocimiento y el desarrollo de soluciones innovadoras, favorezca el fortalecimiento de un sistema energético nacional eficiente y sostenible. DURACIÓN: Las propuestas presentadas podrán tener una duración de hasta tres (3) años. MONTO: El financiamiento podrá ser de hasta Doscientos Mil Balboas de la totalidad del proyecto (B/. 200,000.00). Las propuestas seleccionadas podrán ser financiadas con recursos del BID, Contrato de Préstamo N°3692/OC-PN, “Programa de Innovación para la Inclusión Social y la Productividad”. Fecha de apertura: 25 de mayo de 2018 Plazo para entrega: 24 de julio de 2018 (1:00 p.m. Hora exacta.) Para mayores detalles ver anuncio entre los documentos a descargar</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/06/2.-Base-de-la-Convocatoria-IDDSE18.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/3.-Plan-Energetico-Nacional-2015-2050-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/5.-Formulario-de-Evaluación-IDDSE-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/1.-Resoluci%C3%B3n-191-de-31-de-julio-de-2017-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/10.-PENCYT-2015-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/11.-MODELO-CONTRATO-POR-MERITO-RESOLUCIÓN-191-DE-2017-REVISADO-ABRIL-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Lista-de-Propuestas-Recibidas-IDDSE2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Lista-de-Publicación-de-Resultados-IDDSE18.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Resolución-Administrativa-No.-358.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Resolución-Administrativa-No.-25.pdf</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-fomento-a-id-para-el-desarrollo-sostenible-mision-energia-iddse-2018/</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>CONVOCATORIA CONTINUA DE FOMENTO A I+D PARA EGRESADOS DE ESTUDIOS DE DOCTORADO (FIED) 2019</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>DIRIGIDO A: Panameños egresados de estudios de Doctorado o Postdoctorado que residen dentro del territorio nacional y, que hayan finalizado sus estudios desde el año 2014 hasta las fechas de cierre de esta Convocatoria. FECHA DE APERTURA: 23 de mayo de 2019. Plazo para entrega de las propuestas: Primera Ronda: 23 de Julio de 2019 hasta las 1:00 p.m. hora exacta. Segunda Ronda: 24 de Septiembre de 2019 hasta las 1:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar.</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-continua-de-fomento-a-id-para-egresados-de-estudios-de-doctorado-fied-2019/</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>CONVOCATORIA PÚBLICA DE CONCURSO NACIONAL “PREMIO INSPIRA” 2018</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>DIRIGIDO A: Docentes en ejercicio activo en aula de todas las regiones escolares a nivel nacional, tanto de la sección de Educación Básica General (Primaria y Premedia) como de la sección de Media Académica y Profesional y Técnica de las escuelas oficiales del Sistema Educativo Nacional.</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/05/1-Gaceta_Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/2-ANUNCIO-DE-CONVOCATORIA-PREMIO-INSPIRA-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/3-BASES-DEL-CONCURSO-PREMIO-INSPIRA-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/4-Formato-de-Paz-y-Salvo-SENACYT.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/6-LISTA-de-Cotejo-PREMIO-INSPIRA-2018.pdf</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-concurso-nacional-premio-inspira-2018-2/</t>
         </is>
       </c>
     </row>
@@ -2451,18 +2482,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA PARA REPRESENTAR A LOS CENTROS DE INVESTIGACIÓN DEL PAÍS ANTE EL CONSEJO DIRECTIVO NACIONAL DEL SISTEMA NACIONAL DE INVESTIGACIÓN</t>
+          <t>CONVOCATORIA PÚBLICA DE NUEVOS INVESTIGADORES 2019 RONDA II</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>DIRIGIDA A: Los centros de investigación, tanto públicos como privados, que operan en el territorio nacional, a postular, con su correspondiente Hoja de Vida al candidato para representar a los centros de investigación del país, ante el Consejo Directivo Nacional (CDN) del SNI de Panamá.  DESCRIPCIÓN: La Ley No. 56 del 14 de diciembre del 2007 de la República de Panamá, crea el Sistema Nacional de Investigación (SNI) para promover la investigación científica y tecnológica y su calidad, mediante el reconocimiento de la excelencia de la labor de investigación y desarrollo científico y tecnológico de personas naturales y jurídicas, a través de incentivos que pueden ser distinciones o estímulos económicos, otorgados en función de la calidad, la producción, la trascendencia y el impacto de dicha labor.  Fecha de Apertura: ; 09 DE ABRIL DE 2019  Plazo para Entrega: 17 DE MAYO DE 2019 (1:00 P.M. HORA EXACTA) Para mayores detalles ver anuncio entre los documentos a descargar</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
+          <t>DIRIGIDA A: Estudiantes Panameños residentes en Panamá que estén cursando los dos últimos años de la licenciatura, o cursando un posgrado, afiliados a una entidad pública, universidad, asociaciones de interés público o personas jurídicas con o sin fines de lucro, con capacidad para realizar investigaciones científicas y desarrollo tecnológico e innovación. OBJETIVO: Proporcionar financiamiento o co-financiamiento para la promover la formación de nuevos investigadores a través deapoyo para recursos directamente relacionados con su investigación en las áreas temáticas de la convocatoria. MONTO MÁXIMO DE ADJUDICACIÓN POR CATEGORÍA: Estudiantes que estén cursando los dos (2) últimos años de la licenciatura y que estén vinculados a un investigador con grado de doctorado. Monto de adjudicación de hasta  B/. 20,000.00. Estudiantes de posgrado que estén vinculados a un investigador con grado de doctorado. Monto de adjudicación de hasta B/. 25,000.00 . FECHA DE APERTURA DE LA CONVOCATORIA: 30 de julio de 2019 PLAZO PARA ENTREGA DE PROPUESTAS: 08 de octubre 2019  Hasta las 3:00 PM HORA EXACTA.</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/07/2REGLAMENTO-DE-CONTRATACIÓN-POR-MÉRITO-DE-SENACYT-RESOLUCIÓN-NO.-191-DE-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/4LAS-BASES-DE-LA-CONVOCATORIA-.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/6FORMULARIO-DE-EVALUACIÓN-.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/7MODELO-CONTRATO-POR-MERITO-REVISADO-JULIO-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/ACTA-DE-RECEPCIÓN-DE-PROPUESTAS-DE-NUEVOS-INVESTIGADORES-2019-RONDA-II.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/11/SUBSANACION-DEL-ACTA-DE-RECEPCIÓN-DE-PROPUESTAS-DE-NUEVOS-INVESTIGADORES-2019-RONDA-II.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/Lista-de-Resultados-NI-2019-RONDA-II.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/Informe-de-subsanacion-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/Resolución-No.041-de-Madelaine-Sugasti.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/Resolución-No.42-de-Ulises-Melchor.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/Resolución-No.044-de-Hillary-Sandoval.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/Resolución-No.-63-de-Alexander-Pastor-González.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Resolución-No.-72-de-Ediner-Fuentes.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Resolución-No.78-de-Ana-Boyd.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Resolución-No.100-DE-Ana-Aizpurua.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Resolución-No.101-de-Adelys-Reina.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Resolución-No.102-de-Luis-Hidalgo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Resolución-No.103-de-Louise-Rodríguez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Resolución-No.-117-de-Ramy-Martinez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/08/Resolucion-193-de-LIANNE-SOFIA-BARRAGAN.pdf</t>
+        </is>
+      </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-representar-a-los-centros-de-investigacion-del-pais-ante-el-consejo-directivo-nacional-del-sistema-nacional-de-investigacion/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-nuevos-investigadores-2019-ronda-ii/</t>
         </is>
       </c>
     </row>
@@ -2472,23 +2507,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>PREMIO NACIONAL POR LAS MUJERES EN LA CIENCIA</t>
+          <t>CONVOCATORIA PÚBLICA DE FORTALECIMIENTO A EQUIPAMIENTO E INSTRUMENTACIÓN ESPECIALIZADO PARA ACTIVIDADES DE I+D (EIE) 2019</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>DIRIGIDA A: L’ORÉAL y UNESCO con el apoyo de la SENACYT han trabajado en conjunto para la creación y desarrollo del programa L’ORÉAL UNESCO FOR WOMEN IN SCIENCE “Por las Mujeres en la Ciencia-Panamá”, el cual busca fomentar el desarrollo de las mujeres que han dedicado su trabajo y estudios a la Ciencia. Fecha de Apertura: 31 DE AGOSTO DE 2017 Plazo para Entrega: 29 DE SEPTIEMBRE DE 2017 HASTA LA 4:00 P.M. HORA EXACTA.
-Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>Dirigido a: Son elegibles para participar instituciones que realicen investigación, constituidas como entidades públicas, centros de docencia superior acreditadas por CONEAUPA (sin fines de lucro) y asociaciones de interés público; debidamente domiciliadas en Panamá y con demostrada capacidad de aprovechar efectivamente equipos e instrumentos especializados para desarrollar I+D en Panamá. Duración: Las propuestas de proyectos presentadas podrán tener una duración de hasta dos (2) años. Fecha de Apertura: 18 de Julio de 2019. Fecha límite de entrega de solicitud: 30 DE SEPTIEMBRE DE 2019 HASTA LA 1:00 P.M. HORA EXACTA [ Cancelada mediante Resolución 242]</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/08/1.-AFICHE.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/2.-ANEXO-1-BASES-Y-CONDICIONES.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Listado-de-los-Miembros-del-Comité.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/07/2.-Bases-de-la-convocatoria-EIE19.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/3.-Clasificación-de-las-ciencias-según-Frascatti.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/5.-PENCYT-2015-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/6.-Formulario-evaluación-EIE19.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/7.-Reglamento-Resolución-No.-191-de-2017.pdf, https://www.senacyt.gob.pa/publicaciones/wp-content/uploads/2019/07/Resolución-Administrativa-de-Cancelación-EIE-2019-242.pdf</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/premio-nacional-por-las-mujeres-en-la-ciencia/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-fortalecimiento-a-equipamiento-e-instrumentacion-especializado-para-actividades-de-id-eie-2019/</t>
         </is>
       </c>
     </row>
@@ -2498,112 +2532,305 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
+          <t>Maestría en áreas específicas del conocimiento- Embajada de Francia</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>DIRIGIDA A: Panameños con grado de licenciatura o equivalente interesados en adquirir especialidades en grado de maestría en Francia, en las áreas establecidas en el anuncio de la Convocatoria. Nota: Para este programa el participante no necesita disponer del conocimiento del idioma francés al momento de la aplicación. El programa prevé un ciclo completo de formación y aprendizaje del idioma en Panamá (enero – julio 2020) y en Francia (agosto 2020). OBJETIVO: Este programa tiene como objetivo mejorar la calidad de la gestión del Sistema Nacional de Ciencia y Tecnología, mediante la formación profesional en áreas de ciencia, tecnología y en investigación en otras áreas del conocimiento de interés para el país. MONTOS: Las becas podrán tener una asignación de hasta B/. 60,000.00 por año. Fecha de Apertura: 25 DE JUNIO DE 2019 Plazo para Entrega: 12 DE SEPTIEMBRE DE 2019 (3:00 P.M. HORA EXACTA) Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Anuncio_Maestria_Embajada_de_Francia.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Reglamento-de-Becas-Nuevo-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/declaracion-Jurada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Pasos-a-seguir.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Anuncio-de-resultados-Maestría-1.pdf</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/maestria-en-areas-especificas-del-conocimiento-embajada-de-francia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>CONVOCATORIA PÚBLICA DE DIPLOMADO EN MATEMÁTICA</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>DIRIGIDA A: Docentes de educación primaria, con funciones relacionadas a la enseñanza de la Matemática, que posean nombramiento del Ministerio de Educación y que se encuentren en servicio en escuelas oficiales de las regiones de Darién y Herrera. OBJETIVO: Contribuir con la formación continua de los docentes en servicio, para mejorar la enseñanza de la Matemática en las regiones escolares de Darién y Herrera. DURACIÓN: Los Diplomados tendrán una duración de 5 meses. Fecha de Apertura: 18 de junio 2019. Plazo para Entrega: 12 de julio de 2019. Hasta las 3:30 p.m. HORA EXACTA.  Para mayores detalles ver anuncio entre los documentos a descargar.</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/06/ANUNCIO-DE-CONVOCATORIA-DIPLOMADOS-2019-f.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Formulario-de-Aplicación-Diplomados-2019-f.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Formato-de-Paz-y-Salvo-SENACYT-Diplomado-2019-f.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Reglamento-resolución-36.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Relación-de-Documentos-Entregados-Diplomados-2019-f.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/PUBLICACIÓN-DE-LISTA-PRIORIZADA-DIPLOMADOSDE-MATEMATICAS-2019.pdf</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-diplomado-en-matematica/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Convocatoria Pública para las Universidades Acreditadas en la República de Panamá para la Presentación de Propuestas de Programas de Postgrado de Investigación 2019</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>DIRIGIDA A: Universidades debidamente acreditadas por CONEAUPA en la República de Panamá con programas de postgrado presenciales de tiempo completo.  OBJETIVO: Fortalecer la capacidad nacional de investigación, fomentar la generación de conocimiento y estimular su proyección hacia la sociedad por medio de la formación de los recursos humanos necesarios para el desarrollo de la ciencia, la tecnología y la innovación, con la ejecución de programas de postgrado a tiempo completo, cuyos beneficiarios se dediquen a tiempo completo y de manera exclusiva a culminar sus estudios.  DURACIÓN: Todos los programas académicos deberán desarrollarse en un período de 24 meses. Sin embargo, los Convenios de Colaboración Educativa que se suscriban para amparar su ejecución tendrán una duración de hasta 36 meses contados a partir del refrendo por parte de la Contraloría General de la República.  Fecha de Apertura: ; 09 DE ABRIL DE 2019  Plazo para Entrega: 11 DE JUNIO DE 2019 HASTA LAS 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Anuncio-de-Convocatoria-de-Programas-de-Postgrado-de-Investigación-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Lista-de-Requisitos.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Formulario-de-Evaluación-de-Programas-de-Postgrado-de-Investigación-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Resolución-Administrativa-No.-188-del-5-de-septiembre-de-2011.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Resolución-de-Junta-Directiva-No.-70-del-21-de-marzo-de-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/ACTA-DE-RECEPCIÓN-DE-PROPUESTAS-2019-PDF.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Resol.-Administrativa-270-A-del-8-de-agosto-de-2019-Acreditadas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/Programas-de-Postgrado-de-Investigación-2019.pdf</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-las-universidades-acreditadas-en-la-republica-de-panama-para-la-presentacion-de-propuestas-de-programas-de-postgrado-de-investigacion-2019/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>CONVOCATORIA PÚBLICA DE FOMENTO A I+D PARA EL DESARROLLO SOSTENIBLE MISIÓN ENERGÍA (IDDSE) 2018</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>DIRIGIDO A: Grupo de expertos interdisciplinarios, con interés específico en los temas de esta convocatoria, representado por: entidades públicas, personas jurídicas, con o sin fines de lucro, organizaciones no gubernamentales o asociaciones de interés público, debidamente registradas en Panamá. OBJETIVO: Apoyar iniciativas de I+D+i que, a través de la creatividad, la generación de conocimiento y el desarrollo de soluciones innovadoras, favorezca el fortalecimiento de un sistema energético nacional eficiente y sostenible. DURACIÓN: Las propuestas presentadas podrán tener una duración de hasta tres (3) años. MONTO: El financiamiento podrá ser de hasta Doscientos Mil Balboas de la totalidad del proyecto (B/. 200,000.00). Las propuestas seleccionadas podrán ser financiadas con recursos del BID, Contrato de Préstamo N°3692/OC-PN, “Programa de Innovación para la Inclusión Social y la Productividad”. Fecha de apertura: 25 de mayo de 2018 Plazo para entrega: 24 de julio de 2018 (1:00 p.m. Hora exacta.) Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/06/2.-Base-de-la-Convocatoria-IDDSE18.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/3.-Plan-Energetico-Nacional-2015-2050-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/5.-Formulario-de-Evaluación-IDDSE-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/1.-Resoluci%C3%B3n-191-de-31-de-julio-de-2017-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/10.-PENCYT-2015-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/11.-MODELO-CONTRATO-POR-MERITO-RESOLUCIÓN-191-DE-2017-REVISADO-ABRIL-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Lista-de-Propuestas-Recibidas-IDDSE2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Lista-de-Publicación-de-Resultados-IDDSE18.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Resolución-Administrativa-No.-358.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Resolución-Administrativa-No.-25.pdf</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-fomento-a-id-para-el-desarrollo-sostenible-mision-energia-iddse-2018/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>CONVOCATORIA CONTINUA DE FOMENTO A I+D PARA EGRESADOS DE ESTUDIOS DE DOCTORADO (FIED) 2019</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>DIRIGIDO A: Panameños egresados de estudios de Doctorado o Postdoctorado que residen dentro del territorio nacional y, que hayan finalizado sus estudios desde el año 2014 hasta las fechas de cierre de esta Convocatoria. FECHA DE APERTURA: 23 de mayo de 2019. Plazo para entrega de las propuestas: Primera Ronda: 23 de Julio de 2019 hasta las 1:00 p.m. hora exacta. Segunda Ronda: 24 de Septiembre de 2019 hasta las 1:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar.</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/convocatoria-continua-de-fomento-a-id-para-egresados-de-estudios-de-doctorado-fied-2019/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>CONVOCATORIA PÚBLICA DE CONCURSO NACIONAL “PREMIO INSPIRA” 2018</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>DIRIGIDO A: Docentes en ejercicio activo en aula de todas las regiones escolares a nivel nacional, tanto de la sección de Educación Básica General (Primaria y Premedia) como de la sección de Media Académica y Profesional y Técnica de las escuelas oficiales del Sistema Educativo Nacional.</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/05/1-Gaceta_Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/2-ANUNCIO-DE-CONVOCATORIA-PREMIO-INSPIRA-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/3-BASES-DEL-CONCURSO-PREMIO-INSPIRA-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/4-Formato-de-Paz-y-Salvo-SENACYT.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/6-LISTA-de-Cotejo-PREMIO-INSPIRA-2018.pdf</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-concurso-nacional-premio-inspira-2018-2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>CONVOCATORIA PÚBLICA PARA REPRESENTAR A LOS CENTROS DE INVESTIGACIÓN DEL PAÍS ANTE EL CONSEJO DIRECTIVO NACIONAL DEL SISTEMA NACIONAL DE INVESTIGACIÓN</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>DIRIGIDA A: Los centros de investigación, tanto públicos como privados, que operan en el territorio nacional, a postular, con su correspondiente Hoja de Vida al candidato para representar a los centros de investigación del país, ante el Consejo Directivo Nacional (CDN) del SNI de Panamá.  DESCRIPCIÓN: La Ley No. 56 del 14 de diciembre del 2007 de la República de Panamá, crea el Sistema Nacional de Investigación (SNI) para promover la investigación científica y tecnológica y su calidad, mediante el reconocimiento de la excelencia de la labor de investigación y desarrollo científico y tecnológico de personas naturales y jurídicas, a través de incentivos que pueden ser distinciones o estímulos económicos, otorgados en función de la calidad, la producción, la trascendencia y el impacto de dicha labor.  Fecha de Apertura: ; 09 DE ABRIL DE 2019  Plazo para Entrega: 17 DE MAYO DE 2019 (1:00 P.M. HORA EXACTA) Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-representar-a-los-centros-de-investigacion-del-pais-ante-el-consejo-directivo-nacional-del-sistema-nacional-de-investigacion/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>PREMIO NACIONAL POR LAS MUJERES EN LA CIENCIA</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>DIRIGIDA A: L’ORÉAL y UNESCO con el apoyo de la SENACYT han trabajado en conjunto para la creación y desarrollo del programa L’ORÉAL UNESCO FOR WOMEN IN SCIENCE “Por las Mujeres en la Ciencia-Panamá”, el cual busca fomentar el desarrollo de las mujeres que han dedicado su trabajo y estudios a la Ciencia. Fecha de Apertura: 31 DE AGOSTO DE 2017 Plazo para Entrega: 29 DE SEPTIEMBRE DE 2017 HASTA LA 4:00 P.M. HORA EXACTA.
+Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/08/1.-AFICHE.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/2.-ANEXO-1-BASES-Y-CONDICIONES.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Listado-de-los-Miembros-del-Comité.pdf</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/premio-nacional-por-las-mujeres-en-la-ciencia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
           <t>CONVOCATORIA PÚBLICA DE FORTALECIMIENTO A EQUIPAMIENTO E INSTRUMENTACIÓN ESPECIALIZADO PARA ACTIVIDADES DE I+D (EIE) 2017</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>DIRIGIDA A: Son elegibles para participar instituciones que realicen investigación, constituidas como entidades públicas, centros de docencia superior acreditadas por CONEAUPA (con o sin fines de lucro) y asociaciones de interés público; debidamente domiciliadas en Panamá y con demostrada capacidad de aprovechar efectivamente equipos e instrumentos especializados para desarrollar I+D en Panamá. DURACIÓN: Los proyectos adjudicados podrán tener una duración de hasta tres (3) años. MONTOS: La SENACYT financiará hasta Quinientos Mil balboas (B/.500,000.00) de la totalidad del proyecto. Las instituciones deben contar con un compromiso tangible de al menos 20% de contraparte (en especie o en efectivo) del monto solicitado a la SENACYT, especialmente orientado a dar sostenibilidad. Los proponentes deben indicar todas las fuentes de financiamiento que garanticen el éxito de la propuesta, inclusive aquellos aportes en especie.
 Es responsabilidad del proponente sustentar a satisfacción el mérito, pertinencia e impacto de la propuesta. El proponente debe asegurarse que la distribución de fondos de su propuesta vaya acorde al objetivo del Programa de Fomento a I+D. Se pueden adjuntar las cotizaciones utilizadas como referencia para estimar los costos presentados en la sección de presupuesto y que contenga las especificaciones técnicas.
 Los rubros dedicados a obras civiles solo serán cubiertos hasta un máximo del 25% del financiamiento solicitado. Las obras civiles solo podrán realizarse sobre terrenos que sean propiedad del beneficiario. Las propuestas seleccionadas podrán ser financiadas con recursos del BID Fecha de Apertura: 18 DE ABRIL DE 2017 Plazo para Entrega: 27 de JUNIO 2017 hasta las 1:00 p.m. hora exacta. (Resolución de Extensión- 28 de Junio 2017 hasta las 1:00 p.m hora exacta) Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/04/0.-Afiche-EIE17.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/3.-Formulario-evaluación-EIE17-v0.2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/4.-PENCYT-2015-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/5.-Reglamento-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/7.-Modelo-de-Contrato-por-Mérito-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/06/Resolución-de-extensión-de-tiempo-EIE17.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/07/Listado-de-Propuestas-Recibidas-EIE17.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/Propuestas-Avaladas-para-Negociación-EIE-2017.pdf.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Resolución-de-Adjudicación-No.-246-EIE17-013.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Resolución-de-Adjudicación-No.-244-EIE17-005.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Resolución-de-Adjudicación-No.-245-EIE17-011.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Resolución-de-Adjudicación-No.-247-EIE17-021.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Resolución-de-Adjudicación-No.-248-EIE17-016.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Resolución-Administrativa-No.-249.pdf</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/convocatoria-publica-de-fortalecimiento-a-equipamiento-e-instrumentacion-especializado-para-actividades-de-id-eie-2017/</t>
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
         <is>
           <t>CONVOCATORIA PÚBLICA DE FOMENTO A NUEVOS EMPRENDIMIENTOS: CAPITAL SEMILLA 2018-RONDA II</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>DIRIGIDA A: • Nuevos emprendedores: personas naturales, de nacionalidad panameña, residentes en Panamá, mayores de edad. • Microempresas: personas jurídicas, panameñas, debidamente registradas y en funcionamiento en la República de Panamá, por más de un (1) año antes de la fecha de apertura de esta convocatoria y que hayan generado en el último año ingresos brutos o facturación no mayor de doscientos mil balboas (B/.200,000.00). OBJETIVO: Apoyar a nuevos emprendedores y microempresas en el desarrollo de proyectos de negocios innovadores, que, acompañados de un proceso de incubación, tengan un potencial de crecimiento a nivel internacional. Al finalizar los proyectos, los nuevos emprendedores y microempresas deben contar con un prototipo. MONTO: El monto máximo del subsidio económico que otorgará la SENACYT es hasta la suma de B/. 30,000.00. Fecha de Apertura: ; 10 DE DICIEMBRE DE 2018 Plazo para Entrega: 15 DE FEBRERO DE 2019 HASTA LAS 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Modelo-Contrato-por-Merito.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Resolución-191-de-31-de-julio-Contratación-por-Merito.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Acta-de-recepcion-de-propuestas-NECS18-R2-BID.pdf.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Resolución-102-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Propuestas-Recomendadas-NECS.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/NECS18R2-P-001-Pablo-González.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/NECS18R2-P-005-Panama-Legal-Group.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/325NECS18R2-P-008-Rafael-Vega-Miranda.pdf</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/convocatoria-publica-de-fomento-a-nuevos-emprendimientos-capital-semilla-2018-ronda-ii-2/</t>
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
         <is>
           <t>CONVOCATORIA PÚBLICA PARA PARTICIPAR EN EL TALLER DE INNOVACIÓN ABIERTA SENACYT 2018 (RONDA 2)</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>DIRIGIDA A: Personas naturales panameñas o extranjeras residentes en la República de Panamá, mayores de edad.</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Anuncio-Convocatoria-Taller-IA.-r2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resolucion-Administrativa-No122-de-7-5-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Cierre-TINNA-R2.pdf</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/convocatoria-publica-para-participar-en-el-taller-de-innovacion-abierta-senacyt-2018-ronda-2-2/</t>
         </is>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
         <is>
           <t>CONVOCATORIA PÚBLICA PARA EL FOMENTO A NUEVOS EMPRENDIMIENTOS 2018</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>DIRIGIDA A: .Personas naturales, de nacionalidad panameña, mayores de edad, residentes en Panamá.</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/09/1.-Resoluci%C3%B3n-191-de-31-de-julio-de-2017-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/8.Modelo-de-Contrato-por-Mérito-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Recepción-de-Propuesta.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/06/Resolución-180-Extensión-de-Publicación-de-Resultados.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Publicacion-de-resulatdos-NE2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/Res.-Admin.-142-NE18-P-006_Melibeth-Ambulo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/Resolución-Adminstrativa-No.158-de-21-de-mayo-de-2019-Andrea-Tejeira.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/Resolución-Adminstrativa-No.159-de-21-de-mayo-de-2019-Antonio-Salges.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/Resolución-Adminstrativa-No.160-de-21-de-mayo-de-2019-Edwin-Juvenal-Cedeño-Herrera.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/Res.-Admin.-171-NE18-P-018-Yaneth-Laffaurie-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/Res.-Admin.-172-NE18-P-029-Jose-A.-Herrera-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/Res.-Admin.-173-NE18-P-025-Carlos-Owens-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/Res.-Admin.-174-NE18-P-052-Andres-Ahues-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Res.-Admin.-181-NE18-P-048-Cesar-Almanza.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Resolución-Administrativa-No.-324.pdf</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-fomento-a-nuevos-emprendimientos-2018-2/</t>
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
         <is>
           <t>CONVOCATORIA PÚBLICA PARA EL PROGRAMA CAMPAMENTO CIENTÍFICO Y TECNOLÓGICO 2019</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>DIRIGIDA A: Universidades debidamente acreditadas por el CONEAUPA y a centros de investigación públicos o privados sin fines de lucro, que operen en el territorio de la República de Panamá.  OBJETIVO: Incentivar a las universidades acreditadas y centros de investigación públicos y privados sin fines de lucro para que realicen actividades que desarrollen el pensamiento crítico y las habilidades en áreas científicas de estudiantes en edades tempranas.  DURACIÓN: Todos los campamentos deberán desarrollarse en un período de 4 a 8 días, en vacaciones y recesos escolares. Sin embargo, los Contratos de Subsidio Económico que se suscriban para amparar su ejecución tendrán una duración de 9 meses contados a partir de la notificación del refrendo de Contraloría General de la República.  MONTOS: Se otorgarán subsidios económicos por el monto de hasta B/. 50,000.00, para cubrir los siguientes rubros:
 1. Inscripción de los estudiantes panameños al Campamento Científico
@@ -2616,214 +2843,14 @@
 Nota: El subsidio económico sólo contempla apoyo para participantes panameños en edades de 14 a 17 años matriculados en el sistema educativo nacional de media y pre-media.  Fecha de Apertura: ; 25 DE ABRIL DE 2019  Plazo para Entrega: 07 DE JUNIO DE 2019 HASTA LAS 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Anuncio-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/GUIA_DE_CAMPAMENTO-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Reglamento-Campamento-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/ACTA-DE-RECEPCIÓN-DE-PROPUESTAS-MOD.-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/PROPUESTAS-AVALADAS-A-LA-FASE-DE-NEGOCIACIÓN-M.I..pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Resolución-Administrativa-No.-365.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Resolución-Administrativa-394-Protegiendo-tu-Biodiversidad.pdf</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-programa-campamento-cientifico-y-tecnologico-2019/</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>CONVOCATORIA PÚBLICA DE MOVILIDAD DE INVESTIGACIÓN 2019</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>DIRIGIDA A: Universidades pública y privada debidamente acreditadas por CONEAUPA y Centros de Investigación públicos o privados sin fines de lucro, que operan en la República de Panamá.  OBJETIVO: Contribuir al mejoramiento de la calidad de la formación de investigación, mediante estancias cortas en instituciones académicas de educación superior o centros de investigación de excelencia internacional, en Panamá o en el extranjero, así como mediante la invitación a expertos internacionales a realizar estancias cortas en unidades académicas con investigaciones en marcha y centros de investigación en Panamá; con el propósito de incentivar la producción, difusión, vinculación y transferencia de conocimiento científico-tecnológico.  MONTO: Hasta B/. 100,000.00 de acuerdo al programa.  Fecha de Apertura: ; 17 DE ABRIL DE 2019  Plazo para Entrega: 18 DE JUNIO DE 2019 HASTA LAS 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/04/ANUNCIO-MOVILIDAD-PDF-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/RESOLUCIÓN-MOVILIDAD-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/TABLA-APROBADA-POR-LA-SENACYT-MOV.-DE-INVESTIGACIÓN.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/acta-de-cierre-Movilidad-de-Investigación.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/PROPUESTAS-AVALADAS-MOVILIDAD-11111.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Resolución-Administrativa-No.-358-Movilidad-de-Investigación-2019-03-MOV-2019-STRI.pdf</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-movilidad-de-investigacion-2019/</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>CONVOCATORIA PÚBLICA DE MOVILIDAD ACADÉMICA 2019</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>DIRIGIDA A: Universidades públicas y privadas que operen en la República de Panamá y que se encuentren acreditadas por el Consejo Nacional de Evaluación y Acreditación Universitaria de Panamá (CONEAUPA). Cada universidad podrá someter hasta 3 propuestas, siempre y cuando sean para sedes (campus) distintas.  OBJETIVO: Contribuir al mejoramiento de la calidad de la formación académica, mediante estancias cortas en instituciones académicas de educación superior o centros de investigación de excelencia internacional, en Panamá o en el extranjero con el propósito de incentivar la producción, difusión, vinculación y transferencia de conocimiento científico-tecnológico.  MONTO: MONTO: Hasta B/. 100,000.00 de acuerdo al programa.  Fecha de Apertura: ; 17 DE ABRIL DE 2019  Plazo para Entrega: 19 DE JUNIO DE 2019 HASTA LAS 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Anuncio-Movilidad-Académica.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Reglamento-Movilidad-Académica.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Tabla-aprobada-por-SENACYT-Movilidad-Académica.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Acta-de-Recepción-de-Propuestas-MOV-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/Lista-priorizada-a-publicar-web.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Resolución-Administrativa-No.-356-Movilidad-Académica-2019-MOV002-Campus-Victor-Levi-Sasso.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Resolución-Administrativa-No.-357-Movilidad-Académica-2019-MOV001-Sedes-Regionales.pdf</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-movilidad-academica-2019/</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Convocatoria Pública para Presentación de Propuestas de Programas de Maestrías Nuevas de Investigación 2019</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>DIRIGIDA A: Universidades debidamente acreditadas por CONEAUPA en la República de Panamá con programas de postgrado presenciales de tiempo completo.  OBJETIVO: Fortalecer la capacidad nacional de investigación, fomentar la generación de conocimiento y estimular su proyección hacia la sociedad por medio del fortalecimiento de las capacidades de las universidades para el desarrollo de la ciencia, la tecnología y la innovación, con la ejecución de programas de postgrado a tiempo completo, cuyos beneficiarios se dediquen a tiempo completo y de manera exclusiva a culminar sus estudios.  CATEGORIAS: VER ANUNCIO  Fecha de Apertura: ; 09 DE ABRIL DE 2019  Plazo para Entrega: 09 DE JULIO DE 2019 HASTA LAS 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Anuncio-de-Maestrías-Nuevas-de-Investigación-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Formulario-de-Evaluador-Maestrías-Nuevas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Lista-de-Requisitos-UO-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Lista-de-Requisitos-UPri-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Resolución-Administrativa-No.-188-del-5-de-septiembre-de-2011-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Resolución-Junta-Directiva-No.-62-del-19-de-diciembre-de-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/ACTA-DE-RECEPCIÓN-DE-PROPUESTAS-CONVOCATORIA-PÚBLICA-PARA-PRESENTACIÓN-DE-PROPUESTAS-DE-PROGRAMAS-DE-MAESTRÍAS-NUEVAS-DE-INVESTIGACIÓN-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Resolución-Adm.-No.-317-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/Programas-de-Maestría-Nuevas-de-Investigación-2019.pdf</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-presentacion-de-propuestas-de-programas-de-maestrias-nuevas-de-investigacion-2019/</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>CONVOCATORIA DE DOCTORADO PARA FORMAR INVESTIGADORES PARA UNIVERSIDADES, CENTROS DE INVESTIGACIÓN O LABORATORIOS DE INTERÉS NACIONAL RONDA I-2019</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>DIRIGIDA A: Profesores o Investigadores panameños vinculados a universidades, centros de investigación o laboratorios de interés nacional ubicados en Panamá, que se desempeñen en las áreas de ciencia y tecnología. El doctorado debe realizarse en un centro internacional de reconocida excelencia.  OBJETIVO: Fortalecer la planta docente y profesional de las universidades, centros de investigación y laboratorios de interés nacional ubicados en Panamá.  DURACIÓN: La beca tendrá una duración de hasta cuatro (4) años si el beneficiario posee grado de maestría y hasta seis (6) años si el beneficiario no posee grado de maestría.  MONTOS: Las becas podrán tener una asignación anual de hasta B/. 60,000.00 y la asignación total de la beca no podrá exceder la suma de B/. 250,000.00. El presupuesto se elaborará según los rubros y la tabla de asignación de fondos publicada en la página web de la SENACYT.  Fecha de Apertura: ; 22 DE ABRIL DE 2019.  Fecha límite de entrega de solicitud: 07 DE AGOSTO DE 2019 HASTA LAS 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/04/BEPDE-I-2019-Anuncio.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/BEPDE-I-2019-Pasos-a-seguir.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Declaración-Jurada-Nueva.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Reglamento-de-Becas-Nuevo-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Anuncio-de-Resultado-Excelencia.pdf</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-de-doctorado-para-formar-investigadores-para-universidades-centros-de-investigacion-o-laboratorios-de-interes-nacional-ronda-i-2019/</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>CONVOCATORIA DE DOCTORADO DE INVESTIGACIÓN RONDA I-2019</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>DIRIGIDA A: Panameños que deseen formarse como investigadores en centros de estudios de excelencia en el extranjero o que ya se encuentren estudiando un doctorado de investigación en centros de estudio de excelencia en el extranjero.  OBJETIVO: Este programa tiene como objetivo la formación de investigadores para la República de Panamá, que garanticen el incremento del capital humano con altas capacidades para actividades científicas y tecnológicas.  DURACIÓN: La beca tendrá una duración de hasta cuatro (4) años si el beneficiario posee grado de maestría y hasta seis (6) años si el beneficiario no posee grado de maestría.  MONTOS: Las becas podrán tener una asignación anual de hasta B/. 60,000.00 y la asignación total de la beca no podrá exceder la suma de B/. 250,000.00. El presupuesto se elaborará según los rubros y la tabla de asignación de fondos publicada en la página web de la SENACYT.  Fecha de Apertura: ; 22 DE ABRIL DE 2019.  Fecha límite de entrega de solicitud: 07 DE AGOSTO DE 2019 HASTA LAS 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/04/BIDP-I-2019-ANUNCIO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/BIDP-I-2019-pasos.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Declaración-Jurada-Nueva-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Reglamento-de-Becas-Nuevo-2017-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Anuncio-de-Resultados-Doctorado-de-Investigación.pdf</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-de-doctorado-de-investigacion-ronda-i-2019/</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>DOCTORADO PARA FORMAR INVESTIGADORES PARA UNIVERSIDADES OFICIALES, CENTRO DE INVESTIGACIÓN Y LABORATORIOS DE INTERÉS NACIONAL RONDA II 2017</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>DIRIGIDA A: Profesores o investigadores panameños vinculados a universidades oficiales de Panamá, centro de investigación, laboratorio de interés nacional, incluyendo laboratorios gubernamentales o laboratorios conformados como asociaciones de interés público que se desempeñen en las áreas de ciencia y tecnología; El nivel de entrenamiento o grado a obtener es doctorado en un centro de reconocida excelencia internacional.  DURACIÓN: La beca tendrá una duración máxima de hasta cuatro (4) años.  MONTOS: Financiamiento de hasta B/.60,000.00 por año. La beca es hasta un 100% del costo, según tabla de presupuesto del Programa de Becas IFARHU-SENACYT. En caso de requerir materias de reforzamiento estas deberán ser cubiertas por el becario.  Fecha de Apertura: ; 03 DE MAYO DE 2017.  Fecha límite de entrega de solicitud: 01 DE AGOSTO DE 2017 HASTA LAS 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Anuncio-Oficial-BEPDEII.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/BEPDE-I-Declaración-Jurada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/BEPDE-I-2017-Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Anuncio-de-Resultados-Doctorado-de-Excelencia-Ronda-II.pdf</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/doctorado-para-formar-investigadores-para-universidades-oficiales-centro-de-investigacion-y-laboratorios-de-interes-nacional-ronda-ii-2017/</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>DOCTORADO DE INVESTIGACIÓN RONDA II 2017</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>DIRIGIDA A: Panameños que deseen formarse como investigadores en centros de estudios de excelencia en el extranjero o que ya se encuentren estudiando un doctorado de investigación en una universidad en el extranjero.  DURACIÓN: La beca tendrá una duración de hasta cuatro (4) años.  MONTOS: Financiamiento de hasta B/.60,000.00 por año. La beca es hasta un 100% del costo, según tabla de presupuesto del Programa de Becas IFARHU-SENACYT. En caso de requerir materias de reforzamiento estas deberán ser cubiertas por el becario.  Fecha de Apertura: ; 03 DE MAYO DE 2017.  Fecha límite de entrega de solicitud: 01 DE AGOSTO DE 2017 HASTA LAS 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Anuncio-Oficial-BIDPII.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/declaracion-jurada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Anuncio-de-resultados-Investigación.pdf</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/doctorado-de-investigacion-ronda-ii-2017/</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>CONVOCATORIA DE CIENCIAS BÁSICAS O MATEMÁTICAS RONDA I 2017</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>DIRIGIDA A: Estudiantes panameños que vayan a ingresar por primera vez a la universidad o que se encuentren cursando las carreras de licenciaturas en Ciencias Básicas (Biología, Química, Física o Matemáticas) en universidades oficiales de la República de Panamá. DURACIÓN: La beca tendrá una duración máxima de hasta cinco (5) años, dependiendo del plan de estudio.  MONTOS: El financiamiento es de hasta el 100% del costo total de la carrera. La beca incluirá un estipendio de manutención de B/.600.00 mensuales por la duración de la carrera, siempre y cuando se mantenga en el índice mínimo de 1.75 de 3.0. En caso de que el estudiante mantenga un índice igual o mayor a 2.00, se le ajustará el estipendio de manutención a B/.700.00 mensuales de Becas IFARHU-SENACYT.  Fecha de Apertura: ; 3 DE MAYO DE 2017.  Fecha límite para entrega de Solicitud: 20 DE JUNIO DE 2017 HASTA LAS 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Anuncio-Ciencias-B%C3%A1sicas-Ronda-I-2017-subido-a-la-web.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Checklist-Ciencias-B%C3%A1sicas-o-Matem%C3%A1ticas-Ronda-I-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Formulario-de-Aplicaci%C3%B3n-Ciencias-B%C3%A1sicas-o-Matem%C3%A1ticas-Ronda-I-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Pasos-a-seguir-Ciencias-B%C3%A1sicas-o-Matem%C3%A1ticas-Ronda-I-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Paz-y-Salvo-Ciencias-B%C3%A1sicas-o-Matem%C3%A1ticas-Ronda-I-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Declaracion-Jurada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Reglamento-de-Becas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/AAnuncio-de-Resultados-de-Ciencias-B%C3%A1sicas-o-Matem%C3%A1ticas-Ronda-I-2017.pdf</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-de-ciencias-basicas-o-matematicas-ronda-i-2017/</t>
         </is>
       </c>
     </row>
@@ -2833,22 +2860,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Especialidades y Subespecialidades Médicas 2018 Cancelada</t>
+          <t>CONVOCATORIA PÚBLICA DE MOVILIDAD DE INVESTIGACIÓN 2019</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>DIRIGIDA A: Panameños que deseen formarse como investigadores en centros de estudios de excelencia en el extranjero o que ya se encuentren estudiando un doctorado de investigación en una universidad en el extranjero.  DURACIÓN: La beca tendrá una duración de hasta cuatro (4) años.  MONTOS: Financiamiento de hasta B/.60,000.00 por año. La beca es hasta un 100% del costo, según tabla de presupuesto del Programa de Becas IFARHU-SENACYT. En caso de requerir materias de reforzamiento estas deberán ser cubiertas por el becario.  Fecha de Apertura: ; 03 DE MAYO DE 2017.  Fecha límite de entrega de solicitud: 01 DE AGOSTO DE 2017 HASTA LAS 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDA A: Universidades pública y privada debidamente acreditadas por CONEAUPA y Centros de Investigación públicos o privados sin fines de lucro, que operan en la República de Panamá.  OBJETIVO: Contribuir al mejoramiento de la calidad de la formación de investigación, mediante estancias cortas en instituciones académicas de educación superior o centros de investigación de excelencia internacional, en Panamá o en el extranjero, así como mediante la invitación a expertos internacionales a realizar estancias cortas en unidades académicas con investigaciones en marcha y centros de investigación en Panamá; con el propósito de incentivar la producción, difusión, vinculación y transferencia de conocimiento científico-tecnológico.  MONTO: Hasta B/. 100,000.00 de acuerdo al programa.  Fecha de Apertura: ; 17 DE ABRIL DE 2019  Plazo para Entrega: 18 DE JUNIO DE 2019 HASTA LAS 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Anuncio-Oficial-BIDPII.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/declaracion-jurada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Anuncio-de-resultados-Investigación.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/04/ANUNCIO-MOVILIDAD-PDF-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/RESOLUCIÓN-MOVILIDAD-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/TABLA-APROBADA-POR-LA-SENACYT-MOV.-DE-INVESTIGACIÓN.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/acta-de-cierre-Movilidad-de-Investigación.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/PROPUESTAS-AVALADAS-MOVILIDAD-11111.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Resolución-Administrativa-No.-358-Movilidad-de-Investigación-2019-03-MOV-2019-STRI.pdf</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/especialidades-y-subespecialidades-medicas-2018-cancelada/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-movilidad-de-investigacion-2019/</t>
         </is>
       </c>
     </row>
@@ -2858,22 +2885,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CONVOCATORIA DE MAESTRÍA EN ÁREAS ESPECÍFICAS DEL CONOCIMIENTO IDENTIFICADAS POR LA SENACYT, 2018</t>
+          <t>CONVOCATORIA PÚBLICA DE MOVILIDAD ACADÉMICA 2019</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Panameños con grado de licenciatura o equivalente, interesados en realizar estudios de maestría en las áreas establecidas en el anuncio de la convocatoria.  OBJETIVO: Mejorar la calidad de la gestión del Sistema Nacional de la Ciencia y Tecnología, mediante la formación profesional.  MONTO: Financiamiento de hasta B/. 60,000.00 por año de acuerdo a disponibilidad presupuestaria de la SENACYT.  DURACIÓN: Estas becas tendrán una duración de hasta dos (2) años o de acuerdo al plan de estudio.  Fecha de apertura: 15 de enero 2018  Plazo para entrega de propuestas: 27 de marzo 2018 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDA A: Universidades públicas y privadas que operen en la República de Panamá y que se encuentren acreditadas por el Consejo Nacional de Evaluación y Acreditación Universitaria de Panamá (CONEAUPA). Cada universidad podrá someter hasta 3 propuestas, siempre y cuando sean para sedes (campus) distintas.  OBJETIVO: Contribuir al mejoramiento de la calidad de la formación académica, mediante estancias cortas en instituciones académicas de educación superior o centros de investigación de excelencia internacional, en Panamá o en el extranjero con el propósito de incentivar la producción, difusión, vinculación y transferencia de conocimiento científico-tecnológico.  MONTO: MONTO: Hasta B/. 100,000.00 de acuerdo al programa.  Fecha de Apertura: ; 17 DE ABRIL DE 2019  Plazo para Entrega: 19 DE JUNIO DE 2019 HASTA LAS 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/01/Anuncio-BAE-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Reglamento-de-Becas-Nuevo-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/BEPDE-III-Declaración-Jurada-Nueva.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/Che.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/Formulario-de-IFARHU.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/TABLA-DE-BECAS-PARA-PUBLICAR.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Anuncio-Movilidad-Académica.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Reglamento-Movilidad-Académica.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Tabla-aprobada-por-SENACYT-Movilidad-Académica.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Acta-de-Recepción-de-Propuestas-MOV-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/Lista-priorizada-a-publicar-web.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Resolución-Administrativa-No.-356-Movilidad-Académica-2019-MOV002-Campus-Victor-Levi-Sasso.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Resolución-Administrativa-No.-357-Movilidad-Académica-2019-MOV001-Sedes-Regionales.pdf</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-de-maestria-en-areas-especificas-del-conocimiento-identificadas-por-la-senacyt-2018/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-movilidad-academica-2019/</t>
         </is>
       </c>
     </row>
@@ -2883,22 +2910,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DOCTORADO DE INVESTIGACIÓN RONDA 2017</t>
+          <t>PROGRAMA DE BECAS FULBRIGHT-SENACYT-IFARHU 2020-2021</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>DIRIGIDA A: Panameños que deseen formarse como investigadores en centros de estudios de excelencia en el extranjero o que ya se encuentren estudiando un doctorado de investigación en una universidad en el extranjero.  DURACIÓN: La beca tendrá una duración de hasta cuatro (4) años.  MONTOS: Financiamiento de hasta B/. 60,000.00 por año. La beca es hasta un 100% del costo, según tabla de presupuesto del Programa de Becas IFARHU-SENACYT. En caso de requerir materias de reforzamiento estas deberán ser cubiertas por el becario. * Los estudios de doctorado deberán cursarse en la modalidad presencial y de tiempo completo, sin embargo, se apoyará la modalidad compartida para aquellos programas que permitan desarrollar la investigación en Panamá. Nota: El programa no cubrirá propedéuticos o materias que no sean parte del programa de doctorado.  FECHA DE APERTURA DE LA CONVOCATORIA: 31 de enero de 2017  PLAZO PARA ENTREGA DE PROPUESTAS: 18 de abril de 2017 hasta las 3:00 P.M. HORA Es responsabilidad del proponente y no de la SENACYT asegurarse que la propuesta recibida esté completa y entregada en el (los) plazo(s) previsto(s). CONSULTAS: doctorado@senacyt.gob.pa o al 517-0014, ext. 1133 o 517-0133. Documentos para descargar</t>
+          <t>DIRIGIDA A: Profesionales panameños residentes en Panamá que han terminado su licenciatura al 30 de mayo del 2019, incluyendo el proyecto final de graduación. Los panameños con residencia en Estados Unidos o con doble nacionalidad (panameño / estadounidense) no serán considerados. Se les dará preferencia a aquellos candidatos que nunca han estudiado en Estados Unidos. Personas que hayan recibido una beca Fulbright anteriormente no son elegibles para este programa.  DURACIÓN: La maestría tiene una duración máxima de dos (2) años. El doctorado tiene una duración máxima de cuatro (4) años. De ser necesario, si el programa de doctorado es de cinco (5) años, el candidato deberá hacer sus propios arreglos para obtener el financiamiento adicional por el tiempo restante de su programa.  Fecha de Apertura: ; 11 DE ABRIL DE 2019.  Fecha límite de entrega de solicitud: 30 DE MAYO DE 2019 HASTA LAS 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/DOCTORADO-DE-INVESTIGACION-2017/declaracion-Jurada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/DOCTORADO-DE-INVESTIGACION-2017/Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Anuncio-de-Resultado-Doctorado-de-Investigación.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Flyer-FUL-SEN-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Áreas-temáticas-FUL-SEN-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Como-aplicar-FUL-SEN-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Paz-Salvo-FUL-SEN-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Checklist-FUL-SEN-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/11/Acta-de-Resultados-FULBRIGHT-2020-2021-RONDA-I.pdf</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/doctorado-de-investigacion-ronda-2017/</t>
+          <t>https://www.senacyt.gob.pa/programa-de-becas-fulbright-senacyt-ifarhu-2020-2021/</t>
         </is>
       </c>
     </row>
@@ -2908,22 +2935,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>MAESTRÍA EN EDUCACIÓN 2017</t>
+          <t>PROGRAMA DE INSERCIÓN DE BECARIOS DE LA SENACYT EN INSTITUTOS, CENTROS DE INVESTIGACIÓN,UNIVERSIDADES, INSTITUCIONES PÚBLICAS O EMPRESAS PRIVADAS, 2019</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Panameños que posean título universitario de licenciatura expedido por una universidad nacional o extranjera, reconocida por la entidad competente en Panamá.  DURACIÓN: Estas becas tendrán una duración máxima de hasta dos (2) años.  Fecha de apertura: 31 de enero 2017  Fecha límite de entrega de solicitud:  19 DE ABRIL DE 2017,  hasta  las 3:00 P.M. HORA EXACTA Para mayores detalles: medu@senacyt.gob.pa 517-0014 Ext 1133 o al 517-0133 Documentos para descargar</t>
+          <t>DIRIGIDA A: Profesionales con grado de maestría o doctorado, que hayan sido becados a través de los programas de Becas financiados por la SENACYT y que quieran insertarse en el mercado laboral de la República de Panamá, en institutos, centros de investigación, universidades, instituciones públicas o empresas privadas, que hayan suscrito Convenio con la SENACYT. En esta Convocatoria podrán participar los ex becarios que hayan retornado al país del 01 de mayo de 2018 al 15 de abril de 2019.  OBJETIVO: Insertar en el mercado laboral de la República de Panamá a los ex becarios de la SENACYT en posiciones acorde con su nivel académico y profesional, con la finalidad de mejorar la capacidad científica, técnica y productiva de Panamá.  Fecha de Apertura: ; 16 DE ABRIL DE 2019.  Fecha límite de entrega de solicitud: 17 DE MAYO DE 2019 HASTA LAS 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/MAESTRIA-EN-EDUCACION-2017/Declaracion-Jurada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/MAESTRIA-EN-EDUCACION-2017/reglamentodebecas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/Resolución-de-Extensión.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/06/Anuncio-de-Resultado-Edu2017.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/04/ANUNCIO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/DECLARACION.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/PASOS-A-SEGUIR.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/OFERTA-UBIQUA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/OFERTA-ABCO-Global.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/OFERTA-AGROINDUSTRIA-SANTA-MaNICA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/OFERTA-CENTAURI-CORP.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/OFERTA-AUPSA1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/OFERTA-AUPSA2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/OFERTA-IDIAP.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/OFERTA-MINSA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/OFERTA-INDICASAT-AIP.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/OFERTA-CENAMEP-AIP.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/OFERTA-UMIP1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/OFERTA-UMIP2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/OFERTA-USMA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/OFERTA-UTP.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/ACTA-DE-RECEPCIÓN-DE-APLICACIONES-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/ANUNCIO-DE-RESULTADOS-1.pdf</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/maestria-en-educacion-2017/</t>
+          <t>https://www.senacyt.gob.pa/programa-de-insercion-de-becarios-de-la-senacyt-en-institutos-centros-de-investigacionuniversidades-instituciones-publicas-o-empresas-privadas-2019/</t>
         </is>
       </c>
     </row>
@@ -2933,22 +2960,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CONVOCATORIA DE DOCTORADO PARA FORMAR INVESTIGADORES PARA UNIVERSIDADES, CENTROS DE INVESTIGACIÓN O LABORATORIOS DE INTERÉS NACIONAL RONDA III, 2018</t>
+          <t>Convocatoria Pública para Presentación de Propuestas de Programas de Maestrías Nuevas de Investigación 2019</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Profesores o Investigadores panameños vinculados a universidades, centros de investigación o laboratorios de interés nacional ubicados en Panamá, que se desempeñen en las áreas de ciencia y tecnología. El doctorado debe realizarse en un centro internacional de reconocida excelencia.  OBJETIVO: Fortalecer la planta docente y profesional de las universidades, centros de investigación y laboratorios de interés nacional ubicados en Panamá.  DURACIÓN: La beca tendrá una duración de hasta cuatro (4) años si el beneficiario posee grado de maestría y hasta seis (6) años si el beneficiario no posee grado de maestría.  MONTO: Las becas podrán tener una asignación anual de hasta B/. 60,000.00. El presupuesto se elaborará según los rubros y la tabla de asignación de fondos publicada en la página web de la SENACYT.  Fecha de Apertura: ; 30 de noviembre de 2018  Plazo para Entrega: 28 de marzo de 2019 hasta las 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDA A: Universidades debidamente acreditadas por CONEAUPA en la República de Panamá con programas de postgrado presenciales de tiempo completo.  OBJETIVO: Fortalecer la capacidad nacional de investigación, fomentar la generación de conocimiento y estimular su proyección hacia la sociedad por medio del fortalecimiento de las capacidades de las universidades para el desarrollo de la ciencia, la tecnología y la innovación, con la ejecución de programas de postgrado a tiempo completo, cuyos beneficiarios se dediquen a tiempo completo y de manera exclusiva a culminar sus estudios.  CATEGORIAS: VER ANUNCIO  Fecha de Apertura: ; 09 DE ABRIL DE 2019  Plazo para Entrega: 09 DE JULIO DE 2019 HASTA LAS 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/12/ANUNCIO-DOCTORADO-PARA-FORMAR-INVESTIGADORES-161.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Reglamento-de-Becas-Nuevo-2017-161.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/CHECKLIST-161.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Declaración-Jurada-Nueva-161.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/PASOS-A-SEGUIR-161.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/Anuncio-de-Resultado-Excelencia-BEDPE-III-2018.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Anuncio-de-Maestrías-Nuevas-de-Investigación-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Formulario-de-Evaluador-Maestrías-Nuevas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Lista-de-Requisitos-UO-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Lista-de-Requisitos-UPri-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Resolución-Administrativa-No.-188-del-5-de-septiembre-de-2011-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Resolución-Junta-Directiva-No.-62-del-19-de-diciembre-de-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/ACTA-DE-RECEPCIÓN-DE-PROPUESTAS-CONVOCATORIA-PÚBLICA-PARA-PRESENTACIÓN-DE-PROPUESTAS-DE-PROGRAMAS-DE-MAESTRÍAS-NUEVAS-DE-INVESTIGACIÓN-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Resolución-Adm.-No.-317-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/Programas-de-Maestría-Nuevas-de-Investigación-2019.pdf</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-de-doctorado-para-formar-investigadores-para-universidades-centros-de-investigacion-o-laboratorios-de-interes-nacional-ronda-iii-2018/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-presentacion-de-propuestas-de-programas-de-maestrias-nuevas-de-investigacion-2019/</t>
         </is>
       </c>
     </row>
@@ -2958,22 +2985,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PUBLICA DE CONCURSO NACIONAL PREMIO INSPIRA 2019.</t>
+          <t>CONVOCATORIA DE DOCTORADO PARA FORMAR INVESTIGADORES PARA UNIVERSIDADES, CENTROS DE INVESTIGACIÓN O LABORATORIOS DE INTERÉS NACIONAL RONDA I-2019</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>DIRIGIDA A: Maestros de grado o de laboratorio de educación primaria y profesores de ciencias naturales, biología, química o física de todas las regiones escolares, en servicio activo de las escuelas oficiales del Ministerio de Educación, tanto de la sección de Básica General Primaria y Premedia como de la sección de Media Académica y Profesional y Técnica. Identificar y reconocer a los docentes destacados activos en aulas de escuelas oficiales del sistema de educativo nacional, quienes, a través del uso de herramientas y estrategias innovadoras e inspiradoras en las clases de ciencias, permitan el desarrollo de habilidades en los estudiantes y promuevan sus talentos, transformando sus vidas. • Visita a los Museos del Instituto Smithsonian en la ciudad de Washington, Estados Unidos.• Medalla de reconocimiento • Tres mil Balboas (B/. 3,000.00) en insumos para el aula de ciencias y/o tecnología, para el Centro Educativo del cual proviene el docente ganador (a). 25 DE MARZO DE 2019 Plazo para Entrega: 7 DE JUNIO DE 2019 (3:30 P.M. HORA EXACTA) Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDA A: Profesores o Investigadores panameños vinculados a universidades, centros de investigación o laboratorios de interés nacional ubicados en Panamá, que se desempeñen en las áreas de ciencia y tecnología. El doctorado debe realizarse en un centro internacional de reconocida excelencia.  OBJETIVO: Fortalecer la planta docente y profesional de las universidades, centros de investigación y laboratorios de interés nacional ubicados en Panamá.  DURACIÓN: La beca tendrá una duración de hasta cuatro (4) años si el beneficiario posee grado de maestría y hasta seis (6) años si el beneficiario no posee grado de maestría.  MONTOS: Las becas podrán tener una asignación anual de hasta B/. 60,000.00 y la asignación total de la beca no podrá exceder la suma de B/. 250,000.00. El presupuesto se elaborará según los rubros y la tabla de asignación de fondos publicada en la página web de la SENACYT.  Fecha de Apertura: ; 22 DE ABRIL DE 2019.  Fecha límite de entrega de solicitud: 07 DE AGOSTO DE 2019 HASTA LAS 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/03/2-ANUNCIO-DE-CONVOCATORIA-PREMIO-INSPIRA-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/03/3-BASES-DEL-CONCURSO-NAC-PREMIO-INSPIRA-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/03/5-FORMULARIO-DE-APLICACI%C3%93N-PREMIO-INSPIRA-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/03/6-LISTA-de-Cotejo-PREMIO-INSPIRA-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/03/1-Gaceta-reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/03/4-Formato-de-Paz-y-Salvo-SENACYT-PI-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Resolución-No.-6-2019-Inspira-EXTENSIÓN-DEL-CONCURSO.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/04/BEPDE-I-2019-Anuncio.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/BEPDE-I-2019-Pasos-a-seguir.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Declaración-Jurada-Nueva.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Reglamento-de-Becas-Nuevo-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Anuncio-de-Resultado-Excelencia.pdf</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-concurso-nacional-premio-inspira-2019/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-de-doctorado-para-formar-investigadores-para-universidades-centros-de-investigacion-o-laboratorios-de-interes-nacional-ronda-i-2019/</t>
         </is>
       </c>
     </row>
@@ -2983,18 +3010,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA PARA EL SEGUNDO REINGRESO DE MIEMBROS DEL SISTEMA NACIONAL DE INVESTIGACIÓN (SNI) DE PANAMÁ 2019</t>
+          <t>CONVOCATORIA DE DOCTORADO DE INVESTIGACIÓN RONDA I-2019</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>DIRIGIDA A: Miembros actuales del SNI, que hayan reingresado por primera vez al Sistema en la Convocatoria Pública lanzada en octubre del año 2016, en categoría de Investigador Nacional o Investigador Distinguido, panameños o extranjeros residentes en Panamá, siempre que dichos investigadores cumplan con los requisitos establecidos en el Reglamento, los Criterios Internos de Evaluación y el anuncio de la convocatoria del SNI.  OBJETIVO: Promover la investigación científica y tecnológica y su calidad, mediante el reconocimiento de la excelencia de la labor de investigación y desarrollo científico y tecnológico de personas naturales, a través de incentivos que pueden ser distinciones o estímulos económicos, otorgados en función de la calidad, la producción, la trascendencia y del impacto de dicha labor.  MONTOS: Los estímulos económicos serán sumas que recibirán los miembros del SNI, cuyos montos y frecuencia se indica en el Reglamento del SNI (Resolución del Consejo Directivo Nacional del SNI No. 30 de 9 noviembre de 2016, modificada por la Resolución del Consejo Directivo Nacional del SNI No. 2 de 26 de abril de 2018). Estos estímulos podrán ser utilizados para gastos personales (estímulos personales) y para gastos en investigación y desarrollo científico o tecnológico (estímulos profesionales), de acuerdo con lo establecido en los Objetos de Gasto del SNI.  Fecha de Apertura: ; 4 DE FEBRERO DE 2019  Plazo para Entrega: 26 DE JULIO DE 2019 (1:00 P.M. HORA EXACTA) Para mayores detalles ver anuncio entre los documentos a descargar</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr"/>
+          <t>DIRIGIDA A: Panameños que deseen formarse como investigadores en centros de estudios de excelencia en el extranjero o que ya se encuentren estudiando un doctorado de investigación en centros de estudio de excelencia en el extranjero.  OBJETIVO: Este programa tiene como objetivo la formación de investigadores para la República de Panamá, que garanticen el incremento del capital humano con altas capacidades para actividades científicas y tecnológicas.  DURACIÓN: La beca tendrá una duración de hasta cuatro (4) años si el beneficiario posee grado de maestría y hasta seis (6) años si el beneficiario no posee grado de maestría.  MONTOS: Las becas podrán tener una asignación anual de hasta B/. 60,000.00 y la asignación total de la beca no podrá exceder la suma de B/. 250,000.00. El presupuesto se elaborará según los rubros y la tabla de asignación de fondos publicada en la página web de la SENACYT.  Fecha de Apertura: ; 22 DE ABRIL DE 2019.  Fecha límite de entrega de solicitud: 07 DE AGOSTO DE 2019 HASTA LAS 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/04/BIDP-I-2019-ANUNCIO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/BIDP-I-2019-pasos.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Declaración-Jurada-Nueva-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Reglamento-de-Becas-Nuevo-2017-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Anuncio-de-Resultados-Doctorado-de-Investigación.pdf</t>
+        </is>
+      </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-segundo-reingreso-de-miembros-del-sistema-nacional-de-investigacion-sni-de-panama-2019/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-de-doctorado-de-investigacion-ronda-i-2019/</t>
         </is>
       </c>
     </row>
@@ -3004,22 +3035,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA PARA EL TERCER REINGRESO DE MIEMBROS DEL SISTEMA NACIONAL DE INVESTIGACIÓN (SNI) DE PANAMÁ 2019</t>
+          <t>DOCTORADO PARA FORMAR INVESTIGADORES PARA UNIVERSIDADES OFICIALES, CENTRO DE INVESTIGACIÓN Y LABORATORIOS DE INTERÉS NACIONAL RONDA II 2017</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>DIRIGIDA A: : Miembros actuales del SNI, que hayan reingresado por segunda vez al Sistema en la Convocatoria Pública lanzada en octubre del año 2016, en categoría de Investigador Nacional o Investigador Distinguido, panameños o extranjeros residentes en Panamá, siempre que dichos investigadores cumplan con los requisitos establecidos en el Reglamento, los Criterios Internos de Evaluación y el anuncio de la convocatoria del SNI. OBJETIVO: Promover la investigación científica y tecnológica y su calidad, mediante el reconocimiento de la excelencia de la labor de investigación y desarrollo científico y tecnológico de personas naturales, a través de incentivos que pueden ser distinciones o estímulos económicos, otorgados en función de la calidad, la producción, la trascendencia y del impacto de dicha labor. MONTOS: Los estímulos económicos serán sumas que recibirán los miembros del SNI, cuyos montos y frecuencia se indica en el Reglamento del SNI (Resolución del Consejo Directivo Nacional del SNI No. 30 de 9 noviembre de 2016, modificada por la Resolución del Consejo Directivo Nacional del SNI No. 2 de 26 de abril de 2018). Estos estímulos podrán ser utilizados para gastos personales (estímulos personales) y para gastos en investigación y desarrollo científico o tecnológico (estímulos profesionales), de acuerdo con lo establecido en los Objetos de Gasto del SNI. Fecha de Apertura: ; 4 DE FEBRERO DE 2019 Plazo para Entrega: 26 DE JULIO DE 2019 (1:00 P.M. HORA EXACTA) Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDA A: Profesores o investigadores panameños vinculados a universidades oficiales de Panamá, centro de investigación, laboratorio de interés nacional, incluyendo laboratorios gubernamentales o laboratorios conformados como asociaciones de interés público que se desempeñen en las áreas de ciencia y tecnología; El nivel de entrenamiento o grado a obtener es doctorado en un centro de reconocida excelencia internacional.  DURACIÓN: La beca tendrá una duración máxima de hasta cuatro (4) años.  MONTOS: Financiamiento de hasta B/.60,000.00 por año. La beca es hasta un 100% del costo, según tabla de presupuesto del Programa de Becas IFARHU-SENACYT. En caso de requerir materias de reforzamiento estas deberán ser cubiertas por el becario.  Fecha de Apertura: ; 03 DE MAYO DE 2017.  Fecha límite de entrega de solicitud: 01 DE AGOSTO DE 2017 HASTA LAS 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Anuncio-Tercer-Reingreso-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Ley-56-SNI-de-Panam%C3%A1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Resolucion-de-CDN-No-30-de-9-de-nov-de-2016Reglamento-del-SNI-Gaceta-Oficial.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Resoluci%C3%B3n-de-CDN-No.-02-de-26-de-abril-de-2018-Modificaciones-al-Reglamento-Gaceta-Oficial.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Texto-%C3%9Anico-Reglamento-del-SNI-18-de-mayo-de-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/C%C3%B3digo-de-%C3%89tica-del-SNI-19-de-julio-de-2016.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Objetos-de-Gastos-Permisibles-del-SNI-26-de-julio-de-2016.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Resoluci%C3%B3n-de-CDN-No.-03-de-4-de-mayo-de-2018-Criterios-Internos-del-SNI-Gaceta-Oficial.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Lista-de-recomendados-3R2019.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Anuncio-Oficial-BEPDEII.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/BEPDE-I-Declaración-Jurada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/BEPDE-I-2017-Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Anuncio-de-Resultados-Doctorado-de-Excelencia-Ronda-II.pdf</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-tercer-reingreso-de-miembros-del-sistema-nacional-de-investigacion-sni-de-panama-2019/</t>
+          <t>https://www.senacyt.gob.pa/doctorado-para-formar-investigadores-para-universidades-oficiales-centro-de-investigacion-y-laboratorios-de-interes-nacional-ronda-ii-2017/</t>
         </is>
       </c>
     </row>
@@ -3029,14 +3060,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA PARA EL TERCER REINGRESO DE MIEMBROS DEL SISTEMA NACIONAL DE INVESTIGACIÓN (SNI) DE PANAMÁ 2019</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
+          <t>DOCTORADO DE INVESTIGACIÓN RONDA II 2017</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>DIRIGIDA A: Panameños que deseen formarse como investigadores en centros de estudios de excelencia en el extranjero o que ya se encuentren estudiando un doctorado de investigación en una universidad en el extranjero.  DURACIÓN: La beca tendrá una duración de hasta cuatro (4) años.  MONTOS: Financiamiento de hasta B/.60,000.00 por año. La beca es hasta un 100% del costo, según tabla de presupuesto del Programa de Becas IFARHU-SENACYT. En caso de requerir materias de reforzamiento estas deberán ser cubiertas por el becario.  Fecha de Apertura: ; 03 DE MAYO DE 2017.  Fecha límite de entrega de solicitud: 01 DE AGOSTO DE 2017 HASTA LAS 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Anuncio-Oficial-BIDPII.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/declaracion-jurada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Anuncio-de-resultados-Investigación.pdf</t>
+        </is>
+      </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/882/</t>
+          <t>https://www.senacyt.gob.pa/doctorado-de-investigacion-ronda-ii-2017/</t>
         </is>
       </c>
     </row>
@@ -3046,22 +3085,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CONVOCATORIA DE MAESTRÍA EN ÁREAS ESPECÍFICAS DEL CONOCIMIENTO DE PRIORIDAD O DE INTERÉS DE LA ACP, 2019</t>
+          <t>CONVOCATORIA DE CIENCIAS BÁSICAS O MATEMÁTICAS RONDA I 2017</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>DIRIGIDA A: Panameños con grado de licenciatura o equivalente, interesados en realizar estudios de maestría en las áreas establecidas en el anuncio de la convocatoria.  OBJETIVO: Mejorar la calidad de la gestión del Sistema Nacional de la Ciencia y Tecnología, mediante la formación profesional.  MONTOS: Financiamiento de hasta B/.60,000.00 por año de acuerdo a disponibilidad presupuestaria de la SENACYT.  Fecha de Apertura: 27 DE FEBRERO DE 2019  Plazo para Entrega: 30 DE ABRIL DE 2019 (3:00 P.M. HORA EXACTA) Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDA A: Estudiantes panameños que vayan a ingresar por primera vez a la universidad o que se encuentren cursando las carreras de licenciaturas en Ciencias Básicas (Biología, Química, Física o Matemáticas) en universidades oficiales de la República de Panamá. DURACIÓN: La beca tendrá una duración máxima de hasta cinco (5) años, dependiendo del plan de estudio.  MONTOS: El financiamiento es de hasta el 100% del costo total de la carrera. La beca incluirá un estipendio de manutención de B/.600.00 mensuales por la duración de la carrera, siempre y cuando se mantenga en el índice mínimo de 1.75 de 3.0. En caso de que el estudiante mantenga un índice igual o mayor a 2.00, se le ajustará el estipendio de manutención a B/.700.00 mensuales de Becas IFARHU-SENACYT.  Fecha de Apertura: ; 3 DE MAYO DE 2017.  Fecha límite para entrega de Solicitud: 20 DE JUNIO DE 2017 HASTA LAS 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Anuncio-ACP-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Becas-de-Maestrías-2019-del-Acuerdo-SENACYT-IFARHU-ACP.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Declaración-Jurada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Formulario-IFARHU-SENACYT.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Pasos-a-Seguir.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Resultados-ACP.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Anuncio-Ciencias-B%C3%A1sicas-Ronda-I-2017-subido-a-la-web.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Checklist-Ciencias-B%C3%A1sicas-o-Matem%C3%A1ticas-Ronda-I-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Formulario-de-Aplicaci%C3%B3n-Ciencias-B%C3%A1sicas-o-Matem%C3%A1ticas-Ronda-I-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Pasos-a-seguir-Ciencias-B%C3%A1sicas-o-Matem%C3%A1ticas-Ronda-I-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Paz-y-Salvo-Ciencias-B%C3%A1sicas-o-Matem%C3%A1ticas-Ronda-I-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Declaracion-Jurada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Reglamento-de-Becas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/AAnuncio-de-Resultados-de-Ciencias-B%C3%A1sicas-o-Matem%C3%A1ticas-Ronda-I-2017.pdf</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-de-maestria-en-areas-especificas-del-conocimiento-de-prioridad-o-de-interes-de-la-acp-2019/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-de-ciencias-basicas-o-matematicas-ronda-i-2017/</t>
         </is>
       </c>
     </row>
@@ -3071,22 +3110,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>CONVOCATORIA DE MAESTRÍA EN ÁREAS ESPECÍFICAS DEL CONOCIMIENTO IDENTIFICADAS POR LA SENACYT, 2019</t>
+          <t>Especialidades y Subespecialidades Médicas 2018 Cancelada</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>DIRIGIDA A: : Panameños con grado de licenciatura o equivalente, interesados en realizar estudios de maestría en las áreas establecidas en el anuncio de la convocatoria. OBJETIVO: Mejorar la calidad de la gestión del Sistema Nacional de la Ciencia y Tecnología, mediante la formación profesional. MONTOS: Financiamiento de hasta B/.60,000.00 por año de acuerdo a disponibilidad presupuestaria de la SENACYT. Fecha de Apertura: ; 27 DE FEBRERO DE 2019 Plazo para Entrega: 30 DE ABRIL DE 2019 (3:00 P.M. HORA EXACTA) Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDA A: Panameños que deseen formarse como investigadores en centros de estudios de excelencia en el extranjero o que ya se encuentren estudiando un doctorado de investigación en una universidad en el extranjero.  DURACIÓN: La beca tendrá una duración de hasta cuatro (4) años.  MONTOS: Financiamiento de hasta B/.60,000.00 por año. La beca es hasta un 100% del costo, según tabla de presupuesto del Programa de Becas IFARHU-SENACYT. En caso de requerir materias de reforzamiento estas deberán ser cubiertas por el becario.  Fecha de Apertura: ; 03 DE MAYO DE 2017.  Fecha límite de entrega de solicitud: 01 DE AGOSTO DE 2017 HASTA LAS 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Anuncio-BAE-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Formulario-IFARHU-SENACYT-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Pasos-a-Seguir-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Reglamento-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Declaración-Jurada-Nueva-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Resultados-Áreas-Específicas.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Anuncio-Oficial-BIDPII.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/declaracion-jurada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Anuncio-de-resultados-Investigación.pdf</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-de-maestria-en-areas-especificas-del-conocimiento-identificadas-por-la-senacyt-2019/</t>
+          <t>https://www.senacyt.gob.pa/especialidades-y-subespecialidades-medicas-2018-cancelada/</t>
         </is>
       </c>
     </row>
@@ -3096,18 +3135,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA DE NUEVOS INVESTIGADORES 2019 RONDA I</t>
+          <t>CONVOCATORIA DE BECAS DE PREGRADO DE EXCELENCIA PARA COLEGIOS OFICIALES RONDA II 2018</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>DIRIGIDO A:  : Estudiantes Panameños residentes en Panamá que estén cursando los dos últimos años de la licenciatura, o cursando un posgrado, afiliados a una entidad pública, universidad, organización no gubernamental, asociaciones de interés público o personas jurídicas con o sin fines de lucro, con capacidad para realizar investigaciones científicas y desarrollo tecnológico e innovación. OBJETIVO: Proporcionar financiamiento o co-financiamiento para la promover la formación de nuevos investigadores a través de apoyo para recursos directamente relacionados con su investigación en las áreas temáticas de la convocatoria. CATEGORÍAS: 1. Estudiantes que estén cursando los dos (2) últimos años de la licenciatura y que estén vinculados a un investigador con grado de doctorado del Sistema Nacional de Investigación (SNI). Monto de adjudicación de hasta B/. 25,000.00. 2. Estudiantes que estén cursando los dos (2) últimos años de la licenciatura y que estén vinculados a un investigador con grado de doctorado. Monto de adjudicación de hasta B/. 20,000.00. 3. Estudiantes de posgrado que estén vinculados a un investigador con grado de doctorado del Sistema Nacional de Investigación (SNI). Monto de adjudicación de hasta B/. 25,000.00. 4. Estudiantes de posgrado que estén vinculados a un investigador con grado de doctorado. Monto de adjudicación de hasta B/. 20,000.00. Fecha de apertura: 18 de febrero 2019 Plazo para entrega de propuestas: 23 de abril 2019 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr"/>
+          <t>DIRIGIDO A: Estudiantes panameños que posean título de bachiller o estén cursando el último periodo del último año del bachillerato, en un centro de estudios de educación media oficial en Panamá, con la intención de realizar estudios en la Universidad de Waterloo, en la Universidad de Ontario, en la Universidad del Sur de Indiana o en la Universidad de Arkansas.  OBJETIVO: Fortalecer al país en áreas de Ciencia, Tecnología e Investigación para contar con profesionales con formación en centros de excelencia y en áreas claves para el desarrollo del país.  DURACIÓN: La beca tendrá la duración de acuerdo con el Plan de Estudio de la Licenciatura. Este Programa contempla la formación del idioma inglés y nivelación académica por un periodo de hasta un (1) año adicional.  MONTO: MONTOS: Las becas de este Programa tendrán una asignación anual de hasta Sesenta Mil Balboas con 00/100 (B/. 60,000.00) y la asignación total no podrá exceder la suma de Doscientos Cincuenta Mil Balboas con 00/100 (B/. 250,000.00). También se podrán dar becas parciales.  Fecha de Apertura: 30 de noviembre de 2018  Plazo para Entrega: 08 de enero de 2019 HASTA las 3:00 p.m. (HORA EXACTA.) Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/12/ANUNCIO-PREGRADO-COLEGIOS-OFICIALES.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Reglamento-2018-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/LISTADO-DE-VERIFICACIÓN.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Declaración-Jurada-Nueva-2018-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Formulario-de-IFARHU-SENACYT-2018-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/PASOS-A-SEGUIR.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/ÁREAS-TEMÁTICAS.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Anuncio-de-Resultados.pdf</t>
+        </is>
+      </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-nuevos-investigadores-2019-ronda-i/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-de-becas-de-pregrado-de-excelencia-para-colegios-oficiales-ronda-ii-2018/</t>
         </is>
       </c>
     </row>
@@ -3117,22 +3160,22 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA DE LOS PROGRAMAS GENERACIÓN DE CAPACIDADES 2019 RONDA I</t>
+          <t>CONVOCATORIA DE MAESTRÍA EN ÁREAS ESPECÍFICAS DEL CONOCIMIENTO IDENTIFICADAS POR LA SENACYT, 2018</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Personas jurídicas con o sin fines de lucro debidamente inscrita en el Registro Público de Panamá o personas naturales de nacionalidad panameña, residentes en el país dedicadas a realizar actividades que fortalezcan el Sistema de Ciencia, Tecnología e Innovación. Las personas naturales pueden participar individualmente o afiliados a entidades públicas o privadas, universidades, organizaciones no gubernamentales, asociaciones de interés público o centros de investigación.  OBJETIVO: Proporcionar financiamiento o co-financiamiento a actividades que fortalezcan el ambiente de ciencia y tecnología, para incentivar el interés por estas áreas del conocimiento.  MONTO: El financiamiento de hasta el 100% del costo de la propuesta según el monto establecido en cada categoría de evaluación separada y de acuerdo con las necesidades plenamente justificadas por cada rubro del gasto, indicando la importancia y la relación con la investigación. 1. Categoría 1: Hasta B/. 10,000.00. 2. Categoría 2: Hasta B/. 15,000.00. 3. Categoría 3: Hasta B/. 10,000.00 4. Categoría 4: Hasta B/. 7,000.00.  Fecha de apertura: 11 de febrero 2019  Plazo para entrega de propuestas: 16 de abril 2019 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Panameños con grado de licenciatura o equivalente, interesados en realizar estudios de maestría en las áreas establecidas en el anuncio de la convocatoria.  OBJETIVO: Mejorar la calidad de la gestión del Sistema Nacional de la Ciencia y Tecnología, mediante la formación profesional.  MONTO: Financiamiento de hasta B/. 60,000.00 por año de acuerdo a disponibilidad presupuestaria de la SENACYT.  DURACIÓN: Estas becas tendrán una duración de hasta dos (2) años o de acuerdo al plan de estudio.  Fecha de apertura: 15 de enero 2018  Plazo para entrega de propuestas: 27 de marzo 2018 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/02/ANUNCIO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/BASES-DE-LA-CONVOCATORIA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/FORMULARIO-DE-EVALUACIÓN-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/MODELO-CONTRATO-POR-MERITO-REVISADO-JULIO-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/REGLAMENTO-DE-CONTRATACIÓN-POR-MÉRITO-DE-SENACYT-RESOLUCIÓN-NO.-191-DE-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/ACTA-DE-RECEPCIÓN-DE-PROPUESTA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/SUBSANACION-DE-ACTA-DE-RECEPCIÓN-DE-PROPUESTA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/PUBLICACION-DE-LISTA-DE-RESULTADOS-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/Resolución-No.-244-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/Resolución-No.-247-2019-de-Eira-Sobenis.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Resolucion-No.252-de-Delba-Villalobos.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Resolucion-No.-255-de-Jose-Troestch.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Resolución-No.-274-de-Axel-Villalobos.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Resolución-No.-298-de-Diana-Sánchez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Resolución-No.-299-de-George-Pitti.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Resolución-No.300-de-Cesar-Carrillo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Resolución-No-303-de-Miguel-Vega.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/01/Anuncio-BAE-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Reglamento-de-Becas-Nuevo-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/BEPDE-III-Declaración-Jurada-Nueva.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/Che.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/Formulario-de-IFARHU.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/TABLA-DE-BECAS-PARA-PUBLICAR.pdf</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-los-programas-generacion-de-capacidades-2019-ronda-i/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-de-maestria-en-areas-especificas-del-conocimiento-identificadas-por-la-senacyt-2018/</t>
         </is>
       </c>
     </row>
@@ -3142,22 +3185,22 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA PARA EL CUARTO REINGRESO DE MIEMBROS DEL SISTEMA NACIONAL DE INVESTIGACIÓN (SNI) DE PANAMÁ 2019</t>
+          <t>BECAS PARA ESTUDIOS DOCTORALES EN TAIWAN RONDA II 2017</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>DIRIGIDA A: : Miembros actuales del SNI, que hayan reingresado por tercera vez al Sistema en la Convocatoria Pública lanzada en octubre del año 2016, en categoría de Investigador Nacional o Investigador Distinguido, panameños o extranjeros residentes en Panamá, siempre que dichos investigadores cumplan con los requisitos establecidos en el Reglamento, los Criterios Internos de Evaluación y el anuncio de la convocatoria del SNI. OBJETIVO: Promover la investigación científica y tecnológica y su calidad, mediante el reconocimiento de la excelencia de la labor de investigación y desarrollo científico y tecnológico de personas naturales, a través de incentivos que pueden ser distinciones o estímulos económicos, otorgados en función de la calidad, la producción, la trascendencia y del impacto de dicha labor. MONTOS: Los estímulos económicos serán sumas que recibirán los miembros del SNI, cuyos montos y frecuencia se indica en el Reglamento del SNI (Resolución del Consejo Directivo Nacional del SNI No. 30 de 9 noviembre de 2016, modificada por la Resolución del Consejo Directivo Nacional del SNI No. 2 de 26 de abril de 2018). Estos estímulos podrán ser utilizados para gastos personales (estímulos personales) y para gastos en investigación y desarrollo científico o tecnológico (estímulos profesionales), de acuerdo con lo establecido en los Objetos de Gasto del SNI. Fecha de Apertura: ; 4 DE FEBRERO DE 2019 Plazo para Entrega: 26 DE JULIO DE 2019 (1:00 P.M. HORA EXACTA) Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Panameños interesados en estudiar un doctorado en Taiwán. DURACIÓN: La beca tendrá una duración máxima de hasta cuatro (4) años para estudios doctorales. Fecha de apertura: 28 de marzo 2017 Fecha límite de entrega de solicitud: 15 de abril de 2017 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Anuncio-Cuarto-Reingreso-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Ley-56-SNI-de-Panam%C3%A1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Resolucion-de-CDN-No-30-de-9-de-nov-de-2016Reglamento-del-SNI-Gaceta-Oficial.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Resoluci%C3%B3n-de-CDN-No.-02-de-26-de-abril-de-2018-Modificaciones-al-Reglamento-Gaceta-Oficial.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Texto-%C3%9Anico-Reglamento-del-SNI-18-de-mayo-de-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/C%C3%B3digo-de-%C3%89tica-del-SNI-19-de-julio-de-2016.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Objetos-de-Gastos-Permisibles-del-SNI-26-de-julio-de-2016.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Resoluci%C3%B3n-de-CDN-No.-03-de-4-de-mayo-de-2018-Criterios-Internos-del-SNI-Gaceta-Oficial.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Lista-de-recomendados-4R2019.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/03/Anuncio-Taiwán-Ronda-II.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/03/Formulario-de-Aplicación-Taiwán-Ronda-II.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/03/Checklist-Taiwán-Ronda-II.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/03/Reglamento-becas-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/03/Paz-y-Salvo-Taiwán-Ronda-II.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/03/Pasos-a-Seguir-Taiwán-Ronda-II.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/03/declaracion-Jurada-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/Resoluci%C3%B3n-Administrativa-que-declara-desierta-la-convocatoria.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/RESOLUCIÓN-DEJAR-SIN-EFECTO-BECA-TAIWÁN-RONDA-II-Desierta.pdf</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-cuarto-reingreso-de-miembros-del-sistema-nacional-de-investigacion-sni-de-panama-2019/</t>
+          <t>https://www.senacyt.gob.pa/becas-para-estudios-doctorales-en-taiwan-ronda-ii-2017/</t>
         </is>
       </c>
     </row>
@@ -3167,18 +3210,22 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA PARA EL INGRESO DE NUEVOS MIEMBROS DEL SISTEMA NACIONAL DE INVESTIGACIÓN (SNI) DE PANAMÁ 2019</t>
+          <t>DOCTORADO DE INVESTIGACIÓN RONDA 2017</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Investigadores panameños o extranjeros residentes en Panamá, o investigadores panameños residentes en el extranjero; siempre que dichos investigadores cumplan con los requisitos establecidos en el Reglamento, los Criterios Internos de Evaluación y el anuncio de la convocatoria del SNI.  OBJETIVO: Promover la investigación científica y tecnológica y su calidad, mediante el reconocimiento de la excelencia de la labor de investigación y desarrollo científico y tecnológico de personas naturales, a través de incentivos que pueden ser distinciones o estímulos económicos, otorgados en función de la calidad, la producción, la trascendencia y del impacto de dicha labor.  Fecha de apertura: 22 de enero de 2019  Plazo para entrega: 29 de marzo de 2019 (1:00 p.m. Hora exacta.) Para mayores detalles ver anuncio entre los documentos a descargar</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr"/>
+          <t>DIRIGIDA A: Panameños que deseen formarse como investigadores en centros de estudios de excelencia en el extranjero o que ya se encuentren estudiando un doctorado de investigación en una universidad en el extranjero.  DURACIÓN: La beca tendrá una duración de hasta cuatro (4) años.  MONTOS: Financiamiento de hasta B/. 60,000.00 por año. La beca es hasta un 100% del costo, según tabla de presupuesto del Programa de Becas IFARHU-SENACYT. En caso de requerir materias de reforzamiento estas deberán ser cubiertas por el becario. * Los estudios de doctorado deberán cursarse en la modalidad presencial y de tiempo completo, sin embargo, se apoyará la modalidad compartida para aquellos programas que permitan desarrollar la investigación en Panamá. Nota: El programa no cubrirá propedéuticos o materias que no sean parte del programa de doctorado.  FECHA DE APERTURA DE LA CONVOCATORIA: 31 de enero de 2017  PLAZO PARA ENTREGA DE PROPUESTAS: 18 de abril de 2017 hasta las 3:00 P.M. HORA Es responsabilidad del proponente y no de la SENACYT asegurarse que la propuesta recibida esté completa y entregada en el (los) plazo(s) previsto(s). CONSULTAS: doctorado@senacyt.gob.pa o al 517-0014, ext. 1133 o 517-0133. Documentos para descargar</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/DOCTORADO-DE-INVESTIGACION-2017/declaracion-Jurada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/DOCTORADO-DE-INVESTIGACION-2017/Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Anuncio-de-Resultado-Doctorado-de-Investigación.pdf</t>
+        </is>
+      </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-ingreso-de-nuevos-miembros-del-sistema-nacional-de-investigacion-sni-de-panama-2019/</t>
+          <t>https://www.senacyt.gob.pa/doctorado-de-investigacion-ronda-2017/</t>
         </is>
       </c>
     </row>
@@ -3188,22 +3235,22 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PARA EL FOMENTO A NUEVOS EMPRENDIMIENTOS: CAPITAL PARA EMPRENDIMIENTOS EN FASE DE ESCALAMIENTO 2019</t>
+          <t>MAESTRÍA EN EDUCACIÓN 2017</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>DIRIGIDA A: Personas naturales, de nacionalidad panameña, mayores de edad, residentes en Panamá. Personas Jurídicas panameñas de reciente creación (con más de 6 meses y no más de 24 meses a la fecha de apertura de esta convocatoria), con ventas anuales no mayores a ciento cincuenta mil balboas (B/.150,000.00).</t>
+          <t>DIRIGIDO A: Panameños que posean título universitario de licenciatura expedido por una universidad nacional o extranjera, reconocida por la entidad competente en Panamá.  DURACIÓN: Estas becas tendrán una duración máxima de hasta dos (2) años.  Fecha de apertura: 31 de enero 2017  Fecha límite de entrega de solicitud:  19 DE ABRIL DE 2017,  hasta  las 3:00 P.M. HORA EXACTA Para mayores detalles: medu@senacyt.gob.pa 517-0014 Ext 1133 o al 517-0133 Documentos para descargar</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Anuncio.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Bases.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/MODELO-CONTRATO-POR-MERITO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Resoluci%C3%B3n-191-de-31-de-julio-de-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/03/Acta-de-recepcion-de-propuesta.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/MAESTRIA-EN-EDUCACION-2017/Declaracion-Jurada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/MAESTRIA-EN-EDUCACION-2017/reglamentodebecas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/Resolución-de-Extensión.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/06/Anuncio-de-Resultado-Edu2017.pdf</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-para-el-fomento-a-nuevos-emprendimientos-capital-para-emprendimientos-en-fase-de-escalamiento-2019/</t>
+          <t>https://www.senacyt.gob.pa/maestria-en-educacion-2017/</t>
         </is>
       </c>
     </row>
@@ -3213,22 +3260,22 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA PARA EL FOMENTO A NUEVOS EMPRENDIMIENTO 2019</t>
+          <t>PROGRAMA DE BECAS FULLBRIGHT SENACYT-IFARHU EN CIENCIAS, TECNOLOGÍA, INNOVACIÓN E INGENIERÍAS 2017-2018</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>DIRIGIDA A: Personas naturales, de nacionalidad panameña, mayores de edad, residentes en Panamá.</t>
+          <t>DIRIGIDO A: Profesionales panameños residentes en Panamá que han terminado su licenciatura al 15 de abril del 2017, incluyendo el proyecto final de graduación. Los panameños con residencia en Estados Unidos o con doble nacionalidad (panameño / estadounidense) no serán considerados. Se les dará preferencia a aquellos candidatos que nunca han estudiado en Estados Unidos.Personas que hayan recibido una beca Fulbright anteriormente no son elegibles para este programa.  DURACIÓN: La maestría tiene una duración máxima de dos (2) años. El doctorado tiene una duración máxima de cuatro (4) años. De ser necesario, si el programa de doctorado es de cinco (5) años, el candidato deberá hacer sus propios arreglos para obtener el financiamiento adicional por el tiempo restante de su programa.  Fecha de apertura: 31 de enero 2017  Fecha límite de entrega de solicitud: 18 de abril de 2017 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/01/MODELO-CONTRATO-POR-MERITO.pdf.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Resoluci%C3%B3n-191-de-31-de-julio-de-2017-1.pdf.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/03/Acta-de-recepcion-de-propuesta.pdf.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/Resolución-de-Extención-de-resultados.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/Resultados-Convocatoria-NE19.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Resol.-Adm.-No.-320-Alejandra-Lizarazu.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Resol.-Adm.-No.-321-Juan-Villarreal.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Resol.-Adm.-No.-322-Jose-De-Roux.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Resol.-Adm.-No.-323-Natalia-Ramirez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/NE19-P-032-Gabriel-Soto.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Res.-Adj.-No.-363-Julio-Mendieta.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/04/Anuncio-Fulbright-2017-subido-a-la-web.pdf</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-fomento-a-nuevos-emprendimiento-2019/</t>
+          <t>https://www.senacyt.gob.pa/programa-de-becas-fullbright-senacyt-ifarhu-en-ciencias-tecnologia-innovacion-e-ingenierias-2017-2018/</t>
         </is>
       </c>
     </row>
@@ -3238,22 +3285,22 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PUBLICA CONTINUA CONGRESOS, JORNADAS, SEMINARIOS Y/O TALLERES EN PANAMÁ 2019</t>
+          <t>CONVOCATORIA DE DOCTORADO PARA FORMAR INVESTIGADORES PARA UNIVERSIDADES, CENTROS DE INVESTIGACIÓN O LABORATORIOS DE INTERÉS NACIONAL RONDA III, 2018</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>DIRIGIDA A: Personas jurídicas con o sin fines de lucro debidamente inscrita en el Registro de Panamá o personas naturales de nacionalidad panameña, residentes en el país dedicadas a realizar actividades que fortalezcan el Sistema de Ciencia, Tecnología e Innovación. Las personas naturales deben estar afiliadas a entidades públicas o privadas, universidades organizaciones no gubernamentales de interés público o centros de investigación. OBJETIVO: Cofinanciamiento de actividades como congresos, jornadas, seminarios y/o talleres en panamá, que fortalezcan el ambiente de ciencia, tecnología e innovación, para incentivar el interés por estas áreas de conocimiento. MONTOS: Ver documentos a descargar. Fecha de Apertura: 10 de ENERO DE 2019. Plazo de Entregas Continuas: 15 DE MARZO DE 2019 HASTA LAS 3:00 P.M. HORA EXACTA 30 DE MAYO DE 2019 HASTA LAS 3.00 P.M. HORA EXACTA 31 DE JULIO DE 2019 HASTA LAS 3.00 P.M. HORA EXACTA 08 DE OCTUBRE DE 2019 HASTA LAS 3.00 P.M. HORA EXACTA 19 DE DICIEMBRE DE 2019 HASTA LAS 3.00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Profesores o Investigadores panameños vinculados a universidades, centros de investigación o laboratorios de interés nacional ubicados en Panamá, que se desempeñen en las áreas de ciencia y tecnología. El doctorado debe realizarse en un centro internacional de reconocida excelencia.  OBJETIVO: Fortalecer la planta docente y profesional de las universidades, centros de investigación y laboratorios de interés nacional ubicados en Panamá.  DURACIÓN: La beca tendrá una duración de hasta cuatro (4) años si el beneficiario posee grado de maestría y hasta seis (6) años si el beneficiario no posee grado de maestría.  MONTO: Las becas podrán tener una asignación anual de hasta B/. 60,000.00. El presupuesto se elaborará según los rubros y la tabla de asignación de fondos publicada en la página web de la SENACYT.  Fecha de Apertura: ; 30 de noviembre de 2018  Plazo para Entrega: 28 de marzo de 2019 hasta las 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/01/ANUNCIO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/BASES-DE-LA-CONVOCATORIA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/REGLAMENTO-DE-CONTRATACIÓN-POR-MÉRITO-DE-SENACYT-RESOLUCIÓN-NO.-191-DE-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/03/ACTA-DE-RECEPCIÓN-DE-PROPUESTAS.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/LISTA-DE-RESULTADOS.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/Resolución-166-2019-de-Azael-Saldaña.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Resolución-186-2019-de-Diana-Laguna.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/ACTA-DE-RECEPCION-DE-PROPUESTA-2019-SEGUNDO-CIERRE.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Resolución-206-de-Eduardo-Flores.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/Lista-de-Resultados-SEGUNDO-CIERRE.docx.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/ACTA-DE-RECEPCION-TERCER-CIERRE.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Resolución-301-de-Eny-Serrano.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/LISTA-DE-RESULTADOS-TERCER-CIERRE.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Resolución-No.346-de-Diana-Gomez-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Resolución-No.-353-de-Jose-Julio-Casas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Acta-de-Recepción-de-Propuestas-Cuarto-Cierre.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Resolución-No.385-de-Morma-Miller.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/11/Resolución-No.395-de-INDICASAT.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/11/Resolución-No.396-de-Noris-Martinez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/Lista-de-Resultados-Cuarto-Cierre.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Acta-de-Recepción-de-Propuesta-2019-Quinto-Cierre-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/resolución-de-adjudicación-10.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/Resolución-No.048-de-Patricia-Llanes.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/Lista-de-Resultados.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Resolución-No.-68-de-Aprogalpa-Carlos-Franceschi.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/RESOLUCION-ADMINISTRATIVA-238-Edwin-Segura.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/11/Resolucion-Administrativa-No.243-de-Graciela-Arosemana.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/11/Resolucion-Administrativa-No.-250-de-Jose-Julio-Casas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/11/Resolucion-de-Adjudicacion-249-2020-AUPPA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2021/03/Resolucion-No.-DDCCT-53-de-AUPPA.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/12/ANUNCIO-DOCTORADO-PARA-FORMAR-INVESTIGADORES-161.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Reglamento-de-Becas-Nuevo-2017-161.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/CHECKLIST-161.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Declaración-Jurada-Nueva-161.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/PASOS-A-SEGUIR-161.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/Anuncio-de-Resultado-Excelencia-BEDPE-III-2018.pdf</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-continua-congresos-jornadas-seminarios-y-o-talleres-en-panama-2019/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-de-doctorado-para-formar-investigadores-para-universidades-centros-de-investigacion-o-laboratorios-de-interes-nacional-ronda-iii-2018/</t>
         </is>
       </c>
     </row>
@@ -3263,22 +3310,22 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA DE FOMENTO A I+D PARA EL DESARROLLO SOSTENIBLE – MISIÓN ENERGÍA (IDDSE) 2019</t>
+          <t>CONVOCATORIA DE BECAS DE PREGRADO DE EXCELENCIA PARA COLEGIOS OFICIALES RONDA I 2019.</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>DIRIGIDA A: Grupos de investigación interdiciplinarios, con interés específico en los temas de esta convocatoria, representados por: entidades públicas personas jurídicas, con o sin fines de lucro, organizaciones no gubernamentales (ONG´s) o asociaciones de interés público (AIP).  OBJETIVO: Apoyar iniciativas de I+D+i que, a través de la creatividad, la generación de conocimiento, y el desarrollo de soluciones innovadoras, favorezca el fortalecimiento de un sistema energético nacional eficiente y sostenible.  MONTOS: El financiamiento podrá ser de hasta Docientos Mil balboas (B/.200,000.00) de la totalidad del proyecto. Las propuestas seleccionadas en esta convocatoria podrán ser financiadas con recursos del BID, Contrato de Préstamo No.3692/OC-PN, del Programa de “Innovación para la Inclusión y la Productividad”.  Fecha de Apertura: 28 DE DICIEMBRE DE 2018  Plazo para Entrega: 12 DE MARZO DE 2019 HASTA LA 1:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDA A: Panameños que que posean titulo de bachiller de un centro de estudios de educación media oficial en panamá, con la intención de realizar estudios en la Universidad del Sur de Indiana o en la Universidad de Arkansas.  OBJETIVO: Fortalecer al país en áreas de ciencia, Tecnología e Investigación para contar con profesionales con formación en centros de excelencia y en áreas claves para el desarrollo del país.  MONTOS: Las becas de este Programa tendrán una asignación anual de hasta Sesenta Mil Balboas con 00/100 (B/. 60,000.00) y la asignaión total no podrá exceder la suma de Doscientos Cincuenta Mil Balboas con 00/100(B/.250,000.00). Se podrán dar becas parciales.  Fecha de Apertura: 27 DE FEBRERO DE 2019  Plazo para Entrega: 3 DE ABRIL DE 2019 (3:00 P.M. HORA EXACTA) Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/12/2.-Base-de-la-Convocatoria-IDDSE2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/3.-Plan-Energetico-Nacional-2015-2050-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/5.-Formulario-de-Evaluación-IDDSE-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/6.-Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/10.-Modelo-de-Contrato-por-Mérito.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/03/Lista-de-Propuestas-Recibidas-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/Resolución-de-Extensión-de-Comunicación-de-Resultados-IDDSE-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Lista-de-Resultados-IDDSE19.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Resolución-No.-271-de-8-de-agosto-de-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Resolución-Administrativa-No.-296.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Resolución-Administrativa-No.-307.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Resolución-de-adjudicación-Administrativa-315.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Resolución-Administrativa-No.-387.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Anuncio-BPGE-CO-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Formulario-de-IFARHU-SENACYT.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Pasos-a-Seguir-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Reglamento-1-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Carreras.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Declaraci%C3%B3n-Jurada-Nueva-1-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/Anuncio-de-Resultado-2019.pdf</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-fomento-a-id-para-el-desarrollo-sostenible-mision-energia-iddse-2019/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-de-becas-de-pregrado-de-excelencia-para-colegios-oficiales-ronda-i-2019/</t>
         </is>
       </c>
     </row>
@@ -3288,22 +3335,22 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA DE FOMENTO A I+D ORIENTADA POR – MISIÓN AGUA (IOMA) 2019</t>
+          <t>CONVOCATORIA PUBLICA DE CONCURSO NACIONAL PREMIO INSPIRA 2019.</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>DIRIGIDA A: Grupos de investigación interdiciplinarios, con interés específico en los temas de esta convocatoria, representados por: entidades públicas personas jurídicas, con o sin fines de lucro, organizaciones no gubernamentales (ONG´s) o asociaciones de interés público (AIP).  OBJETIVO: Apoyar iniciativas de I+D+i que, a través de la creatividad, la generación de conocimiento, y el desarrollo de soluciones innovadoras, favorezca el fortalecimiento de seguridad hídrica nacional eficiente y sostenible.  MONTOS: El financiamiento podrá ser de hasta Docientos Mil balboas (B/.200,000.00). Las propuestas seleccionadas en esta convocatoria podrán ser financiadas con recursos del BID, Contrato de Préstamo No.3692/OC-PN, del Programa de “Innovación para la Inclusión y la Productividad”.  Fecha de Apertura: 28 DE DICIEMBRE DE 2018  Plazo para Entrega: 15 DE MARZO DE 2019 HASTA LA 1:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDA A: Maestros de grado o de laboratorio de educación primaria y profesores de ciencias naturales, biología, química o física de todas las regiones escolares, en servicio activo de las escuelas oficiales del Ministerio de Educación, tanto de la sección de Básica General Primaria y Premedia como de la sección de Media Académica y Profesional y Técnica. Identificar y reconocer a los docentes destacados activos en aulas de escuelas oficiales del sistema de educativo nacional, quienes, a través del uso de herramientas y estrategias innovadoras e inspiradoras en las clases de ciencias, permitan el desarrollo de habilidades en los estudiantes y promuevan sus talentos, transformando sus vidas. • Visita a los Museos del Instituto Smithsonian en la ciudad de Washington, Estados Unidos.• Medalla de reconocimiento • Tres mil Balboas (B/. 3,000.00) en insumos para el aula de ciencias y/o tecnología, para el Centro Educativo del cual proviene el docente ganador (a). 25 DE MARZO DE 2019 Plazo para Entrega: 7 DE JUNIO DE 2019 (3:30 P.M. HORA EXACTA) Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/12/2.-Base-de-la-Convocatoria-IOMA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/3.-Plan-Nacional-de-Seguridad-Hidrica-2015-2050-Agua-para-Todos.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/6.-Reglamento-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/10.-Modelo-de-Contrato-por-Mérito-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/03/Lista-de-Propuestas-Recibidas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/Resolución-de-Extensión-de-Comunicación-de-Resultados-IOMA-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Lista-de-Resultados-IOMA19.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Resolución-No.-270-de-8-de-agosto-de-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Resolución-Administrativa-No.-326-de-3-de-septiembre-de-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Resoslución-Administrativa-No.-338.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Resolución-Administrtaiva-No.-361.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Resolución-Administrativa-No.-390.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/03/2-ANUNCIO-DE-CONVOCATORIA-PREMIO-INSPIRA-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/03/3-BASES-DEL-CONCURSO-NAC-PREMIO-INSPIRA-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/03/5-FORMULARIO-DE-APLICACI%C3%93N-PREMIO-INSPIRA-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/03/6-LISTA-de-Cotejo-PREMIO-INSPIRA-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/03/1-Gaceta-reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/03/4-Formato-de-Paz-y-Salvo-SENACYT-PI-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Resolución-No.-6-2019-Inspira-EXTENSIÓN-DEL-CONCURSO.pdf</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-fomento-a-id-orientada-por-mision-agua-ioma-2019/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-concurso-nacional-premio-inspira-2019/</t>
         </is>
       </c>
     </row>
@@ -3313,22 +3360,18 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA DE FOMENTO A I+D ORIENTADA POR – MISIÓN EN SALUD (IOMS) 2019</t>
+          <t>CONVOCATORIA PÚBLICA PARA EL SEGUNDO REINGRESO DE MIEMBROS DEL SISTEMA NACIONAL DE INVESTIGACIÓN (SNI) DE PANAMÁ 2019</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>DIRIGIDA A: Grupos de investigación interdiciplinarios, con interés específico en los temas de esta convocatoria, representados por: entidades públicas personas jurídicas, con o sin fines de lucro, organizaciones no gubernamentales (ONG´s) o asociaciones de interés público (AIP).  OBJETIVO: Impulsar a los grupos de investigación interdiciplinarios para que, a través del conocimiento científico y tecnológico, generen evidencia que facilite la implementación  de soluciones a las problemáticas identificadas en la Agenda Nacional de Prioridades de Investigación e Innovación para la Salud (ANPIS) 2016-2025.  MONTOS: El financiamiento podrá ser de hasta Docientos Cincuenta Mil balboas (B/.250,000.00) Las propuestas seleccionadas en esta convocatoria podrán ser financiadas con recursos del BID, Contrato de Préstamo No.3692/OC-PN, del Programa de “Innovación para la Inclusión y la Productividad”.  Fecha de Apertura: 28 DE DICIEMBRE DE 2018  Plazo para Entrega: 12 DE MARZO DE 2019 HASTA LA 1:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/12/2.-Base-de-la-Convocatoria-IOMS19.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/3.-ANPIS.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/5.-Formulario-de-Evaluación-IOMS19.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/6.-Reglamento-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/10.-Modelo-de-Contrato-por-Mérito-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/03/1.a.-Listado-de-Propuestas-Recibidas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/Resolución-de-Extensión-de-Comunicación-de-Resultados-IOMS-20191.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/3.-Lista-de-Resultados-IOMS19.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Resolución-de-Adjudiación-IOMS19-002.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Resolución-de-Adjudiación-No.97-IOMS19-008.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Resolución-de-Adjudiación-No.-96-IOMS19-013.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Resolución-de-Adjudiación-No.-95-IOMS19-017.pdf</t>
-        </is>
-      </c>
+          <t>DIRIGIDA A: Miembros actuales del SNI, que hayan reingresado por primera vez al Sistema en la Convocatoria Pública lanzada en octubre del año 2016, en categoría de Investigador Nacional o Investigador Distinguido, panameños o extranjeros residentes en Panamá, siempre que dichos investigadores cumplan con los requisitos establecidos en el Reglamento, los Criterios Internos de Evaluación y el anuncio de la convocatoria del SNI.  OBJETIVO: Promover la investigación científica y tecnológica y su calidad, mediante el reconocimiento de la excelencia de la labor de investigación y desarrollo científico y tecnológico de personas naturales, a través de incentivos que pueden ser distinciones o estímulos económicos, otorgados en función de la calidad, la producción, la trascendencia y del impacto de dicha labor.  MONTOS: Los estímulos económicos serán sumas que recibirán los miembros del SNI, cuyos montos y frecuencia se indica en el Reglamento del SNI (Resolución del Consejo Directivo Nacional del SNI No. 30 de 9 noviembre de 2016, modificada por la Resolución del Consejo Directivo Nacional del SNI No. 2 de 26 de abril de 2018). Estos estímulos podrán ser utilizados para gastos personales (estímulos personales) y para gastos en investigación y desarrollo científico o tecnológico (estímulos profesionales), de acuerdo con lo establecido en los Objetos de Gasto del SNI.  Fecha de Apertura: ; 4 DE FEBRERO DE 2019  Plazo para Entrega: 26 DE JULIO DE 2019 (1:00 P.M. HORA EXACTA) Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-fomento-a-id-orientada-por-mision-en-salud-ioms-2019/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-segundo-reingreso-de-miembros-del-sistema-nacional-de-investigacion-sni-de-panama-2019/</t>
         </is>
       </c>
     </row>
@@ -3338,22 +3381,22 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA PARA PROYECTOS EDUCATIVOS EN CIENCIA Y TECNOLOGÍA 2019</t>
+          <t>CONVOCATORIA PÚBLICA PARA EL TERCER REINGRESO DE MIEMBROS DEL SISTEMA NACIONAL DE INVESTIGACIÓN (SNI) DE PANAMÁ 2019</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>DIRIGIDA A: 1. Personas naturales panameñas o extranjeras residentes en Panamá. 2. Personas Jurídicas panameñas inscritas en el Registro Público de Panamá con o sin fines de lucro. 3. Instituciones Públicas 4. Patronatos creados por Ley. 5. Cooperativas. 6. Sociedad Común. 7. Asociaciones (con personería jurídica reconocida por MINGOG). 8. Organizaciones no gubernamentales. 9. Fundaciones de interés privado sin fines de lucro. 10. Asociaciones de interés público. 11. Sociedad de responsabilidad limitada. 12. Fundación de interés privado.</t>
+          <t>DIRIGIDA A: : Miembros actuales del SNI, que hayan reingresado por segunda vez al Sistema en la Convocatoria Pública lanzada en octubre del año 2016, en categoría de Investigador Nacional o Investigador Distinguido, panameños o extranjeros residentes en Panamá, siempre que dichos investigadores cumplan con los requisitos establecidos en el Reglamento, los Criterios Internos de Evaluación y el anuncio de la convocatoria del SNI. OBJETIVO: Promover la investigación científica y tecnológica y su calidad, mediante el reconocimiento de la excelencia de la labor de investigación y desarrollo científico y tecnológico de personas naturales, a través de incentivos que pueden ser distinciones o estímulos económicos, otorgados en función de la calidad, la producción, la trascendencia y del impacto de dicha labor. MONTOS: Los estímulos económicos serán sumas que recibirán los miembros del SNI, cuyos montos y frecuencia se indica en el Reglamento del SNI (Resolución del Consejo Directivo Nacional del SNI No. 30 de 9 noviembre de 2016, modificada por la Resolución del Consejo Directivo Nacional del SNI No. 2 de 26 de abril de 2018). Estos estímulos podrán ser utilizados para gastos personales (estímulos personales) y para gastos en investigación y desarrollo científico o tecnológico (estímulos profesionales), de acuerdo con lo establecido en los Objetos de Gasto del SNI. Fecha de Apertura: ; 4 DE FEBRERO DE 2019 Plazo para Entrega: 26 DE JULIO DE 2019 (1:00 P.M. HORA EXACTA) Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/02/AVISO-IMPORTANTE-Proyectos-Educativos-Ciencia-y-Tecnologia-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/1-AnuncioAprendizaje-2019-rev-mhgglg.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/2-Bases-de-convocatoriaAprendizaje-2019revmhgglg.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Formulario-de-evaluaci%C3%B3n-revmhgg-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Modelo-de-carta-aval-de-compromiso-de-apoyo-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Modelo-de-Carta-compromiso-para-colaboradores-del-proyecto-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Modelo-del-Contrato-por-M%C3%A9rito.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Plan-Estrat%C3%A9gico-Nacional-de-Ciencia-Tecnolog%C3%ADa-e-Innovaci%C3%B3n.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Reglamento-de-Contrataci%C3%B3n-por-M%C3%A9rito.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/03/Lista-de-propuestas-recibidas-2019gg.pdf.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/Lista-de-Resultados-Conv.-Pública-de-Proyectos-Edu-CyT2019.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Anuncio-Tercer-Reingreso-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Ley-56-SNI-de-Panam%C3%A1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Resolucion-de-CDN-No-30-de-9-de-nov-de-2016Reglamento-del-SNI-Gaceta-Oficial.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Resoluci%C3%B3n-de-CDN-No.-02-de-26-de-abril-de-2018-Modificaciones-al-Reglamento-Gaceta-Oficial.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Texto-%C3%9Anico-Reglamento-del-SNI-18-de-mayo-de-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/C%C3%B3digo-de-%C3%89tica-del-SNI-19-de-julio-de-2016.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Objetos-de-Gastos-Permisibles-del-SNI-26-de-julio-de-2016.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Resoluci%C3%B3n-de-CDN-No.-03-de-4-de-mayo-de-2018-Criterios-Internos-del-SNI-Gaceta-Oficial.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Lista-de-recomendados-3R2019.pdf</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-proyectos-educativos-en-ciencia-y-tecnologia-2019/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-tercer-reingreso-de-miembros-del-sistema-nacional-de-investigacion-sni-de-panama-2019/</t>
         </is>
       </c>
     </row>
@@ -3363,22 +3406,14 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA PARA LAS UNIVERSIDADES GESTORAS DEL PROGRAMA PISTA 2019</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>DIRIGIDA A: Universidades oficiales o privadas, debidamente acreditadas por la CONEAUPA, que operen en el territorio de la República de Panamá.  OBJETIVO: Seleccionar a universidades oficiales o privadas, debidamente acreditadas en Panamá, para gestionar el Programa PISTA, con la finalidad de detectar, desarrollar y dar seguimiento a niños y jóvenes panameños con talento académico, a través de un programa de enriquecimiento extracurricular de formación integral. Esta Convocatoria está diseñada para que se pueda atender jóvenes con talento académico.  MONTOS: Esta convocatoria cubrirá los siguientes objetos de gastos permisibles hasta un monto de B/. 480,000.00 para ambas categorías.  DURACIÓN: Las universidades deberán desarrollar el programa PISTA en un período de 36 meses. Sin embargo, los Convenios de Colaboración Educativa que suscriban con la SENACYT para amparar la ejecución del Programa PISTA tendrán una duración de 42 meses contados a partir de la notificación del refrendo del Convenio.  Fecha de Apertura: ; 17 DE DICIEMBRE DE 2018  Plazo para Entrega: 12 DE MARZO DE 2019 HASTA LAS 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Anuncio-de-la-Convocatoria-PISTA-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Manual-PISTA-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Lista-de-Requisitos-Programas-Nuevos.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Formato-de-Evaluacion-PISTA-2019-P.-Nuevos.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Lista-de-Requisitos-Programas-de-Continuidad.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Formato-de-Evaluaci%C3%B3n-PISTA-2019-P.-Continuidad.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Resoluci%C3%B3n-Administrativa-No.-59-22-11-2018-PISTA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Resoluci%C3%B3n-Administrativa-N%C2%B085.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Resoluci%C3%B3n-Administrativa-N%C2%B0142.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/03/ACTA-DE-RECEPCI%C3%93N-DE-PROPUESTAS-PISTA-2019.pdf.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Resultados-de-la-Convocatoria-Pública-de-PISTA-2019.pdf</t>
-        </is>
-      </c>
+          <t>CONVOCATORIA PÚBLICA PARA EL TERCER REINGRESO DE MIEMBROS DEL SISTEMA NACIONAL DE INVESTIGACIÓN (SNI) DE PANAMÁ 2019</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-las-universidades-gestoras-del-programa-pista-2019/</t>
+          <t>https://www.senacyt.gob.pa/882/</t>
         </is>
       </c>
     </row>
@@ -3388,22 +3423,22 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES Y SUBESPECIALIDADES MÉDICAS EN ÁREAS PRIORITARIAS DEL SECTOR SALUD A REALIZAR EN EL EXTRANJERO-CONVENIO DE COOPERACIÓN EDUCATIVA SUSCRITO ENTRE EL MINSA, CSS, IFARHU Y SENACYT</t>
+          <t>CONVOCATORIA DE MAESTRÍA EN ÁREAS ESPECÍFICAS DEL CONOCIMIENTO DE PRIORIDAD O DE INTERÉS DE LA ACP, 2019</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>DIRIGIDA A: Médicos panameños idóneos que se encuentren o no laborando en el sistema público de salud, interesados en adquirir especialidades o subespecialidades médicas en el extranjero, a fin de perfeccionar su desempeño laboral en las áreas del conocimiento priorizadas por el sector salud.  OBJETIVO: Este programa está diseñado para fortalecer la formación del recurso humano especializado en áreas del conocimiento donde hay necesidad de formación en el país, a fin de mejorar la calidad de los servicios de salud brindados a nivel nacional.  DURACIÓN: La duración de esta beca será de acuerdo al programa de la especialidad o de la subespecialidad médica que va a realizar y de conformidad con lo establecido por el Consejo Técnico de Salud de Panamá.  MONTO: La beca cubrirá hasta el 100% de la especialidad o de la subespecialidad médica, según lo establecido en el Reglamento de Becas IFARHU-SENACYT.  Fecha de Apertura: ; 30 de noviembre de 2018  Plazo para Entrega: 10 de abril de 2019 a las 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDA A: Panameños con grado de licenciatura o equivalente, interesados en realizar estudios de maestría en las áreas establecidas en el anuncio de la convocatoria.  OBJETIVO: Mejorar la calidad de la gestión del Sistema Nacional de la Ciencia y Tecnología, mediante la formación profesional.  MONTOS: Financiamiento de hasta B/.60,000.00 por año de acuerdo a disponibilidad presupuestaria de la SENACYT.  Fecha de Apertura: 27 DE FEBRERO DE 2019  Plazo para Entrega: 30 DE ABRIL DE 2019 (3:00 P.M. HORA EXACTA) Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Anuncio-de-Esp.-y-Subesp.-Médicas-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Reglamento-de-Becas-Nuevo-2018-165.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Lista-de-Verificación-165.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Pasos-a-seguir-165.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/LISTADO-DE-ESPECIALIDADES-Y-SUBESPECIALIDADES-165.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/DeclaraciónJurada-165.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Anuncio-de-Resultado.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Anuncio-ACP-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Becas-de-Maestrías-2019-del-Acuerdo-SENACYT-IFARHU-ACP.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Declaración-Jurada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Formulario-IFARHU-SENACYT.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Pasos-a-Seguir.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Resultados-ACP.pdf</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/especialidades-y-subespecialidades-medicas-en-areas-prioritarias-del-sector-salud-a-realizar-en-el-extranjero-convenio-de-cooperacion-educativa-suscrito-entre-el-minsa-css-ifarhu-y-senacyt/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-de-maestria-en-areas-especificas-del-conocimiento-de-prioridad-o-de-interes-de-la-acp-2019/</t>
         </is>
       </c>
     </row>
@@ -3413,22 +3448,22 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PARA PROYECTOS DE INNOVACIÓN EMPRESARIAL 2018-RONDA II</t>
+          <t>CONVOCATORIA DE MAESTRÍA EN ÁREAS ESPECÍFICAS DEL CONOCIMIENTO IDENTIFICADAS POR LA SENACYT, 2019</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>DIRIGIDA A: Personas jurídicas panameñas con fines de lucro debidamente inscritas en el Registro Público de Panamá, con un mínimo de veinticuatro (24) meses de operación en el país, a la fecha de apertura de esta convocatoria. En sus propuestas podrán incluir la participación de universidades nacionales o centros de investigación nacionales.</t>
+          <t>DIRIGIDA A: : Panameños con grado de licenciatura o equivalente, interesados en realizar estudios de maestría en las áreas establecidas en el anuncio de la convocatoria. OBJETIVO: Mejorar la calidad de la gestión del Sistema Nacional de la Ciencia y Tecnología, mediante la formación profesional. MONTOS: Financiamiento de hasta B/.60,000.00 por año de acuerdo a disponibilidad presupuestaria de la SENACYT. Fecha de Apertura: ; 27 DE FEBRERO DE 2019 Plazo para Entrega: 30 DE ABRIL DE 2019 (3:00 P.M. HORA EXACTA) Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/12/1.-Resolución-191-de-31-de-julio-Contratación-por-Merito.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Acta-de-recepcion-de-propuestas-FIE18-R2-BID.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/105-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Propuestas-recomendadas-FIE.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/Resolución-de-Adjudicación-232-2019-Archimesa.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/Resolución-de-Adjudicación-246-2019-Casa-Bruja-1.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Anuncio-BAE-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Formulario-IFARHU-SENACYT-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Pasos-a-Seguir-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Reglamento-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Declaración-Jurada-Nueva-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Resultados-Áreas-Específicas.pdf</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-para-proyectos-de-innovacion-empresarial-2018-ronda-ii/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-de-maestria-en-areas-especificas-del-conocimiento-identificadas-por-la-senacyt-2019/</t>
         </is>
       </c>
     </row>
@@ -3438,18 +3473,18 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>PREMIO NACIONAL A LA INNOVACIÓN EMPRESARIAL 2019</t>
+          <t>CONVOCATORIA PÚBLICA DE NUEVOS INVESTIGADORES 2019 RONDA I</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>OBJETIVO: Promover y fortalecer la capacidad de innovación en las empresas en Panamá mediante el reconocimiento de actividades exitosamente probadas de innovación empresarial.  Fecha de apertura: ; 10 DE DICIEMBRE DE 2018  Cierre de recepción de propuestas: 08 DE FEBRERO DE 2019 HASTA LAS 11:59 P.M. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A:  : Estudiantes Panameños residentes en Panamá que estén cursando los dos últimos años de la licenciatura, o cursando un posgrado, afiliados a una entidad pública, universidad, organización no gubernamental, asociaciones de interés público o personas jurídicas con o sin fines de lucro, con capacidad para realizar investigaciones científicas y desarrollo tecnológico e innovación. OBJETIVO: Proporcionar financiamiento o co-financiamiento para la promover la formación de nuevos investigadores a través de apoyo para recursos directamente relacionados con su investigación en las áreas temáticas de la convocatoria. CATEGORÍAS: 1. Estudiantes que estén cursando los dos (2) últimos años de la licenciatura y que estén vinculados a un investigador con grado de doctorado del Sistema Nacional de Investigación (SNI). Monto de adjudicación de hasta B/. 25,000.00. 2. Estudiantes que estén cursando los dos (2) últimos años de la licenciatura y que estén vinculados a un investigador con grado de doctorado. Monto de adjudicación de hasta B/. 20,000.00. 3. Estudiantes de posgrado que estén vinculados a un investigador con grado de doctorado del Sistema Nacional de Investigación (SNI). Monto de adjudicación de hasta B/. 25,000.00. 4. Estudiantes de posgrado que estén vinculados a un investigador con grado de doctorado. Monto de adjudicación de hasta B/. 20,000.00. Fecha de apertura: 18 de febrero 2019 Plazo para entrega de propuestas: 23 de abril 2019 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/premio-nacional-a-la-innovacion-empresarial-2019/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-nuevos-investigadores-2019-ronda-i/</t>
         </is>
       </c>
     </row>
@@ -3459,22 +3494,22 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA DE FOMENTO A NUEVOS EMPRENDIMIENTOS: CAPITAL SEMILLA 2018-RONDA II</t>
+          <t>CONVOCATORIA PÚBLICA DE LOS PROGRAMAS GENERACIÓN DE CAPACIDADES 2019 RONDA I</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>DIRIGIDA A: • Nuevos emprendedores: personas naturales, de nacionalidad panameña, residentes en Panamá, mayores de edad. • Microempresas: personas jurídicas, panameñas, debidamente registradas y en funcionamiento en la República de Panamá, por más de un (1) año antes de la fecha de apertura de esta convocatoria y que hayan generado en el último año ingresos brutos o facturación no mayor de doscientos mil balboas (B/.200,000.00).</t>
+          <t>DIRIGIDO A: Personas jurídicas con o sin fines de lucro debidamente inscrita en el Registro Público de Panamá o personas naturales de nacionalidad panameña, residentes en el país dedicadas a realizar actividades que fortalezcan el Sistema de Ciencia, Tecnología e Innovación. Las personas naturales pueden participar individualmente o afiliados a entidades públicas o privadas, universidades, organizaciones no gubernamentales, asociaciones de interés público o centros de investigación.  OBJETIVO: Proporcionar financiamiento o co-financiamiento a actividades que fortalezcan el ambiente de ciencia y tecnología, para incentivar el interés por estas áreas del conocimiento.  MONTO: El financiamiento de hasta el 100% del costo de la propuesta según el monto establecido en cada categoría de evaluación separada y de acuerdo con las necesidades plenamente justificadas por cada rubro del gasto, indicando la importancia y la relación con la investigación. 1. Categoría 1: Hasta B/. 10,000.00. 2. Categoría 2: Hasta B/. 15,000.00. 3. Categoría 3: Hasta B/. 10,000.00 4. Categoría 4: Hasta B/. 7,000.00.  Fecha de apertura: 11 de febrero 2019  Plazo para entrega de propuestas: 16 de abril 2019 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Modelo-Contrato-por-Merito.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Resoluci%C3%B3n-191-de-31-de-julio-Contrataci%C3%B3n-por-Merito.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Acta-de-recepcion-de-propuestas-NECS18-R2-BID.pdf.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/02/ANUNCIO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/BASES-DE-LA-CONVOCATORIA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/FORMULARIO-DE-EVALUACIÓN-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/MODELO-CONTRATO-POR-MERITO-REVISADO-JULIO-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/REGLAMENTO-DE-CONTRATACIÓN-POR-MÉRITO-DE-SENACYT-RESOLUCIÓN-NO.-191-DE-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/ACTA-DE-RECEPCIÓN-DE-PROPUESTA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/SUBSANACION-DE-ACTA-DE-RECEPCIÓN-DE-PROPUESTA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/PUBLICACION-DE-LISTA-DE-RESULTADOS-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/Resolución-No.-244-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/Resolución-No.-247-2019-de-Eira-Sobenis.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Resolucion-No.252-de-Delba-Villalobos.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Resolucion-No.-255-de-Jose-Troestch.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Resolución-No.-274-de-Axel-Villalobos.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Resolución-No.-298-de-Diana-Sánchez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Resolución-No.-299-de-George-Pitti.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Resolución-No.300-de-Cesar-Carrillo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Resolución-No-303-de-Miguel-Vega.pdf</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-fomento-a-nuevos-emprendimientos-capital-semilla-2018-ronda-ii/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-los-programas-generacion-de-capacidades-2019-ronda-i/</t>
         </is>
       </c>
     </row>
@@ -3484,22 +3519,22 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>CONVOCATORIA DE DOCTORADO DE INVESTIGACIÓN RONDA III, 2018</t>
+          <t>CONVOCATORIA PÚBLICA PARA EL CUARTO REINGRESO DE MIEMBROS DEL SISTEMA NACIONAL DE INVESTIGACIÓN (SNI) DE PANAMÁ 2019</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Panameños que deseen formarse como investigadores en centros de estudios de excelencia en el extranjero o que ya se encuentren estudiando un doctorado de investigación en centros de estudio de excelencia en el extranjero.  OBJETIVO: Este programa tiene como objetivo la formación de investigadores para la República de Panamá, que garanticen el incremento del capital humano con altas capacidades para actividades científicas y tecnológicas.  DURACIÓN: La beca tendrá una duración de hasta cuatro (4) años si el beneficiario posee grado de maestría y hasta seis (6) años si el beneficiario no posee grado de maestría.  MONTO: Las becas podrán tener una asignación anual de hasta B/. 60,000.00. El presupuesto se elaborará según los rubros y la tabla de asignación de fondos publicada en la página web de la SENACYT.  Fecha de Apertura: ; 30 de noviembre de 2018  Plazo para Entrega: 27 de marzo de 2019 hasta las 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDA A: : Miembros actuales del SNI, que hayan reingresado por tercera vez al Sistema en la Convocatoria Pública lanzada en octubre del año 2016, en categoría de Investigador Nacional o Investigador Distinguido, panameños o extranjeros residentes en Panamá, siempre que dichos investigadores cumplan con los requisitos establecidos en el Reglamento, los Criterios Internos de Evaluación y el anuncio de la convocatoria del SNI. OBJETIVO: Promover la investigación científica y tecnológica y su calidad, mediante el reconocimiento de la excelencia de la labor de investigación y desarrollo científico y tecnológico de personas naturales, a través de incentivos que pueden ser distinciones o estímulos económicos, otorgados en función de la calidad, la producción, la trascendencia y del impacto de dicha labor. MONTOS: Los estímulos económicos serán sumas que recibirán los miembros del SNI, cuyos montos y frecuencia se indica en el Reglamento del SNI (Resolución del Consejo Directivo Nacional del SNI No. 30 de 9 noviembre de 2016, modificada por la Resolución del Consejo Directivo Nacional del SNI No. 2 de 26 de abril de 2018). Estos estímulos podrán ser utilizados para gastos personales (estímulos personales) y para gastos en investigación y desarrollo científico o tecnológico (estímulos profesionales), de acuerdo con lo establecido en los Objetos de Gasto del SNI. Fecha de Apertura: ; 4 DE FEBRERO DE 2019 Plazo para Entrega: 26 DE JULIO DE 2019 (1:00 P.M. HORA EXACTA) Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/11/ANUNCIO-DOCTORADO-DE-INVESTIGACIÓN.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/09/Reglamento-de-Becas-Nuevo-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/11/CHECKLIST-DOCTORADO-DE-INVESTIGACIÓN.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/09/Declaración-Jurada-Nueva.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/11/PASOS-A-SEGUIR-DOCTORADO-DE-INVESTIGACIÓN.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/Anuncio-de-Resultados-BIDP-III-2018.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Anuncio-Cuarto-Reingreso-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Ley-56-SNI-de-Panam%C3%A1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Resolucion-de-CDN-No-30-de-9-de-nov-de-2016Reglamento-del-SNI-Gaceta-Oficial.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Resoluci%C3%B3n-de-CDN-No.-02-de-26-de-abril-de-2018-Modificaciones-al-Reglamento-Gaceta-Oficial.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Texto-%C3%9Anico-Reglamento-del-SNI-18-de-mayo-de-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/C%C3%B3digo-de-%C3%89tica-del-SNI-19-de-julio-de-2016.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Objetos-de-Gastos-Permisibles-del-SNI-26-de-julio-de-2016.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Resoluci%C3%B3n-de-CDN-No.-03-de-4-de-mayo-de-2018-Criterios-Internos-del-SNI-Gaceta-Oficial.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Lista-de-recomendados-4R2019.pdf</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-de-doctorado-de-investigacion-ronda-iii-2018/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-cuarto-reingreso-de-miembros-del-sistema-nacional-de-investigacion-sni-de-panama-2019/</t>
         </is>
       </c>
     </row>
@@ -3509,22 +3544,18 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>DOCTORADO EN CIENCIAS AGROPECUARIAS 2018</t>
+          <t>CONVOCATORIA PÚBLICA PARA EL INGRESO DE NUEVOS MIEMBROS DEL SISTEMA NACIONAL DE INVESTIGACIÓN (SNI) DE PANAMÁ 2019</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>DIRIGIDA A: Panameños con grado de licenciatura o maestría, interesados en realizar estudios de doctorado en las áreas establecidas en el anuncio de la convocatoria.  OBJETIVO: Formar investigadores para la República de Panamá, que garanticen el incremento del capital humano con altas capacidades para actividades científicas y tecnológicas.  DURACIÓN: Estas becas tendrán una duración de hasta cuatro (4) años para estudios doctorales si el beneficiario posee grado de maestría o hasta seis (6) años si el beneficiario no posee grado de maestría.  MONTO: Financiamiento de hasta B/. 60,000.00 por año de acuerdo a disponibilidad presupuestaria de la SENACYT.  Fecha de Apertura: ; 30 de noviembre de 2018  Plazo para Entrega: 07 de febrero de 2019 HASTA LAS 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/11/ANUNCIO-DOCTORADO-EN-CIENCIAS-AGROPECUARIAS.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/Reglamento-de-Becas-IFARHU-SENACYT.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/Declaracion-Jurada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/Formulario-de-Becas-IFARHU-SENACYT.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/11/Pasos-a-seguir.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/11/Listado-de-Documentos.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/03/Anuncio-de-Resultados.pdf</t>
-        </is>
-      </c>
+          <t>DIRIGIDO A: Investigadores panameños o extranjeros residentes en Panamá, o investigadores panameños residentes en el extranjero; siempre que dichos investigadores cumplan con los requisitos establecidos en el Reglamento, los Criterios Internos de Evaluación y el anuncio de la convocatoria del SNI.  OBJETIVO: Promover la investigación científica y tecnológica y su calidad, mediante el reconocimiento de la excelencia de la labor de investigación y desarrollo científico y tecnológico de personas naturales, a través de incentivos que pueden ser distinciones o estímulos económicos, otorgados en función de la calidad, la producción, la trascendencia y del impacto de dicha labor.  Fecha de apertura: 22 de enero de 2019  Plazo para entrega: 29 de marzo de 2019 (1:00 p.m. Hora exacta.) Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/doctorado-en-ciencias-agropecuarias-2018/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-ingreso-de-nuevos-miembros-del-sistema-nacional-de-investigacion-sni-de-panama-2019/</t>
         </is>
       </c>
     </row>
@@ -3534,22 +3565,22 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>MAESTRÍA EN CIENCIAS AGROPECUARIAS 2018</t>
+          <t>CONVOCATORIA PARA EL FOMENTO A NUEVOS EMPRENDIMIENTOS: CAPITAL PARA EMPRENDIMIENTOS EN FASE DE ESCALAMIENTO 2019</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Panameños con grado de licenciatura o equivalente, interesados en realizar estudios de maestría en las áreas establecidas en el anuncio de la convocatoria.  OBJETIVO: Mejorar la calidad de la gestión del Sistema Nacional de la Ciencia y Tecnología, mediante la formación profesional.  DURACIÓN: Estas becas tendrán una duración de hasta dos (2) años o de acuerdo al plan de estudio. Este programa contempla la formación del idioma inglés de hasta un (1) año.  MONTO: Financiamiento de hasta B/. 60,000.00 por año de acuerdo a disponibilidad presupuestaria de la SENACYT.  Fecha de Apertura: ; 30 de noviembre de 2018  Plazo para Entrega: 07 de febrero de 2019 hasta las 3:00 P.M. HORA EXACTA. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDA A: Personas naturales, de nacionalidad panameña, mayores de edad, residentes en Panamá. Personas Jurídicas panameñas de reciente creación (con más de 6 meses y no más de 24 meses a la fecha de apertura de esta convocatoria), con ventas anuales no mayores a ciento cincuenta mil balboas (B/.150,000.00).</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/11/ANUNCIO-MAESTRÍA-AGROPECUARIAS.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/09/Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/11/CHECKLIST.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/09/Declaracion-Jurada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Formulario-de-IFARHU-SENACYT-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/11/PASOS-A-SEGUIR.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/03/Anuncio-de-Resultados-1.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Anuncio.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Bases.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/MODELO-CONTRATO-POR-MERITO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Resoluci%C3%B3n-191-de-31-de-julio-de-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/03/Acta-de-recepcion-de-propuesta.pdf</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/maestria-en-ciencias-agropecuarias-2018/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-para-el-fomento-a-nuevos-emprendimientos-capital-para-emprendimientos-en-fase-de-escalamiento-2019/</t>
         </is>
       </c>
     </row>
@@ -3559,22 +3590,22 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MAESTRÍA EN EDUCACIÓN RONDA II 2018</t>
+          <t>CONVOCATORIA PÚBLICA PARA EL FOMENTO A NUEVOS EMPRENDIMIENTO 2019</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Panameños con grado de licenciatura o equivalente, interesados en realizar estudios de maestría en las áreas establecidas en el anuncio de la convocatoria.  OBJETIVO: Mejorar la calidad de la gestión del Sistema Nacional de la Ciencia y Tecnología, mediante la formación profesional.  DURACIÓN: Estas becas tendrán una duración de hasta dos (2) años o de acuerdo al plan de estudio.  MONTO: Financiamiento de hasta B/. 60,000.00 por año de acuerdo a disponibilidad presupuestaria,  Fecha de Apertura: 30 de noviembre de 2018  Plazo para Entrega: 13 de febrero de 2019 HASTA las 3:00 p.m. (HORA EXACTA.) Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDA A: Personas naturales, de nacionalidad panameña, mayores de edad, residentes en Panamá.</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/12/ANUNCIO-PREGRADO-COLEGIOS-OFICIALES.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Reglamento-2018-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/LISTADO-DE-VERIFICACIÓN.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Declaración-Jurada-Nueva-2018-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Formulario-de-IFARHU-SENACYT-2018-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/PASOS-A-SEGUIR.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/ÁREAS-TEMÁTICAS.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Anuncio-de-Resultados.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/01/MODELO-CONTRATO-POR-MERITO.pdf.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Resoluci%C3%B3n-191-de-31-de-julio-de-2017-1.pdf.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/03/Acta-de-recepcion-de-propuesta.pdf.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/Resolución-de-Extención-de-resultados.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/Resultados-Convocatoria-NE19.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Resol.-Adm.-No.-320-Alejandra-Lizarazu.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Resol.-Adm.-No.-321-Juan-Villarreal.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Resol.-Adm.-No.-322-Jose-De-Roux.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Resol.-Adm.-No.-323-Natalia-Ramirez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/NE19-P-032-Gabriel-Soto.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Res.-Adj.-No.-363-Julio-Mendieta.pdf</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/maestria-en-educacion-ronda-ii-2018/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-fomento-a-nuevos-emprendimiento-2019/</t>
         </is>
       </c>
     </row>
@@ -3584,22 +3615,22 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA FOMENTO A I+D (FID) 2018</t>
+          <t>CONVOCATORIA PUBLICA CONTINUA CONGRESOS, JORNADAS, SEMINARIOS Y/O TALLERES EN PANAMÁ 2019</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>DIRIGIDA A: Personas naturales o jurídicas, en calidad de investigadores individuales o afiliados, o grupos de investigación representados por entidades públicas, empresas privadas, universidades, escuelas técnicas, organizaciones no gubernamentales, laboratorios y demás entidades, con o sin fines de lucro, con capacidad de llevar a cabo investigación básica, aplicada o desarrollo tecnológico. OBJETIVO: Fortalecer la capacidad nacional de investigación y desarrollo (I+D) en ciencia y/o tecnología para enfrentarnos con éxito a los grandes desafíos del desarrollo nacional. DURACIÓN: Los proyectos adjudicados podrán tener una duración de hasta dos (2) años. En casos excepcionales y debidamente justificados podrán excederse hasta 36 meses. MONTOS: La asignación presupuestaria para las propuestas que salgan seleccionadas, se hará de acuerdo con la modalidad de aplicación descrita a continuación: A) MODALIDAD DE INVESTIGADORES: Hasta B/.60,000 B) MODALIDAD DE GRUPOS DE INVESTIGACIÓN: Hasta B/.100,000 C) MODALIDAD DE COLABORACIÓN INTERNACIONAL: Hasta B/.120,000 Fecha de Apertura: ; 16 DE NOVIEMBRE DE 2018 Plazo para Entrega: 07 DE FEBRERO DE 2019 HASTA LAS 1:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDA A: Personas jurídicas con o sin fines de lucro debidamente inscrita en el Registro de Panamá o personas naturales de nacionalidad panameña, residentes en el país dedicadas a realizar actividades que fortalezcan el Sistema de Ciencia, Tecnología e Innovación. Las personas naturales deben estar afiliadas a entidades públicas o privadas, universidades organizaciones no gubernamentales de interés público o centros de investigación. OBJETIVO: Cofinanciamiento de actividades como congresos, jornadas, seminarios y/o talleres en panamá, que fortalezcan el ambiente de ciencia, tecnología e innovación, para incentivar el interés por estas áreas de conocimiento. MONTOS: Ver documentos a descargar. Fecha de Apertura: 10 de ENERO DE 2019. Plazo de Entregas Continuas: 15 DE MARZO DE 2019 HASTA LAS 3:00 P.M. HORA EXACTA 30 DE MAYO DE 2019 HASTA LAS 3.00 P.M. HORA EXACTA 31 DE JULIO DE 2019 HASTA LAS 3.00 P.M. HORA EXACTA 08 DE OCTUBRE DE 2019 HASTA LAS 3.00 P.M. HORA EXACTA 19 DE DICIEMBRE DE 2019 HASTA LAS 3.00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/11/1.-Anuncio.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/11/2.-Bases-de-la-Convocatoria-FID-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/11/4.-Formulario-de-evaluación.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/11/5.-Reglamento-de-Contratación-por-Mérito.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/11/10.-Plan-Estratégico-Nacional-de-Ciencia-Tecnología-e-Innovación.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/11/11.-Clasificación-de-las-Ciencias.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/12.-Listado-de-Propuestas-Recibidas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/13.-Resolución-de-Extensión-de-Comunicación-de-Resultados.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/14.-Lista-de-Resultados-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/Resolución-Administrativa-No.-228.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/Resolución-Administrativa-No.-248.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/Resolución-Administrativa-No.-249.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/Resolución-Administrativa-No.-250.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Resolución-Administrativa-No.-259.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Resolución-Administrativa-No.-269.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Resolución-Administrativa-No.-281.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Resolución-Administrativa-No.-282.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Resolución-Administrativa-No.-284.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Resolución-Administrativa-No.287.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Resolución-Administrativa-No.-297.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Resolución-Administrativa-No.-306.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Resolución-Administrativa-No.-314.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Resolución-Administrativa-No.-319.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Resolución-Administrativa-No.-329.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Resolucíón-Administrativa-No.-330.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Resolución-Administrativa-No.-331.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Resolución-Adminsitrativa-No.-342.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Resolución-Administrativa-No.-360.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Resolución-Administrativa-No.373.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Resolución-Administrativa-No.-383.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Resolución-Administartiva-No.-386.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Resolución-Administrativa-No.-392.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/Resolución-Administrativa-No.-045.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/09/40.-Resolución-Administrativa-No.-216.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/01/ANUNCIO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/BASES-DE-LA-CONVOCATORIA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/REGLAMENTO-DE-CONTRATACIÓN-POR-MÉRITO-DE-SENACYT-RESOLUCIÓN-NO.-191-DE-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/03/ACTA-DE-RECEPCIÓN-DE-PROPUESTAS.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/LISTA-DE-RESULTADOS.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/Resolución-166-2019-de-Azael-Saldaña.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Resolución-186-2019-de-Diana-Laguna.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/ACTA-DE-RECEPCION-DE-PROPUESTA-2019-SEGUNDO-CIERRE.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Resolución-206-de-Eduardo-Flores.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/Lista-de-Resultados-SEGUNDO-CIERRE.docx.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/ACTA-DE-RECEPCION-TERCER-CIERRE.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Resolución-301-de-Eny-Serrano.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/LISTA-DE-RESULTADOS-TERCER-CIERRE.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Resolución-No.346-de-Diana-Gomez-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Resolución-No.-353-de-Jose-Julio-Casas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Acta-de-Recepción-de-Propuestas-Cuarto-Cierre.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Resolución-No.385-de-Morma-Miller.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/11/Resolución-No.395-de-INDICASAT.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/11/Resolución-No.396-de-Noris-Martinez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/12/Lista-de-Resultados-Cuarto-Cierre.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/Acta-de-Recepción-de-Propuesta-2019-Quinto-Cierre-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/resolución-de-adjudicación-10.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/Resolución-No.048-de-Patricia-Llanes.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/Lista-de-Resultados.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Resolución-No.-68-de-Aprogalpa-Carlos-Franceschi.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/RESOLUCION-ADMINISTRATIVA-238-Edwin-Segura.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/11/Resolucion-Administrativa-No.243-de-Graciela-Arosemana.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/11/Resolucion-Administrativa-No.-250-de-Jose-Julio-Casas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/11/Resolucion-de-Adjudicacion-249-2020-AUPPA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2021/03/Resolucion-No.-DDCCT-53-de-AUPPA.pdf</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-fomento-a-id-fid-2018/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-continua-congresos-jornadas-seminarios-y-o-talleres-en-panama-2019/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3640,22 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA PARA EL CURSO DE ESCALAMIENTO PARA PYMES INNOVADORAS 2018</t>
+          <t>CONVOCATORIA PÚBLICA DE FOMENTO A I+D PARA EL DESARROLLO SOSTENIBLE – MISIÓN ENERGÍA (IDDSE) 2019</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>DIRIGIDA A: Personas jurídicas constituidas como sociedades anónimas debidamente inscritas en el Registro Público de Panamá, que cumplan con las siguientes características, sustentadas a través de la Declaración Jurada de Renta con vigencia fiscal de al menos los últimos dos (2) años: • Pequeña empresa: aquella unidad económica formal, que genere ingresos brutos o facturación anual desde de B/. 150,000.01 hasta B/. 1,000,000.00; • Mediana empresa: aquella unidad económica formal, que genere ingresos brutos o facturación anual desde de B/.1,000,000.01 hasta B/.2,500,000.00.</t>
+          <t>DIRIGIDA A: Grupos de investigación interdiciplinarios, con interés específico en los temas de esta convocatoria, representados por: entidades públicas personas jurídicas, con o sin fines de lucro, organizaciones no gubernamentales (ONG´s) o asociaciones de interés público (AIP).  OBJETIVO: Apoyar iniciativas de I+D+i que, a través de la creatividad, la generación de conocimiento, y el desarrollo de soluciones innovadoras, favorezca el fortalecimiento de un sistema energético nacional eficiente y sostenible.  MONTOS: El financiamiento podrá ser de hasta Docientos Mil balboas (B/.200,000.00) de la totalidad del proyecto. Las propuestas seleccionadas en esta convocatoria podrán ser financiadas con recursos del BID, Contrato de Préstamo No.3692/OC-PN, del Programa de “Innovación para la Inclusión y la Productividad”.  Fecha de Apertura: 28 DE DICIEMBRE DE 2018  Plazo para Entrega: 12 DE MARZO DE 2019 HASTA LA 1:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/11/1.Anuncio.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/11/4.Anexo-I.-Informaci%C3%B3n-general-del-Curso.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/11/6.Resoluci%C3%B3n-Administrativa-122-de-7-5-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Resoluci%C3%B3n-de-Extensi%C3%B3n-PYMES-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Resoluci%C3%B3n-08-Extensi%C3%B3n-de-Plazo.pdf.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Publicaci%C3%B3n.-Aplicaciones-Recibidas-PYMES18.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Publicaci%C3%B3n.-Aplicaciones-Aceptadas-PYMES18.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/12/2.-Base-de-la-Convocatoria-IDDSE2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/3.-Plan-Energetico-Nacional-2015-2050-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/5.-Formulario-de-Evaluación-IDDSE-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/6.-Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/10.-Modelo-de-Contrato-por-Mérito.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/03/Lista-de-Propuestas-Recibidas-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/Resolución-de-Extensión-de-Comunicación-de-Resultados-IDDSE-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Lista-de-Resultados-IDDSE19.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Resolución-No.-271-de-8-de-agosto-de-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Resolución-Administrativa-No.-296.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Resolución-Administrativa-No.-307.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Resolución-de-adjudicación-Administrativa-315.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Resolución-Administrativa-No.-387.pdf</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-curso-de-escalamiento-para-pymes-innovadoras-2018/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-fomento-a-id-para-el-desarrollo-sostenible-mision-energia-iddse-2019/</t>
         </is>
       </c>
     </row>
@@ -3634,22 +3665,22 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA DE ESPECIALIZACIÓN EN DIDÁCTICA DE LA QUÍMICA 2019</t>
+          <t>CONVOCATORIA PÚBLICA DE FOMENTO A I+D ORIENTADA POR – MISIÓN AGUA (IOMA) 2019</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>DIRIGIDA A: Profesores de educación media, con funciones relacionadas a la enseñanza de la química que posean nombramiento permanente del Ministerio de Educación y que se encuentren en servicio activo en el Sistema Educativo Nacional.</t>
+          <t>DIRIGIDA A: Grupos de investigación interdiciplinarios, con interés específico en los temas de esta convocatoria, representados por: entidades públicas personas jurídicas, con o sin fines de lucro, organizaciones no gubernamentales (ONG´s) o asociaciones de interés público (AIP).  OBJETIVO: Apoyar iniciativas de I+D+i que, a través de la creatividad, la generación de conocimiento, y el desarrollo de soluciones innovadoras, favorezca el fortalecimiento de seguridad hídrica nacional eficiente y sostenible.  MONTOS: El financiamiento podrá ser de hasta Docientos Mil balboas (B/.200,000.00). Las propuestas seleccionadas en esta convocatoria podrán ser financiadas con recursos del BID, Contrato de Préstamo No.3692/OC-PN, del Programa de “Innovación para la Inclusión y la Productividad”.  Fecha de Apertura: 28 DE DICIEMBRE DE 2018  Plazo para Entrega: 15 DE MARZO DE 2019 HASTA LA 1:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/11/0.Reglamento-resolucion36-Gaceta.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/12/2.-Base-de-la-Convocatoria-IOMA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/3.-Plan-Nacional-de-Seguridad-Hidrica-2015-2050-Agua-para-Todos.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/6.-Reglamento-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/10.-Modelo-de-Contrato-por-Mérito-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/03/Lista-de-Propuestas-Recibidas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/Resolución-de-Extensión-de-Comunicación-de-Resultados-IOMA-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Lista-de-Resultados-IOMA19.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Resolución-No.-270-de-8-de-agosto-de-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Resolución-Administrativa-No.-326-de-3-de-septiembre-de-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Resoslución-Administrativa-No.-338.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Resolución-Administrtaiva-No.-361.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Resolución-Administrativa-No.-390.pdf</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-especializacion-en-didactica-de-la-quimica-2019/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-fomento-a-id-orientada-por-mision-agua-ioma-2019/</t>
         </is>
       </c>
     </row>
@@ -3659,18 +3690,22 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Doctorado en Ciencias Agropecuarias 2018-Cancelada</t>
+          <t>CONVOCATORIA PÚBLICA DE FOMENTO A I+D ORIENTADA POR – MISIÓN EN SALUD (IOMS) 2019</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>DIRIGIDA A: Panameños con grado de licenciatura o maestría, interesados en realizar estudios de doctorado en las áreas establecidas en el anuncio de la convocatoria.  OBJETIVO: Formar investigadores para la República de Panamá, que garanticen el incremento del capital humano con altas capacidades para actividades científicas y tecnológicas.  DURACIÓN: Estas becas tendrán una duración de hasta cuatro (4) años para estudios doctorales si el beneficiario posee grado de maestría o hasta seis (6) años si el beneficiario no posee grado de maestría.  MONTOS: Financiamiento de hasta B/. 60,000.00 por año de acuerdo a disponibilidad presupuestaria de la SENACYT.  Fecha de Apertura: ; 15 DE OCTUBRE DE 2018.  Plazo para Entrega: 10 DE ENERO DE 2019 HASTA LAS 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr"/>
+          <t>DIRIGIDA A: Grupos de investigación interdiciplinarios, con interés específico en los temas de esta convocatoria, representados por: entidades públicas personas jurídicas, con o sin fines de lucro, organizaciones no gubernamentales (ONG´s) o asociaciones de interés público (AIP).  OBJETIVO: Impulsar a los grupos de investigación interdiciplinarios para que, a través del conocimiento científico y tecnológico, generen evidencia que facilite la implementación  de soluciones a las problemáticas identificadas en la Agenda Nacional de Prioridades de Investigación e Innovación para la Salud (ANPIS) 2016-2025.  MONTOS: El financiamiento podrá ser de hasta Docientos Cincuenta Mil balboas (B/.250,000.00) Las propuestas seleccionadas en esta convocatoria podrán ser financiadas con recursos del BID, Contrato de Préstamo No.3692/OC-PN, del Programa de “Innovación para la Inclusión y la Productividad”.  Fecha de Apertura: 28 DE DICIEMBRE DE 2018  Plazo para Entrega: 12 DE MARZO DE 2019 HASTA LA 1:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/12/2.-Base-de-la-Convocatoria-IOMS19.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/3.-ANPIS.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/5.-Formulario-de-Evaluación-IOMS19.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/6.-Reglamento-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/10.-Modelo-de-Contrato-por-Mérito-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/03/1.a.-Listado-de-Propuestas-Recibidas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/Resolución-de-Extensión-de-Comunicación-de-Resultados-IOMS-20191.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/3.-Lista-de-Resultados-IOMS19.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Resolución-de-Adjudiación-IOMS19-002.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Resolución-de-Adjudiación-No.97-IOMS19-008.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Resolución-de-Adjudiación-No.-96-IOMS19-013.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/03/Resolución-de-Adjudiación-No.-95-IOMS19-017.pdf</t>
+        </is>
+      </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/doctorado-en-ciencias-agropecuarias-2018-cancelada/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-fomento-a-id-orientada-por-mision-en-salud-ioms-2019/</t>
         </is>
       </c>
     </row>
@@ -3680,22 +3715,22 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>PREMIO I+D “EXCELENCIA EN LA INVESTIGACIÓN” 2018</t>
+          <t>CONVOCATORIA PÚBLICA PARA PROYECTOS EDUCATIVOS EN CIENCIA Y TECNOLOGÍA 2019</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>OBJETIVO: Reconocer la carrera de un investigador panameño que haya hecho una contribución sobresaliente para el avance en Panamá, en una disciplina de las ciencias y/o la tecnología.  Fecha de apertura: 27 de septiembre de 2018.  Fecha de cierre: 10 de octubre de 2018 (Hasta las 03:00 p.m. Hora exacta.)  Ceremonia de premiación: 26 de octubre de 2018 (durante la clausura del Congreso) Ver más detalles en el Anuncio y los Términos de referencia</t>
+          <t>DIRIGIDA A: 1. Personas naturales panameñas o extranjeras residentes en Panamá. 2. Personas Jurídicas panameñas inscritas en el Registro Público de Panamá con o sin fines de lucro. 3. Instituciones Públicas 4. Patronatos creados por Ley. 5. Cooperativas. 6. Sociedad Común. 7. Asociaciones (con personería jurídica reconocida por MINGOG). 8. Organizaciones no gubernamentales. 9. Fundaciones de interés privado sin fines de lucro. 10. Asociaciones de interés público. 11. Sociedad de responsabilidad limitada. 12. Fundación de interés privado.</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/09/Anuncio-17CongresoNacCyT.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/09/TDR-17CongresoNacCyT.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2019/02/AVISO-IMPORTANTE-Proyectos-Educativos-Ciencia-y-Tecnologia-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/1-AnuncioAprendizaje-2019-rev-mhgglg.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/2-Bases-de-convocatoriaAprendizaje-2019revmhgglg.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Formulario-de-evaluaci%C3%B3n-revmhgg-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Modelo-de-carta-aval-de-compromiso-de-apoyo-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Modelo-de-Carta-compromiso-para-colaboradores-del-proyecto-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Modelo-del-Contrato-por-M%C3%A9rito.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Plan-Estrat%C3%A9gico-Nacional-de-Ciencia-Tecnolog%C3%ADa-e-Innovaci%C3%B3n.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Reglamento-de-Contrataci%C3%B3n-por-M%C3%A9rito.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/03/Lista-de-propuestas-recibidas-2019gg.pdf.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/Lista-de-Resultados-Conv.-Pública-de-Proyectos-Edu-CyT2019.pdf</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/premio-id-excelencia-en-la-investigacion-2018/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-proyectos-educativos-en-ciencia-y-tecnologia-2019/</t>
         </is>
       </c>
     </row>
@@ -3705,22 +3740,22 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Maestría en Ciencias Agropecuarias 2018-Cancelada</t>
+          <t>CONVOCATORIA PÚBLICA PARA LAS UNIVERSIDADES GESTORAS DEL PROGRAMA PISTA 2019</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>DIRIGIDA A: Panameños con grado de licenciatura o equivalente, interesados en realizar estudios de maestría en las áreas establecidas en el anuncio de la convocatoria.  OBJETIVO: Mejorar la calidad de la gestión del Sistema Nacional de la Ciencia y Tecnología, mediante la formación profesional.  DURACIÓN: Estas becas tendrán una duración de hasta dos (2) años o de acuerdo al plan de estudio.  MONTOS: Financiamiento de hasta B/.60,000.00 por año de acuerdo a disponibilidad presupuestaria de la SENACYT.  Fecha de Apertura: ; 11 DE SEPTIEMBRE DE 2018.  Plazo para Entrega: 10 DE ENERO DE 2019 HASTA LAS 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDA A: Universidades oficiales o privadas, debidamente acreditadas por la CONEAUPA, que operen en el territorio de la República de Panamá.  OBJETIVO: Seleccionar a universidades oficiales o privadas, debidamente acreditadas en Panamá, para gestionar el Programa PISTA, con la finalidad de detectar, desarrollar y dar seguimiento a niños y jóvenes panameños con talento académico, a través de un programa de enriquecimiento extracurricular de formación integral. Esta Convocatoria está diseñada para que se pueda atender jóvenes con talento académico.  MONTOS: Esta convocatoria cubrirá los siguientes objetos de gastos permisibles hasta un monto de B/. 480,000.00 para ambas categorías.  DURACIÓN: Las universidades deberán desarrollar el programa PISTA en un período de 36 meses. Sin embargo, los Convenios de Colaboración Educativa que suscriban con la SENACYT para amparar la ejecución del Programa PISTA tendrán una duración de 42 meses contados a partir de la notificación del refrendo del Convenio.  Fecha de Apertura: ; 17 DE DICIEMBRE DE 2018  Plazo para Entrega: 12 DE MARZO DE 2019 HASTA LAS 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Anuncio-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Listado-de-documentos.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Declaracion-Jurada-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Formulario-de-IFARHU-SENACYT.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Pasos-a-seguir-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/RESOLUCIÓN-383-DOC-CIENCIAS-AGRO.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Anuncio-de-la-Convocatoria-PISTA-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Manual-PISTA-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Lista-de-Requisitos-Programas-Nuevos.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Formato-de-Evaluacion-PISTA-2019-P.-Nuevos.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Lista-de-Requisitos-Programas-de-Continuidad.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Formato-de-Evaluaci%C3%B3n-PISTA-2019-P.-Continuidad.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Resoluci%C3%B3n-Administrativa-No.-59-22-11-2018-PISTA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Resoluci%C3%B3n-Administrativa-N%C2%B085.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Resoluci%C3%B3n-Administrativa-N%C2%B0142.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/03/ACTA-DE-RECEPCI%C3%93N-DE-PROPUESTAS-PISTA-2019.pdf.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Resultados-de-la-Convocatoria-Pública-de-PISTA-2019.pdf</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/maestria-en-ciencias-agropecuarias-2018-cancelada/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-las-universidades-gestoras-del-programa-pista-2019/</t>
         </is>
       </c>
     </row>
@@ -3730,22 +3765,22 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>DOCTORADO DE INVESTIGACION RONDA III-Cancelada</t>
+          <t>ESPECIALIDADES Y SUBESPECIALIDADES MÉDICAS EN ÁREAS PRIORITARIAS DEL SECTOR SALUD A REALIZAR EN EL EXTRANJERO-CONVENIO DE COOPERACIÓN EDUCATIVA SUSCRITO ENTRE EL MINSA, CSS, IFARHU Y SENACYT</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>DIRIGIDA A: Panameños que deseen formarse como investigadores en centros de estudios de excelencia en el extranjero o que ya encuentren estudiando un doctorado de investigación en centros de estudio de excelencia en el extranjero.  OBJETIVO: Este programa tiene como objetivo la formación de investigadores para la República de Panamá, que que garanticen el incremento del capital humano con altas capacidades para actividades cientificas y tecnológicas.  DURACIÓN: La beca tendrá una duración de hasta cuatro (4) años si el beneficiario posee grado de maestría y hasta seis (6) años si el beneficiario no posee grado de maestría.  MONTOS: Las becas podrán tener una asignación anual de hasta B/.60.000.00 El presupueto se elaborará según los rubros y la tabla de asignación de fondos publicada en la página we de la SENACYT.  Fecha de Apertura: ; 11 DE SEPTIEMBRE 2018  Plazo para Entrega: 15 DE ENERO DE 2019 HASTA LAS 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDA A: Médicos panameños idóneos que se encuentren o no laborando en el sistema público de salud, interesados en adquirir especialidades o subespecialidades médicas en el extranjero, a fin de perfeccionar su desempeño laboral en las áreas del conocimiento priorizadas por el sector salud.  OBJETIVO: Este programa está diseñado para fortalecer la formación del recurso humano especializado en áreas del conocimiento donde hay necesidad de formación en el país, a fin de mejorar la calidad de los servicios de salud brindados a nivel nacional.  DURACIÓN: La duración de esta beca será de acuerdo al programa de la especialidad o de la subespecialidad médica que va a realizar y de conformidad con lo establecido por el Consejo Técnico de Salud de Panamá.  MONTO: La beca cubrirá hasta el 100% de la especialidad o de la subespecialidad médica, según lo establecido en el Reglamento de Becas IFARHU-SENACYT.  Fecha de Apertura: ; 30 de noviembre de 2018  Plazo para Entrega: 10 de abril de 2019 a las 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Anuncio-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Reglamento-de-Becas-Nuevo-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Declaración-Jurada-Nueva-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/BIDP-III-2018-pasos.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/RESOLUCIÓN-378-DOCTORADO-INVES..pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Anuncio-de-Esp.-y-Subesp.-Médicas-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Reglamento-de-Becas-Nuevo-2018-165.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Lista-de-Verificación-165.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Pasos-a-seguir-165.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/LISTADO-DE-ESPECIALIDADES-Y-SUBESPECIALIDADES-165.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/DeclaraciónJurada-165.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Anuncio-de-Resultado.pdf</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/doctorado-de-investigacion-ronda-iii-cancelada/</t>
+          <t>https://www.senacyt.gob.pa/especialidades-y-subespecialidades-medicas-en-areas-prioritarias-del-sector-salud-a-realizar-en-el-extranjero-convenio-de-cooperacion-educativa-suscrito-entre-el-minsa-css-ifarhu-y-senacyt/</t>
         </is>
       </c>
     </row>
@@ -3755,22 +3790,22 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>CONVOCATORIA DE DOCTORADO PARA FORMAR INVESTIGADORES PARA UNIVERSIDADES, CENTROS DE INVESTIGACIÓN O LABORATORIOS DE INTERÉS NACIONAL RONDA III, 2018-Cancelada</t>
+          <t>CONVOCATORIA PARA PROYECTOS DE INNOVACIÓN EMPRESARIAL 2018-RONDA II</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>DIRIGIDA A: Profesores o Investigadores panameños vinculados a universidades, centros de investigación o laboratorios de interés nacional ubicados en Panamá, que se desempeñen en las áreas de ciencia y tecnología. El doctorado debe realizarse en un centro internacional de reconocida excelencia.  OBJETIVO: Fortalecer la planta docente y profesional de la universidades, centros de investigación y laboratoris de interés nacional ubicados en Panamá..  DURACIÓN: La beca tendrá una duración de hasta cuatro (4) años si el bebeficiario posee grado de maestría y hasta seis (6) años si el beneficiario no posee grado de maestría.  MONTOS: Las becas podrán tener una asignación anual de hasta B/60,000.00 El presupuesto se elaborará según los rubros y la tabla de asignación de fondos publicada en la página web de la SENACYT.  Fecha de Apertura: ; 11 DE SEPTIEMBRE DE 2018  Plazo para Entrega: 15 DE ENERO DE 2019 HASTA LAS 1:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDA A: Personas jurídicas panameñas con fines de lucro debidamente inscritas en el Registro Público de Panamá, con un mínimo de veinticuatro (24) meses de operación en el país, a la fecha de apertura de esta convocatoria. En sus propuestas podrán incluir la participación de universidades nacionales o centros de investigación nacionales.</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Anuncio.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/REGLAM1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Declaración-Jurada-Nueva.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/BEPDE-1-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/RESOLUCIÓN-379-DOCTORADO-EXCELENCIA.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/12/1.-Resolución-191-de-31-de-julio-Contratación-por-Merito.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Acta-de-recepcion-de-propuestas-FIE18-R2-BID.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/105-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Propuestas-recomendadas-FIE.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/Resolución-de-Adjudicación-232-2019-Archimesa.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/Resolución-de-Adjudicación-246-2019-Casa-Bruja-1.pdf</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-de-doctorado-para-formar-investigadores-para-universidades-centros-de-investigacion-o-laboratorios-de-interes-nacional-ronda-iii-2018-cancelada/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-para-proyectos-de-innovacion-empresarial-2018-ronda-ii/</t>
         </is>
       </c>
     </row>
@@ -3780,22 +3815,18 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>IV CONVOCATORIA PÚBLICA PARA LA GESTIÓN DEL PROGRAMA DE CAMPAMENTO CIENTÍFICO Y TECNOLÓGICO (II Ronda)</t>
+          <t>PREMIO NACIONAL A LA INNOVACIÓN EMPRESARIAL 2019</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Universidades debidamente acreditadas por el CONEAUPA y a centros de investigación públicos o privados sin fines de lucro, que operen en el territorio de la República de Panamá.  OBJETIVO: Incentivar a las Universidades acreditadas y centros de investigación públicos y privados sin fines de lucro para que realicen actividades que desarrollen el pensamiento crítico y las habilidades en áreas científicas de estudiantes en edades tempranas.  MONTO: Se otorgarán subsidios económicos por el monto de hasta B/. 50,000.00 (ver los detalles en el anuncio).  DURACIÓN: Todos los campamentos deberán desarrollarse en un periodo de 4 a 8 días, en vacaciones escolares. Sin embargo, los Contratos de Subsidio Económico que se suscriban para amparar su ejecución tendrán una duración de 6 meses contados a partir de la notificación del refrendo de la Contraloría General de la República.  Fecha de Apertura: 06 de agosto de 2018  Plazo para Entrega: 07 de septiembre de 2018 (a las 3:00 p.m. Hora exacta.) Para mayores detalles ver anuncio entre los documentos a descargar</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/08/ANUNCIO-CAMPAMENTO-2018-II-RONDA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/REGLAMENTO-CAMP-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/GUIA-DE-CAMPAMENTO-2018-M-CON-REFERENCIAS.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/FORMULARIO-DE-EVALUACI%C3%93N-CAMP-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/09/ACTA-DE-CIERRE-DE-RECEPCI%C3%93N-DE-PROPUESTA-4CONV.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/11/Propuestas-Avaladas-a-la-Fase-de-Negociaci%C3%B3n-CampCyT.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Anuncio-de-resultados-CAMP.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/RESOLUCIÓN-ADM.-DE-INDICASAT-IVONNE-02-CAMP.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/RESOLUCIÓN-ADM.-DE-INDICASAT-03-CAMP.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/RESOLUCIÓN-ADM.-DE-UTP-01-CAMP.pdf</t>
-        </is>
-      </c>
+          <t>OBJETIVO: Promover y fortalecer la capacidad de innovación en las empresas en Panamá mediante el reconocimiento de actividades exitosamente probadas de innovación empresarial.  Fecha de apertura: ; 10 DE DICIEMBRE DE 2018  Cierre de recepción de propuestas: 08 DE FEBRERO DE 2019 HASTA LAS 11:59 P.M. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/iv-convocatoria-publica-para-la-gestion-del-programa-de-campamento-cientifico-y-tecnologico-ii-ronda/</t>
+          <t>https://www.senacyt.gob.pa/premio-nacional-a-la-innovacion-empresarial-2019/</t>
         </is>
       </c>
     </row>
@@ -3805,22 +3836,22 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>PREMIO NACIONAL “POR LAS MUJERES EN LA CIENCIA” 2018</t>
+          <t>CONVOCATORIA PÚBLICA DE FOMENTO A NUEVOS EMPRENDIMIENTOS: CAPITAL SEMILLA 2018-RONDA II</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>OBJETIVO: Fomentar el desarrollo de las mujeres que han dedicado su trabajo y estudios a la ciencia.  Fecha de apertura: 30 de agosto de 2018.  Fecha de cierre: 12 de octubre de 2018 (Hasta las 04:00 p.m. Hora exacta.)  Adjudicación del Premio: 23 de noviembre de 2018 Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDA A: • Nuevos emprendedores: personas naturales, de nacionalidad panameña, residentes en Panamá, mayores de edad. • Microempresas: personas jurídicas, panameñas, debidamente registradas y en funcionamiento en la República de Panamá, por más de un (1) año antes de la fecha de apertura de esta convocatoria y que hayan generado en el último año ingresos brutos o facturación no mayor de doscientos mil balboas (B/.200,000.00).</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/08/ANEXO-No.-1-BASES-Y-CONDICIONES-DEL-PREMIO-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/11/Listado-de-Miembros-del-Comité-Evaluador.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Modelo-Contrato-por-Merito.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Resoluci%C3%B3n-191-de-31-de-julio-Contrataci%C3%B3n-por-Merito.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Acta-de-recepcion-de-propuestas-NECS18-R2-BID.pdf.pdf</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/premio-nacional-por-las-mujeres-en-la-ciencia-2018/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-fomento-a-nuevos-emprendimientos-capital-semilla-2018-ronda-ii/</t>
         </is>
       </c>
     </row>
@@ -3830,22 +3861,22 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Pregrado de Excelecia para Colegios Oficiales Ronda II 2018-Cancelada</t>
+          <t>CONVOCATORIA DE DOCTORADO DE INVESTIGACIÓN RONDA III, 2018</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>DIRIGIDA A: Estudiantes panameños que posean título de bachiller o estén cursando el último periodo del año del bachillerato, en un centro de estudios de educación media oficial, con la intención de realizar estudios en la Universidad de Waterloo, en la Universidad de Ontario, en la Universidad del Sur de Indiana o en la Universidad de Arkansas.  OBJETIVO: Fortalecer al país en áreas de Ciencia, Tecnología e Investigación para contar con profesionales con formación en centros de excelencia y en áreas claves para el desarrollo del país.  DURACIÓN: La beca tendrá la duración de acuerdo al Plan de Estudio de la Licenciatura. Este Programa contempla la formación del idioma inglés y nivelación académica por un periodo de hasta un (1) año adicional.  MONTOS: Las becas de este Programa tendrán una asignación anual de hasta Sesenta Mil Balboas con 00/100 (B/.60,000.00) y la asignación total no podrá exceder la suma de Doscientos Cincuenta mil Balboas con 00/100 (B/.250,000.00). También se podrán dar becas parciales.  Fecha de Apertura: ; 30 DE AGOSTO DE 2018.  Plazo para Entrega: 08 DE ENERO DE 2019 HASTA LAS 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Panameños que deseen formarse como investigadores en centros de estudios de excelencia en el extranjero o que ya se encuentren estudiando un doctorado de investigación en centros de estudio de excelencia en el extranjero.  OBJETIVO: Este programa tiene como objetivo la formación de investigadores para la República de Panamá, que garanticen el incremento del capital humano con altas capacidades para actividades científicas y tecnológicas.  DURACIÓN: La beca tendrá una duración de hasta cuatro (4) años si el beneficiario posee grado de maestría y hasta seis (6) años si el beneficiario no posee grado de maestría.  MONTO: Las becas podrán tener una asignación anual de hasta B/. 60,000.00. El presupuesto se elaborará según los rubros y la tabla de asignación de fondos publicada en la página web de la SENACYT.  Fecha de Apertura: ; 30 de noviembre de 2018  Plazo para Entrega: 27 de marzo de 2019 hasta las 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Anuncio-2018-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Reglamento-2018-2-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Checklist-2018-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Declaración-Jurada-Nueva-2018-2-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Formulario-de-IFARHU-SENACYT-2018-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Pasos-a-seguir-2018-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Áreas-Tematicas-2018-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/RESOLUCIÓN-384-CO.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/11/ANUNCIO-DOCTORADO-DE-INVESTIGACIÓN.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/09/Reglamento-de-Becas-Nuevo-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/11/CHECKLIST-DOCTORADO-DE-INVESTIGACIÓN.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/09/Declaración-Jurada-Nueva.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/11/PASOS-A-SEGUIR-DOCTORADO-DE-INVESTIGACIÓN.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/Anuncio-de-Resultados-BIDP-III-2018.pdf</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/pregrado-de-excelecia-para-colegios-oficiales-ronda-ii-2018-cancelada/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-de-doctorado-de-investigacion-ronda-iii-2018/</t>
         </is>
       </c>
     </row>
@@ -3855,22 +3886,22 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Maestría en Educación Ronda II, 2018-Cancelada</t>
+          <t>DOCTORADO EN CIENCIAS AGROPECUARIAS 2018</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>DIRIGIDA A: Panameños con grado de licenciatura o equivalente, interesados en realizar estudios de maestría en las áreas establecidas en el anuncio de la convocatoria.  OBJETIVO: Mejorar la calidad de la gestión del Sistema Nacional de la Ciencia y Tecnología, mediantes la formación profesional.  DURACIÓN: Estas becas tendrán una duración de hasta dos (2) años o de acuerdo al plan de estudio.  MONTOS: Financiamiento de hasta B/.60,000.00 por año de acuerdo a disponibilidad presupuestaria.  Fecha de Apertura: ; 30 DE AGOSTO DE 2018.  Plazo para Entrega: 11 DE ENERO DE 2019 HASTA LAS 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDA A: Panameños con grado de licenciatura o maestría, interesados en realizar estudios de doctorado en las áreas establecidas en el anuncio de la convocatoria.  OBJETIVO: Formar investigadores para la República de Panamá, que garanticen el incremento del capital humano con altas capacidades para actividades científicas y tecnológicas.  DURACIÓN: Estas becas tendrán una duración de hasta cuatro (4) años para estudios doctorales si el beneficiario posee grado de maestría o hasta seis (6) años si el beneficiario no posee grado de maestría.  MONTO: Financiamiento de hasta B/. 60,000.00 por año de acuerdo a disponibilidad presupuestaria de la SENACYT.  Fecha de Apertura: ; 30 de noviembre de 2018  Plazo para Entrega: 07 de febrero de 2019 HASTA LAS 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Anuncio-3.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Reglamento-2-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Checklist-2-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Declaración-Jurada-Nueva-2-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Formulario-de-IFARHU-2-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Pasos-a-seguir-2-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/RESOLUCIÓN-381-M-EDUCACION.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/11/ANUNCIO-DOCTORADO-EN-CIENCIAS-AGROPECUARIAS.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/Reglamento-de-Becas-IFARHU-SENACYT.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/Declaracion-Jurada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/Formulario-de-Becas-IFARHU-SENACYT.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/11/Pasos-a-seguir.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/11/Listado-de-Documentos.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/03/Anuncio-de-Resultados.pdf</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/maestria-en-educacion-ronda-ii-2018-cancelada/</t>
+          <t>https://www.senacyt.gob.pa/doctorado-en-ciencias-agropecuarias-2018/</t>
         </is>
       </c>
     </row>
@@ -3880,22 +3911,22 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA PARA EL DIPLOMADO EN INNOVACIÓN Y EMPRENDIMIENTO 2018</t>
+          <t>MAESTRÍA EN CIENCIAS AGROPECUARIAS 2018</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: 1) Personas naturales, de nacionalidad panameña, que busquen transformarse en formadores y facilitadores de la innovación, posicionándose como líderes de proyectos de alto impacto aprovechando los beneficios de la economía digital. 2) Personas naturales extranjeras, residentes en Panamá, que busquen transformarse en formadores y facilitadores de la innovación, posicionándose como líderes de proyectos de alto impacto aprovechando los beneficios de la economía digital. Los aspirantes deben contar con un mínimo de dos (2) años, dictando docencia en universidades nacionales, con cátedras de emprendimiento.</t>
+          <t>DIRIGIDO A: Panameños con grado de licenciatura o equivalente, interesados en realizar estudios de maestría en las áreas establecidas en el anuncio de la convocatoria.  OBJETIVO: Mejorar la calidad de la gestión del Sistema Nacional de la Ciencia y Tecnología, mediante la formación profesional.  DURACIÓN: Estas becas tendrán una duración de hasta dos (2) años o de acuerdo al plan de estudio. Este programa contempla la formación del idioma inglés de hasta un (1) año.  MONTO: Financiamiento de hasta B/. 60,000.00 por año de acuerdo a disponibilidad presupuestaria de la SENACYT.  Fecha de Apertura: ; 30 de noviembre de 2018  Plazo para Entrega: 07 de febrero de 2019 hasta las 3:00 P.M. HORA EXACTA. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/09/Anuncio-vf-DIPLOMADO-INEMP.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Anexo-I-Informaci%C3%B3n-General-y-Espec%C3%ADfica-del-Diplomado-act..pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/5.-Modelo-de-Contrato-de-Compromiso_DIEM.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/09/Propuestas-recibidas-DIPLOMADO-INEMP.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/09/Publicaci%C3%B3n-de-Lista-de-Resultados-DIPLOMADO-2018.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/11/ANUNCIO-MAESTRÍA-AGROPECUARIAS.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/09/Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/11/CHECKLIST.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/09/Declaracion-Jurada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Formulario-de-IFARHU-SENACYT-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/11/PASOS-A-SEGUIR.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/03/Anuncio-de-Resultados-1.pdf</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-diplomado-en-innovacion-y-emprendimiento-2018/</t>
+          <t>https://www.senacyt.gob.pa/maestria-en-ciencias-agropecuarias-2018/</t>
         </is>
       </c>
     </row>
@@ -3905,18 +3936,22 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>PROGRAMA DE JÓVENES CIENTÍFICOS 2018-2019</t>
+          <t>MAESTRÍA EN EDUCACIÓN RONDA II 2018</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Jóvenes estudiantes panameños pertenecientes al sistema educativo nacional que se encuentren cursando entre octavo y duodécimo grado en el 2019, que deseen realizar investigaciones científicas.  OBJETIVO: Fomentar el contacto directo de los adolescentes con la investigación científica, facilitando el desarrollo de habilidades de estudio e investigación y promoviendo vocaciones científicas y tecnológicas, por medio de la asesoría de un Mentor Científico.  MONTO: Se otorgará un subsidio económico de B/. 700.00 para la compra y/o utilización de insumos científicos y otros gastos de operación no disponibles y que sean imprescindibles para alcanzar los objetivos del proyecto de investigación. Este subsidio será entregado, en un solo desembolso, al Adulto Coordinador que se encuentre designado en el Formulario de Aplicación.  Fecha de Apertura: 9 de agosto de 2018  Plazo para Entrega: 15 de noviembre de 2018 (a las 3:00 p.m. Hora exacta.) Para mayores detalles ver anuncio entre los documentos a descargar</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr"/>
+          <t>DIRIGIDO A: Panameños con grado de licenciatura o equivalente, interesados en realizar estudios de maestría en las áreas establecidas en el anuncio de la convocatoria.  OBJETIVO: Mejorar la calidad de la gestión del Sistema Nacional de la Ciencia y Tecnología, mediante la formación profesional.  DURACIÓN: Estas becas tendrán una duración de hasta dos (2) años o de acuerdo al plan de estudio.  MONTO: Financiamiento de hasta B/. 60,000.00 por año de acuerdo a disponibilidad presupuestaria,  Fecha de Apertura: 30 de noviembre de 2018  Plazo para Entrega: 13 de febrero de 2019 HASTA las 3:00 p.m. (HORA EXACTA.) Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/12/ANUNCIO-PREGRADO-COLEGIOS-OFICIALES.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Reglamento-2018-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/LISTADO-DE-VERIFICACIÓN.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Declaración-Jurada-Nueva-2018-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Formulario-de-IFARHU-SENACYT-2018-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/PASOS-A-SEGUIR.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/ÁREAS-TEMÁTICAS.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Anuncio-de-Resultados.pdf</t>
+        </is>
+      </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/programa-de-jovenes-cientificos-2018-2019/</t>
+          <t>https://www.senacyt.gob.pa/maestria-en-educacion-ronda-ii-2018/</t>
         </is>
       </c>
     </row>
@@ -3926,18 +3961,22 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>TALLER DE ASESORAMIENTO CIENTÍFICO Y LOS OBJETIVOS DE DESARROLLO SOSTENIBLE</t>
+          <t>CONVOCATORIA PÚBLICA FOMENTO A I+D (FID) 2018</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Científicos y hacedores de políticas que viven o trabajan en América Central interesados en mejorar su capacidad de proporcionar asesoramiento científico.</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr"/>
+          <t>DIRIGIDA A: Personas naturales o jurídicas, en calidad de investigadores individuales o afiliados, o grupos de investigación representados por entidades públicas, empresas privadas, universidades, escuelas técnicas, organizaciones no gubernamentales, laboratorios y demás entidades, con o sin fines de lucro, con capacidad de llevar a cabo investigación básica, aplicada o desarrollo tecnológico. OBJETIVO: Fortalecer la capacidad nacional de investigación y desarrollo (I+D) en ciencia y/o tecnología para enfrentarnos con éxito a los grandes desafíos del desarrollo nacional. DURACIÓN: Los proyectos adjudicados podrán tener una duración de hasta dos (2) años. En casos excepcionales y debidamente justificados podrán excederse hasta 36 meses. MONTOS: La asignación presupuestaria para las propuestas que salgan seleccionadas, se hará de acuerdo con la modalidad de aplicación descrita a continuación: A) MODALIDAD DE INVESTIGADORES: Hasta B/.60,000 B) MODALIDAD DE GRUPOS DE INVESTIGACIÓN: Hasta B/.100,000 C) MODALIDAD DE COLABORACIÓN INTERNACIONAL: Hasta B/.120,000 Fecha de Apertura: ; 16 DE NOVIEMBRE DE 2018 Plazo para Entrega: 07 DE FEBRERO DE 2019 HASTA LAS 1:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/11/1.-Anuncio.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/11/2.-Bases-de-la-Convocatoria-FID-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/11/4.-Formulario-de-evaluación.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/11/5.-Reglamento-de-Contratación-por-Mérito.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/11/10.-Plan-Estratégico-Nacional-de-Ciencia-Tecnología-e-Innovación.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/11/11.-Clasificación-de-las-Ciencias.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/12.-Listado-de-Propuestas-Recibidas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/13.-Resolución-de-Extensión-de-Comunicación-de-Resultados.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/14.-Lista-de-Resultados-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/Resolución-Administrativa-No.-228.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/Resolución-Administrativa-No.-248.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/Resolución-Administrativa-No.-249.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/Resolución-Administrativa-No.-250.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Resolución-Administrativa-No.-259.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Resolución-Administrativa-No.-269.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Resolución-Administrativa-No.-281.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Resolución-Administrativa-No.-282.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Resolución-Administrativa-No.-284.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Resolución-Administrativa-No.287.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Resolución-Administrativa-No.-297.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/Resolución-Administrativa-No.-306.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Resolución-Administrativa-No.-314.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Resolución-Administrativa-No.-319.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Resolución-Administrativa-No.-329.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Resolucíón-Administrativa-No.-330.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Resolución-Administrativa-No.-331.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/09/Resolución-Adminsitrativa-No.-342.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Resolución-Administrativa-No.-360.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Resolución-Administrativa-No.373.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Resolución-Administrativa-No.-383.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Resolución-Administartiva-No.-386.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/10/Resolución-Administrativa-No.-392.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/02/Resolución-Administrativa-No.-045.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/09/40.-Resolución-Administrativa-No.-216.pdf</t>
+        </is>
+      </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/taller-de-asesoramiento-cientifico-y-los-objetivos-de-desarrollo-sostenible/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-fomento-a-id-fid-2018/</t>
         </is>
       </c>
     </row>
@@ -3947,22 +3986,22 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA DE INNOVACIÓN SOCIAL PARA LA GESTIÓN DE RESIDUOS 2018</t>
+          <t>CONVOCATORIA PÚBLICA PARA EL CURSO DE ESCALAMIENTO PARA PYMES INNOVADORAS 2018</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: *Personas naturales, de nacionalidad panameña, mayores de edad, residentes en Panamá; *Personas naturales, de nacionalidad extranjera, mayores de edad, residentes en Panamá y con carné de residente permanente; *Personas jurídicas constituídas como sociedades anónimas, fundaciones de interés privado, organizaciones no gubernamentales, asociaciones de interés público, todas debidamente inscritas en el Registro Público de Panamá, entidades del sector público, cooperativas registradas por IPACOOP y universidades (con o sin fines de lucro) debidamente reconocidas por el organismo nacional de acreditación.</t>
+          <t>DIRIGIDA A: Personas jurídicas constituidas como sociedades anónimas debidamente inscritas en el Registro Público de Panamá, que cumplan con las siguientes características, sustentadas a través de la Declaración Jurada de Renta con vigencia fiscal de al menos los últimos dos (2) años: • Pequeña empresa: aquella unidad económica formal, que genere ingresos brutos o facturación anual desde de B/. 150,000.01 hasta B/. 1,000,000.00; • Mediana empresa: aquella unidad económica formal, que genere ingresos brutos o facturación anual desde de B/.1,000,000.01 hasta B/.2,500,000.00.</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/07/2.-Anuncio-Convocatoria-CIS18.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/3.-Bases-Convocatoria-CIS18.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/1.-Resoluci%C3%B3n-191-de-31-de-julio-de-2017-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Publicación-de-Propuestas-Recibidas-CIS18.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Resolución-24.-Extensión-de-Publicación.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Propuestas-avaladas-CIS18.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/RESOLUCION-DE-ADJUDICACIÓN-CIS18-P-003.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/RESOLUCION-DE-ADJUDICACIÓN-CIS18-P-039.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/RESOLUCION-DE-ADJUDICACIÓN-CIS18-P-012.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/RESOLUCIÓN-DE-ADJUDICACIÓN-190-CIS18-P-033.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/RESOLUCIÓN-DE-ADJUDICACIÓN-191-CIS18-P-011.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Resolución-Administrativa-No.-179-de-28-de-mayo-de-2019-Yira-Arauz.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Resolución-Administrativa-No.-195-de-14-de-junio-de-2019-Gonalo-Pulido-Silva.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/RESOLUCION-DE-ADJUDICACIÓN-CIS18-P-011-Correción.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/Resolucion-administrativa-No.-239-de-18-de-julio-de-2019-trashforma.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/RESOLUCIÓN-DE-ADJUDICACIÓN-CIS18-P-019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/11/RESOLUCIÓN-DE-ADJUDICACIÓN-CIS18-P-004.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/RESOLUCION-DE-ADJUDICACION-CIS18-P-009-GEOAZUL-S.A..pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/11/1.Anuncio.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/11/4.Anexo-I.-Informaci%C3%B3n-general-del-Curso.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/11/6.Resoluci%C3%B3n-Administrativa-122-de-7-5-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Resoluci%C3%B3n-de-Extensi%C3%B3n-PYMES-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Resoluci%C3%B3n-08-Extensi%C3%B3n-de-Plazo.pdf.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Publicaci%C3%B3n.-Aplicaciones-Recibidas-PYMES18.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Publicaci%C3%B3n.-Aplicaciones-Aceptadas-PYMES18.pdf</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-innovacion-social-para-la-gestion-de-residuos-2018/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-curso-de-escalamiento-para-pymes-innovadoras-2018/</t>
         </is>
       </c>
     </row>
@@ -3972,22 +4011,22 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA PARA PARTICIPAR EN EL TALLER DE INNOVACIÓN ABIERTA SENACYT 2018 (RONDA 2)</t>
+          <t>CONVOCATORIA PÚBLICA DE ESPECIALIZACIÓN EN DIDÁCTICA DE LA QUÍMICA 2019</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Personas naturales panameñas o extranjeras residentes en la República de Panamá, mayores de edad.</t>
+          <t>DIRIGIDA A: Profesores de educación media, con funciones relacionadas a la enseñanza de la química que posean nombramiento permanente del Ministerio de Educación y que se encuentren en servicio activo en el Sistema Educativo Nacional.</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Anuncio-Convocatoria-Taller-IA.-r2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resolucion-Administrativa-No122-de-7-5-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Cierre-TINNA-R2.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/11/0.Reglamento-resolucion36-Gaceta.pdf</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-participar-en-el-taller-de-innovacion-abierta-senacyt-2018-ronda-2/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-especializacion-en-didactica-de-la-quimica-2019/</t>
         </is>
       </c>
     </row>
@@ -3997,22 +4036,18 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA DEL CURSO DE ENSEÑANZA DE CIENCIA EN INGLÉS PARA PRIMARIA (ELEMENTARY SCIENCE CERTIFICATE) 2018</t>
+          <t>Doctorado en Ciencias Agropecuarias 2018-Cancelada</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Educadores bilingües (español-inglés) del Sistema Educativo Nacional, preferentemente participantes del Programa Panamá Bilingüe de la República de Panamá. Podrán participar aspirantes en condición permanente o en condición de interinidad, sólo si el MEDUCA le confiere el aval correspondiente mediante la carta de postulación al acto.</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/06/0-Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resolucion-209-Science.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/lista-priorizada.pdf</t>
-        </is>
-      </c>
+          <t>DIRIGIDA A: Panameños con grado de licenciatura o maestría, interesados en realizar estudios de doctorado en las áreas establecidas en el anuncio de la convocatoria.  OBJETIVO: Formar investigadores para la República de Panamá, que garanticen el incremento del capital humano con altas capacidades para actividades científicas y tecnológicas.  DURACIÓN: Estas becas tendrán una duración de hasta cuatro (4) años para estudios doctorales si el beneficiario posee grado de maestría o hasta seis (6) años si el beneficiario no posee grado de maestría.  MONTOS: Financiamiento de hasta B/. 60,000.00 por año de acuerdo a disponibilidad presupuestaria de la SENACYT.  Fecha de Apertura: ; 15 DE OCTUBRE DE 2018.  Plazo para Entrega: 10 DE ENERO DE 2019 HASTA LAS 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-del-curso-de-ensenanza-de-ciencia-en-ingles-para-primaria-elementary-science-certificate-2018/</t>
+          <t>https://www.senacyt.gob.pa/doctorado-en-ciencias-agropecuarias-2018-cancelada/</t>
         </is>
       </c>
     </row>
@@ -4022,22 +4057,22 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA PARA EL TALLER “INTENSIVO DE CONCEPTUALIZACIÓN DE TECNOLOGÍAS PATENTABLES Y FORMULACIÓN DE SOLICITUDES DE PATENTES VÍA INTERNACIONAL” SENACYT-CAF RONDA II, 2018</t>
+          <t>PREMIO I+D “EXCELENCIA EN LA INVESTIGACIÓN” 2018</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Entidades Académicas Estatales, Centro de Investigación, Empresas Públicas o Privadas panameñas, con o sin fines de lucro y Entidades Estatales. Los estudiantes universitarios y las personas naturales de nacionalidad panameña que estén interesados en participar deben estar afiliados a una de las entidades detalladas en el Dirigido de este Anuncio.</t>
+          <t>OBJETIVO: Reconocer la carrera de un investigador panameño que haya hecho una contribución sobresaliente para el avance en Panamá, en una disciplina de las ciencias y/o la tecnología.  Fecha de apertura: 27 de septiembre de 2018.  Fecha de cierre: 10 de octubre de 2018 (Hasta las 03:00 p.m. Hora exacta.)  Ceremonia de premiación: 26 de octubre de 2018 (durante la clausura del Congreso) Ver más detalles en el Anuncio y los Términos de referencia</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/09/Acta-de-Cierre-Taller-Intesivo-2018.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/09/Anuncio-17CongresoNacCyT.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/09/TDR-17CongresoNacCyT.pdf</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-taller-intensivo-de-conceptualizacion-de-tecnologias-patentables-y-formulacion-de-solicitudes-de-patentes-via-internacional-senacyt-caf-ronda-ii-2018/</t>
+          <t>https://www.senacyt.gob.pa/premio-id-excelencia-en-la-investigacion-2018/</t>
         </is>
       </c>
     </row>
@@ -4047,22 +4082,22 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA PARA EL TALLER DE “DESARROLLO DE PLANES ESTRATÉGICOS DE INNOVACIÓN Y TRANSFERENCIA DE CAPACIDADES” 2018</t>
+          <t>Maestría en Ciencias Agropecuarias 2018-Cancelada</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Beneficiarios de las Convocatorias Públicas de Fomento a Nuevos Emprendimientos, Fomento a Nuevos Emprendimientos: Capital Semilla y Fomento a la Innovación Empresarial, de la Secretaria Nacional de Ciencia, Tecnología e Innovación (SENACYT), comprendidos entre los años 2005 al 2014.</t>
+          <t>DIRIGIDA A: Panameños con grado de licenciatura o equivalente, interesados en realizar estudios de maestría en las áreas establecidas en el anuncio de la convocatoria.  OBJETIVO: Mejorar la calidad de la gestión del Sistema Nacional de la Ciencia y Tecnología, mediante la formación profesional.  DURACIÓN: Estas becas tendrán una duración de hasta dos (2) años o de acuerdo al plan de estudio.  MONTOS: Financiamiento de hasta B/.60,000.00 por año de acuerdo a disponibilidad presupuestaria de la SENACYT.  Fecha de Apertura: ; 11 DE SEPTIEMBRE DE 2018.  Plazo para Entrega: 10 DE ENERO DE 2019 HASTA LAS 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/07/6.-Resolucion-No122-2018-Programa-Fomento-Capacidades-Innovacion.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Resolucion-de-extensi%C3%B3n_Planes-2018.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Anuncio-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Listado-de-documentos.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Declaracion-Jurada-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Formulario-de-IFARHU-SENACYT.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Pasos-a-seguir-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/RESOLUCIÓN-383-DOC-CIENCIAS-AGRO.pdf</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-taller-de-desarrollo-de-planes-estrategicos-de-innovacion-y-transferencia-de-capacidades-2018/</t>
+          <t>https://www.senacyt.gob.pa/maestria-en-ciencias-agropecuarias-2018-cancelada/</t>
         </is>
       </c>
     </row>
@@ -4072,22 +4107,22 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA PARA PARTICIPAR EN EL TALLER DE INNOVACIÓN ABIERTA SENACYT 2018</t>
+          <t>DOCTORADO DE INVESTIGACION RONDA III-Cancelada</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Personas naturales panameñas o extranjeras residentes en la República de Panamá, mayores de edad.  OBJETIVO: Construir y fortalecer la cultura y capacidad de innovación y/o emprendimiento en Panamá, a través de las herramientas de los procesos de innovación social.  Fecha de apertura: 27 de junio de 2018  Plazo para entrega: 27 de julio de 2018 (1:00 p.m. Hora exacta.) Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDA A: Panameños que deseen formarse como investigadores en centros de estudios de excelencia en el extranjero o que ya encuentren estudiando un doctorado de investigación en centros de estudio de excelencia en el extranjero.  OBJETIVO: Este programa tiene como objetivo la formación de investigadores para la República de Panamá, que que garanticen el incremento del capital humano con altas capacidades para actividades cientificas y tecnológicas.  DURACIÓN: La beca tendrá una duración de hasta cuatro (4) años si el beneficiario posee grado de maestría y hasta seis (6) años si el beneficiario no posee grado de maestría.  MONTOS: Las becas podrán tener una asignación anual de hasta B/.60.000.00 El presupueto se elaborará según los rubros y la tabla de asignación de fondos publicada en la página we de la SENACYT.  Fecha de Apertura: ; 11 DE SEPTIEMBRE 2018  Plazo para Entrega: 15 DE ENERO DE 2019 HASTA LAS 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/06/0-Anuncio-Convocatoria-para-Taller-de-IA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/06/1-Resoluci%C3%B3n-Administrativa-No122-de-7-5-2018_Reglamento-Programa-para-la-Competitividad.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Acta-Cierre-de-Convocatoria-TIA-r1.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Anuncio-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Reglamento-de-Becas-Nuevo-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Declaración-Jurada-Nueva-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/BIDP-III-2018-pasos.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/RESOLUCIÓN-378-DOCTORADO-INVES..pdf</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-participar-en-el-taller-de-innovacion-abierta-senacyt-2018/</t>
+          <t>https://www.senacyt.gob.pa/doctorado-de-investigacion-ronda-iii-cancelada/</t>
         </is>
       </c>
     </row>
@@ -4097,22 +4132,22 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA DE DIPLOMADO EN CIENCIAS NATURALES Y MATEMÁTICAS 2018</t>
+          <t>CONVOCATORIA DE DOCTORADO PARA FORMAR INVESTIGADORES PARA UNIVERSIDADES, CENTROS DE INVESTIGACIÓN O LABORATORIOS DE INTERÉS NACIONAL RONDA III, 2018-Cancelada</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Docentes de educación primaria, con funciones relacionadas a la enseñanza de las Ciencias Naturales o Matemáticas, que posean nombramiento del Ministerio de Educación y que se encuentren en servicio en escuelas oficiales de las regiones de Panamá (Centro, Norte, Oeste, San Miguelito) y Darién. OBJETIVO: Contribuir con la formación continua de los docentes en servicio, para mejorar la enseñanza de las ciencias o matemática en las regiones escolares de Panamá (Centro, Norte, Oeste, San Miguelito) y Darién. DURACIÓN: Los Diplomados tendrán una duración de cuatro (4) meses.  Fecha de apertura: 25 de junio de 2018  Plazo para entrega: 20 de julio de 2018 (3:00 p.m. Hora exacta.) Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDA A: Profesores o Investigadores panameños vinculados a universidades, centros de investigación o laboratorios de interés nacional ubicados en Panamá, que se desempeñen en las áreas de ciencia y tecnología. El doctorado debe realizarse en un centro internacional de reconocida excelencia.  OBJETIVO: Fortalecer la planta docente y profesional de la universidades, centros de investigación y laboratoris de interés nacional ubicados en Panamá..  DURACIÓN: La beca tendrá una duración de hasta cuatro (4) años si el bebeficiario posee grado de maestría y hasta seis (6) años si el beneficiario no posee grado de maestría.  MONTOS: Las becas podrán tener una asignación anual de hasta B/60,000.00 El presupuesto se elaborará según los rubros y la tabla de asignación de fondos publicada en la página web de la SENACYT.  Fecha de Apertura: ; 11 DE SEPTIEMBRE DE 2018  Plazo para Entrega: 15 DE ENERO DE 2019 HASTA LAS 1:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/06/1-Reglamento-Resolucion-N.036.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Lista-para-Divulgaci%C3%B3n-CNM-2108.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Anuncio.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/REGLAM1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Declaración-Jurada-Nueva.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/BEPDE-1-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/RESOLUCIÓN-379-DOCTORADO-EXCELENCIA.pdf</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-diplomado-en-ciencias-naturales-y-matematicas-2018/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-de-doctorado-para-formar-investigadores-para-universidades-centros-de-investigacion-o-laboratorios-de-interes-nacional-ronda-iii-2018-cancelada/</t>
         </is>
       </c>
     </row>
@@ -4122,22 +4157,22 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA DE ESPECIALIZACIÓN EN DIDÁCTICA DE LA QUÍMICA 2018</t>
+          <t>IV CONVOCATORIA PÚBLICA PARA LA GESTIÓN DEL PROGRAMA DE CAMPAMENTO CIENTÍFICO Y TECNOLÓGICO (II Ronda)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Profesores de educación media, con funciones relacionadas a la enseñanza de la química que posean nombramiento permanente del Ministerio de Educación y que se encuentren en servicio activo en el Sistema Educativo Nacional. OBJETIVO: Contribuir a la formación continua de los docentes en servicio del Sistema Educativo Nacional para mejorar la enseñanza de la química en escuelas oficiales de las 15 regiones escolares de la República de Panamá. DURACIÓN: El postgrado tendrá una duración de 12 meses.  Fecha de apertura: 21 de junio de 2018  Plazo para entrega: 16 de julio de 2018 (3:30 p.m. Hora exacta.) Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Universidades debidamente acreditadas por el CONEAUPA y a centros de investigación públicos o privados sin fines de lucro, que operen en el territorio de la República de Panamá.  OBJETIVO: Incentivar a las Universidades acreditadas y centros de investigación públicos y privados sin fines de lucro para que realicen actividades que desarrollen el pensamiento crítico y las habilidades en áreas científicas de estudiantes en edades tempranas.  MONTO: Se otorgarán subsidios económicos por el monto de hasta B/. 50,000.00 (ver los detalles en el anuncio).  DURACIÓN: Todos los campamentos deberán desarrollarse en un periodo de 4 a 8 días, en vacaciones escolares. Sin embargo, los Contratos de Subsidio Económico que se suscriban para amparar su ejecución tendrán una duración de 6 meses contados a partir de la notificación del refrendo de la Contraloría General de la República.  Fecha de Apertura: 06 de agosto de 2018  Plazo para Entrega: 07 de septiembre de 2018 (a las 3:00 p.m. Hora exacta.) Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/06/0-Reglamento-resolucion36-Gaceta.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Lista-Priorizada-Postgrado-Quimica-2018.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/08/ANUNCIO-CAMPAMENTO-2018-II-RONDA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/REGLAMENTO-CAMP-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/GUIA-DE-CAMPAMENTO-2018-M-CON-REFERENCIAS.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/FORMULARIO-DE-EVALUACI%C3%93N-CAMP-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/09/ACTA-DE-CIERRE-DE-RECEPCI%C3%93N-DE-PROPUESTA-4CONV.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/11/Propuestas-Avaladas-a-la-Fase-de-Negociaci%C3%B3n-CampCyT.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Anuncio-de-resultados-CAMP.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/RESOLUCIÓN-ADM.-DE-INDICASAT-IVONNE-02-CAMP.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/RESOLUCIÓN-ADM.-DE-INDICASAT-03-CAMP.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/RESOLUCIÓN-ADM.-DE-UTP-01-CAMP.pdf</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-especializacion-en-didactica-de-la-quimica-2018/</t>
+          <t>https://www.senacyt.gob.pa/iv-convocatoria-publica-para-la-gestion-del-programa-de-campamento-cientifico-y-tecnologico-ii-ronda/</t>
         </is>
       </c>
     </row>
@@ -4147,18 +4182,22 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>CONVOCATORIA DE DOCTORADO DE INVESTIGACIÓN RONDA II-2018</t>
+          <t>PREMIO NACIONAL “POR LAS MUJERES EN LA CIENCIA” 2018</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Panameños que deseen formarse como investigadores en centros de estudios de excelencia en el extranjero o que ya se encuentren estudiando un doctorado de investigación en centros de estudio de excelencia en el extranjero.  OBJETIVO: Este programa tiene como objetivo la formación de investigadores para la República de Panamá, que garanticen el incremento del capital humano con altas capacidades para actividades científicas y tecnológicas.  DURACIÓN: La beca tendrá una duración de hasta cuatro (4) años si el beneficiario posee grado de maestría y hasta seis (6) años si el beneficiario no posee grado de maestría.  MONTO: Las becas podrán tener una asignación anual de hasta B/. 60,000.00. El presupuesto se elaborará según los rubros y la tabla de asignación de fondos publicada en la página web de la SENACYT.  Fecha de apertura: 31 de mayo de 2018  Plazo para entrega: 16 de agosto de 2018 (3:00 p.m. Hora exacta.) Para mayores detalles ver anuncio entre los documentos a descargar</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr"/>
+          <t>OBJETIVO: Fomentar el desarrollo de las mujeres que han dedicado su trabajo y estudios a la ciencia.  Fecha de apertura: 30 de agosto de 2018.  Fecha de cierre: 12 de octubre de 2018 (Hasta las 04:00 p.m. Hora exacta.)  Adjudicación del Premio: 23 de noviembre de 2018 Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/08/ANEXO-No.-1-BASES-Y-CONDICIONES-DEL-PREMIO-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/11/Listado-de-Miembros-del-Comité-Evaluador.pdf</t>
+        </is>
+      </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-de-doctorado-de-investigacion-ronda-ii-2018/</t>
+          <t>https://www.senacyt.gob.pa/premio-nacional-por-las-mujeres-en-la-ciencia-2018/</t>
         </is>
       </c>
     </row>
@@ -4168,18 +4207,22 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>CONVOCATORIA DE DOCTORADO PARA FORMAR INVESTIGADORES PARA UNIVERSIDADES, CENTROS DE INVESTIGACIÓN O LABORATORIOS DE INTERÉS NACIONAL RONDA II-2018</t>
+          <t>Pregrado de Excelecia para Colegios Oficiales Ronda II 2018-Cancelada</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Profesores o Investigadores panameños vinculados a universidades, centros de investigación o laboratorios de interés nacional ubicados en Panamá, que se desempeñen en las áreas de ciencia y tecnología. El doctorado debe realizarse en un centro internacional de reconocida excelencia.  OBJETIVO: Fortalecer la planta docente y profesional de las universidades, centros de investigación y laboratorios de interés nacional ubicados en Panamá.  DURACIÓN: La beca tendrá una duración de hasta cuatro (4) años si el beneficiario posee grado de maestría y hasta seis (6) años si el beneficiario no posee grado de maestría.  MONTO: Las becas podrán tener una asignación anual de hasta B/. 60,000.00. El presupuesto se elaborará según los rubros y la tabla de asignación de fondos publicada en la página web de la SENACYT.  Fecha de apertura: 31 de mayo de 2018  Plazo para entrega: 16 de agosto de 2018 (3:00 p.m. Hora exacta.) Para mayores detalles ver anuncio entre los documentos a descargar</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr"/>
+          <t>DIRIGIDA A: Estudiantes panameños que posean título de bachiller o estén cursando el último periodo del año del bachillerato, en un centro de estudios de educación media oficial, con la intención de realizar estudios en la Universidad de Waterloo, en la Universidad de Ontario, en la Universidad del Sur de Indiana o en la Universidad de Arkansas.  OBJETIVO: Fortalecer al país en áreas de Ciencia, Tecnología e Investigación para contar con profesionales con formación en centros de excelencia y en áreas claves para el desarrollo del país.  DURACIÓN: La beca tendrá la duración de acuerdo al Plan de Estudio de la Licenciatura. Este Programa contempla la formación del idioma inglés y nivelación académica por un periodo de hasta un (1) año adicional.  MONTOS: Las becas de este Programa tendrán una asignación anual de hasta Sesenta Mil Balboas con 00/100 (B/.60,000.00) y la asignación total no podrá exceder la suma de Doscientos Cincuenta mil Balboas con 00/100 (B/.250,000.00). También se podrán dar becas parciales.  Fecha de Apertura: ; 30 DE AGOSTO DE 2018.  Plazo para Entrega: 08 DE ENERO DE 2019 HASTA LAS 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Anuncio-2018-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Reglamento-2018-2-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Checklist-2018-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Declaración-Jurada-Nueva-2018-2-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Formulario-de-IFARHU-SENACYT-2018-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Pasos-a-seguir-2018-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Áreas-Tematicas-2018-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/RESOLUCIÓN-384-CO.pdf</t>
+        </is>
+      </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-de-doctorado-para-formar-investigadores-para-universidades-centros-de-investigacion-o-laboratorios-de-interes-nacional-ronda-ii-2018/</t>
+          <t>https://www.senacyt.gob.pa/pregrado-de-excelecia-para-colegios-oficiales-ronda-ii-2018-cancelada/</t>
         </is>
       </c>
     </row>
@@ -4189,22 +4232,22 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>NUEVOS INVESTIGADORES 2018 RONDA II</t>
+          <t>Maestría en Educación Ronda II, 2018-Cancelada</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Estudiantes Panameños residentes en Panamá que estén cursando los dos últimos años de la licenciatura, o cursando un posgrado, afiliados a una entidad pública, universidad, organización no gubernamental, asociaciones de interés público o personas jurídicas con o sin fines de lucro, con capacidad para realizar investigaciones científicas y desarrollo tecnológico e innovación.  OBJETIVO: Proporcionar financiamiento o co-financiamiento para la promover la formación de nuevos investigadores a través de apoyo para recursos directamente relacionados con su investigación en las áreas temáticas de la convocatoria.  Fecha de apertura: 31 de mayo de 2018  Plazo para entrega: 07 de agosto de 2018 (3:00 p.m. Hora exacta.) Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDA A: Panameños con grado de licenciatura o equivalente, interesados en realizar estudios de maestría en las áreas establecidas en el anuncio de la convocatoria.  OBJETIVO: Mejorar la calidad de la gestión del Sistema Nacional de la Ciencia y Tecnología, mediantes la formación profesional.  DURACIÓN: Estas becas tendrán una duración de hasta dos (2) años o de acuerdo al plan de estudio.  MONTOS: Financiamiento de hasta B/.60,000.00 por año de acuerdo a disponibilidad presupuestaria.  Fecha de Apertura: ; 30 DE AGOSTO DE 2018.  Plazo para Entrega: 11 DE ENERO DE 2019 HASTA LAS 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/05/ANUNCIO-OFICIAL-NIR2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/BASE-DE-LA-CONVOCATORIA-NIR2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/FORMULARIO-DE-EVALUACI%C3%93N-NIR2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/MODELO-CONTRATO-POR-MERITO-RESOLUCI%C3%93N-191-DE-2017-REVISADO-ABRIL-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/1.-Resoluci%C3%B3n-191-de-31-de-julio-de-2017-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/ACTA-DE-RECEPCION-DE-PROPUESTA-DE-NUEVOS-INVESTIGADORES-2018-RONDA-II.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/SUBSANACI%C3%93N-DEL-ACTA-DE-RECEPCI%C3%93N-DE-PROPUESTA-DE-NUEVOS-INVESTIGADORES-2018-RONDA-II.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/09/LISTA-DE-RESULTADOS-NI-2018-RONDA-II.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/Resoluci%C3%B3n-336-de-Pedro-Poveda.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/Resoluci%C3%B3n-346-de-Rubiela-Del-Carmen-Aguila.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/349-12-10-2018-Celia-Cede%C3%B1o.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Resoluci%C3%B3n-419-2018-de-Diana-Sanchez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Resoluci%C3%B3n-420-2018-.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Resoluci%C3%B3n-01-2019-de-Yeimisol-Madrid.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Resoluci%C3%B3n-02-2019-de-Janina-Castro.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Resoluci%C3%B3n-03-2019-de-Yineska-Otero.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Resoluci%C3%B3n-26-2019-de-Josias-Moreno.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Resoluci%C3%B3n-27-2019-de-Emilio-Romero.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Resoluci%C3%B3n-38-2019-de-Dionel-Rodr%C3%ADguez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/03/Resoluci%C3%B3n-71-2019-de-Diana-S%C3%A1nchez.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Anuncio-3.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Reglamento-2-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Checklist-2-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Declaración-Jurada-Nueva-2-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Formulario-de-IFARHU-2-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Pasos-a-seguir-2-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/RESOLUCIÓN-381-M-EDUCACION.pdf</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/nuevos-investigadores-2018-ronda-ii/</t>
+          <t>https://www.senacyt.gob.pa/maestria-en-educacion-ronda-ii-2018-cancelada/</t>
         </is>
       </c>
     </row>
@@ -4214,22 +4257,22 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>GENERACIÓN DE CAPACIDADES CIENTÍFICAS Y TECNOLÓGICAS 2018 RONDA II</t>
+          <t>CONVOCATORIA PÚBLICA PARA EL DIPLOMADO EN INNOVACIÓN Y EMPRENDIMIENTO 2018</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Personas jurídicas con o sin fines de lucro debidamente inscrita en el Registro Público de Panamá o personas naturales de nacionalidad panameña, residentes en el país dedicadas a realizar actividades que fortalezcan el Sistema de Ciencia, Tecnología e Innovación. Las personas naturales pueden participar individualmente o afiliados a entidades públicas o privadas, universidades, organizaciones no gubernamentales, asociaciones de interés público o centros de investigación.  OBJETIVO: Proporcionar financiamiento o co-financiamiento a actividades que fortalezcan el ambiente de ciencia y tecnología, para incentivar el interés por estas áreas del conocimiento.  Fecha de apertura: 31 de mayo de 2018  Plazo para entrega: 31 de julio de 2018 (3:00 p.m. Hora exacta.) Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: 1) Personas naturales, de nacionalidad panameña, que busquen transformarse en formadores y facilitadores de la innovación, posicionándose como líderes de proyectos de alto impacto aprovechando los beneficios de la economía digital. 2) Personas naturales extranjeras, residentes en Panamá, que busquen transformarse en formadores y facilitadores de la innovación, posicionándose como líderes de proyectos de alto impacto aprovechando los beneficios de la economía digital. Los aspirantes deben contar con un mínimo de dos (2) años, dictando docencia en universidades nacionales, con cátedras de emprendimiento.</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/05/ANUNCIO-OFICIAL-GCCYTR2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/BASE-DE-CONVOCATORIA-GCCYTR2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/FORMULARIO-DE-EVALUACI%C3%93N-GCCYTR2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/MODELO-CONTRATO-POR-MERITO-RESOLUCI%C3%93N-191-DE-2017-REVISADO-ABRIL-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/1.-Resoluci%C3%B3n-191-de-31-de-julio-de-2017-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/ACTA-DE-RECEPCION-DE-PROPUESTAS-GENERACION-DE-CAPACIDADES-2018-RONDA-II.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/09/LISTA-DE-RESULTADOS-GC-2018-RONDA-II.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/Resoluci%C3%B3n-333-2018-de-Aydee-Cornejo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/Resoluci%C3%B3n-337-de-Yaxelis-Mendoza.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/Resoluci%C3%B3n-342-de-Juan-Castillo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/Resoluci%C3%B3n-357-de-Boris-Gomez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Resoluci%C3%B3n-375-2018-de-Ivonne-Torres.pdf.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Resoluci%C3%B3n-420-2018-de-Guadalupe-Gonzalez.pdf.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Resoluci%C3%B3n-429-2018-de-Alexis-Tejedor.pdf.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Resoluci%C3%B3n-05-2019-de-Luis-Montbeliard.pdf.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Resoluci%C3%B3n-40-2019-de-UNICYT-Ulina-Mapp.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/09/Anuncio-vf-DIPLOMADO-INEMP.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Anexo-I-Informaci%C3%B3n-General-y-Espec%C3%ADfica-del-Diplomado-act..pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/5.-Modelo-de-Contrato-de-Compromiso_DIEM.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/09/Propuestas-recibidas-DIPLOMADO-INEMP.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/09/Publicaci%C3%B3n-de-Lista-de-Resultados-DIPLOMADO-2018.pdf</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/generacion-de-capacidades-cientificas-y-tecnologicas-2018-ronda-ii/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-diplomado-en-innovacion-y-emprendimiento-2018/</t>
         </is>
       </c>
     </row>
@@ -4239,22 +4282,18 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PARA LAS UNIVERSIDADES ACREDITADAS EN LA REPÚBLICA DE PANAMÁ – PROGRAMA DE MOVILIDAD ACADÉMICA</t>
+          <t>PROGRAMA DE JÓVENES CIENTÍFICOS 2018-2019</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Universidades debidamente acreditadas por CONEAUPA en la República de Panamá. Cada Universidad podrá someter hasta 3 propuestas, siempre y cuando sean para sedes (campus) distintas.  OBJETIVO: Contribuir al mejoramiento de la calidad de la formación académica, mediante estancias cortas en instituciones académicas de educación superior o centros de investigación de excelencia internacional, en Panamá o en el extranjero con el propósito de incentivar la producción, difusión, vinculación y transferencia de conocimiento científico-tecnológico.  DURACIÓN: Todas las propuestas deberán desarrollarse en un período de 12 meses. Sin embargo, los Convenios que se suscriban para amparar su ejecución tendrán una duración de 18 meses contados a partir del refrendo por parte de la Contraloría General de la República.  MONTO: Hasta B/. 100,000.00 de acuerdo al programa (ver más detalles en el anuncio)  Fecha de apertura: 22 de mayo de 2018  Plazo para entrega: 20 de julio de 2018 (3:00 p.m. Hora exacta.) Para mayores detalles ver anuncio entre los documentos a descargar</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Programa-MOVILIDAD-ACAD%C3%89MICA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/CARTA-AVAL-MOV.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/RESOLUCI%C3%93N-MOVILIDAD-23-DE-MAYO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/FORMATO-DE-PROPUESTAS-MOV.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/FORMATO-PARA-EL-EVALUADOR-MOV.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/TABLA-APROBADA-POR-SENACYT-MOV.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/LISTA-PRIORIZADA-MOVILIDAD-ACAD%C3%89MICA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/RESOLUCI%C3%93N-ADMINISTRATIVA-FINAL-005_MovAcademica.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/RESOLUCI%C3%93N-ADMINISTRATIVA-FINAL-001_MovAcademica.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/RESOLUCI%C3%93N-ADMINISTRATIVA-FINAL-002_MovAcademica.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/RESOLUCI%C3%93N-ADMINISTRATIVA-FINAL-003_MovAcademica.pdf</t>
-        </is>
-      </c>
+          <t>DIRIGIDO A: Jóvenes estudiantes panameños pertenecientes al sistema educativo nacional que se encuentren cursando entre octavo y duodécimo grado en el 2019, que deseen realizar investigaciones científicas.  OBJETIVO: Fomentar el contacto directo de los adolescentes con la investigación científica, facilitando el desarrollo de habilidades de estudio e investigación y promoviendo vocaciones científicas y tecnológicas, por medio de la asesoría de un Mentor Científico.  MONTO: Se otorgará un subsidio económico de B/. 700.00 para la compra y/o utilización de insumos científicos y otros gastos de operación no disponibles y que sean imprescindibles para alcanzar los objetivos del proyecto de investigación. Este subsidio será entregado, en un solo desembolso, al Adulto Coordinador que se encuentre designado en el Formulario de Aplicación.  Fecha de Apertura: 9 de agosto de 2018  Plazo para Entrega: 15 de noviembre de 2018 (a las 3:00 p.m. Hora exacta.) Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-para-las-universidades-acreditadas-en-la-republica-de-panama-programa-de-movilidad-academica/</t>
+          <t>https://www.senacyt.gob.pa/programa-de-jovenes-cientificos-2018-2019/</t>
         </is>
       </c>
     </row>
@@ -4264,22 +4303,18 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PARA LAS UNIVERSIDADES ACREDITADAS EN LA REPÚBLICA DE PANAMÁ Y CENTROS DE INVESTIGACIÓN PÚBLICOS Y PRIVADOS SIN FINES DE LUCRO- PROGRAMA DE MOVILIDAD DE INVESTIGACIÓN</t>
+          <t>TALLER DE ASESORAMIENTO CIENTÍFICO Y LOS OBJETIVOS DE DESARROLLO SOSTENIBLE</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Universidades debidamente acreditadas por CONEAUPA en la República de Panamá y Centros de Investigación públicos o privados sin fines de lucro.  OBJETIVO: Contribuir al mejoramiento de la calidad de la formación de investigación, mediante estancias cortas en instituciones académicas de educación superior o centros de investigación de excelencia internacional, en Panamá o en el extranjero, así como mediante la invitación a expertos internacionales a realizar estancias cortas en unidades académicas con investigaciones en marcha y centros de investigación en Panamá, con el propósito de incentivar la producción, difusión, vinculación y transferencia de conocimiento científico-tecnológico.  DURACIÓN: Todas las propuestas deberán desarrollarse en un período de 12 meses. Sin embargo, los Convenios que se suscriban para amparar su ejecución tendrán una duración de 18 meses contados a partir del refrendo por parte de la Contraloría General de la República.  MONTO: Hasta B/. 100,000.00 de acuerdo al programa (ver más detalles en el anuncio)  Fecha de apertura: 22 de mayo de 2018  Plazo para entrega: 20 de julio de 2018 (3:00 p.m. Hora exacta.) Para mayores detalles ver anuncio entre los documentos a descargar</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/05/ANUNCIO-PROGRAMA-MOVILIDAD-DE-INVESTIGACI%C3%93N-23-DE-MAYO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/CARTA-AVAL-UNIVERSIDADES-MOV-INV.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/RESOLUCI%C3%93N-MOVILIDAD-23-DE-MAYO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/FORMATO-DE-PROPUESTA-DE-MOVILIDAD-DE-INVESTIGACI%C3%93N-ESCANEADO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/FORMATO-PARA-EL-EVALUADOR-MOV-INVESTIGACI%C3%93N.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/TABLA-APROBADA-POR-LA-SENACYT-MOV.-DE-INVESTIGACI%C3%93N.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/LISTA-PRIORIZADA-MOVILIDAD-DE-INAVESTIGACI%C3%93N.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/resolucion_administrativa_movilidad.pdf</t>
-        </is>
-      </c>
+          <t>DIRIGIDO A: Científicos y hacedores de políticas que viven o trabajan en América Central interesados en mejorar su capacidad de proporcionar asesoramiento científico.</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-para-las-universidades-acreditadas-en-la-republica-de-panama-y-centros-de-investigacion-publicos-y-privados-sin-fines-de-lucro-programa-de-movilidad-de-investigacion/</t>
+          <t>https://www.senacyt.gob.pa/taller-de-asesoramiento-cientifico-y-los-objetivos-de-desarrollo-sostenible/</t>
         </is>
       </c>
     </row>
@@ -4289,22 +4324,22 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA PARA NUEVOS MIEMBROS DEL SISTEMA NACIONAL DE INVESTIGACIÓN (SNI) DE PANAMÁ, 2018</t>
+          <t>CONVOCATORIA PÚBLICA DE INNOVACIÓN SOCIAL PARA LA GESTIÓN DE RESIDUOS 2018</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Investigadores panameños o extranjeros residentes en Panamá, o investigadores panameños residentes en el extranjero; siempre que dichos investigadores cumplan con los requisitos establecidos en el Reglamento, los Criterios Internos de Evaluación y el anuncio de la Convocatoria del SNI.  OBJETIVO: Promover la investigación científica y tecnológica y su calidad, mediante el reconocimiento de la excelencia de la labor de investigación y desarrollo científico y tecnológico de personas naturales, a través de incentivos que pueden ser distinciones o estímulos económicos, otorgados en función de la calidad, la producción, la trascendencia y del impacto de dicha labor.  Fecha de apertura: 21 de mayo de 2018  Plazo para entrega: 22 de junio de 2018 (3:00 p.m. Hora exacta.) Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: *Personas naturales, de nacionalidad panameña, mayores de edad, residentes en Panamá; *Personas naturales, de nacionalidad extranjera, mayores de edad, residentes en Panamá y con carné de residente permanente; *Personas jurídicas constituídas como sociedades anónimas, fundaciones de interés privado, organizaciones no gubernamentales, asociaciones de interés público, todas debidamente inscritas en el Registro Público de Panamá, entidades del sector público, cooperativas registradas por IPACOOP y universidades (con o sin fines de lucro) debidamente reconocidas por el organismo nacional de acreditación.</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Anuncio-Nuevos-Miembros-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Ley-56-SNI-de-Panam%C3%A1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resoluci%C3%B3n-de-CDN-No.-30-de-9-de-nov.-de-2016-Reglamento-del-SNI-Gaceta-Oficial.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resoluci%C3%B3n-de-CDN-No.-02-de-26-de-abril-de-2018-Modificaciones-al-Reglamento-Gaceta-Oficial.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/C%C3%B3digo-de-%C3%89tica-del-SNI-19-de-julio-de-2016.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Objetos-de-Gastos-Permisibles-del-SNI-26-de-julio-de-2016.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Texto-%C3%9Anico-Reglamento-del-SNI-18-de-mayo-de-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resoluci%C3%B3n-de-CDN-No.-03-de-4-de-mayo-de-2018-Criterios-Internos-del-SNI-Gaceta-Oficial.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resultados-Nuevos-Miembros-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.26-Anakena-Castillo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.27-Ayde%C3%A9-Cornejo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.28-Candelario-Rodr%C3%ADguez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.29-Carlos-Gonz%C3%A1lez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.30-Carlos-Restrepo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.31-Celestino-Aguilar.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.32-Dafni-Mora.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.33-Diana-Oviedo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.34-Dionisio-Olmedo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.35-Eduardo-Ortega.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.36-Eleicer-Ching.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.37-Elida-De-Obald%C3%ADa.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.38-Eugenia-Rodr%C3%ADguez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.39-Gerald-Moncayo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.40-Gina-Della-Togna.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.41-Guillermo-Montilla.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.42-Hedley-Quintana.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.43-Iv%C3%A1n-Landires.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.44-Javier-S%C3%A1nchez-Gal%C3%A1n.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.45-Johant-Lakey.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.46-Jos%C3%A9-Su%C3%A1rez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.47-Jos%C3%A9-Rangel.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.48-Leyda-%C3%81brego.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.49-Librada-Atencio.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.50-Lorena-Coronado.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.51-Luisa-Morales.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.52-Marcelino-Guti%C3%A9rrez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.53-Mar%C3%ADa-Frende.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.54-Mario-Vega.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.55-Marta-Acosta.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.56-Nadir-Planes.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.57-Noem%C3%AD-Guerra.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.58-Paul-C%C3%B3rdoba.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.59-Reinhardt-Pinz%C3%B3n.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.60-Ricardo-Cossio.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.61-Sherlie-Portugal.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.62-Silvio-Vega.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.63-Yaxelis-Mendoza.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.64-Yila-De-La-Guardia.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.65-Yisett-Gonz%C3%A1lez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Resoluci%C3%B3n-No.-02-de-22-agosto-2018-Dr.-Ad%C3%A1n-Vega-NM.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/07/2.-Anuncio-Convocatoria-CIS18.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/3.-Bases-Convocatoria-CIS18.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/1.-Resoluci%C3%B3n-191-de-31-de-julio-de-2017-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Publicación-de-Propuestas-Recibidas-CIS18.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Resolución-24.-Extensión-de-Publicación.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/04/Propuestas-avaladas-CIS18.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/RESOLUCION-DE-ADJUDICACIÓN-CIS18-P-003.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/RESOLUCION-DE-ADJUDICACIÓN-CIS18-P-039.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/RESOLUCION-DE-ADJUDICACIÓN-CIS18-P-012.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/RESOLUCIÓN-DE-ADJUDICACIÓN-190-CIS18-P-033.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/RESOLUCIÓN-DE-ADJUDICACIÓN-191-CIS18-P-011.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Resolución-Administrativa-No.-179-de-28-de-mayo-de-2019-Yira-Arauz.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Resolución-Administrativa-No.-195-de-14-de-junio-de-2019-Gonalo-Pulido-Silva.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/RESOLUCION-DE-ADJUDICACIÓN-CIS18-P-011-Correción.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/Resolucion-administrativa-No.-239-de-18-de-julio-de-2019-trashforma.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/07/RESOLUCIÓN-DE-ADJUDICACIÓN-CIS18-P-019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/11/RESOLUCIÓN-DE-ADJUDICACIÓN-CIS18-P-004.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/10/RESOLUCION-DE-ADJUDICACION-CIS18-P-009-GEOAZUL-S.A..pdf</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-nuevos-miembros-del-sistema-nacional-de-investigacion-sni-de-panama-2018/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-innovacion-social-para-la-gestion-de-residuos-2018/</t>
         </is>
       </c>
     </row>
@@ -4314,22 +4349,22 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA PARA EL TERCER REINGRESO DE MIEMBROS AL SISTEMA NACIONAL DE INVESTIGACIÓN (SNI) DE PANAMÁ 2018</t>
+          <t>CONVOCATORIA PÚBLICA PARA PARTICIPAR EN EL TALLER DE INNOVACIÓN ABIERTA SENACYT 2018 (RONDA 2)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Miembros que hayan reingresado por segunda vez al SNI en la Convocatoria Pública lanzada en diciembre del año 2015, en categoría de Investigador Nacional o Investigador Distinguido, nacionales o extranjeros residentes en Panamá, siempre que dichos investigadores cumplan con los requisitos establecidos en el Reglamento, los Criterios Internos de Evaluación y el anuncio de la convocatoria del SNI.  OBJETIVO: Promover la investigación científica y tecnológica y su calidad, mediante el reconocimiento de la excelencia de la labor de investigación y desarrollo científico y tecnológico de personas naturales, a través de incentivos que pueden ser distinciones o estímulos económicos, otorgados en función de la calidad, la producción, la trascendencia y del impacto de dicha labor.  Fecha de apertura: 21 de mayo de 2018  Plazo para entrega: 22 de junio de 2018 (3:00 p.m. Hora exacta.) Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Personas naturales panameñas o extranjeras residentes en la República de Panamá, mayores de edad.</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Anuncio-Tercer-Reingreso-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Ley-56-SNI-de-Panam%C3%A1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resoluci%C3%B3n-de-CDN-No.-30-de-9-de-nov.-de-2016-Reglamento-del-SNI-Gaceta-Oficial.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resoluci%C3%B3n-de-CDN-No.-02-de-26-de-abril-de-2018-Modificaciones-al-Reglamento-Gaceta-Oficial.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/C%C3%B3digo-de-%C3%89tica-del-SNI-19-de-julio-de-2016.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Objetos-de-Gastos-Permisibles-del-SNI-26-de-julio-de-2016.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Texto-%C3%9Anico-Reglamento-del-SNI-18-de-mayo-de-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resoluci%C3%B3n-de-CDN-No.-03-de-4-de-mayo-de-2018-Criterios-Internos-del-SNI-Gaceta-Oficial.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resultados-Tercer-Reingreso-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.10-Juan-Pascale.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.11-Osvaldo-Reyes.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.12-Paulino-Vigil.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.13-Carmenza-Spadafora.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.14-Catherina-Caballero.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Resoluci%C3%B3n-No.-01-del-22-agosto-2018-Dr.-Aaron-O%C2%B4Dea-3R.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Resoluci%C3%B3n-No.-3-de-23-de-agosto-de-2018-Dr.-Axel-Villalobos.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Anuncio-Convocatoria-Taller-IA.-r2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resolucion-Administrativa-No122-de-7-5-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Cierre-TINNA-R2.pdf</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-tercer-reingreso-de-miembros-al-sistema-nacional-de-investigacion-sni-de-panama-2018/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-participar-en-el-taller-de-innovacion-abierta-senacyt-2018-ronda-2/</t>
         </is>
       </c>
     </row>
@@ -4339,22 +4374,22 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA PARA EL CUARTO REINGRESO DE MIEMBROS AL SISTEMA NACIONAL DE INVESTIGACIÓN (SNI) DE PANAMÁ 2018</t>
+          <t>CONVOCATORIA PÚBLICA DEL CURSO DE ENSEÑANZA DE CIENCIA EN INGLÉS PARA PRIMARIA (ELEMENTARY SCIENCE CERTIFICATE) 2018</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Miembros que hayan reingresado por tercera vez al SNI en la Convocatoria Pública lanzada en diciembre del año 2015, en categoría de Investigador Nacional o Investigador Distinguido, nacionales o extranjeros residentes en Panamá, siempre que dichos investigadores cumplan con los requisitos establecidos en el Reglamento, los Criterios Internos de Evaluación y el anuncio de la convocatoria del SNI.  OBJETIVO: Promover la investigación científica y tecnológica y su calidad, mediante el reconocimiento de la excelencia de la labor de investigación y desarrollo científico y tecnológico de personas naturales, a través de incentivos que pueden ser distinciones o estímulos económicos, otorgados en función de la calidad, la producción, la trascendencia y del impacto de dicha labor.  Fecha de apertura: 21 de mayo de 2018  Plazo para entrega: 22 de junio de 2018 (3:00 p.m. Hora exacta.) Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Educadores bilingües (español-inglés) del Sistema Educativo Nacional, preferentemente participantes del Programa Panamá Bilingüe de la República de Panamá. Podrán participar aspirantes en condición permanente o en condición de interinidad, sólo si el MEDUCA le confiere el aval correspondiente mediante la carta de postulación al acto.</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Anuncio-Cuarto-Reingreso-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Ley-56-SNI-de-Panam%C3%A1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resoluci%C3%B3n-de-CDN-No.-30-de-9-de-nov.-de-2016-Reglamento-del-SNI-Gaceta-Oficial.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resoluci%C3%B3n-de-CDN-No.-02-de-26-de-abril-de-2018-Modificaciones-al-Reglamento-Gaceta-Oficial.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/C%C3%B3digo-de-%C3%89tica-del-SNI-19-de-julio-de-2016.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Objetos-de-Gastos-Permisibles-del-SNI-26-de-julio-de-2016.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Texto-%C3%9Anico-Reglamento-del-SNI-18-de-mayo-de-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resoluci%C3%B3n-de-CDN-No.-03-de-4-de-mayo-de-2018-Criterios-Internos-del-SNI-Gaceta-Oficial.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resultados-Cuarto-Reingreso-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.16-Sergio-Mart%C3%ADnez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.17-Xavier-S%C3%A1ez-Llorens.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.18-Richard-Cooke.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.19-Mahabir-Gupta.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.20-Luis-Cubilla.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.21-Jos%C3%A9-Calzada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.22-Azael-Salda%C3%B1a.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.23-Dora-Estripeaut.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.24-Lilia-Ch%C3%A9rigo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.25-Nicanor-Obald%C3%ADa.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/06/0-Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resolucion-209-Science.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/lista-priorizada.pdf</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-cuarto-reingreso-de-miembros-al-sistema-nacional-de-investigacion-sni-de-panama-2018/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-del-curso-de-ensenanza-de-ciencia-en-ingles-para-primaria-elementary-science-certificate-2018/</t>
         </is>
       </c>
     </row>
@@ -4364,18 +4399,22 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA PARA EL TALLER “INTENSIVO DE CONCEPTUALIZACIÓN DE TECNOLOGÍAS PATENTABLES Y FORMULACIÓN DE SOLICITUDES DE PATENTES VÍA INTERNACIONAL” SENACYT-CAF 2018</t>
+          <t>CONVOCATORIA PÚBLICA PARA EL TALLER “INTENSIVO DE CONCEPTUALIZACIÓN DE TECNOLOGÍAS PATENTABLES Y FORMULACIÓN DE SOLICITUDES DE PATENTES VÍA INTERNACIONAL” SENACYT-CAF RONDA II, 2018</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Entidades Académicas Estatales, Centro de Investigación, Empresas Públicas o Privadas panameñas, con o sin fines de lucro y Entidades Estatales. Los estudiantes universitarios y las personas naturales de nacionalidad panameña que estén interesados en participar deben estar afiliados a una de las entidades detalladas en el Dirigido de este Anuncio. OBJETIVO: Desarrollar la capacidad institucional y empresarial en la conceptualización acelerada de tecnologías innovadoras y en la redacción de solicitudes de patentes orientadas a mercados internacionales. Fecha de apertura: 21 de mayo de 2018  Plazo para entrega: 25 de junio de 2018 (3:00 p.m. Hora exacta.) Para mayores detalles ver anuncio entre los documentos a descargar</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr"/>
+          <t>DIRIGIDO A: Entidades Académicas Estatales, Centro de Investigación, Empresas Públicas o Privadas panameñas, con o sin fines de lucro y Entidades Estatales. Los estudiantes universitarios y las personas naturales de nacionalidad panameña que estén interesados en participar deben estar afiliados a una de las entidades detalladas en el Dirigido de este Anuncio.</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/09/Acta-de-Cierre-Taller-Intesivo-2018.pdf</t>
+        </is>
+      </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-taller-intensivo-de-conceptualizacion-de-tecnologias-patentables-y-formulacion-de-solicitudes-de-patentes-via-internacional-senacyt-caf-2018/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-taller-intensivo-de-conceptualizacion-de-tecnologias-patentables-y-formulacion-de-solicitudes-de-patentes-via-internacional-senacyt-caf-ronda-ii-2018/</t>
         </is>
       </c>
     </row>
@@ -4385,22 +4424,22 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA DE FORTALECIMIENTO A EQUIPAMIENTO E INSTRUMENTACIÓN ESPECIALIZADO PARA ACTIVIDADES DE I+D (EIE) 2018</t>
+          <t>CONVOCATORIA PÚBLICA PARA EL TALLER DE “DESARROLLO DE PLANES ESTRATÉGICOS DE INNOVACIÓN Y TRANSFERENCIA DE CAPACIDADES” 2018</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Son elegibles para participar instituciones que realicen investigación, constituidas como entidades públicas, centros de docencia superior sin fines de lucro, acreditadas por el CONEAUPA y asociaciones de interés público, debidamente domiciliadas en Panamá.  OBJETIVO: Dotar con equipos e instrumentos especializados a centros o laboratorios orientados a realizar actividades de I+D, que permita establecer o mejorar sus capacidades elevando su competitividad científica, a través de una misión/visión a mediano y largo plazo de impacto al sistema de Ciencia, Tecnología e Innovación de Panamá.  MONTO: El financiamiento podrá ser de hasta Quinientos Mil Balboas (B/.500,000.00) de la totalidad del Proyecto. Las propuestas seleccionadas podrán ser financiadas por recursos del BID.  Fecha de apertura: 31 de enero 2018  Plazo para entrega de propuestas: 23 de abril 2018 hasta la 1:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Beneficiarios de las Convocatorias Públicas de Fomento a Nuevos Emprendimientos, Fomento a Nuevos Emprendimientos: Capital Semilla y Fomento a la Innovación Empresarial, de la Secretaria Nacional de Ciencia, Tecnología e Innovación (SENACYT), comprendidos entre los años 2005 al 2014.</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/01/2.-Bases-de-la-convocatoria-EIE18.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/3.-Clasificación-de-las-ciencias-según-Frascatti.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/4.-PENCYT-2015-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/6.-Formulario-evaluación-EIE18.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/1.-Resoluci%C3%B3n-191-de-31-de-julio-de-2017-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/11.-Modelo-de-Contrato-por-Mérito.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Listado-de-Propuestas-Recibidas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resolucion-Administrativa-196-B-extensión-de-tiempo-EIE18.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Lista-de-Publicacion-de-Resultados-EIE2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/09/Resolución-de-Adjudicación-303.-EIE18-007.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/09/Resolución-Administrativa-N306.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/09/Resolución-Administrativa-N307.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/09/Resolución-de-Adjudicación-N313-EIE18-004.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/Resolución-de-Adjudicación-328_EIE18-003.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/Resolución-Administrativa-347_EIE18.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/07/6.-Resolucion-No122-2018-Programa-Fomento-Capacidades-Innovacion.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Resolucion-de-extensi%C3%B3n_Planes-2018.pdf</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-fortalecimiento-a-equipamiento-e-instrumentacion-especializado-para-actividades-de-id-eie-2018/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-taller-de-desarrollo-de-planes-estrategicos-de-innovacion-y-transferencia-de-capacidades-2018/</t>
         </is>
       </c>
     </row>
@@ -4410,22 +4449,22 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA PARA LAS UNIVERSIDADES GESTORAS DEL PROGRAMA PISTA</t>
+          <t>CONVOCATORIA PÚBLICA PARA PARTICIPAR EN EL TALLER DE INNOVACIÓN ABIERTA SENACYT 2018</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Universidades oficiales o privadas, debidamente acreditadas, que operen en el territorio de la República de Panamá.  OBJETIVO: Seleccionar a Universidades oficiales o privadas, debidamente acreditadas en Panamá, para gestionar el programa PISTA, con la finalidad de detectar, desarrollar y dar seguimiento a niños y jóvenes panameños con talento académico, a través de un programa de enriquecimiento extracurricular de formación integral. Esta Convocatoria esta diseñada para que se pueda atender jóvenes con talento académico que cursen de séptimo hasta noveno grado.  DURACIÓN: Las Universidades deberán desarrollar el programa PISTA en un período de treinta y seis (36) meses. Sin embargo, los Convenios de Colaboración Educativa que suscriban con la SENACYT para amparar la ejecución del programa PISTA tendrán una duración de cuarenta y dos (42) meses contados a partir de la notificación del refrendo del Convenio.  MONTO: Hasta un monto de B/.480,000.00 (ver detalles)  Fecha de apertura: 19 de abril de 2018  Plazo para entrega: 19 de julio de 2018 (3:00 p.m. Hora exacta.) Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Personas naturales panameñas o extranjeras residentes en la República de Panamá, mayores de edad.  OBJETIVO: Construir y fortalecer la cultura y capacidad de innovación y/o emprendimiento en Panamá, a través de las herramientas de los procesos de innovación social.  Fecha de apertura: 27 de junio de 2018  Plazo para entrega: 27 de julio de 2018 (1:00 p.m. Hora exacta.) Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/04/ANUNCIO-aprobado-por-Legal.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/04/Manual-PISTA-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/04/Formulario-de-Evaluacion-PISTA-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/04/Resoluci%C3%B3n-Administrativa-N%C2%B085.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/04/Resoluci%C3%B3n-Administrativa-N%C2%B0142.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/04/Resoluci%C3%B3n-de-Junta-Administrativa-No.-32.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Acta-de-Recepci%C3%B3n-de-Propuestas-PISTA-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Resultados-de-la-Convocatoria-P%C3%BAblica-para-las-Universidades-Gestoras-del-Programa-PISTA.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/06/0-Anuncio-Convocatoria-para-Taller-de-IA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/06/1-Resoluci%C3%B3n-Administrativa-No122-de-7-5-2018_Reglamento-Programa-para-la-Competitividad.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Acta-Cierre-de-Convocatoria-TIA-r1.pdf</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-las-universidades-gestoras-del-programa-pista/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-participar-en-el-taller-de-innovacion-abierta-senacyt-2018/</t>
         </is>
       </c>
     </row>
@@ -4435,22 +4474,22 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA DE APOYO AL FORTALECIMIENTO DE CENTROS DE PENSAMIENTO NACIONAL 2018</t>
+          <t>CONVOCATORIA PÚBLICA DE DIPLOMADO EN CIENCIAS NATURALES Y MATEMÁTICAS 2018</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Organizaciones que realicen investigación orientada a las políticas públicas, constituidas como instituciones académicas públicas o privadas debidamente reconocidas por el organismo nacional de acreditación, centros de investigación públicos o privados, asociaciones de interés público, fundaciones de interés privado sin fines de lucro u organizaciones no gubernamentales; domiciliadas en Panamá y con capacidad para realizar investigación científica, desarrollo tecnológico o innovación.  DURACIÓN: Hasta treinta y seis (36) meses.  MONTOS: Hasta noventa mil balboas (B/.90,000.00)  Fecha de Apertura: 4 de abril de 2018  Plazo para entrega de intención de propuestas: 30 de abril de 2018  Sesión de inducción: 10 y 11 de mayo de 2018  Plazo para entrega de propuestas: 15 de junio de 2018 (3:00 p.m. hora exacta.) Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Docentes de educación primaria, con funciones relacionadas a la enseñanza de las Ciencias Naturales o Matemáticas, que posean nombramiento del Ministerio de Educación y que se encuentren en servicio en escuelas oficiales de las regiones de Panamá (Centro, Norte, Oeste, San Miguelito) y Darién. OBJETIVO: Contribuir con la formación continua de los docentes en servicio, para mejorar la enseñanza de las ciencias o matemática en las regiones escolares de Panamá (Centro, Norte, Oeste, San Miguelito) y Darién. DURACIÓN: Los Diplomados tendrán una duración de cuatro (4) meses.  Fecha de apertura: 25 de junio de 2018  Plazo para entrega: 20 de julio de 2018 (3:00 p.m. Hora exacta.) Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/09/1.-Resoluci%C3%B3n-191-de-31-de-julio-de-2017-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/04/08-Modelo-de-contrato-por-m%C3%A9rito.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/04/09-PENCYT-2015-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Acta-de-Intenciones-de-Propuesta-CENPEN2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/06/Lista-de-propuestas-recibidas-APY-CENPEN-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Lista-de-Resultados-CENPEN2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/RA-320-Centros-de-Pensamiento2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/RA-321-Centros-de-Pensamiento2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/RESOLUCI%C3%93N-ADM.-324_CPN2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/Resoluci%C3%B3n-administrativa-No.-348.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/Resolucio%CC%81n-Administrativa-No.-370.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/06/1-Reglamento-Resolucion-N.036.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Lista-para-Divulgaci%C3%B3n-CNM-2108.pdf</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-apoyo-al-fortalecimiento-de-centros-de-pensamiento-nacional-2018/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-diplomado-en-ciencias-naturales-y-matematicas-2018/</t>
         </is>
       </c>
     </row>
@@ -4460,22 +4499,22 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>CONVOCATORIA CONTINUA DE FOMENTO A LA INSERCIÓN DE TALENTO ESPECIALIZADO (ITE) 2018</t>
+          <t>CONVOCATORIA PÚBLICA DE ESPECIALIZACIÓN EN DIDÁCTICA DE LA QUÍMICA 2018</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Exbecarios panameños de los Programas de Becas Doctorales de IFARHU-SENACYT u otros programas doctorales de investigación, que hayan finalizado sus estudios en el período desde el año 2013 hasta las fechas de cierre de esta Convocatoria. OBJETIVO: Favorecer el desarrollo inicial de actividades de I+D a panameños que finalizaron sus estudios en programas de doctorado en investigación en el período desde el año 2013 a las fechas de cierre de esta Convocatoria, a fin de impulsar sus actividades de investigación y desarrollo en una universidad, institución de investigación, u otro centro del sector público o privado, con capacidad de llevar a cabo investigación y desarrollo científico o tecnológico. MONTO: La SENACYT financiará hasta Sesenta Mil Balboas (B/.60,000.00) de la totalidad del proyecto. El fondo constituye un capital semilla que permitirá al doctor desarrollar investigaciones en ciencia básica, investigación aplicada y/o desarrollo tecnológico. Los proponentes deben asegurarse que la distribución de fondos de su propuesta, aplique a los objetos de gasto acorde al objetivo del Programa de Fomento a la Investigación y Desarrollo. Es responsabilidad del proponente sustentar los méritos científicos y el impacto de la propuesta que justifica la solicitud de fondos. DURACIÓN: Los proyectos adjudicados podrán tener una duración de hasta dos (2) años. Fecha de apertura: 15 de enero 2018 Plazo para entrega de propuestas (primera ronda): 30 de marzo 2018 hasta la 1:00 p.m. hora exacta. Plazo para entrega de propuestas (segunda ronda): 12 de junio 2018 hasta la 1:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Profesores de educación media, con funciones relacionadas a la enseñanza de la química que posean nombramiento permanente del Ministerio de Educación y que se encuentren en servicio activo en el Sistema Educativo Nacional. OBJETIVO: Contribuir a la formación continua de los docentes en servicio del Sistema Educativo Nacional para mejorar la enseñanza de la química en escuelas oficiales de las 15 regiones escolares de la República de Panamá. DURACIÓN: El postgrado tendrá una duración de 12 meses.  Fecha de apertura: 21 de junio de 2018  Plazo para entrega: 16 de julio de 2018 (3:30 p.m. Hora exacta.) Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/02/0.-Afiche.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/2.-Bases-de-la-Convocatoria.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/4.-Formulario-de-Evalución.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/1.-Resoluci%C3%B3n-191-de-31-de-julio-de-2017-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/7.-Modelo-de-Contrato-por-Mérito.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/10.-PENCYT-2015-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/11.-Clasificacion-Ciencias.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/02/Resolución-Administrativa-No.-49.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/04/LISTADO-DE-PROPUESTAS-RECIBIDAS.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/RESOLUCIÓN-ADMINISTRATIVA-No.-155.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/06/LISTA-DE-RESULTADOS-ITE18-R1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/Resolución-Administrativa-No.-151.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/Resolución-Administrativa-No.-152.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Resolución-Administrativa-No.-176-de-27-de-mayo-de-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/ResolucionAdminitrativaNo039.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/LISTADO-DE-PROPUESTAS-RECIBIDAS-ITE18-R2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resolucion-Administrativa-No225.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/LISTA-DE-RESULTADOS_ITE2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/Resolución-Administrativa-No.-120.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/Resolución-Administrativa-No.-130.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/Resolución-Administratiga-No.-131.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/Resolución-Administrativa-No.-161.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/Resolución-Administrativa-No.-162.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Resolución-Administrativa-No.-167.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Resolución-Administrativa-No.-175.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Resolución-Administrativa-No.-197.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/06/0-Reglamento-resolucion36-Gaceta.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Lista-Priorizada-Postgrado-Quimica-2018.pdf</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-continua-de-fomento-a-la-insercion-de-talento-especializado-ite-2018/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-especializacion-en-didactica-de-la-quimica-2018/</t>
         </is>
       </c>
     </row>
@@ -4485,22 +4524,18 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA PARA UNIVERSIDADES ACREDITADAS EN LA REPÚBLICA DE PANAMÁ 2018</t>
+          <t>CONVOCATORIA DE DOCTORADO DE INVESTIGACIÓN RONDA II-2018</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Universidades debidamente acreditadas por el CONEAUPA en la República de Panamá con programas de Postgrado presenciales de tiempo completo.  OBJETIVO: Fortalecer la capacidad nacional de investigación, fomentar la generación de conocimiento y estimular su proyección hacia la sociedad por medio de la formación de los recursos humanos necesarios para el desarrollo de la ciencia, la tecnología y la innovación, con la ejecución de programas de postgrado a tiempo completo, cuyos beneficiarios se dediquen a tiempo completo y de manera exclusiva a culminar sus estudios.  DURACIÓN: Todos los programas académicos deberán desarrollarse en un período de 24 meses. Sin embargo los convenios de colaboración educativa que se suscriban para amparar su ejecución tendrán una duración de 36 meses contados a partir del refrendo por parte de la Contraloría General de la República.  Fecha de Apertura: 15 de febrero 2018  Plazo para entrega de propuestas: 17 de abril 2018 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/02/1.-Anuncio-Publicitario.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/02/2.-Gaceta-Oficial.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/02/3.-Checklist.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/02/6.-FORMULARIO-EVALUADOR-PROPUESTA-120117.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Acta-de-Recepcion_UA2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/06/Resultados-de-la-Convocatoria-P%C3%BAblica-para-las-Universidades-Acreditadas-en-la-Rep%C3%BAblica-de-Panam%C3%A1-para-Maestr%C3%ADas-consolidadas-y-acreditadas.pdf</t>
-        </is>
-      </c>
+          <t>DIRIGIDO A: Panameños que deseen formarse como investigadores en centros de estudios de excelencia en el extranjero o que ya se encuentren estudiando un doctorado de investigación en centros de estudio de excelencia en el extranjero.  OBJETIVO: Este programa tiene como objetivo la formación de investigadores para la República de Panamá, que garanticen el incremento del capital humano con altas capacidades para actividades científicas y tecnológicas.  DURACIÓN: La beca tendrá una duración de hasta cuatro (4) años si el beneficiario posee grado de maestría y hasta seis (6) años si el beneficiario no posee grado de maestría.  MONTO: Las becas podrán tener una asignación anual de hasta B/. 60,000.00. El presupuesto se elaborará según los rubros y la tabla de asignación de fondos publicada en la página web de la SENACYT.  Fecha de apertura: 31 de mayo de 2018  Plazo para entrega: 16 de agosto de 2018 (3:00 p.m. Hora exacta.) Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-universidades-acreditadas-en-la-republica-de-panama-2018/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-de-doctorado-de-investigacion-ronda-ii-2018/</t>
         </is>
       </c>
     </row>
@@ -4510,22 +4545,18 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA DE I+D ORIENTADA POR MISIÓN EN SALUD (IOMS) 2018</t>
+          <t>CONVOCATORIA DE DOCTORADO PARA FORMAR INVESTIGADORES PARA UNIVERSIDADES, CENTROS DE INVESTIGACIÓN O LABORATORIOS DE INTERÉS NACIONAL RONDA II-2018</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Grupos de Investigación Interdisciplinarios, con interés específico en los temas de esta convocatoria, representados por: entidades públicas, personas jurídicas sin fines de lucro, organizaciones no gubernamentales o asociaciones de interés público.  OBJETIVO: Impulsar a los grupos de Investigación Interdisciplinario para que, a través del conocimiento científico y tecnológico, generen evidencia que facilite la implementación de soluciones a las problemáticas identificadas en la Agenda Nacional de Prioridades de Investigación e Innovación para la Salud (ANPIS) 2016-2025.  MONTO: El financiamiento podrá ser de hasta Doscientos Cincuenta Mil balboas (B/.250,000.00) de la totalidad del Proyecto. Las propuestas seleccionadas podrán ser financiadas con recursos del BID.  Fecha de Apertura: 31 de enero 2018  Plazo para entrega de propuestas: 23 de abril 2018 hasta la 1:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/02/2.-Base-de-la-Convocatoria-IOMS18-final.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/3.-ANPIS.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/5.-Formulario-de-Evaluación-IOMS18.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/1.-Resoluci%C3%B3n-191-de-31-de-julio-de-2017-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/10.-Modelo-de-Contrato-por-Mérito.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/1.a.-Listado-de-Propuestas-Recibidas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resolucion-Administrativa-196-A-extensión-de-tiempo-IOMS18.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Lista-de-Resultados-IOMS-18.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/Resolución-de-Adjudicación-327_IOMS18-001.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Resolución-de-Adjudicación-IOMS18-016.pdf</t>
-        </is>
-      </c>
+          <t>DIRIGIDO A: Profesores o Investigadores panameños vinculados a universidades, centros de investigación o laboratorios de interés nacional ubicados en Panamá, que se desempeñen en las áreas de ciencia y tecnología. El doctorado debe realizarse en un centro internacional de reconocida excelencia.  OBJETIVO: Fortalecer la planta docente y profesional de las universidades, centros de investigación y laboratorios de interés nacional ubicados en Panamá.  DURACIÓN: La beca tendrá una duración de hasta cuatro (4) años si el beneficiario posee grado de maestría y hasta seis (6) años si el beneficiario no posee grado de maestría.  MONTO: Las becas podrán tener una asignación anual de hasta B/. 60,000.00. El presupuesto se elaborará según los rubros y la tabla de asignación de fondos publicada en la página web de la SENACYT.  Fecha de apertura: 31 de mayo de 2018  Plazo para entrega: 16 de agosto de 2018 (3:00 p.m. Hora exacta.) Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-id-orientada-por-mision-en-salud-ioms-2018/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-de-doctorado-para-formar-investigadores-para-universidades-centros-de-investigacion-o-laboratorios-de-interes-nacional-ronda-ii-2018/</t>
         </is>
       </c>
     </row>
@@ -4535,22 +4566,22 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA DE LOS PROGRAMAS GENERACIÓN DE CAPACIDADES 2018 RONDA I</t>
+          <t>NUEVOS INVESTIGADORES 2018 RONDA II</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Personas jurídicas con o sin fines de lucro debidamente inscrita en el Registro Público de Panamá o personas naturales de nacionalidad panameña, residentes en el país dedicadas a realizar actividades que fortalezcan el Sistema de Ciencia, Tecnología e Innovación. Las personas naturales pueden participar individualmente o afiliados a entidades públicas o privadas, universidades, organizaciones no gubernamentales, asociaciones de interés público o centros de investigación.  OBJETIVO: Proporcionar financiamiento o co-financiamiento a actividades que fortalezcan el ambiente de ciencia y tecnología, para incentivar el interés por estas áreas del conocimiento.  MONTO: El financiamiento de hasta el 100% del costo de la propuesta según el monto establecido en cada categoría de evaluación separada y de acuerdo a las necesidades plenamente justificadas de la misma. 1. Categoría 1: Hasta B/. 10,000.00. 2. Categoría 2: Hasta B/. 15,000.00. 3. Categoría 3: Hasta B/. 10,000.00 4. Categoría 4: Hasta B/. 15,000.00. 5. Categoría 5: Hasta B/. 7,000.00.  Fecha de apertura: 18 de enero 2018  Plazo para entrega de propuestas: 20 de marzo 2018 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Estudiantes Panameños residentes en Panamá que estén cursando los dos últimos años de la licenciatura, o cursando un posgrado, afiliados a una entidad pública, universidad, organización no gubernamental, asociaciones de interés público o personas jurídicas con o sin fines de lucro, con capacidad para realizar investigaciones científicas y desarrollo tecnológico e innovación.  OBJETIVO: Proporcionar financiamiento o co-financiamiento para la promover la formación de nuevos investigadores a través de apoyo para recursos directamente relacionados con su investigación en las áreas temáticas de la convocatoria.  Fecha de apertura: 31 de mayo de 2018  Plazo para entrega: 07 de agosto de 2018 (3:00 p.m. Hora exacta.) Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/01/1.ANUNCIO-GENERACION-DE-CAPACIDADES-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/2.BASE-DE-GENERACION-DE-CAPACIDADES-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/4.FORMULARIO-DE-EVALUACI%C3%93N-2018-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/1.-Resoluci%C3%B3n-191-de-31-de-julio-de-2017-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/ACTA-DE-RECEPCI%C3%93N-DE-PROPUESTA-GENERACI%C3%93N-DE-CAPACIDADES-2018-RONDA-I.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/RESOLUCION-DE-EXTENSION-DE-PROPUESTAS-AVALADAS.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/06/PUBLICACI%C3%93N-DE-LISTA-DE-RESULTADOS-GCCYT-RONDA1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resolucion_202-2018_Juan-Bernal-Vega.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resolucion-No211-2018_Kayla-Castillo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resolucion-No212-2018_Luis-Herrea.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resolucion-219-2018-de-Nelva-Alvarado.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Resoluci%C3%B3n-249-2018-de-Martina-Him.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Resoluci%C3%B3n-266-2018-de-Johant-Lakey-Beitia.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Resoluci%C3%B3n-275-2018-de-Abel-Batista.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/09/Resoluci%C3%B3n-273-2018-de-Ricaurte-Tu%C3%B1on.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/Resoluci%C3%B3n-352-2018-de-Rita-Spadafora.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Resoluci%C3%B3n-400-2018-de-Juan-Bernal.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Resoluci%C3%B3n-403-2018-de-Kayla-Castillo.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/05/ANUNCIO-OFICIAL-NIR2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/BASE-DE-LA-CONVOCATORIA-NIR2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/FORMULARIO-DE-EVALUACI%C3%93N-NIR2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/MODELO-CONTRATO-POR-MERITO-RESOLUCI%C3%93N-191-DE-2017-REVISADO-ABRIL-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/1.-Resoluci%C3%B3n-191-de-31-de-julio-de-2017-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/ACTA-DE-RECEPCION-DE-PROPUESTA-DE-NUEVOS-INVESTIGADORES-2018-RONDA-II.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/SUBSANACI%C3%93N-DEL-ACTA-DE-RECEPCI%C3%93N-DE-PROPUESTA-DE-NUEVOS-INVESTIGADORES-2018-RONDA-II.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/09/LISTA-DE-RESULTADOS-NI-2018-RONDA-II.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/Resoluci%C3%B3n-336-de-Pedro-Poveda.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/Resoluci%C3%B3n-346-de-Rubiela-Del-Carmen-Aguila.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/349-12-10-2018-Celia-Cede%C3%B1o.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Resoluci%C3%B3n-419-2018-de-Diana-Sanchez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Resoluci%C3%B3n-420-2018-.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Resoluci%C3%B3n-01-2019-de-Yeimisol-Madrid.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Resoluci%C3%B3n-02-2019-de-Janina-Castro.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Resoluci%C3%B3n-03-2019-de-Yineska-Otero.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Resoluci%C3%B3n-26-2019-de-Josias-Moreno.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Resoluci%C3%B3n-27-2019-de-Emilio-Romero.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Resoluci%C3%B3n-38-2019-de-Dionel-Rodr%C3%ADguez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/03/Resoluci%C3%B3n-71-2019-de-Diana-S%C3%A1nchez.pdf</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-los-programas-generacion-de-capacidades-2018-ronda-i/</t>
+          <t>https://www.senacyt.gob.pa/nuevos-investigadores-2018-ronda-ii/</t>
         </is>
       </c>
     </row>
@@ -4560,22 +4591,22 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>SUB PROGRAMA PARA INSTRUCTORES – ITSE CONVENIO SUSCRITO ENTRE SENACYT, IFARHU Y MINISTERIO DE LA PRESIDENCIA 2018</t>
+          <t>GENERACIÓN DE CAPACIDADES CIENTÍFICAS Y TECNOLÓGICAS 2018 RONDA II</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Profesionales panameños con título universitario en los campos de contabilidad, administración de empresas, comercio internacional, recursos humanos, logística y transporte, estadística, contabilidad en inglés, administración en inglés, dibujo, seguridad, topografía, construcción y acabados de construcción. Con experiencia mínima de tres (3) años en sus áreas de trabajo.  OBJETIVO: Este programa está diseñado para entrenar a profesionales panameños, mediante cursos intensivos que tendrán la finalidad de formar instructores debidamente capacitados en las categorías listadas , de forma tal que puedan impartir clases en el Instituto Técnico Superior Especializado (ITSE).  DURACIÓN: Doce (12) semanas presenciales en Centennial College, Toronto, Canadá; para contabilidad, administración de empresas, comercio internacional, logística y transporte, recursos humanos, estadística, contabilidad en inglés, administración en inglés, construcción, dibujo, seguridad, topografía y acabados de construcción. Fecha de inicio programada para los cursos: Mayo de 2018  MONTO: La beca cubrirá hasta el 100% del curso, de acuerdo a los rubros contemplados en el Reglamento de Becas IFARHU-SENACYT.  Fecha de apertura: 18 de enero 2018  Plazo para entrega: 02 de marzo 2018 hasta las 3:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Personas jurídicas con o sin fines de lucro debidamente inscrita en el Registro Público de Panamá o personas naturales de nacionalidad panameña, residentes en el país dedicadas a realizar actividades que fortalezcan el Sistema de Ciencia, Tecnología e Innovación. Las personas naturales pueden participar individualmente o afiliados a entidades públicas o privadas, universidades, organizaciones no gubernamentales, asociaciones de interés público o centros de investigación.  OBJETIVO: Proporcionar financiamiento o co-financiamiento a actividades que fortalezcan el ambiente de ciencia y tecnología, para incentivar el interés por estas áreas del conocimiento.  Fecha de apertura: 31 de mayo de 2018  Plazo para entrega: 31 de julio de 2018 (3:00 p.m. Hora exacta.) Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/01/1.Anuncio-ITSE-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Reglamento-de-Becas-Nuevo-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/2.Checklist-ITSE-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/3.Declaración-Jurada-Nueva.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/4.Perfiles-ITSE-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/5.Formulario-de-solicitud-ITSE-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/Paz-y-Salvo-ITSE-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/6.Pasos-a-Seguir-ITSE-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/04/pdf_anuncioderesultadosITSE-2018v1.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/05/ANUNCIO-OFICIAL-GCCYTR2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/BASE-DE-CONVOCATORIA-GCCYTR2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/FORMULARIO-DE-EVALUACI%C3%93N-GCCYTR2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/MODELO-CONTRATO-POR-MERITO-RESOLUCI%C3%93N-191-DE-2017-REVISADO-ABRIL-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/1.-Resoluci%C3%B3n-191-de-31-de-julio-de-2017-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/ACTA-DE-RECEPCION-DE-PROPUESTAS-GENERACION-DE-CAPACIDADES-2018-RONDA-II.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/09/LISTA-DE-RESULTADOS-GC-2018-RONDA-II.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/Resoluci%C3%B3n-333-2018-de-Aydee-Cornejo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/Resoluci%C3%B3n-337-de-Yaxelis-Mendoza.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/Resoluci%C3%B3n-342-de-Juan-Castillo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/Resoluci%C3%B3n-357-de-Boris-Gomez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Resoluci%C3%B3n-375-2018-de-Ivonne-Torres.pdf.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Resoluci%C3%B3n-420-2018-de-Guadalupe-Gonzalez.pdf.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Resoluci%C3%B3n-429-2018-de-Alexis-Tejedor.pdf.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/01/Resoluci%C3%B3n-05-2019-de-Luis-Montbeliard.pdf.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/02/Resoluci%C3%B3n-40-2019-de-UNICYT-Ulina-Mapp.pdf</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/sub-programa-para-instructores-itse-convenio-suscrito-entre-senacyt-ifarhu-y-ministerio-de-la-presidencia-2018/</t>
+          <t>https://www.senacyt.gob.pa/generacion-de-capacidades-cientificas-y-tecnologicas-2018-ronda-ii/</t>
         </is>
       </c>
     </row>
@@ -4585,22 +4616,22 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA DE LOS PROGRAMAS NUEVOS INVESTIGADORES 2018 RONDA I</t>
+          <t>CONVOCATORIA PARA LAS UNIVERSIDADES ACREDITADAS EN LA REPÚBLICA DE PANAMÁ – PROGRAMA DE MOVILIDAD ACADÉMICA</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Panameños residentes en Panamá que estén cursando los dos últimos años de la licenciatura, o cursando un posgrado, afiliados a una entidad pública, universidad, organización no gubernamental, asociaciones de interés público o personas jurídicas con o sin fines de lucro, con capacidad para realizar investigación científicas y desarrollo tecnológico e innovación.  OBJETIVO: Proporcionar financiamiento o co-financiamiento para la promover la formación de nuevos investigadores a través de apoyo para recursos directamente relacionados con su investigación en las áreas temáticas de la convocatoria.  MONTO: El financiamiento de hasta el 100% del costo de la propuesta según el monto establecido en cada categoría de evaluación separada y de acuerdo a las necesidades plenamente justificadas de la misma. 1. Categoría 1: Hasta B/. 25,000.00. 2. Categoría 2: Hasta B/. 20,000.00. 3. Categoría 3: Hasta B/. 25,000.00 4. Categoría 4: Hasta B/. 20,000.00.  Fecha de apertura: 15 de enero 2018  Plazo para entrega de propuestas: 27 de marzo 2018 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Universidades debidamente acreditadas por CONEAUPA en la República de Panamá. Cada Universidad podrá someter hasta 3 propuestas, siempre y cuando sean para sedes (campus) distintas.  OBJETIVO: Contribuir al mejoramiento de la calidad de la formación académica, mediante estancias cortas en instituciones académicas de educación superior o centros de investigación de excelencia internacional, en Panamá o en el extranjero con el propósito de incentivar la producción, difusión, vinculación y transferencia de conocimiento científico-tecnológico.  DURACIÓN: Todas las propuestas deberán desarrollarse en un período de 12 meses. Sin embargo, los Convenios que se suscriban para amparar su ejecución tendrán una duración de 18 meses contados a partir del refrendo por parte de la Contraloría General de la República.  MONTO: Hasta B/. 100,000.00 de acuerdo al programa (ver más detalles en el anuncio)  Fecha de apertura: 22 de mayo de 2018  Plazo para entrega: 20 de julio de 2018 (3:00 p.m. Hora exacta.) Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/01/1.ANUNCIO-NUEVOS-INVESTIGADORES-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/2.BASE-DE-NUEVOS-INVESTIGADORES-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/4.FORMULARIO-DE-EVALUACI%C3%93N-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/1.-Resoluci%C3%B3n-191-de-31-de-julio-de-2017-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/04/ACTA-DE-RECEPCI%C3%93N-DE-PROPUESTAS-DE-NUEVOS-INVESTIGADORES-2018-RONDA-I.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/04/RESOLUCION-DE-ADJUDICACI%C3%93N.doc118.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/LISTA-DE-RESULTADOS-DE-NUEVOS-INVESTIGADORES-2018-RONDA-I.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Resoluci%C3%B3n-230-2018-de-David-Florez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Resoluci%C3%B3n-251-2018-de-Mariana-Areiza.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Resoluci%C3%B3n-252-2018-de-Maximo-Montalvo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Resoluci%C3%B3n-257-2018-de-Euribiel-Valdes.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Resoluci%C3%B3n-278-2018-de-Leonardo-Batista.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/09/Resolucion-Administrativa-N305Antony-De-Jes%C3%BAs-Garc%C3%ADa.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/Resoluci%C3%B3n-309-2018-de-Jafeth-Carrasco.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/Resoluci%C3%B3n-310-de-Celia-Cede%C3%B1o.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/Resoluci%C3%B3n-311-de-Eneida-Senci%C3%B3n.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/349-12-10-2018-Celia-Cede%C3%B1o-1.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Programa-MOVILIDAD-ACAD%C3%89MICA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/CARTA-AVAL-MOV.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/RESOLUCI%C3%93N-MOVILIDAD-23-DE-MAYO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/FORMATO-DE-PROPUESTAS-MOV.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/FORMATO-PARA-EL-EVALUADOR-MOV.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/TABLA-APROBADA-POR-SENACYT-MOV.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/LISTA-PRIORIZADA-MOVILIDAD-ACAD%C3%89MICA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/RESOLUCI%C3%93N-ADMINISTRATIVA-FINAL-005_MovAcademica.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/RESOLUCI%C3%93N-ADMINISTRATIVA-FINAL-001_MovAcademica.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/RESOLUCI%C3%93N-ADMINISTRATIVA-FINAL-002_MovAcademica.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/RESOLUCI%C3%93N-ADMINISTRATIVA-FINAL-003_MovAcademica.pdf</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-los-programas-nuevos-investigadores-2018-ronda-i/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-para-las-universidades-acreditadas-en-la-republica-de-panama-programa-de-movilidad-academica/</t>
         </is>
       </c>
     </row>
@@ -4610,22 +4641,22 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>IV CONVOCATORIA PÚBLICA PARA LA GESTIÓN DEL PROGRAMA DE CAMPAMENTO CIENTÍFICO Y TECNOLÓGICO</t>
+          <t>CONVOCATORIA PARA LAS UNIVERSIDADES ACREDITADAS EN LA REPÚBLICA DE PANAMÁ Y CENTROS DE INVESTIGACIÓN PÚBLICOS Y PRIVADOS SIN FINES DE LUCRO- PROGRAMA DE MOVILIDAD DE INVESTIGACIÓN</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Universidades debidamente acreditadas por el CONEAUPA y a centros de investigación públicos o privados sin fines de lucro, que operen en el territorio de la República de Panamá.  OBJETIVO: Incentivar a las universidades acreditadas y centros de investigación públicos y privados sin fines de lucro para que realicen actividades que desarrollen el pensamiento crítico y las habilidades en áreas científicas de estudiantes en edades tempranas.  MONTO: Se otorgarán subsidios económicos por el monto de hasta B/.50,000.00, para cubrir los rubros listados (ver anuncio)  DURACIÓN: Todos los campamentos deberán desarrollarse en un período de 4 a 8 días, en vacaciones escolares. Sin embargo, los Contratos de Subsidio Económico que se suscriban para amparar su ejecución tendrán una duración de 9 meses contados a partir de la notificación del refrendo de la Contraloría General de la República.  Fecha de apertura: 15 de enero 2018  Plazo para entrega de propuestas: 15 de marzo 2018 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Universidades debidamente acreditadas por CONEAUPA en la República de Panamá y Centros de Investigación públicos o privados sin fines de lucro.  OBJETIVO: Contribuir al mejoramiento de la calidad de la formación de investigación, mediante estancias cortas en instituciones académicas de educación superior o centros de investigación de excelencia internacional, en Panamá o en el extranjero, así como mediante la invitación a expertos internacionales a realizar estancias cortas en unidades académicas con investigaciones en marcha y centros de investigación en Panamá, con el propósito de incentivar la producción, difusión, vinculación y transferencia de conocimiento científico-tecnológico.  DURACIÓN: Todas las propuestas deberán desarrollarse en un período de 12 meses. Sin embargo, los Convenios que se suscriban para amparar su ejecución tendrán una duración de 18 meses contados a partir del refrendo por parte de la Contraloría General de la República.  MONTO: Hasta B/. 100,000.00 de acuerdo al programa (ver más detalles en el anuncio)  Fecha de apertura: 22 de mayo de 2018  Plazo para entrega: 20 de julio de 2018 (3:00 p.m. Hora exacta.) Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/01/1.PE-CAMP-2018-Anuncio.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/2.PE-CAMP-2018-Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/3.PE-CAMP-2018-Gu%C3%ADa-de-Campamento-CYT.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/ACTA-DE-RECEPCI%C3%93N-DE-PROPUESTAS-CAMPAMENTO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/LISTA-PRIORIZADA-4ED-CAMPAMENTO-2018.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/05/ANUNCIO-PROGRAMA-MOVILIDAD-DE-INVESTIGACI%C3%93N-23-DE-MAYO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/CARTA-AVAL-UNIVERSIDADES-MOV-INV.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/RESOLUCI%C3%93N-MOVILIDAD-23-DE-MAYO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/FORMATO-DE-PROPUESTA-DE-MOVILIDAD-DE-INVESTIGACI%C3%93N-ESCANEADO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/FORMATO-PARA-EL-EVALUADOR-MOV-INVESTIGACI%C3%93N.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/TABLA-APROBADA-POR-LA-SENACYT-MOV.-DE-INVESTIGACI%C3%93N.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/LISTA-PRIORIZADA-MOVILIDAD-DE-INAVESTIGACI%C3%93N.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/resolucion_administrativa_movilidad.pdf</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/iv-convocatoria-publica-para-la-gestion-del-programa-de-campamento-cientifico-y-tecnologico/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-para-las-universidades-acreditadas-en-la-republica-de-panama-y-centros-de-investigacion-publicos-y-privados-sin-fines-de-lucro-programa-de-movilidad-de-investigacion/</t>
         </is>
       </c>
     </row>
@@ -4635,22 +4666,22 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>DOCTORADO EN INVESTIGACIÓN BIOMÉDICA Y CLÍNICA RONDA II</t>
+          <t>CONVOCATORIA PÚBLICA PARA NUEVOS MIEMBROS DEL SISTEMA NACIONAL DE INVESTIGACIÓN (SNI) DE PANAMÁ, 2018</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Médicos panameños que deseen formarse como investigadores, y den respuesta a la necesidad que tiene la sociedad a nivel nacional de médicos con formación científica que realicen investigaciones y contribuyan al diagnóstico, tratamiento, pronostico y prevención de enfermedades.  OBJETIVO: Formación de recurso humano en el área de biomédica y clínica mediante un Doctorado de Investigación Biomédica y Clínica para formar médicos investigadores.  MONTO: La beca es hasta un 100% del costo, según Anexo 1 del Convenio IFARHU-SENACYT-UP-INDICASAT AIP.  DURACIÓN: La beca tendrá una duración de tres (3) años*  Fecha de apertura: 15 de enero 2018  Plazo para entrega de propuestas: 22 de febrero 2018 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Investigadores panameños o extranjeros residentes en Panamá, o investigadores panameños residentes en el extranjero; siempre que dichos investigadores cumplan con los requisitos establecidos en el Reglamento, los Criterios Internos de Evaluación y el anuncio de la Convocatoria del SNI.  OBJETIVO: Promover la investigación científica y tecnológica y su calidad, mediante el reconocimiento de la excelencia de la labor de investigación y desarrollo científico y tecnológico de personas naturales, a través de incentivos que pueden ser distinciones o estímulos económicos, otorgados en función de la calidad, la producción, la trascendencia y del impacto de dicha labor.  Fecha de apertura: 21 de mayo de 2018  Plazo para entrega: 22 de junio de 2018 (3:00 p.m. Hora exacta.) Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/01/ANUNCIO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Reglamento-de-Becas-Nuevo-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/declaracion-Jurada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/CHECK-LIST.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/Pasos-a-seguir.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/04/Anuncio-de-resultados.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Anuncio-Nuevos-Miembros-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Ley-56-SNI-de-Panam%C3%A1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resoluci%C3%B3n-de-CDN-No.-30-de-9-de-nov.-de-2016-Reglamento-del-SNI-Gaceta-Oficial.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resoluci%C3%B3n-de-CDN-No.-02-de-26-de-abril-de-2018-Modificaciones-al-Reglamento-Gaceta-Oficial.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/C%C3%B3digo-de-%C3%89tica-del-SNI-19-de-julio-de-2016.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Objetos-de-Gastos-Permisibles-del-SNI-26-de-julio-de-2016.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Texto-%C3%9Anico-Reglamento-del-SNI-18-de-mayo-de-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resoluci%C3%B3n-de-CDN-No.-03-de-4-de-mayo-de-2018-Criterios-Internos-del-SNI-Gaceta-Oficial.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resultados-Nuevos-Miembros-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.26-Anakena-Castillo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.27-Ayde%C3%A9-Cornejo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.28-Candelario-Rodr%C3%ADguez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.29-Carlos-Gonz%C3%A1lez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.30-Carlos-Restrepo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.31-Celestino-Aguilar.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.32-Dafni-Mora.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.33-Diana-Oviedo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.34-Dionisio-Olmedo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.35-Eduardo-Ortega.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.36-Eleicer-Ching.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.37-Elida-De-Obald%C3%ADa.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.38-Eugenia-Rodr%C3%ADguez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.39-Gerald-Moncayo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.40-Gina-Della-Togna.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.41-Guillermo-Montilla.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.42-Hedley-Quintana.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.43-Iv%C3%A1n-Landires.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.44-Javier-S%C3%A1nchez-Gal%C3%A1n.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.45-Johant-Lakey.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.46-Jos%C3%A9-Su%C3%A1rez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.47-Jos%C3%A9-Rangel.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.48-Leyda-%C3%81brego.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.49-Librada-Atencio.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.50-Lorena-Coronado.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.51-Luisa-Morales.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.52-Marcelino-Guti%C3%A9rrez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.53-Mar%C3%ADa-Frende.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.54-Mario-Vega.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.55-Marta-Acosta.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.56-Nadir-Planes.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.57-Noem%C3%AD-Guerra.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.58-Paul-C%C3%B3rdoba.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.59-Reinhardt-Pinz%C3%B3n.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.60-Ricardo-Cossio.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.61-Sherlie-Portugal.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.62-Silvio-Vega.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.63-Yaxelis-Mendoza.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.64-Yila-De-La-Guardia.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.65-Yisett-Gonz%C3%A1lez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Resoluci%C3%B3n-No.-02-de-22-agosto-2018-Dr.-Ad%C3%A1n-Vega-NM.pdf</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/doctorado-en-investigacion-biomedica-y-clinica-ronda-ii/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-nuevos-miembros-del-sistema-nacional-de-investigacion-sni-de-panama-2018/</t>
         </is>
       </c>
     </row>
@@ -4660,22 +4691,22 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA PARA EL FOMENTO A NUEVOS EMPRENDIMIENTOS 2018</t>
+          <t>CONVOCATORIA PÚBLICA PARA EL TERCER REINGRESO DE MIEMBROS AL SISTEMA NACIONAL DE INVESTIGACIÓN (SNI) DE PANAMÁ 2018</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Personas naturales, de nacionalidad panameña, mayores de edad, residentes en Panamá.  OBJETIVO: Apoyar a emprendedores panameños para que desarrollen proyectos de innovación. No es obligatorio que los proyectos estén vinculados con un Centro de Emprendimiento o Incubadora.  MONTO: Subsidio económico de hasta el 100% del costo total de la propuesta, según las necesidades plenamente justificadas de la misma, hasta la suma máxima de B/. 60,000.00.  Fecha de apertura: 15 de enero 2018  Plazo para entrega de propuestas: 10 de abril 2018 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Miembros que hayan reingresado por segunda vez al SNI en la Convocatoria Pública lanzada en diciembre del año 2015, en categoría de Investigador Nacional o Investigador Distinguido, nacionales o extranjeros residentes en Panamá, siempre que dichos investigadores cumplan con los requisitos establecidos en el Reglamento, los Criterios Internos de Evaluación y el anuncio de la convocatoria del SNI.  OBJETIVO: Promover la investigación científica y tecnológica y su calidad, mediante el reconocimiento de la excelencia de la labor de investigación y desarrollo científico y tecnológico de personas naturales, a través de incentivos que pueden ser distinciones o estímulos económicos, otorgados en función de la calidad, la producción, la trascendencia y del impacto de dicha labor.  Fecha de apertura: 21 de mayo de 2018  Plazo para entrega: 22 de junio de 2018 (3:00 p.m. Hora exacta.) Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/09/1.-Resoluci%C3%B3n-191-de-31-de-julio-de-2017-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/8.Modelo-de-Contrato-por-M%C3%A9rito-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Recepci%C3%B3n-de-Propuesta.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/06/Resoluci%C3%B3n-180-Extensi%C3%B3n-de-Publicaci%C3%B3n-de-Resultados.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Publicacion-de-resulatdos-NE2018.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Anuncio-Tercer-Reingreso-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Ley-56-SNI-de-Panam%C3%A1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resoluci%C3%B3n-de-CDN-No.-30-de-9-de-nov.-de-2016-Reglamento-del-SNI-Gaceta-Oficial.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resoluci%C3%B3n-de-CDN-No.-02-de-26-de-abril-de-2018-Modificaciones-al-Reglamento-Gaceta-Oficial.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/C%C3%B3digo-de-%C3%89tica-del-SNI-19-de-julio-de-2016.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Objetos-de-Gastos-Permisibles-del-SNI-26-de-julio-de-2016.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Texto-%C3%9Anico-Reglamento-del-SNI-18-de-mayo-de-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resoluci%C3%B3n-de-CDN-No.-03-de-4-de-mayo-de-2018-Criterios-Internos-del-SNI-Gaceta-Oficial.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resultados-Tercer-Reingreso-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.10-Juan-Pascale.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.11-Osvaldo-Reyes.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.12-Paulino-Vigil.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.13-Carmenza-Spadafora.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.14-Catherina-Caballero.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Resoluci%C3%B3n-No.-01-del-22-agosto-2018-Dr.-Aaron-O%C2%B4Dea-3R.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Resoluci%C3%B3n-No.-3-de-23-de-agosto-de-2018-Dr.-Axel-Villalobos.pdf</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-fomento-a-nuevos-emprendimientos-2018/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-tercer-reingreso-de-miembros-al-sistema-nacional-de-investigacion-sni-de-panama-2018/</t>
         </is>
       </c>
     </row>
@@ -4685,22 +4716,22 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PARA EL FOMENTO A NUEVOS EMPRENDIMIENTOS: CAPITAL PARA EMPRENDIMIENTOS EN FASE DE ESCALAMIENTO 2018</t>
+          <t>CONVOCATORIA PÚBLICA PARA EL CUARTO REINGRESO DE MIEMBROS AL SISTEMA NACIONAL DE INVESTIGACIÓN (SNI) DE PANAMÁ 2018</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: • Personas naturales, de nacionalidad panameña, mayores de edad, residentes en Panamá. • Personas Jurídicas panameñas de reciente creación (con más de 6 meses y no más de 24 meses a la fecha de apertura de esta convocatoria), con ventas anuales no mayores a ciento cincuenta mil balboas (B/.150,000.00).  OBJETIVO: Apoyar la creación de nuevas empresas o el crecimiento de empresas jóvenes, de corte innovador. En ambos casos el modelo de negocio o producto propuesto debe contar con al menos un estudio completo de mercado. De tratarse de un dispositivo o aplicación informática, el proponente debe tener un primer prototipo del mismo. No es obligatorio que los proyectos estén vinculados con un Centro de Emprendimiento o Incubadora.  MONTO: El monto máximo del subsidio económico que otorgará la SENACYT es por la suma de hasta B/. 50,000.00.  Fecha de apertura: 15 de enero 2018  Plazo para entrega de propuestas: 19 de marzo 2018 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Miembros que hayan reingresado por tercera vez al SNI en la Convocatoria Pública lanzada en diciembre del año 2015, en categoría de Investigador Nacional o Investigador Distinguido, nacionales o extranjeros residentes en Panamá, siempre que dichos investigadores cumplan con los requisitos establecidos en el Reglamento, los Criterios Internos de Evaluación y el anuncio de la convocatoria del SNI.  OBJETIVO: Promover la investigación científica y tecnológica y su calidad, mediante el reconocimiento de la excelencia de la labor de investigación y desarrollo científico y tecnológico de personas naturales, a través de incentivos que pueden ser distinciones o estímulos económicos, otorgados en función de la calidad, la producción, la trascendencia y del impacto de dicha labor.  Fecha de apertura: 21 de mayo de 2018  Plazo para entrega: 22 de junio de 2018 (3:00 p.m. Hora exacta.) Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/09/1.-Resoluci%C3%B3n-191-de-31-de-julio-de-2017-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/8.-Modelo-de-Contrato-por-M%C3%A9rito-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/NEE18_Fe-de-Erratas_Requisitos.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/Recepci%C3%B3n-de-propuestas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resoluci%C3%B3n-Administrativa-No.-123-extensi%C3%B3n-fecha-de-comunicaci%C3%B3n.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Publicacion-de-resultados-NEE18.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Anuncio-Cuarto-Reingreso-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Ley-56-SNI-de-Panam%C3%A1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resoluci%C3%B3n-de-CDN-No.-30-de-9-de-nov.-de-2016-Reglamento-del-SNI-Gaceta-Oficial.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resoluci%C3%B3n-de-CDN-No.-02-de-26-de-abril-de-2018-Modificaciones-al-Reglamento-Gaceta-Oficial.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/C%C3%B3digo-de-%C3%89tica-del-SNI-19-de-julio-de-2016.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Objetos-de-Gastos-Permisibles-del-SNI-26-de-julio-de-2016.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Texto-%C3%9Anico-Reglamento-del-SNI-18-de-mayo-de-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resoluci%C3%B3n-de-CDN-No.-03-de-4-de-mayo-de-2018-Criterios-Internos-del-SNI-Gaceta-Oficial.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resultados-Cuarto-Reingreso-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.16-Sergio-Mart%C3%ADnez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.17-Xavier-S%C3%A1ez-Llorens.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.18-Richard-Cooke.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.19-Mahabir-Gupta.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.20-Luis-Cubilla.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.21-Jos%C3%A9-Calzada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.22-Azael-Salda%C3%B1a.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.23-Dora-Estripeaut.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.24-Lilia-Ch%C3%A9rigo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resoluci%C3%B3n-No.25-Nicanor-Obald%C3%ADa.pdf</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-para-el-fomento-a-nuevos-emprendimientos-capital-para-emprendimientos-en-fase-de-escalamiento-2018/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-cuarto-reingreso-de-miembros-al-sistema-nacional-de-investigacion-sni-de-panama-2018/</t>
         </is>
       </c>
     </row>
@@ -4710,22 +4741,18 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PARA EL APOYO DE ACTIVIDADES QUE FOMENTEN LA INNOVACIÓN Y EL EMPREDIMIENTO 2018</t>
+          <t>CONVOCATORIA PÚBLICA PARA EL TALLER “INTENSIVO DE CONCEPTUALIZACIÓN DE TECNOLOGÍAS PATENTABLES Y FORMULACIÓN DE SOLICITUDES DE PATENTES VÍA INTERNACIONAL” SENACYT-CAF 2018</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Sociedades anónimas, asociaciones u organizaciones con o sin fines de lucro, asociaciones de interés público, formalmente registradas en la República de Panamá, y universidades nacionales, debidamente autorizadas, que requieran apoyos totales o parciales para la organización de congresos, seminarios, talleres y cursos para promover y fomentar el desarrollo de la tecnología, la innovación y el emprendimiento. Estas podrán participar solas o en grupo.  OBJETIVO: Apoyar las actividades que impulsen y fortalezcan el desarrollo de la tecnología, la innovación y el emprendimiento, proporcionando subsidio económico, total o parcial, que propicie valor agregado, capacitación e impacto a los participantes.  MONTOS: • Categoría 1: Subsidio económico de hasta el 100% del costo total de la propuesta, según las necesidades plenamente justificadas de la misma, hasta la suma máxima de B/. 25,000.00, sin embargo, este subsidio económico no debe cubrir más del 75% del costo total del evento • Categoría 2: Subsidio económico de hasta el 100% del costo total de la propuesta, según las necesidades plenamente justificadas de la misma, hasta la suma máxima de B/. 50,000.00. • Categoría 3: Subsidio económico de hasta el 100% del costo total de la propuesta, según las necesidades plenamente justificadas de la misma, hasta la suma máxima de B/. 10,000.00. • Categoría 4: Subsidio económico de hasta el 100% del costo total de la propuesta, según las necesidades plenamente justificadas de la misma, hasta la suma máxima de B/. 15,000.00. • Categoría 5: Subsidio económico de hasta el 90% del costo total de la propuesta, según las necesidades plenamente justificadas de la misma, hasta la suma máxima de B/. 100,000.00. Fecha de apertura: 15 de enero 2018  Plazo para entrega de propuestas: 19 de marzo 2018 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/09/1.-Resoluci%C3%B3n-191-de-31-de-julio-de-2017-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/8.Modelo-de-Contrato-por-Mérito-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/04/propuesta-recibidas-de-apoyo-para-publicación.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resolución-No.121-de-3-de-mayo-de-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Publicacion-de-resultados-AAIE18.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/11/Resolución-de-Adjudicación-No.371-de-24-de-octubre-de-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/11/Resolución-de-Adjudicación-No.385-de-01-de-noviembre-de-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/11/Resolucion-de-Adjudicacion-No.388-de-nov2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/11/Resolucion-de-Adjudicacion-No.390-de-6-noviembre-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/11/Resolucion-de-Adjudicacion-No.39612-noviembre-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/11/Resolucion-de-Adjudicacion-N399_19-noviembre-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Resolución-de-Adjudicación-No.418-de-13-de-diciembre-de-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/Resolución-Administrativa-No.118-de-3-de-mayo-de-20191.pdf</t>
-        </is>
-      </c>
+          <t>DIRIGIDO A: Entidades Académicas Estatales, Centro de Investigación, Empresas Públicas o Privadas panameñas, con o sin fines de lucro y Entidades Estatales. Los estudiantes universitarios y las personas naturales de nacionalidad panameña que estén interesados en participar deben estar afiliados a una de las entidades detalladas en el Dirigido de este Anuncio. OBJETIVO: Desarrollar la capacidad institucional y empresarial en la conceptualización acelerada de tecnologías innovadoras y en la redacción de solicitudes de patentes orientadas a mercados internacionales. Fecha de apertura: 21 de mayo de 2018  Plazo para entrega: 25 de junio de 2018 (3:00 p.m. Hora exacta.) Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-para-el-apoyo-de-actividades-que-fomenten-la-innovacion-y-el-empredimiento-2018/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-taller-intensivo-de-conceptualizacion-de-tecnologias-patentables-y-formulacion-de-solicitudes-de-patentes-via-internacional-senacyt-caf-2018/</t>
         </is>
       </c>
     </row>
@@ -4735,22 +4762,22 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>CONVOCATORIA DE DOCTORADO DE INVESTIGACIÓN RONDA I, 2018</t>
+          <t>CONVOCATORIA PÚBLICA DE FORTALECIMIENTO A EQUIPAMIENTO E INSTRUMENTACIÓN ESPECIALIZADO PARA ACTIVIDADES DE I+D (EIE) 2018</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Panameños que deseen formarse como investigadores en centros de estudios de excelencia en el extranjero o que ya se encuentren estudiando un doctorado de investigación en centros de estudio de excelencia en el extranjero.  OBJETIVO: Este programa tiene como objetivo la formación de investigadores para la República de Panamá, que garanticen el incremento del capital humano con altas capacidades para actividades científicas y tecnológicas.  MONTO: Las becas podrán tener una asignación anual de hasta B/. 60,000.00. El presupuesto se elaborará según los rubros y la tabla de asignación de fondos publicada en la página web de la SENACYT.  DURACIÓN: La beca tendrá una duración de hasta cuatro (4) años si el beneficiario posee grado de maestría y hasta seis (6) años si el beneficiario no posee grado de maestría.  Fecha de apertura: 15 de enero 2018  Plazo para entrega de propuestas: 17 de abril 2018 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Son elegibles para participar instituciones que realicen investigación, constituidas como entidades públicas, centros de docencia superior sin fines de lucro, acreditadas por el CONEAUPA y asociaciones de interés público, debidamente domiciliadas en Panamá.  OBJETIVO: Dotar con equipos e instrumentos especializados a centros o laboratorios orientados a realizar actividades de I+D, que permita establecer o mejorar sus capacidades elevando su competitividad científica, a través de una misión/visión a mediano y largo plazo de impacto al sistema de Ciencia, Tecnología e Innovación de Panamá.  MONTO: El financiamiento podrá ser de hasta Quinientos Mil Balboas (B/.500,000.00) de la totalidad del Proyecto. Las propuestas seleccionadas podrán ser financiadas por recursos del BID.  Fecha de apertura: 31 de enero 2018  Plazo para entrega de propuestas: 23 de abril 2018 hasta la 1:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/01/BIDP-I-2018-ANUNCIO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Reglamento-de-Becas-Nuevo-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/BIDP-I-2018-CHECK-LIST.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/BIDP-I-2018-pasos.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/TABLA-DE-BECAS-PARA-PUBLICAR.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Anuncio-de-Resultados-Doctorado-de-Investigación.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/01/2.-Bases-de-la-convocatoria-EIE18.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/3.-Clasificación-de-las-ciencias-según-Frascatti.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/4.-PENCYT-2015-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/6.-Formulario-evaluación-EIE18.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/1.-Resoluci%C3%B3n-191-de-31-de-julio-de-2017-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/11.-Modelo-de-Contrato-por-Mérito.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Listado-de-Propuestas-Recibidas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resolucion-Administrativa-196-B-extensión-de-tiempo-EIE18.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Lista-de-Publicacion-de-Resultados-EIE2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/09/Resolución-de-Adjudicación-303.-EIE18-007.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/09/Resolución-Administrativa-N306.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/09/Resolución-Administrativa-N307.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/09/Resolución-de-Adjudicación-N313-EIE18-004.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/Resolución-de-Adjudicación-328_EIE18-003.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/Resolución-Administrativa-347_EIE18.pdf</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-de-doctorado-de-investigacion-ronda-i-2018/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-fortalecimiento-a-equipamiento-e-instrumentacion-especializado-para-actividades-de-id-eie-2018/</t>
         </is>
       </c>
     </row>
@@ -4760,22 +4787,22 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>CONVOCATORIA DE DOCTORADO PARA FORMAR INVESTIGADORES PARA UNIVERSIDADES, CENTROS DE INVESTIGACIÓN O LABORATORIOS DE INTERÉS NACIONAL RONDA I, 2018</t>
+          <t>CONVOCATORIA PÚBLICA PARA LAS UNIVERSIDADES GESTORAS DEL PROGRAMA PISTA</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Profesores o Investigadores panameños vinculados a universidades, centros de investigación o laboratorios de interés nacional ubicados en Panamá, que se desempeñen en las áreas de ciencia y tecnología. El doctorado debe realizarse en un centro internacional de reconocida excelencia.  OBJETIVO: Fortalecer la planta docente y profesional de las universidades, centros de investigación y laboratorios de interés nacional ubicados en Panamá.  MONTO: Las becas podrán tener una asignación anual de hasta B/. 60,000.00. El presupuesto se elaborará según los rubros y la tabla de asignación de fondos publicada en la página web de la SENACYT.  DURACIÓN: La beca tendrá una duración de hasta cuatro (4) años si el beneficiario posee grado de maestría y hasta seis (6) años si el beneficiario no posee grado de maestría.  Fecha de apertura: 15 de enero 2018  Plazo para entrega de propuestas: 17 de abril 2018 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Universidades oficiales o privadas, debidamente acreditadas, que operen en el territorio de la República de Panamá.  OBJETIVO: Seleccionar a Universidades oficiales o privadas, debidamente acreditadas en Panamá, para gestionar el programa PISTA, con la finalidad de detectar, desarrollar y dar seguimiento a niños y jóvenes panameños con talento académico, a través de un programa de enriquecimiento extracurricular de formación integral. Esta Convocatoria esta diseñada para que se pueda atender jóvenes con talento académico que cursen de séptimo hasta noveno grado.  DURACIÓN: Las Universidades deberán desarrollar el programa PISTA en un período de treinta y seis (36) meses. Sin embargo, los Convenios de Colaboración Educativa que suscriban con la SENACYT para amparar la ejecución del programa PISTA tendrán una duración de cuarenta y dos (42) meses contados a partir de la notificación del refrendo del Convenio.  MONTO: Hasta un monto de B/.480,000.00 (ver detalles)  Fecha de apertura: 19 de abril de 2018  Plazo para entrega: 19 de julio de 2018 (3:00 p.m. Hora exacta.) Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/01/BEPDE-I-2018-Anuncio.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Reglamento-de-Becas-Nuevo-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/BEPDE-I-2018-Declaración-Jurada-Nueva.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/BEPDE-I-2018-CHECK-LIST.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/BEPDE-I-2018-Pasos-a-seguir.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/TABLA-DE-BECAS-PARA-PUBLICAR.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Anuncio-de-Resultados-Doctorado-Excelencia.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/04/ANUNCIO-aprobado-por-Legal.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/04/Manual-PISTA-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/04/Formulario-de-Evaluacion-PISTA-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/04/Resoluci%C3%B3n-Administrativa-N%C2%B085.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/04/Resoluci%C3%B3n-Administrativa-N%C2%B0142.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/04/Resoluci%C3%B3n-de-Junta-Administrativa-No.-32.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Acta-de-Recepci%C3%B3n-de-Propuestas-PISTA-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Resultados-de-la-Convocatoria-P%C3%BAblica-para-las-Universidades-Gestoras-del-Programa-PISTA.pdf</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-de-doctorado-para-formar-investigadores-para-universidades-centros-de-investigacion-o-laboratorios-de-interes-nacional-ronda-i-2018/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-las-universidades-gestoras-del-programa-pista/</t>
         </is>
       </c>
     </row>
@@ -4785,22 +4812,22 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>MAESTRÍA EN EDUCACIÓN 2018</t>
+          <t>CONVOCATORIA PÚBLICA DE APOYO AL FORTALECIMIENTO DE CENTROS DE PENSAMIENTO NACIONAL 2018</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Panameños que posean título universitario de licenciatura expedido por una universidad nacional o extranjera, reconocida por la entidad competente en Panamá.  OBJETIVO: Este programa está diseñado para fortalecer los conocimientos generales y especializados, apoyando a la formación de profesionales en todos los ámbitos, capaces de investigar y diseñar los sistemas productivos necesarios para suplir las necesidades prioritarias e inmediatas del país.  MONTO: Financiamiento de hasta B/. 60,000.00 por año de acuerdo a disponibilidad presupuestaria de la SENACYT.  DURACIÓN: Estas becas tendrán una duración de hasta dos (2) años o de acuerdo al plan de estudio.  Fecha de apertura: 15 de enero 2018  Plazo para entrega de propuestas: 27 de marzo 2018 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Organizaciones que realicen investigación orientada a las políticas públicas, constituidas como instituciones académicas públicas o privadas debidamente reconocidas por el organismo nacional de acreditación, centros de investigación públicos o privados, asociaciones de interés público, fundaciones de interés privado sin fines de lucro u organizaciones no gubernamentales; domiciliadas en Panamá y con capacidad para realizar investigación científica, desarrollo tecnológico o innovación.  DURACIÓN: Hasta treinta y seis (36) meses.  MONTOS: Hasta noventa mil balboas (B/.90,000.00)  Fecha de Apertura: 4 de abril de 2018  Plazo para entrega de intención de propuestas: 30 de abril de 2018  Sesión de inducción: 10 y 11 de mayo de 2018  Plazo para entrega de propuestas: 15 de junio de 2018 (3:00 p.m. hora exacta.) Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/01/Anuncio-de-Educación-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Reglamento-de-Becas-Nuevo-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/BEPDE-III-Declaración-Jurada-Nueva-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/Formulario-de-IFARHU.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/TABLA-DE-BECAS-PARA-PUBLICAR.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/09/1.-Resoluci%C3%B3n-191-de-31-de-julio-de-2017-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/04/08-Modelo-de-contrato-por-m%C3%A9rito.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/04/09-PENCYT-2015-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Acta-de-Intenciones-de-Propuesta-CENPEN2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/06/Lista-de-propuestas-recibidas-APY-CENPEN-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Lista-de-Resultados-CENPEN2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/RA-320-Centros-de-Pensamiento2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/RA-321-Centros-de-Pensamiento2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/RESOLUCI%C3%93N-ADM.-324_CPN2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/Resoluci%C3%B3n-administrativa-No.-348.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/Resolucio%CC%81n-Administrativa-No.-370.pdf</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/maestria-en-educacion-2018/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-apoyo-al-fortalecimiento-de-centros-de-pensamiento-nacional-2018/</t>
         </is>
       </c>
     </row>
@@ -4810,22 +4837,22 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>CONVOCATORIA DE MAESTRÍA EN ÁREAS ESPECÍFICAS O DE PRIORIDAD IDENTIFICADAS POR LA ACP, 2018</t>
+          <t>CONVOCATORIA DE BECAS DE PREGRADO DE EXCELENCIA PARA COLEGIOS OFICIALES, 2018</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Panameños con grado de licenciatura o equivalente, interesados en realizar estudios de maestría en las áreas establecidas en el anuncio de la convocatoria.  OBJETIVO: Mejorar la calidad de la gestión del Sistema Nacional de la Ciencia y Tecnología, mediante la formación profesional.  MONTO: Financiamiento de hasta B/. 60,000.00 por año de acuerdo a disponibilidad presupuestaria de la SENACYT.  DURACIÓN: Estas becas tendrán una duración de hasta dos (2) años o de acuerdo al plan de estudio.  Fecha de apertura: 15 de enero 2018  Plazo para entrega de propuestas: 27 de marzo 2018 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Estudiantes panameños que posean título de bachiller o estén cursando el último periodo del último año del bachillerato, en un centro de estudios de educación media oficial en Panamá, con la intención de realizar estudios en la Universidad de Waterloo o en la Universidad de Ontario, Canadá.  OBJETIVO: Fortalecer al país en áreas de Ciencia, Tecnología e Investigación para contar con profesionales con formación en centros de excelencia y en áreas claves para el desarrollo del país.  MONTO: Las becas de este Programa tendrán una asignación anual de hasta Sesenta Mil Balboas con 00/100 (B/. 60,000.00) y la asignación total no podrá exceder la suma de Doscientos Cincuenta Mil Balboas con 00/100 (B/. 250,000.00). También se podrán dar becas parciales.  DURACIÓN: La beca tendrá la duración de acuerdo al Plan de Estudio de la Licenciatura. Este Programa contempla la formación del idioma Inglés y nivelación académica por un periodo de hasta un (1) año adicional.  Fecha de apertura: 15 de enero 2018  Plazo para entrega de propuestas: 6 de marzo 2018 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/01/Anuncio-ACP-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Reglamento-de-Becas-Nuevo-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/Copia-de-ChecList_ACP.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/Declaración-Jurada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/Formulario-de-IFARHU.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/SENACYT-IFARHU-ACP-Convocatoria-2018-PARA-PUBLICAR.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/04/ANUNCIO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/04/DECLARACION-JURADA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/04/REGLAMENTO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/ACTA-DE-CIERRE-DE-APLICACIONES-RECIBIDAS_IBS2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/ANUNCIO-DE-RESULTADOS_IB18.pdf</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-de-maestria-en-areas-especificas-o-de-prioridad-identificadas-por-la-acp-2018/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-de-becas-de-pregrado-de-excelencia-para-colegios-oficiales-2018/</t>
         </is>
       </c>
     </row>
@@ -4835,22 +4862,22 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>II RONDA DE LA CONVOCATORIA PARA LAS UNIVERSIDADES ACREDITADAS EN LA REPÚBLICA DE PANAMÁ PARA PRESENTACIÓN DE PROPUESTAS DE PROGRAMAS DE MAESTRÍAS DE INVESTIGACIÓN NUEVAS 2017</t>
+          <t>CONVOCATORIA PÚBLICA DEL PROGRAMA DE INSERCIÓN DE BECARIOS 2018</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Universidades debidamente acreditadas por CONEAUPA en la República de Panamá con programas de postgrado presenciales de tiempo completo.  DURACIÓN: Todos los programas académicos deberán desarrollarse en un período de 24 meses. Sin embargo, los Convenios de Colaboración Educativa que se suscriban para amparar su ejecución tendrán una duración de hasta 36 meses contados a partir del refrendo por parte de la Contraloría General de la República.  MONTO: Hasta B/. 340,000.00 de acuerdo al programa propuesto.  Fecha de apertura: 29 de noviembre 2017  Plazo para entrega de propuestas: 17 de abril de 2018 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Profesionales que hayan obtenido su grado de doctorado a través de los Programas de Becas financiados por la SENACYT y que quieran insertarse en el mercado laboral de la República de Panamá, en institutos, centros de investigación, universidades, instituciones públicas o empresas privadas, que hayan suscrito Convenio con la SENACYT. En esta Convocatoria podrán participar los ex becarios de la SENACYT que hayan retornado al país en el período de junio de 2017 a junio de 2018.  DURACIÓN: La duración del subsidio económico brindado por la SENACYT a las Instituciones Participantes será de máximo tres (3) años, por cada beneficiario del Programa.  COMPENSACIÓN SALARIAL: La compensación salarial que pagarán las Instituciones Participantes a los ex becarios de la SENACYT seleccionados en esta Convocatoria, en adelante Beneficiarios, será por un monto bruto no menor a Dos Mil Quinientos Balboas con 00/100 (B/. 2,500.00) mensuales. La SENACYT otorgará subsidios económicos a las Instituciones Participantes, según lo establecido en los Convenios de Cooperación suscritos con la SENACYT.  Fecha de apertura: 04 de abril de 2018  Plazo para entrega: 31 de julio de 2018 (3:00 p.m. Hora exacta.) Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/11/1.Anuncio-Maestr%C3%ADas-de-Investigaci%C3%B3n-Nuevas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/2.Gaceta-Oficial-de-Programa-de-Posgrados-Nacionales.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/3.Resoluci%C3%B3n-09-del-20-de-abril-del-2017-para-Maestr%C3%ADas-de-Investigaci%C3%B3n-Nuevas-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/5.Formulario-del-Evaluador.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/Resoluci%C3%B3n-de-Extensi%C3%B3n-Maestr%C3%ADas-de-Investigaci%C3%B3n-Nuevas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/04/Acta-de-Recepci%C3%B3n-de-propuesta-II-RONDA-DE-LA-CONVOCATORIA-PARA-LAS-UNIVERSIDADES-ACREDITADAS-EN-LA-REP%C3%9ABLICA-DE-PANAM%C3%81.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resultados-de-Convocatoria-UAR2.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/04/ANUNCIO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/04/DECLARACION-JURADA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/04/REGLAMENTO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/ACTA-DE-CIERRE-DE-APLICACIONES-RECIBIDAS_IBS2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/ANUNCIO-DE-RESULTADOS_IB18.pdf</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/ii-ronda-de-la-convocatoria-para-las-universidades-acreditadas-en-la-republica-de-panama-para-presentacion-de-propuestas-de-programas-de-maestrias-de-investigacion-nuevas-2017/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-del-programa-de-insercion-de-becarios-2018/</t>
         </is>
       </c>
     </row>
@@ -4860,22 +4887,22 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>PREMIO NACIONAL DE INNOVACIÓN EMPRESARIAL 2018</t>
+          <t>CONVOCATORIA CONTINUA DE FOMENTO A LA INSERCIÓN DE TALENTO ESPECIALIZADO (ITE) 2018</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>OBJETIVO: Promover y fortalecer la capacidad de innovación en las empresas de Panamá mediante el reconocimiento de actividades exitosamente probadas de innovación empresarial.  Fecha de apertura: 29 de noviembre 2017  Cierre de recepción de propuestas: 24 de enero de 2018 Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Exbecarios panameños de los Programas de Becas Doctorales de IFARHU-SENACYT u otros programas doctorales de investigación, que hayan finalizado sus estudios en el período desde el año 2013 hasta las fechas de cierre de esta Convocatoria. OBJETIVO: Favorecer el desarrollo inicial de actividades de I+D a panameños que finalizaron sus estudios en programas de doctorado en investigación en el período desde el año 2013 a las fechas de cierre de esta Convocatoria, a fin de impulsar sus actividades de investigación y desarrollo en una universidad, institución de investigación, u otro centro del sector público o privado, con capacidad de llevar a cabo investigación y desarrollo científico o tecnológico. MONTO: La SENACYT financiará hasta Sesenta Mil Balboas (B/.60,000.00) de la totalidad del proyecto. El fondo constituye un capital semilla que permitirá al doctor desarrollar investigaciones en ciencia básica, investigación aplicada y/o desarrollo tecnológico. Los proponentes deben asegurarse que la distribución de fondos de su propuesta, aplique a los objetos de gasto acorde al objetivo del Programa de Fomento a la Investigación y Desarrollo. Es responsabilidad del proponente sustentar los méritos científicos y el impacto de la propuesta que justifica la solicitud de fondos. DURACIÓN: Los proyectos adjudicados podrán tener una duración de hasta dos (2) años. Fecha de apertura: 15 de enero 2018 Plazo para entrega de propuestas (primera ronda): 30 de marzo 2018 hasta la 1:00 p.m. hora exacta. Plazo para entrega de propuestas (segunda ronda): 12 de junio 2018 hasta la 1:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Reglamento-PNIE-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Formulario-de-Evaluaci%C3%B3n-de-Propuesta-PNIE-2018.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/02/0.-Afiche.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/2.-Bases-de-la-Convocatoria.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/4.-Formulario-de-Evalución.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/1.-Resoluci%C3%B3n-191-de-31-de-julio-de-2017-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/7.-Modelo-de-Contrato-por-Mérito.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/10.-PENCYT-2015-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/11.-Clasificacion-Ciencias.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/02/Resolución-Administrativa-No.-49.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/04/LISTADO-DE-PROPUESTAS-RECIBIDAS.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/RESOLUCIÓN-ADMINISTRATIVA-No.-155.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/06/LISTA-DE-RESULTADOS-ITE18-R1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/Resolución-Administrativa-No.-151.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/Resolución-Administrativa-No.-152.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Resolución-Administrativa-No.-176-de-27-de-mayo-de-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/01/ResolucionAdminitrativaNo039.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/LISTADO-DE-PROPUESTAS-RECIBIDAS-ITE18-R2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resolucion-Administrativa-No225.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/LISTA-DE-RESULTADOS_ITE2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/Resolución-Administrativa-No.-120.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/Resolución-Administrativa-No.-130.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/Resolución-Administratiga-No.-131.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/Resolución-Administrativa-No.-161.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/Resolución-Administrativa-No.-162.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Resolución-Administrativa-No.-167.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Resolución-Administrativa-No.-175.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Resolución-Administrativa-No.-197.pdf</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/premio-nacional-de-innovacion-empresarial-2018/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-continua-de-fomento-a-la-insercion-de-talento-especializado-ite-2018/</t>
         </is>
       </c>
     </row>
@@ -4885,18 +4912,22 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>PROGRAMA DE JÓVENES CIENTÍFICOS 2018.</t>
+          <t>CONVOCATORIA PÚBLICA PARA UNIVERSIDADES ACREDITADAS EN LA REPÚBLICA DE PANAMÁ 2018</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Jóvenes estudiantes panameños pertenecientes al sistema educativo nacional que se encuentren cursando entre octavo y duodécimo grado, que deseen realizar investigaciones científicas.  MONTOS: Se otorgará un subsidio económico de B/.700.00 para la compra y/o utilización de insumos científicos y otros gastos de operación no disponibles y que sean imprescindibles para alcanzar los objetivos del proyecto de investigación. Este subsidio será entregado, en un solo desembolso, al Adulto Coordinador que se encuentre designado en el Formulario de Aplicación.  Fecha de apertura: 20 de Octubre 2017  Plazo para entrega: 18 de Enero 2018 hasta las 3:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr"/>
+          <t>DIRIGIDO A: Universidades debidamente acreditadas por el CONEAUPA en la República de Panamá con programas de Postgrado presenciales de tiempo completo.  OBJETIVO: Fortalecer la capacidad nacional de investigación, fomentar la generación de conocimiento y estimular su proyección hacia la sociedad por medio de la formación de los recursos humanos necesarios para el desarrollo de la ciencia, la tecnología y la innovación, con la ejecución de programas de postgrado a tiempo completo, cuyos beneficiarios se dediquen a tiempo completo y de manera exclusiva a culminar sus estudios.  DURACIÓN: Todos los programas académicos deberán desarrollarse en un período de 24 meses. Sin embargo los convenios de colaboración educativa que se suscriban para amparar su ejecución tendrán una duración de 36 meses contados a partir del refrendo por parte de la Contraloría General de la República.  Fecha de Apertura: 15 de febrero 2018  Plazo para entrega de propuestas: 17 de abril 2018 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/02/1.-Anuncio-Publicitario.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/02/2.-Gaceta-Oficial.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/02/3.-Checklist.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/02/6.-FORMULARIO-EVALUADOR-PROPUESTA-120117.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Acta-de-Recepcion_UA2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/06/Resultados-de-la-Convocatoria-P%C3%BAblica-para-las-Universidades-Acreditadas-en-la-Rep%C3%BAblica-de-Panam%C3%A1-para-Maestr%C3%ADas-consolidadas-y-acreditadas.pdf</t>
+        </is>
+      </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/programa-de-jovenes-cientificos-2018/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-universidades-acreditadas-en-la-republica-de-panama-2018/</t>
         </is>
       </c>
     </row>
@@ -4906,22 +4937,22 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>SUB PROGRAMA PARA INSTRUCTORES – ITSE CONVENIO SUSCRITO ENTRE SENACYT, IFARHU Y MINISTERIO DE LA PRESIDENCIA</t>
+          <t>CONVOCATORIA PÚBLICA DE I+D ORIENTADA POR MISIÓN EN SALUD (IOMS) 2018</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Profesionales panameños con título universitario en los campos de refrigeración/aire acondicionado, mecánica automotriz, mantenimiento industrial, hotelería, turismo y artes culinarias con experiencia mínima de 5 años en sus áreas de trabajo.  MONTOS: La beca cubrirá hasta el 100% del curso, de acuerdo a los rubros contemplado en el reglamento de Becas IFARHU-SENACYT.  Fecha de apertura: 16 de octubre 2017  Plazo para entrega: 24 de Noviembre 2017 hasta las 3:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Grupos de Investigación Interdisciplinarios, con interés específico en los temas de esta convocatoria, representados por: entidades públicas, personas jurídicas sin fines de lucro, organizaciones no gubernamentales o asociaciones de interés público.  OBJETIVO: Impulsar a los grupos de Investigación Interdisciplinario para que, a través del conocimiento científico y tecnológico, generen evidencia que facilite la implementación de soluciones a las problemáticas identificadas en la Agenda Nacional de Prioridades de Investigación e Innovación para la Salud (ANPIS) 2016-2025.  MONTO: El financiamiento podrá ser de hasta Doscientos Cincuenta Mil balboas (B/.250,000.00) de la totalidad del Proyecto. Las propuestas seleccionadas podrán ser financiadas con recursos del BID.  Fecha de Apertura: 31 de enero 2018  Plazo para entrega de propuestas: 23 de abril 2018 hasta la 1:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Anuncio-ITSE.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Declaración-Jurada-Nueva.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Pasos-a-Seguir-ITSE-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Perfiles-Convocatoria-I-Senacyt.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Reglamento-de-Becas-Nuevo-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/12/Anuncio-de-resultados-ITSE-2017.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/02/2.-Base-de-la-Convocatoria-IOMS18-final.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/3.-ANPIS.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/5.-Formulario-de-Evaluación-IOMS18.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/1.-Resoluci%C3%B3n-191-de-31-de-julio-de-2017-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/10.-Modelo-de-Contrato-por-Mérito.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/1.a.-Listado-de-Propuestas-Recibidas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resolucion-Administrativa-196-A-extensión-de-tiempo-IOMS18.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Lista-de-Resultados-IOMS-18.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/Resolución-de-Adjudicación-327_IOMS18-001.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/06/Resolución-de-Adjudicación-IOMS18-016.pdf</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/sub-programa-para-instructores-itse-convenio-suscrito-entre-senacyt-ifarhu-y-ministerio-de-la-presidencia/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-id-orientada-por-mision-en-salud-ioms-2018/</t>
         </is>
       </c>
     </row>
@@ -4931,22 +4962,22 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA PARA EL REINGRESO DE MIEMBROS AL SISTEMA NACIONAL DE INVESTIGACIÓN (SNI) DE PANAMÁ 2017</t>
+          <t>CONVOCATORIA PÚBLICA DE LOS PROGRAMAS GENERACIÓN DE CAPACIDADES 2018 RONDA I</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Miembros actuales del SNI, que hayan ingresado al Sistema en la Convocatoria Pública de abril del 2014, en la categoría de Investigador Nacional o Investigador Distinguido. Siempre que dichos investigadores cumplan con los requisitos y criterios de evaluación del SNI.  Fecha de apertura: 5 de octubre 2016  Fecha límite de entrega de solicitud: 28 de abril de 2017 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Personas jurídicas con o sin fines de lucro debidamente inscrita en el Registro Público de Panamá o personas naturales de nacionalidad panameña, residentes en el país dedicadas a realizar actividades que fortalezcan el Sistema de Ciencia, Tecnología e Innovación. Las personas naturales pueden participar individualmente o afiliados a entidades públicas o privadas, universidades, organizaciones no gubernamentales, asociaciones de interés público o centros de investigación.  OBJETIVO: Proporcionar financiamiento o co-financiamiento a actividades que fortalezcan el ambiente de ciencia y tecnología, para incentivar el interés por estas áreas del conocimiento.  MONTO: El financiamiento de hasta el 100% del costo de la propuesta según el monto establecido en cada categoría de evaluación separada y de acuerdo a las necesidades plenamente justificadas de la misma. 1. Categoría 1: Hasta B/. 10,000.00. 2. Categoría 2: Hasta B/. 15,000.00. 3. Categoría 3: Hasta B/. 10,000.00 4. Categoría 4: Hasta B/. 15,000.00. 5. Categoría 5: Hasta B/. 7,000.00.  Fecha de apertura: 18 de enero 2018  Plazo para entrega de propuestas: 20 de marzo 2018 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Reingreso1-SNI-2017/criterios-internos-sni-areaI.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Reingreso1-SNI-2017/criterios-internos-sni-areaII.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Reingreso1-SNI-2017/criterios-internos-sni-areaIII.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Reingreso1-SNI-2017/criterios-internos-sni-areaIV.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/Formulario-de-evaluaci%C3%B3n-R2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Reingreso1-SNI-2017/ley56-sni-panama.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Reingreso1-SNI-2017/reglamento-sni.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Reingreso1-SNI-2017/anuncio-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Anuncio-de-Resultados-Reingreso-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Resoluci%C3%B3n-de-respuesta-al-Recurso-de-Reconsideraci%C3%B3n-Dr.-Reinhardt-Pinz%C3%B3n.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-24-Dr.-Jose-Gonz%C3%A1lez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-25-Dra.-Sandra-L%C3%B3pez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-26-Dra.-Maritza-Bravo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-27-Dra.-Virginia-Nu%C3%B1ez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-28-Dr.-Eric-Flores.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-29-Dr.-Lorenzo-C%C3%A1ceres.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-30-Dra.-Claudia-Rengifo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-31-Dr.-Jos%C3%A9-F%C3%A1brega.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-32-Dr.-Miguel-Vargas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-33-Dr.-Jos%C3%A9-Rios-Yuil.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-34-Dr.-Ricardo-Lleonart.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-35-Dr.-Manuel-Jim%C3%A9nez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-36-Dr.-Vladimir-Villarreal.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-37-Dr.-Rolando-Gittens.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-38-Dr.-Rito-Herrera.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-39-Dr.-Carlos-R%C3%ADos.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-40-Dra.-Evelyn-Quir%C3%B3s.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-41-Dr.-Armando-Durant.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/01/1.ANUNCIO-GENERACION-DE-CAPACIDADES-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/2.BASE-DE-GENERACION-DE-CAPACIDADES-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/4.FORMULARIO-DE-EVALUACI%C3%93N-2018-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/1.-Resoluci%C3%B3n-191-de-31-de-julio-de-2017-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/ACTA-DE-RECEPCI%C3%93N-DE-PROPUESTA-GENERACI%C3%93N-DE-CAPACIDADES-2018-RONDA-I.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/RESOLUCION-DE-EXTENSION-DE-PROPUESTAS-AVALADAS.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/06/PUBLICACI%C3%93N-DE-LISTA-DE-RESULTADOS-GCCYT-RONDA1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resolucion_202-2018_Juan-Bernal-Vega.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resolucion-No211-2018_Kayla-Castillo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resolucion-No212-2018_Luis-Herrea.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resolucion-219-2018-de-Nelva-Alvarado.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Resoluci%C3%B3n-249-2018-de-Martina-Him.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Resoluci%C3%B3n-266-2018-de-Johant-Lakey-Beitia.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Resoluci%C3%B3n-275-2018-de-Abel-Batista.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/09/Resoluci%C3%B3n-273-2018-de-Ricaurte-Tu%C3%B1on.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/Resoluci%C3%B3n-352-2018-de-Rita-Spadafora.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Resoluci%C3%B3n-400-2018-de-Juan-Bernal.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Resoluci%C3%B3n-403-2018-de-Kayla-Castillo.pdf</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-reingreso-de-miembros-al-sistema-nacional-de-investigacion-sni-de-panama-2017/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-los-programas-generacion-de-capacidades-2018-ronda-i/</t>
         </is>
       </c>
     </row>
@@ -4956,22 +4987,22 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA DE FOMENTO A I+D (FID) 2017</t>
+          <t>SUB PROGRAMA PARA INSTRUCTORES – ITSE CONVENIO SUSCRITO ENTRE SENACYT, IFARHU Y MINISTERIO DE LA PRESIDENCIA 2018</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Personas naturales o jurídicas, en calidad de investigadores o grupos de investigación, individuales o afiliados, de entidades públicas, empresas privadas, universidades, escuelas técnicas, organizaciones no gubernamentales, laboratorios y demás entidades, con o sin fines de lucro, con capacidad de llevar a cabo investigación básica, aplicada o desarrollo tecnológico.  DURACIÓN: Los proyectos adjudicados podrán tener una duración de hasta dos (2) años. (En casos excepcionales y debidamente justificados podrán extenderse hasta 36 meses).  MONTOS: A. MODALIDAD DE INVESTIGADORES: Hasta B/. 60,000.00; B. MODALIDAD DE GRUPOS DE INVESTIGACIÓN: Hasta B/. 100,000.00; C. MODALIDAD DE COLABORACIÓN INTERNACIONAL: Hasta B/. 120,000.00  Fecha de apertura: 26 de Septiembre de 2017  Plazo para entrega: 30 de Noviembre 2017 hasta las 1:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Profesionales panameños con título universitario en los campos de contabilidad, administración de empresas, comercio internacional, recursos humanos, logística y transporte, estadística, contabilidad en inglés, administración en inglés, dibujo, seguridad, topografía, construcción y acabados de construcción. Con experiencia mínima de tres (3) años en sus áreas de trabajo.  OBJETIVO: Este programa está diseñado para entrenar a profesionales panameños, mediante cursos intensivos que tendrán la finalidad de formar instructores debidamente capacitados en las categorías listadas , de forma tal que puedan impartir clases en el Instituto Técnico Superior Especializado (ITSE).  DURACIÓN: Doce (12) semanas presenciales en Centennial College, Toronto, Canadá; para contabilidad, administración de empresas, comercio internacional, logística y transporte, recursos humanos, estadística, contabilidad en inglés, administración en inglés, construcción, dibujo, seguridad, topografía y acabados de construcción. Fecha de inicio programada para los cursos: Mayo de 2018  MONTO: La beca cubrirá hasta el 100% del curso, de acuerdo a los rubros contemplados en el Reglamento de Becas IFARHU-SENACYT.  Fecha de apertura: 18 de enero 2018  Plazo para entrega: 02 de marzo 2018 hasta las 3:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/09/1.-Anuncio-detallado.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/04/2.-Bases-de-la-Convocatoria-FID-17.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/4.-Formulario-de-evaluación-FID2017-versión-17-09-22.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/5.-REGLAMENTO-DE-CONTRATACIÓN-POR-MÉRITO-DE-SENACYT-RESOLUCIÓN-NO.-191-DE-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/7.-Modelo-de-Contrato-por-Mérito.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/10.-PENCYT-2015-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/11.-Clasificación-de-las-ciencias.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/12-Listado-de-Propuestas-Recibidas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/Resolución-de-Extensión-de-tiempo-FID17.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/Lista-de-Resultados-FID-17.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resolución-Administrativa-No.128.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resolución-Administrativa-No.129.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resolución-de-Adjudicación-de-Fondos-No.-136.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resolución-de-Adjudicación-de-Fondos-No.-137.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/RESOLUCION-DE-ADJUDICACIÓN-FID17-031.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resolución-de-Adjudicación-de-Fondos-No.-143.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resolución-de-Adjudicación-de-Fondos-No.-144.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resolución-Administrativa-No-134.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resolución-de-Adjudicación-de-Fondos-No.-154.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resolución-Administrativa-No.159.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resolución-Administrativa-No.160.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resolución-Administrativa-No.161.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resolución-de-Adjudicación-de-Fondos-N.-163.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/06/Resolución-de-Adjudicación-de-Fondos-No.-166.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/06/RA-189.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/06/RA-190.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/06/RA-191.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resolución-Administrativa-N159.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resolución-Administrativa-N173.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resolucion-Administrativa-N169FID.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resolucion-Administrativa-N206FID.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resolucion-Administrativa-N210FID.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resolución-Administrativa-No.226.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Resolución-Administrativa-No.262-FID17.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/Resolución-Administrativa-No.-322-FID17.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/01/1.Anuncio-ITSE-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Reglamento-de-Becas-Nuevo-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/2.Checklist-ITSE-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/3.Declaración-Jurada-Nueva.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/4.Perfiles-ITSE-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/5.Formulario-de-solicitud-ITSE-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/Paz-y-Salvo-ITSE-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/6.Pasos-a-Seguir-ITSE-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/04/pdf_anuncioderesultadosITSE-2018v1.pdf</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-fomento-a-id-fid-2017/</t>
+          <t>https://www.senacyt.gob.pa/sub-programa-para-instructores-itse-convenio-suscrito-entre-senacyt-ifarhu-y-ministerio-de-la-presidencia-2018/</t>
         </is>
       </c>
     </row>
@@ -4981,22 +5012,22 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA DE INNOVACIÓN SOCIAL 2017</t>
+          <t>CONVOCATORIA PÚBLICA DE LOS PROGRAMAS NUEVOS INVESTIGADORES 2018 RONDA I</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>DIRIGIDA A: Personas jurídicas, fundaciones de interés privado, organizaciones no gubernamentales, asociaciones de interés público, todas debidamente inscritas en el Registro Público de Panamá, entidades del sector público, cooperativas certificadas por IPACOOP y universidades (con o sin fines de lucro) debidamente reconocidas por el organismo nacional de acreditación.  OBJETIVO: En estrecha consulta con la comunidad, el objetivo es generar propuestas de solución con enfoque de ciencia, tecnología o innovación, para las necesidades sociales en diez (10) comunidades del distrito de Ñurum, comarca Ngäbe Buglé.  ÁREAS TEMÁTICAS:  CATEGORÍA A: Plagas en cultivos agrícolas y semillas: control y prevención.  CATEGORÍA B: Suelos: mejores uso, restauración y productividad.  CATEGORÍA C: Suelos: Agua: manejo del recurso, tratamiento y disponibilidad.  MONTOS: El monto máximo del subsidio económico que otorgará la SENACYT es hasta la suma de B/. 40,000.00.  Fecha de apertura: 26 de Septiembre de 2017.  Fecha para entrega de intención de propuesta: 16 de octubre de 2017, hasta las 3:00 p.m. hora exacta.  Fecha para entrega de propuesta: 27 de noviembre de 2017, hasta las 3:00 p.m. hora exacta.  Consultas: innovacionsocial2017@senacyt.gob.pa o al teléfono 517-0049 Para mayores detalles ver los documentos descargables</t>
+          <t>DIRIGIDO A: Panameños residentes en Panamá que estén cursando los dos últimos años de la licenciatura, o cursando un posgrado, afiliados a una entidad pública, universidad, organización no gubernamental, asociaciones de interés público o personas jurídicas con o sin fines de lucro, con capacidad para realizar investigación científicas y desarrollo tecnológico e innovación.  OBJETIVO: Proporcionar financiamiento o co-financiamiento para la promover la formación de nuevos investigadores a través de apoyo para recursos directamente relacionados con su investigación en las áreas temáticas de la convocatoria.  MONTO: El financiamiento de hasta el 100% del costo de la propuesta según el monto establecido en cada categoría de evaluación separada y de acuerdo a las necesidades plenamente justificadas de la misma. 1. Categoría 1: Hasta B/. 25,000.00. 2. Categoría 2: Hasta B/. 20,000.00. 3. Categoría 3: Hasta B/. 25,000.00 4. Categoría 4: Hasta B/. 20,000.00.  Fecha de apertura: 15 de enero 2018  Plazo para entrega de propuestas: 27 de marzo 2018 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/09/2.-Anuncio-de-la-convocatoria-IS2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/3.-Bases-de-la-convocatoria-IS2017-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/1.-Resoluci%C3%B3n-191-de-31-de-julio-de-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/8.-Modelo-de-Contrato-por-M%C3%A9rito.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/Publicaci%C3%B3n-Di%C3%A1logo-de-Saberes-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/12/Publicaci%C3%B3n-de-Resultados.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/RESOLUCION-DE-EXTENSI%C3%93N-DE-PLAZO-PARA-ENTREGA-DE-PROPUESTAS-IS-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/2Anuncio-de-Resultados.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/06/Resouci%C3%B3n-de-Adjudicaci%C3%B3n-CIS17-P-017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/06/Resoluci%C3%B3n-de-Adjudicaci%C3%B3n-CIS17-P-018.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/01/1.ANUNCIO-NUEVOS-INVESTIGADORES-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/2.BASE-DE-NUEVOS-INVESTIGADORES-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/4.FORMULARIO-DE-EVALUACI%C3%93N-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/1.-Resoluci%C3%B3n-191-de-31-de-julio-de-2017-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/04/ACTA-DE-RECEPCI%C3%93N-DE-PROPUESTAS-DE-NUEVOS-INVESTIGADORES-2018-RONDA-I.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/04/RESOLUCION-DE-ADJUDICACI%C3%93N.doc118.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/LISTA-DE-RESULTADOS-DE-NUEVOS-INVESTIGADORES-2018-RONDA-I.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Resoluci%C3%B3n-230-2018-de-David-Florez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Resoluci%C3%B3n-251-2018-de-Mariana-Areiza.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Resoluci%C3%B3n-252-2018-de-Maximo-Montalvo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Resoluci%C3%B3n-257-2018-de-Euribiel-Valdes.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Resoluci%C3%B3n-278-2018-de-Leonardo-Batista.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/09/Resolucion-Administrativa-N305Antony-De-Jes%C3%BAs-Garc%C3%ADa.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/Resoluci%C3%B3n-309-2018-de-Jafeth-Carrasco.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/Resoluci%C3%B3n-310-de-Celia-Cede%C3%B1o.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/Resoluci%C3%B3n-311-de-Eneida-Senci%C3%B3n.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/349-12-10-2018-Celia-Cede%C3%B1o-1.pdf</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-innovacion-social-2017/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-los-programas-nuevos-investigadores-2018-ronda-i/</t>
         </is>
       </c>
     </row>
@@ -5006,22 +5037,22 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA PREGRADO DE EXCELENCIA 2017</t>
+          <t>IV CONVOCATORIA PÚBLICA PARA LA GESTIÓN DEL PROGRAMA DE CAMPAMENTO CIENTÍFICO Y TECNOLÓGICO</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Estudiantes panameños que posean título de bachiller o estén cursando el último año del bachillerato, en un centro de estudios de educación media, nacional o extranjera, debidamente reconocido por la entidad competente en Panamá.  DURACIÓN: La beca tendrá una duración máxima de cinco (5) años.  MONTOS: La SENACYT establecerá una tabla de asignación de fondos indicando el monto correspondiente al estipendio de manutención según el país, región y universidad donde realice los estudios. La escala de asignaciones monetarias será publicada en la página web de la SENACYT  Fecha de apertura: 26 de septiembre 2017.  Fecha para entrega: 20 de abril 2018 hasta las 3:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Universidades debidamente acreditadas por el CONEAUPA y a centros de investigación públicos o privados sin fines de lucro, que operen en el territorio de la República de Panamá.  OBJETIVO: Incentivar a las universidades acreditadas y centros de investigación públicos y privados sin fines de lucro para que realicen actividades que desarrollen el pensamiento crítico y las habilidades en áreas científicas de estudiantes en edades tempranas.  MONTO: Se otorgarán subsidios económicos por el monto de hasta B/.50,000.00, para cubrir los rubros listados (ver anuncio)  DURACIÓN: Todos los campamentos deberán desarrollarse en un período de 4 a 8 días, en vacaciones escolares. Sin embargo, los Contratos de Subsidio Económico que se suscriban para amparar su ejecución tendrán una duración de 9 meses contados a partir de la notificación del refrendo de la Contraloría General de la República.  Fecha de apertura: 15 de enero 2018  Plazo para entrega de propuestas: 15 de marzo 2018 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/09/Anuncio-Pregrado-de-Excelencia.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/BEGE-2017-2018-Declaración-Jurada-Nueva.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/BPGE-2017-2018Carreras.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/BPGE-2017-2018Checklist.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/BPGE-2017-2018Lista-de-Universidades-por-Materias.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/BPGE-2017-2018Pasos-a-Seguir.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/Reglamento-de-Becas-Nuevo-2017-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/TABLA-DE-BECAS-PARA-PUBLICAR.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/01/1.PE-CAMP-2018-Anuncio.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/2.PE-CAMP-2018-Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/3.PE-CAMP-2018-Gu%C3%ADa-de-Campamento-CYT.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/ACTA-DE-RECEPCI%C3%93N-DE-PROPUESTAS-CAMPAMENTO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/LISTA-PRIORIZADA-4ED-CAMPAMENTO-2018.pdf</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-pregrado-de-excelencia-2017/</t>
+          <t>https://www.senacyt.gob.pa/iv-convocatoria-publica-para-la-gestion-del-programa-de-campamento-cientifico-y-tecnologico/</t>
         </is>
       </c>
     </row>
@@ -5031,22 +5062,22 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA DOCTORADO DE INVESTIGACIÓN 2017-2018</t>
+          <t>PROGRAMA DE BECAS FULBRIGHT SENACYT-IFARHU 2019-2020</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Panameños que deseen formarse como investigadores en centros de estudios de excelencia en el extranjero o que ya se encuentren estudiando un doctorado de investigación en centros de estudio de excelencia en el extranjero.  DURACIÓN: La beca tendrá una duración de hasta cuatro (4) años si el beneficiario posee grado de maestría y hasta seis (6) años si el beneficiario no posee grado de maestría.  MONTOS: Las becas podrán tener una asignación anual hasta B/.60,000.00. El presupuesto se elaborará según los rubros y la tabla de asignación de fondos publicada en la página web de la SENACYT.  Fecha de apertura: 26 de septiembre 2017.  Fecha para entrega: 16 de enero 2018 hasta las 3:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Profesionales panameños residentes en Panamá que han terminado su licenciatura al 17 de abril del 2018, incluyendo el proyecto final de graduación. Los panameños con residencia en Estados Unidos o con doble nacionalidad (panameño/ estadounidense) no serán considerados. Se les dará preferencia a aquellos candidatos que nunca han estudiado en Estados Unidos. Personas que hayan recibido una beca FULBRIGHT anteriormente no son elegibles para este programa.  DURACIÓN: La maestría tiene una duración máxima de dos (2) años. El doctorado tiene una duración máxima de cuatro (4) años. De ser necesario, si el programa de doctorado es de cinco (5) años, el candidato deberá hacer sus propios arreglos para obtener el financiamiento adicional por el tiempo restante de su programa.  Fecha de apertura: 15 de enero 2018  Plazo para entrega de propuestas: 17 de abril 2018 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/09/Anuncio-de-Doctorado-de-Investigacion-2017-18.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/TABLA-DE-BECAS-PARA-PUBLICAR-2017-18.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/Reglamento-de-Becas-Nuevo-2017-18.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/BEPDE-III-Declaracion-Jurada-Nueva-2017-18.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/02/Anuncio-de-Resultados_Doctorado-Inv.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/01/Anuncio-FULBRIGHT-2019-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/Checklist.pdf</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-doctorado-de-investigacion-2017-2018/</t>
+          <t>https://www.senacyt.gob.pa/programa-de-becas-fulbright-senacyt-ifarhu-2019-2020/</t>
         </is>
       </c>
     </row>
@@ -5056,22 +5087,22 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>DOCTORADO PARA FORMAR INVESTIGADORES PARA UNIVERSIDADES, CENTROS DE INVESTIGACIÓN O LABORATORIOS DE INTERÉS NACIONAL 2017-2018</t>
+          <t>DOCTORADO EN INVESTIGACIÓN BIOMÉDICA Y CLÍNICA RONDA II</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Profesores o panameños vinculados a universidades, centros de investigación o laboratorios de interés nacional ubicadas en panamá, que se desempeñen en las áreas de ciencia y tecnología. El doctorado debe realizarse en un centro internacional de reconocida excelencia.  DURACIÓN: La beca tendrá una duración de hasta cuatro (4) años si el beneficiario posee grado de maestría y hasta seis (6) años si el beneficiario no posee grado de maestría.  MONTOS: Las becas podrán tener una asignación anual hasta B/.60,000.00. El presupuesto se elaborará según los rubros y la tabla de asignación de fondos publicada en la página web de la SENACYT.  Fecha de apertura: 26 de septiembre 2017.  Fecha para entrega: 16 de enero 2018 hasta las 3:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Médicos panameños que deseen formarse como investigadores, y den respuesta a la necesidad que tiene la sociedad a nivel nacional de médicos con formación científica que realicen investigaciones y contribuyan al diagnóstico, tratamiento, pronostico y prevención de enfermedades.  OBJETIVO: Formación de recurso humano en el área de biomédica y clínica mediante un Doctorado de Investigación Biomédica y Clínica para formar médicos investigadores.  MONTO: La beca es hasta un 100% del costo, según Anexo 1 del Convenio IFARHU-SENACYT-UP-INDICASAT AIP.  DURACIÓN: La beca tendrá una duración de tres (3) años*  Fecha de apertura: 15 de enero 2018  Plazo para entrega de propuestas: 22 de febrero 2018 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/09/Anuncio-de-Doctorado-de-Excelencia.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/BEPDE-III-Declaración-Jurada-Nueva.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/Reglamento-de-Becas-Nuevo-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/TABLA-DE-BECAS-PARA-PUBLICAR-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/02/Anuncio-de-Resultados_-Doctorado-Excel.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/01/ANUNCIO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Reglamento-de-Becas-Nuevo-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/declaracion-Jurada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/CHECK-LIST.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/Pasos-a-seguir.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/04/Anuncio-de-resultados.pdf</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/doctorado-para-formar-investigadores-para-universidades-centros-de-investigacion-o-laboratorios-de-interes-nacional-2017-2018/</t>
+          <t>https://www.senacyt.gob.pa/doctorado-en-investigacion-biomedica-y-clinica-ronda-ii/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5112,22 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA PARA PROYECTOS DE INNOVACIÓN EMPRESARIAL 2018</t>
+          <t>CONVOCATORIA PÚBLICA PARA EL FOMENTO A NUEVOS EMPRENDIMIENTOS 2018</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Personas jurídicas panameñas con fines de lucro debidamente inscritas en el Registro Público de Panamá, con un mínimo de veinticuatro (24) meses de operación en el país, a la fecha de apertura de esta convocatoria. En sus propuestas podrán incluir la participación de universidades nacionales o centros de investigación nacionales.  MONTOS: El monto máximo del subsidio económico que otorgará la SENACYT es hasta la suma de B/. 200,000.00.  Fecha de apertura: 26 de Septiembre de 2017  Plazo para entrega: 27 de Noviembre 2017 hasta las 2:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Personas naturales, de nacionalidad panameña, mayores de edad, residentes en Panamá.  OBJETIVO: Apoyar a emprendedores panameños para que desarrollen proyectos de innovación. No es obligatorio que los proyectos estén vinculados con un Centro de Emprendimiento o Incubadora.  MONTO: Subsidio económico de hasta el 100% del costo total de la propuesta, según las necesidades plenamente justificadas de la misma, hasta la suma máxima de B/. 60,000.00.  Fecha de apertura: 15 de enero 2018  Plazo para entrega de propuestas: 10 de abril 2018 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/09/1.-Resoluci%C3%B3n-191-de-31-de-julio-de-2017-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/2.-Anuncio_fie2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/3.-bases_fie2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/5.-Formulario-de-Evaluacion-FIE2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/6.-Modelo-de-Contrato-por-M%C3%A9rito.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/Propuestas-Admitidas-FIE-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/RESOLUCION-DE-EXTENSI%C3%93N-DE-PUBLICACI%C3%93N-DE-RESULTADOS-FIE-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/Publicaci%C3%B3n-de-Resultados-FIE2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/06/FIE18-P-003-Plywood-Orozco.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/FIE18-P-010-CALESA.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/09/1.-Resoluci%C3%B3n-191-de-31-de-julio-de-2017-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/8.Modelo-de-Contrato-por-M%C3%A9rito-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Recepci%C3%B3n-de-Propuesta.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/06/Resoluci%C3%B3n-180-Extensi%C3%B3n-de-Publicaci%C3%B3n-de-Resultados.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Publicacion-de-resulatdos-NE2018.pdf</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-proyectos-de-innovacion-empresarial-2018/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-fomento-a-nuevos-emprendimientos-2018/</t>
         </is>
       </c>
     </row>
@@ -5106,22 +5137,22 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA DE FOMENTO A NUEVOS EMPRENDIMIENTOS: CAPITAL SEMILLA 2018</t>
+          <t>CONVOCATORIA PARA EL FOMENTO A NUEVOS EMPRENDIMIENTOS: CAPITAL PARA EMPRENDIMIENTOS EN FASE DE ESCALAMIENTO 2018</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: A)Nuevos emprendedores: personas naturales, de nacionalidad panameña, residentes en Panamá, mayores de edad; B)Microempresas: personas jurídicas, panameñas, debidamente registradas y en funcionamiento en la República de Panamá, por más de un (1) año antes de la fecha de apertura de esta convocatoria y que hayan generado en ese año ingresos brutos o facturación no mayor de doscientos mil balboas (B/.200,000.00).  MONTOS: El monto máximo del subsidio económico que otorgará la SENACYT es hasta la suma de B/. 25,000.00. Este monto máximo incluirá el desarrollo del proyecto y el proceso de incubación, que debe ser incluido con carácter obligatorio en todos los proyectos presentados en la Convocatoria. No deberá destinarse una suma mayor al veinte por ciento (20%) del monto total del proyecto, al proceso de incubación.  Fecha de apertura: 26 de Septiembre de 2017  Plazo para entrega: 15 de Noviembre 2017 hasta las 3:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: • Personas naturales, de nacionalidad panameña, mayores de edad, residentes en Panamá. • Personas Jurídicas panameñas de reciente creación (con más de 6 meses y no más de 24 meses a la fecha de apertura de esta convocatoria), con ventas anuales no mayores a ciento cincuenta mil balboas (B/.150,000.00).  OBJETIVO: Apoyar la creación de nuevas empresas o el crecimiento de empresas jóvenes, de corte innovador. En ambos casos el modelo de negocio o producto propuesto debe contar con al menos un estudio completo de mercado. De tratarse de un dispositivo o aplicación informática, el proponente debe tener un primer prototipo del mismo. No es obligatorio que los proyectos estén vinculados con un Centro de Emprendimiento o Incubadora.  MONTO: El monto máximo del subsidio económico que otorgará la SENACYT es por la suma de hasta B/. 50,000.00.  Fecha de apertura: 15 de enero 2018  Plazo para entrega de propuestas: 19 de marzo 2018 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/09/1.-Resoluci%C3%B3n-191-de-31-de-julio-de-2017-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/2.-Anuncio_cs_2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/3.-Bases_cs_2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/7.-Modelo-de-Contrato-por-M%C3%A9rito-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/Intenciones-de-Propuesta-Admitidas-NECS2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/Propuestas-Admitidas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/Extensi%C3%B3n-de-Plazo-de-Publicaci%C3%B3n-de-resultados-NECS18.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/Publicaci%C3%B3n-de-Resultados-NECS2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/NECS18-P-108-Gerardo-Carvajal.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/NECS18-P-025-William-Mundo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/NECS18-P-040-Italpan-International-Corp..pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/06/NECS18-P-111-Jennifer-Salazar.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/06/NECS18-P-058-Juan-David-Kong-Man.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/06/NECS18-P-098-Dianet-Pinillo-Acosta.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/06/NECS18-P-075-AMBITEK-SERVICES.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/06/NECS18-P-091-Heber-Guerra.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/09/1.-Resoluci%C3%B3n-191-de-31-de-julio-de-2017-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/8.-Modelo-de-Contrato-por-M%C3%A9rito-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/NEE18_Fe-de-Erratas_Requisitos.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/Recepci%C3%B3n-de-propuestas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resoluci%C3%B3n-Administrativa-No.-123-extensi%C3%B3n-fecha-de-comunicaci%C3%B3n.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Publicacion-de-resultados-NEE18.pdf</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-fomento-a-nuevos-emprendimientos-capital-semilla-2018/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-para-el-fomento-a-nuevos-emprendimientos-capital-para-emprendimientos-en-fase-de-escalamiento-2018/</t>
         </is>
       </c>
     </row>
@@ -5131,22 +5162,22 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>CONVOCATORIA DE MAESTRÍAS A REALIZAR EN UNIVERSIDADES OFICIALES EN PANAMÁ, 2017</t>
+          <t>CONVOCATORIA PARA EL APOYO DE ACTIVIDADES QUE FOMENTEN LA INNOVACIÓN Y EL EMPREDIMIENTO 2018</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Panameños que posean título de licenciatura y que estén interesados en cursar estudios de maestría en carreras de salud requeridas en el país en un centro universitario oficial de país.  DURACIÓN: Estas becas tendrán una duración máxima de acuerdo al Plan de estudio.  MONTOS: Se financiarán el 100% de los costos de matrícula y créditos académicos.  Fecha de apertura: 16 de Agosto 2017  Fecha para entrega: 12 de Diciembre 2017 hasta las 3:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Sociedades anónimas, asociaciones u organizaciones con o sin fines de lucro, asociaciones de interés público, formalmente registradas en la República de Panamá, y universidades nacionales, debidamente autorizadas, que requieran apoyos totales o parciales para la organización de congresos, seminarios, talleres y cursos para promover y fomentar el desarrollo de la tecnología, la innovación y el emprendimiento. Estas podrán participar solas o en grupo.  OBJETIVO: Apoyar las actividades que impulsen y fortalezcan el desarrollo de la tecnología, la innovación y el emprendimiento, proporcionando subsidio económico, total o parcial, que propicie valor agregado, capacitación e impacto a los participantes.  MONTOS: • Categoría 1: Subsidio económico de hasta el 100% del costo total de la propuesta, según las necesidades plenamente justificadas de la misma, hasta la suma máxima de B/. 25,000.00, sin embargo, este subsidio económico no debe cubrir más del 75% del costo total del evento • Categoría 2: Subsidio económico de hasta el 100% del costo total de la propuesta, según las necesidades plenamente justificadas de la misma, hasta la suma máxima de B/. 50,000.00. • Categoría 3: Subsidio económico de hasta el 100% del costo total de la propuesta, según las necesidades plenamente justificadas de la misma, hasta la suma máxima de B/. 10,000.00. • Categoría 4: Subsidio económico de hasta el 100% del costo total de la propuesta, según las necesidades plenamente justificadas de la misma, hasta la suma máxima de B/. 15,000.00. • Categoría 5: Subsidio económico de hasta el 90% del costo total de la propuesta, según las necesidades plenamente justificadas de la misma, hasta la suma máxima de B/. 100,000.00. Fecha de apertura: 15 de enero 2018  Plazo para entrega de propuestas: 19 de marzo 2018 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Anuncio..pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/CheckList-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Declaracion-Jurada-Reglamento-de-Becas-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Pasos-a-Seguir..pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Reglamento-de-Becas-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/Resoluci%C3%B3n-Desierta.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/09/1.-Resoluci%C3%B3n-191-de-31-de-julio-de-2017-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/8.Modelo-de-Contrato-por-Mérito-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/04/propuesta-recibidas-de-apoyo-para-publicación.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resolución-No.121-de-3-de-mayo-de-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Publicacion-de-resultados-AAIE18.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/11/Resolución-de-Adjudicación-No.371-de-24-de-octubre-de-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/11/Resolución-de-Adjudicación-No.385-de-01-de-noviembre-de-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/11/Resolucion-de-Adjudicacion-No.388-de-nov2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/11/Resolucion-de-Adjudicacion-No.390-de-6-noviembre-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/11/Resolucion-de-Adjudicacion-No.39612-noviembre-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/11/Resolucion-de-Adjudicacion-N399_19-noviembre-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/12/Resolución-de-Adjudicación-No.418-de-13-de-diciembre-de-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/05/Resolución-Administrativa-No.118-de-3-de-mayo-de-20191.pdf</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-de-maestrias-a-realizar-en-universidades-oficiales-en-panama-2017/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-para-el-apoyo-de-actividades-que-fomenten-la-innovacion-y-el-empredimiento-2018/</t>
         </is>
       </c>
     </row>
@@ -5156,22 +5187,22 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES Y SUBESPECIALIDADES MÉDICAS EN ÁREAS PRIORITARIAS DEL SECTOR SALUD A REALIZAR EN EL EXTRANJERO</t>
+          <t>CONVOCATORIA DE DOCTORADO DE INVESTIGACIÓN RONDA I, 2018</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Médicos panameños idóneos que se encuentren o no laborando en el sistema público de salud, interesados en adquirir especialidades o subespecialidades médicas en el extranjero, con interés de perfeccionar su desempeño en el ambiente laboral en las áreas del conocimiento priorizadas por el sector salud.  DURACIÓN: La duración de esta beca será de acuerdo al programa de la especialidad o de la subespecialidad médica que va a realizar y de conformidad con lo establecido por el Consejo Técnico de Salud.  MONTOS: La beca cubrirá hasta el 100% de la especialidad o de la subespecialidad médica, según lo establecido en el Reglamento de Becas IFARHU-SENACYT.  Fecha de apertura: 16 de Agosto 2017  Fecha para entrega: 24 de Enero 2018 hasta las 3:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Panameños que deseen formarse como investigadores en centros de estudios de excelencia en el extranjero o que ya se encuentren estudiando un doctorado de investigación en centros de estudio de excelencia en el extranjero.  OBJETIVO: Este programa tiene como objetivo la formación de investigadores para la República de Panamá, que garanticen el incremento del capital humano con altas capacidades para actividades científicas y tecnológicas.  MONTO: Las becas podrán tener una asignación anual de hasta B/. 60,000.00. El presupuesto se elaborará según los rubros y la tabla de asignación de fondos publicada en la página web de la SENACYT.  DURACIÓN: La beca tendrá una duración de hasta cuatro (4) años si el beneficiario posee grado de maestría y hasta seis (6) años si el beneficiario no posee grado de maestría.  Fecha de apertura: 15 de enero 2018  Plazo para entrega de propuestas: 17 de abril 2018 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Anuncio-5.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Checklist.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Declaración-Jurada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Formulario-de-Solicitud.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Listado-de-Especialidades-y-Subespecialidades-Médicas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Pasos-a-Seguir-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Paz-y-Salvo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/3Anuncio-de-Resultado-1.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/01/BIDP-I-2018-ANUNCIO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Reglamento-de-Becas-Nuevo-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/BIDP-I-2018-CHECK-LIST.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/BIDP-I-2018-pasos.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/TABLA-DE-BECAS-PARA-PUBLICAR.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Anuncio-de-Resultados-Doctorado-de-Investigación.pdf</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/especialidades-y-subespecialidades-medicas-en-areas-prioritarias-del-sector-salud-a-realizar-en-el-extranjero/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-de-doctorado-de-investigacion-ronda-i-2018/</t>
         </is>
       </c>
     </row>
@@ -5181,22 +5212,22 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>CONVOCATORIA DE MAESTRÍAS EN CARRERAS DE SALUD EN EL EXTRANJERO</t>
+          <t>CONVOCATORIA DE DOCTORADO PARA FORMAR INVESTIGADORES PARA UNIVERSIDADES, CENTROS DE INVESTIGACIÓN O LABORATORIOS DE INTERÉS NACIONAL RONDA I, 2018</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Panameños que posean título de licenciatura y que estén interesados en cursar estudios de maestría internacionales en carreras de salud en el extranjero y que sean requeridas en el país.  DURACIÓN: La beca tendrá una duración de dos (2) años.  MONTOS: Financiamiento de hasta el 100% de la Maestría, según lo establecido en el Reglamento de becas IFARHU-SENACYT.  Fecha de apertura: 16 de Agosto 2017  Fecha para entrega: 18 de Enero 2018 hasta las 3:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Profesores o Investigadores panameños vinculados a universidades, centros de investigación o laboratorios de interés nacional ubicados en Panamá, que se desempeñen en las áreas de ciencia y tecnología. El doctorado debe realizarse en un centro internacional de reconocida excelencia.  OBJETIVO: Fortalecer la planta docente y profesional de las universidades, centros de investigación y laboratorios de interés nacional ubicados en Panamá.  MONTO: Las becas podrán tener una asignación anual de hasta B/. 60,000.00. El presupuesto se elaborará según los rubros y la tabla de asignación de fondos publicada en la página web de la SENACYT.  DURACIÓN: La beca tendrá una duración de hasta cuatro (4) años si el beneficiario posee grado de maestría y hasta seis (6) años si el beneficiario no posee grado de maestría.  Fecha de apertura: 15 de enero 2018  Plazo para entrega de propuestas: 17 de abril 2018 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Anuncio-3.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/CheckList.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Declaracion-Jurada-Reglamento-de-Becas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Pasos-a-seguir.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Reglamento-de-Becas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/Anuncio-de-Resultado-1.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/01/BEPDE-I-2018-Anuncio.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Reglamento-de-Becas-Nuevo-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/BEPDE-I-2018-Declaración-Jurada-Nueva.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/BEPDE-I-2018-CHECK-LIST.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/BEPDE-I-2018-Pasos-a-seguir.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/TABLA-DE-BECAS-PARA-PUBLICAR.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Anuncio-de-Resultados-Doctorado-Excelencia.pdf</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-de-maestrias-en-carreras-de-salud-en-el-extranjero/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-de-doctorado-para-formar-investigadores-para-universidades-centros-de-investigacion-o-laboratorios-de-interes-nacional-ronda-i-2018/</t>
         </is>
       </c>
     </row>
@@ -5206,22 +5237,22 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>MAESTRÍA O DOCTORADO EN CIENCIAS AGROPECUARIAS, 2017</t>
+          <t>MAESTRÍA EN EDUCACIÓN 2018</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Panameños, interesados en adquirir título de maestría o doctorado en el extranjero que le permitan fortalecer y perfeccionar su desempeño en el sector agropecuario.  DURACIÓN: Las becas de maestría tendrán una duración máxima de hasta dos (2) años y las becas de doctorado tendrán una duración máxima de hasta cuatro (4) años. Los aspirantes sólo podrán participar para concursar por una de las dos opciones.  MONTOS: Financiamiento de hasta B/.60,000.00 por año de acuerdo a disponibilidad presupuestaria de la SENACYT.  Fecha de apertura: 16 de Agosto 2017  Fecha para entrega: 12 de Diciembre 2017 hasta las 3:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Panameños que posean título universitario de licenciatura expedido por una universidad nacional o extranjera, reconocida por la entidad competente en Panamá.  OBJETIVO: Este programa está diseñado para fortalecer los conocimientos generales y especializados, apoyando a la formación de profesionales en todos los ámbitos, capaces de investigar y diseñar los sistemas productivos necesarios para suplir las necesidades prioritarias e inmediatas del país.  MONTO: Financiamiento de hasta B/. 60,000.00 por año de acuerdo a disponibilidad presupuestaria de la SENACYT.  DURACIÓN: Estas becas tendrán una duración de hasta dos (2) años o de acuerdo al plan de estudio.  Fecha de apertura: 15 de enero 2018  Plazo para entrega de propuestas: 27 de marzo 2018 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Anuncio-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/BEPA_CheckList.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/BEPA_Declaracion-Jurada-Reglamento-de-Becas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/BEPA_Pasos-a-seguir.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/BEPA_Reglamento-de-Becas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/02/Anuncio-de-Resultado.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/01/Anuncio-de-Educación-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Reglamento-de-Becas-Nuevo-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/BEPDE-III-Declaración-Jurada-Nueva-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/Formulario-de-IFARHU.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/TABLA-DE-BECAS-PARA-PUBLICAR.pdf</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/maestria-o-doctorado-en-ciencias-agropecuarias-2017/</t>
+          <t>https://www.senacyt.gob.pa/maestria-en-educacion-2018/</t>
         </is>
       </c>
     </row>
@@ -5231,22 +5262,22 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>MAESTRÍA EN ÁREAS ESPECÍFICAS RONDA II, 2017</t>
+          <t>CONVOCATORIA DE MAESTRÍA EN ÁREAS ESPECÍFICAS O DE PRIORIDAD IDENTIFICADAS POR LA ACP, 2018</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Panameños que estén cursando su último semestre de licenciatura o que posean título universitario de licenciatura expedido por una universidad nacional o extranjera, reconocido por la entidad competente en Panamá.  DURACIÓN: Estas becas de maestrías en áreas específicas tendrán una duración máxima de hasta dos (2) años.  MONTOS: Financiamiento de hasta B/.60,000.00 por año de acuerdo a disponibilidad presupuestaria de la SENACYT.  Fecha de apertura: 16 de Agosto 2017  Fecha para entrega: 31 de Octubre 2017 hasta las 3:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Panameños con grado de licenciatura o equivalente, interesados en realizar estudios de maestría en las áreas establecidas en el anuncio de la convocatoria.  OBJETIVO: Mejorar la calidad de la gestión del Sistema Nacional de la Ciencia y Tecnología, mediante la formación profesional.  MONTO: Financiamiento de hasta B/. 60,000.00 por año de acuerdo a disponibilidad presupuestaria de la SENACYT.  DURACIÓN: Estas becas tendrán una duración de hasta dos (2) años o de acuerdo al plan de estudio.  Fecha de apertura: 15 de enero 2018  Plazo para entrega de propuestas: 27 de marzo 2018 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Anuncio-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Chesli.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/declaracion-Jurada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Pasos-a-Seguir.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Reglamento-de-becas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/12/Anuncio-de-Resultado.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2018/01/Anuncio-ACP-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Reglamento-de-Becas-Nuevo-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/Copia-de-ChecList_ACP.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/Declaración-Jurada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/Formulario-de-IFARHU.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/SENACYT-IFARHU-ACP-Convocatoria-2018-PARA-PUBLICAR.pdf</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/maestria-en-areas-especificas-ronda-ii-2017/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-de-maestria-en-areas-especificas-o-de-prioridad-identificadas-por-la-acp-2018/</t>
         </is>
       </c>
     </row>
@@ -5256,18 +5287,22 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>CONVOCATORIA CONTINUA DE FOMENTO A LA INSERCIÓN DE TALENTO ESPECIALIZADO (ITE) 2017</t>
+          <t>II RONDA DE LA CONVOCATORIA PARA LAS UNIVERSIDADES ACREDITADAS EN LA REPÚBLICA DE PANAMÁ PARA PRESENTACIÓN DE PROPUESTAS DE PROGRAMAS DE MAESTRÍAS DE INVESTIGACIÓN NUEVAS 2017</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Exbecarios del Sub Programa de Becas Doctorales y Postdoctorales del Programa de Becas IFARHU-SENACYT; y panameños egresados de otros programas de doctorados de investigación no financiados por la SENACYT, que finalizaron sus estudios entre los años 2012 al 2016, con el fin de insertarse en una universidad, institución de investigación o de desarrollo tecnológico del sector público y/o empresa privada, con o sin fines de lucro, con capacidad de llevar a cabo investigación y desarrollo científico o tecnológico.  DURACIÓN: Los proyectos adjudicados podrán tener una duración de hasta dos (2) años.  MONTOS: La SENACYT financiará hasta Cincuenta Mil Balboas (B/. 50,000.00) de la totalidad del proyecto. El fondo constituye un capital semilla que permitirá al doctor desarrollar investigaciones en ciencia básica, investigación aplicada y/o desarrollo tecnológico. Esta convocatoria cumplirá con todas las reglas de evaluación y adjudicación establecidas en el Reglamento Interno de Contrataciones por Mérito. Los proponentes deben asegurarse que la distribución de fondos de su propuesta aplique a los objetos de gasto acorde al objetivo del Programa de Fomento a la Investigación y Desarrollo, correspondiente al Anexo I de la Resolución 056 de 22 de marzo de 2010. Es responsabilidad del proponente sustentar los méritos científicos y el impacto de la propuesta que justifica la solicitud de fondos.  Fecha de apertura: 18 de Abril 2017  Plazo para entrega de propuestas (I Ronda): 04 de Julio 2017 hasta las 1:00 p.m. hora exacta.  Plazo para entrega de propuestas (II Ronda): 17 de Octubre 2017 hasta las 1:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr"/>
+          <t>DIRIGIDO A: Universidades debidamente acreditadas por CONEAUPA en la República de Panamá con programas de postgrado presenciales de tiempo completo.  DURACIÓN: Todos los programas académicos deberán desarrollarse en un período de 24 meses. Sin embargo, los Convenios de Colaboración Educativa que se suscriban para amparar su ejecución tendrán una duración de hasta 36 meses contados a partir del refrendo por parte de la Contraloría General de la República.  MONTO: Hasta B/. 340,000.00 de acuerdo al programa propuesto.  Fecha de apertura: 29 de noviembre 2017  Plazo para entrega de propuestas: 17 de abril de 2018 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/11/1.Anuncio-Maestr%C3%ADas-de-Investigaci%C3%B3n-Nuevas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/2.Gaceta-Oficial-de-Programa-de-Posgrados-Nacionales.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/3.Resoluci%C3%B3n-09-del-20-de-abril-del-2017-para-Maestr%C3%ADas-de-Investigaci%C3%B3n-Nuevas-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/5.Formulario-del-Evaluador.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/Resoluci%C3%B3n-de-Extensi%C3%B3n-Maestr%C3%ADas-de-Investigaci%C3%B3n-Nuevas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/04/Acta-de-Recepci%C3%B3n-de-propuesta-II-RONDA-DE-LA-CONVOCATORIA-PARA-LAS-UNIVERSIDADES-ACREDITADAS-EN-LA-REP%C3%9ABLICA-DE-PANAM%C3%81.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resultados-de-Convocatoria-UAR2.pdf</t>
+        </is>
+      </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-continua-de-fomento-a-la-insercion-de-talento-especializado-ite-2017/</t>
+          <t>https://www.senacyt.gob.pa/ii-ronda-de-la-convocatoria-para-las-universidades-acreditadas-en-la-republica-de-panama-para-presentacion-de-propuestas-de-programas-de-maestrias-de-investigacion-nuevas-2017/</t>
         </is>
       </c>
     </row>
@@ -5277,22 +5312,22 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA DE APOYO AL FORTALECIMIENTO DE CENTROS DE PENSAMIENTO NACIONALES 2017</t>
+          <t>PREMIO NACIONAL DE INNOVACIÓN EMPRESARIAL 2018</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Organizaciones que realicen investigación orientada a las políticas públicas, constituidas como asociaciones de interés público, personas jurídicas sin fines de lucro, y centros de investigación de universidades (con o sin fines de lucro) debidamente reconocidas por el organismo nacional de acreditación; domiciliadas en Panamá y con capacidad para realizar investigación científica, desarrollo tecnológico o innovación.  DURACIÓN: Las propuestas podrán tener una duración máxima de hasta treinta y seis (36) meses.  MONTOS: Financiamiento de hasta 80% del costo total de la propuesta, hasta un máximo de noventa mil balboas (B/.90,000.00).  Fecha de apertura: 04 de Julio de 2017  Plazo para entrega de intención de propuesta: 04 de Agosto de 2017 hasta las 3:00 p.m. Hora exacta.  Sesión de inducción: SENACYT informará a cada proponente la Fecha, Hora y Lugar (Obligatorio)  Plazo para entrega de propuestas: 08 de Septiembre de 2017 hasta las 3:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>OBJETIVO: Promover y fortalecer la capacidad de innovación en las empresas de Panamá mediante el reconocimiento de actividades exitosamente probadas de innovación empresarial.  Fecha de apertura: 29 de noviembre 2017  Cierre de recepción de propuestas: 24 de enero de 2018 Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/07/05-Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/07/09-PENCYT-2015-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/10-Acta-de-recepci%C3%B3n-de-intenciones-de-propuesta.pdf.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/Acta-de-recepci%C3%B3n-de-propuestas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Propuestas-avaladas-a-la-fase-de-negociaci%C3%B3n.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/04/09a-Resoluci%C3%B3n-de-adjudicaci%C3%B3n-APY-CENPEN-009.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/04/09a-Resoluci%C3%B3n-de-adjudicaci%C3%B3n-APY-CENPEN-015.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/04/09a-Resoluci%C3%B3n-de-adjudicaci%C3%B3n-APY-CENPEN-018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/04/09a-Resoluci%C3%B3n-de-adjudicaci%C3%B3n-APY-CENPEN-004.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/06/Resolucion-de-Adjudicacion-APY-CENPEN-010.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Reglamento-PNIE-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Formulario-de-Evaluaci%C3%B3n-de-Propuesta-PNIE-2018.pdf</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-apoyo-al-fortalecimiento-de-centros-de-pensamiento-nacionales-2017/</t>
+          <t>https://www.senacyt.gob.pa/premio-nacional-de-innovacion-empresarial-2018/</t>
         </is>
       </c>
     </row>
@@ -5302,22 +5337,18 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>CURSOS CORTOS DE PERFECCIONAMIENTO PARA COLABORADORES DE LA ACP RONDA II, 2017</t>
+          <t>PROGRAMA DE JÓVENES CIENTÍFICOS 2018.</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Profesionales panameños que estén laborando en la ACP en el campo de levantamientos Hidrográficos, en el campo marítimo, servicios hidrográficos, ambiente costero y portuario, petróleo o industria de gas, construcciones marinas.  DURACIÓN: 1. Trece (13) semanas presenciales en el centro Skilltrade en Ijmuiden, Holanda. 2. Doce (12) semanas presenciales en United Kingdom Hydrographic Office (UKHO) en Tauton, Inglaterra.  Fecha de apertura: 16 de Junio 2017  Plazo para entrega de propuesta: 18 de Julio 2017 hasta las 3:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/06/Anuncio-C.-C.-ACP-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/06/Formulario-C.-C.-ACP-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/06/Checklist-C.-C.-ACP-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/06/P.-a-S.-C.-C.-ACP-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/06/Declaracion-Jurada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/06/Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/06/Lista-de-Cursos-Cortos-ACP-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/A.-de-R.-C.-C.-ACP-Ronda-II-2017.pdf</t>
-        </is>
-      </c>
+          <t>DIRIGIDO A: Jóvenes estudiantes panameños pertenecientes al sistema educativo nacional que se encuentren cursando entre octavo y duodécimo grado, que deseen realizar investigaciones científicas.  MONTOS: Se otorgará un subsidio económico de B/.700.00 para la compra y/o utilización de insumos científicos y otros gastos de operación no disponibles y que sean imprescindibles para alcanzar los objetivos del proyecto de investigación. Este subsidio será entregado, en un solo desembolso, al Adulto Coordinador que se encuentre designado en el Formulario de Aplicación.  Fecha de apertura: 20 de Octubre 2017  Plazo para entrega: 18 de Enero 2018 hasta las 3:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/cursos-cortos-de-perfeccionamiento-para-colaboradores-de-la-acp-ronda-ii-2017/</t>
+          <t>https://www.senacyt.gob.pa/programa-de-jovenes-cientificos-2018/</t>
         </is>
       </c>
     </row>
@@ -5327,22 +5358,22 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>CURSOS CORTOS DE PERFECCIONAMIENTO PARA COLABORADORES DE LA ACP 2017</t>
+          <t>CONVOCATORIA DE BECAS DE PREGRADO PARA ESTUDIANTES DE CENTROS ESCOLARES OFICIALES, 2017</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Profesionales panameños que estén laborando en la ACP en el campo de levantamientos Hidrográficos, en el campo marítimo, servicios hidrográficos, ambiente costero y portuario, petróleo o industria de gas, construcciones marinas.  DURACIÓN: 1. Trece (13) semanas presenciales en el centro Skilltrade en Ijmuiden, Holanda. 2. Doce (12) semanas presenciales en United Kingdom Hydrographic Office (UKHO) en Tauton, Inglaterra.  Fecha de apertura: 10 de Mayo 2017  Plazo para entrega de propuesta: 06 de Junio 2017 hasta las 3:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Estudiantes panameños que posean título de bachiller o estén cursando el último periodo del último año del bachillerato, en un centro de estudios de educación media oficial en panamá, con la intención de realizar estudios en la universidad de ARKANSAS o en la Universidad del Sur de Indiana en los Estados Unidos.  MONTOS: Las becas de este Programa tendrán una asignación anual de hasta Sesenta Mil Balboas con 00/100(B/.60,000.00) y la asignación total no podrá exceder la suma de Doscientos Cincuenta Mil Balboas con 00/100(B/.250,000.00). También se podrán dar becas parciales.  Fecha de apertura: 20 de Octubre 2017  Plazo para entrega: 5 de Enero 2018 hasta las 3:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/05/1_Anuncio-de-Cursos-Cortos-ACP-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/2_Formulario-Cursos-Cortos-ACP-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/3_CheckList-Cursos-Cortos-ACP-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/4_Pasos-a-seguir-Cursos-Cortos-ACP-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/5_Declaracion-Jurada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/6_Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/7_Paz-y-Salvo-Cursos-Cortos-ACP-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/8_Lista-de-Cursos-Cortos-ACP-2017.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Anuncio-CO-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/ÁREAS-TEMÁTICAS-UNIVERSIDAD-DE-ARKANSAS-traducidas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/ÁREAS-TEMÁTICAS-UNIVERSIDAD-DE-INDIANA-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/BEPDE-III-Declaración-Jurada-Nueva-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/BPGE-CO-2017_Pasos-a-Seguir.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Formulario-de-IFARHU-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Reglamento.pdf</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/cursos-cortos-de-perfeccionamiento-para-colaboradores-de-la-acp-2017/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-de-becas-de-pregrado-para-estudiantes-de-centros-escolares-oficiales-2017/</t>
         </is>
       </c>
     </row>
@@ -5352,22 +5383,22 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA DEL PROGRAMA DE FORTALECIMIENTO A LOS POSTGRADOS NACIONALES PARA MAESTRÍAS NUEVAS</t>
+          <t>PROGRAMA DE BECAS DE PREGRADO DE EXCELENCIA PARA ESTUDIOS EN CIENCIAS BÁSICAS O MATEMÁTICAS RONDA III, 2017</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Universidades debidamente acreditadas por CONEAUPA en la República de Panamá con programas de maestrías presenciales de tiempo completo.  DURACIÓN: Todos los programas académicos deberán desarrollarse en un período de 24 meses. Sin embargo, los Convenios de colaboración educativa que se suscriban para amparar su ejecución tendrán una duración de 30 meses contados a partir del refrendo por parte de la Contraloría General de la República.  MONTOS: Hasta B./340,000.00 de acuerdo al programa propuesto.  Fecha de apertura: 02 de Mayo 2017  Fecha límite de entrega de solicitud: 02 de Agosto 2017 hasta las 3:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Estudiantes panameños que vayan a ingresar por primera vez a universidades oficiales de la República de Panamá o que se encuentren cursando las carreras de licenciaturas en Ciencias Básicas (Biología, Química, Física o Matemáticas).  MONTOS: El financiamiento es de hasta 100% del costo total de la carrera. La beca incluirá un estipendio de manutención de B/. 600.00 mensuales por la duración de la carrera, siempre y cuando se mantenga en el índice mínimo de 1.75 de 3.0. En caso de que el estudiante mantenga un índice igual o mayor a 2.00, se le ajustará el estipendio de manutención a B/.700.00 mensuales. También se podrá dar becas parciales  Fecha de apertura: 20 de Octubre 2017  Plazo para entrega: 18 de Enero 2018 hasta las 3:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Anuncio.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Documentos-que-deben-incluirse-con-la-propuesta.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/FORMULARIO-EVALUADOR-PROPUESTA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Gaceta-Oficial-de-Programa-de-Posgrados-Nacionales.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Acta-de-Recepci%C3%B3n-de-Propuestas-de-la-Convocatoria-P%C3%BAblica-del-Programa-de-Fortalecimiento-a-los-Postgrados-Nacionales-para-Maestr%C3%ADas-Nuevas-2017.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Anuncio-CB-2017-Ronda-III-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/BEPDE-III-Declaración-Jurada-Nueva.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Formulario-de-IFARHU.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Pasos-a-Seguir-Ciencias-Básicas-Ronda-III-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Reglamento-de-Becas-Nuevo-2017-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/Anuncio-de-Resultados-de-Ciencias-Básicas-o-Matemáticas-Ronda-III2c-2017.pdf</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-del-programa-de-fortalecimiento-a-los-postgrados-nacionales-para-maestrias-nuevas/</t>
+          <t>https://www.senacyt.gob.pa/programa-de-becas-de-pregrado-de-excelencia-para-estudios-en-ciencias-basicas-o-matematicas-ronda-iii-2017/</t>
         </is>
       </c>
     </row>
@@ -5377,22 +5408,22 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PARA EL FOMENTO A NUEVOS EMPRENDIMIENTOS: CAPITAL SEMILLA 2017</t>
+          <t>BECAS PARA ESTUDIO DEL PROGRAMA DE MAESTRÍA DUAL EN SUPPLY CHAIN ENGINEERING 2017</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: &gt;Nuevos emprendedores: personas naturales, de nacionalidad panameña, residentes en Panamá, mayores de edad. &gt;Microempresas: personas jurídicas, panameñas, debidamente registradas y en funcionamiento en la República de Panamá, por más de un (1) año antes de la fecha de apertura de esta convocatoria y que hayan generado en ese año ingresos brutos o facturación no mayor a doscientos mil balboas (B/. 200,000.00).  DURACIÓN: Los proyectos presentados deberán tener una duración máxima de seis (6) meses. Fase 1. Descubrimiento y validación: Fase en la que el emprendimiento debe plantear un problema a resolver, la solución a ofrecer y el posible mercado, a través de herramientas de validación. Esta fase tendrá una duración de hasta dos (2) meses. Fase 2. Creación del prototipo. Fase en la que el emprendedor pasa de la idea a la creación de un prototipo que se pueda vender. Esta fase tendrá una duración de hasta cuatro (4) meses.  MONTOS: El monto máximo del subsidio económico que otorgará la SENACYT es hasta la suma de B/. 25,000.00. Este monto máximo incluirá el desarrollo del proyecto y el proceso de incubación, que debe ser incluido con carácter obligatorio en todos los proyectos presentados en la Convocatoria. No deberá destinarse una suma mayor al veinte por ciento (20%) del monto total del proyecto, al proceso de incubación. El subsidio económico será dividido en las siguientes fases: Fase 1: Subsidio económico inicial del 30% del monto total del proyecto. Fase 2: Subsidio económico del 70% del monto total del proyecto. Los proponentes deben asegurarse que la distribución de fondos de su propuesta y los objetos de gasto presentados en su presupuesto vayan acorde al objetivo del Programa de Fomento a la Innovación Empresarial.  Fecha de apertura: 02 de Mayo 2017  Plazo para entrega de intención de propuestas: 12 de Junio hasta las 3:00 p.m. Hora exacta.  Plazo para entrega de propuestas: 28 de Julio 2017 hasta las 3:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Panameños(as) con formación acádemica o experiencia en Ingeniería, Logística o carreras afines.  DURACIÓN: Ver Anuncio  Fecha de apertura: 17 de octubre de 2016  Fecha límite de entrega de solicitud: 15 de abril de 2017 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/05/anuncio_cs_20171904-vf.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/7.-Resolucion-056.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Publicaci%C3%B3n-de-Resultados.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Formularios-de-Propuestas-Admitidos.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/Propuestas-para-Fase-de-Negociacion-NECS17.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/Resoluci%C3%B3n-Administrativa-No.-65_NECS17-P-049.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/Resoluci%C3%B3n-Administrativa-No.-66_NECS17-P-022.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/Resoluci%C3%B3n-Administrativa-No.-67_NECS17-P-015.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/Resoluci%C3%B3n-Administrativa-No.-68_NECS17-P-083.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/Resoluci%C3%B3n-Administrativa-No.-73_NECS17-P-035.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/Resoluci%C3%B3n-Administrativa-No.-74_NECS17-P-105.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/Resoluci%C3%B3n-Administrativa-No.-75_NECS17-P-147.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/Resoluci%C3%B3n-Adm.-No.-87.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resoluci%C3%B3n-Administrativa-No.-148-NECS17-P-051.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resoluci%C3%B3n-Administrativa-No.-149-NECS17-P-236.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/PROGRAMA-MAESTRIA-DUAL-EN-SUPPLY-CHAIN-ENGINEERING-2017/Anuncio-GTech1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/PROGRAMA-MAESTRIA-DUAL-EN-SUPPLY-CHAIN-ENGINEERING-2017/CheckList.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/PROGRAMA-MAESTRIA-DUAL-EN-SUPPLY-CHAIN-ENGINEERING-2017/Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/PROGRAMA-MAESTRIA-DUAL-EN-SUPPLY-CHAIN-ENGINEERING-2017/Declaracion.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Anuncio-de-Resultado-GATECH.pdf</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-para-el-fomento-a-nuevos-emprendimientos-capital-semilla-2017/</t>
+          <t>https://www.senacyt.gob.pa/becas-para-estudio-del-programa-de-maestria-dual-en-supply-chain-engineering-2017/</t>
         </is>
       </c>
     </row>
@@ -5402,22 +5433,22 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA DE INVESTIGACIÓN Y DESARROLLO ORIENTADA POR MISIÓN AGUA (IOMA) 2017</t>
+          <t>SUB PROGRAMA PARA INSTRUCTORES – ITSE CONVENIO SUSCRITO ENTRE SENACYT, IFARHU Y MINISTERIO DE LA PRESIDENCIA</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Entidades públicas, personas jurídicas, con o sin fines de lucro, organizaciones no gubernamentales y asociaciones de interés público, que representen a grupos de investigación interdisciplinarios para la generación de conocimiento afín al tema agua. Los grupos de investigación podrán estar conformados por entidades o instituciones panameñas o extranjeras; sin embargo, en todos los casos la entidad que presente la propuesta, deberá tener la capacidad legal requerida por las leyes de la República de Panamá para contraer obligaciones, así como deberá estar radicada y desarrollar la investigación en la República de Panamá. La entidad que presente la propuesta representará a las demás entidades del grupo de investigación, por lo que la propuesta debe incluir como mínimo una carta de compromiso institucional por cada entidad participante del grupo de investigación y describir cómo realizarán la colaboración, cómo se fortalecerán o generarán capacidades nacionales. Los grupos de investigación deben promover la unión de esfuerzos con el sector público, empresas privadas, universidades, organizaciones no gubernamentales (ONG), laboratorios u otras entidades; orientando al grupo a la solución del problema planteado, de acuerdo a un objetivo y plan de trabajo a corto y mediano plazo, con capacidad de llevar a cabo investigación científica o desarrollo tecnológico.  DURACIÓN: Los proyectos adjudicados podrán tener una duración de hasta tres (3) años.  MONTOS: La SENACYT financiará hasta Doscientos Mil balboas (B/.200,000.00) de la totalidad del proyecto. El proponente debe contar con un compromiso tangible de contraparte (en especie o en efectivo) del monto total de proyecto. El proponente debe asegurarse que la distribución de fondos de su propuesta vaya acorde al objetivo del Programa. Es responsabilidad del proponente sustentar el impacto de la propuesta, su pertinencia con el PNSH y el mérito científico de la misma. Las propuestas seleccionadas podrán ser financiadas con recursos del BID.  Fecha de apertura: 18 de Abril 2017  Fecha límite de entrega de solicitud: 20 de Junio 2017 hasta las 1:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Profesionales panameños con título universitario en los campos de refrigeración/aire acondicionado, mecánica automotriz, mantenimiento industrial, hotelería, turismo y artes culinarias con experiencia mínima de 5 años en sus áreas de trabajo.  MONTOS: La beca cubrirá hasta el 100% del curso, de acuerdo a los rubros contemplado en el reglamento de Becas IFARHU-SENACYT.  Fecha de apertura: 16 de octubre 2017  Plazo para entrega: 24 de Noviembre 2017 hasta las 3:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/04/0.-Afiche-IOMA17-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/1.-Anuncio-IOMA-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/2.-Plan-Nacional-de-Seguridad-Hidrica-2015-2050-Agua-para-Todos.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/4.-Formulario-evaluacion-IOMA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/5.-Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/7.-Modelo-de-Contrato-por-Mérito.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/07/Listado-de-Propuestas-recibidas-IOMA2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/LISTADO-DE-PROPUESTAS-AVALADAS.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Resolución-Administrativa-No.-262.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Resolución-Administrativa-No.-269.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resolución-Administrativa-No.-277.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/Resolución-Administrativa-No.-05-de-10-de-enero-de-2018.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Anuncio-ITSE.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Declaración-Jurada-Nueva.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Pasos-a-Seguir-ITSE-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Perfiles-Convocatoria-I-Senacyt.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Reglamento-de-Becas-Nuevo-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/12/Anuncio-de-resultados-ITSE-2017.pdf</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-investigacion-y-desarrollo-orientada-por-mision-agua-ioma-2017/</t>
+          <t>https://www.senacyt.gob.pa/sub-programa-para-instructores-itse-convenio-suscrito-entre-senacyt-ifarhu-y-ministerio-de-la-presidencia/</t>
         </is>
       </c>
     </row>
@@ -5427,22 +5458,22 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA DE I+D ORIENTADA POR MISIÓN EN SALUD (IOMS) 2017</t>
+          <t>CONVOCATORIA PÚBLICA PARA EL REINGRESO DE MIEMBROS AL SISTEMA NACIONAL DE INVESTIGACIÓN (SNI) DE PANAMÁ 2017</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Entidades públicas, personas jurídicas, con o sin fines de lucro, organizaciones no gubernamentales y asociaciones de interés público, que representen a grupos de investigación interdisciplinarios para la generación de conocimiento afín al sector salud. Los grupos de investigación podrán estar conformados por entidades o instituciones panameñas o extranjeras; sin embargo, en todos los casos la entidad que presente la propuesta, deberá tener la capacidad legal requerida por las leyes de la República de Panamá para contraer obligaciones, así como deberá estar radicada y desarrollar la investigación en la República de Panamá. La entidad que presente la propuesta representará a las demás entidades del grupo de investigación, por lo que la propuesta debe incluir como mínimo una carta de compromiso institucional por cada entidad participante del grupo de investigación. Los grupos de investigación deben promover la unión de esfuerzos con el sector público, empresas privadas, universidades, organizaciones no gubernamentales (ONG), laboratorios u otras entidades; orientando al grupo a la solución del problema planteado, de acuerdo a un objetivo y plan de trabajo a corto y mediano plazo, con capacidad de llevar a cabo investigación científica o desarrollo tecnológico.  DURACIÓN: Los proyectos adjudicados podrán tener una duración de hasta tres (3) años.  MONTOS: La SENACYT financiará hasta Doscientos Mil balboas (B/.200,000.00) de la totalidad del proyecto. El proponente debe contar con un compromiso tangible de contraparte (en especie o en efectivo) del monto total de proyecto. El proponente debe asegurarse que la distribución de fondos de su propuesta vaya acorde al objetivo del Programa. Es responsabilidad del proponente sustentar el impacto de la propuesta, su pertinencia con el ANPIS y el mérito científico de la misma. Las propuestas seleccionadas podrán ser financiadas con recursos del BID.  Fecha de apertura: 18 de Abril 2017  Fecha límite de entrega de solicitud: 20 de Junio 2017 hasta las 1:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar.</t>
+          <t>DIRIGIDO A: Miembros actuales del SNI, que hayan ingresado al Sistema en la Convocatoria Pública de abril del 2014, en la categoría de Investigador Nacional o Investigador Distinguido. Siempre que dichos investigadores cumplan con los requisitos y criterios de evaluación del SNI.  Fecha de apertura: 5 de octubre 2016  Fecha límite de entrega de solicitud: 28 de abril de 2017 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/04/0.-Afiche-IOMS17.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/1.-Anuncio-saludiom17.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/2.-ANPIS.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/4.-Formulario-de-Evaluación.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/5.-Reglamento-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/7.-Modelo-de-Contrato-por-Mérito-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/07/Listado-de-Propuestas-Recibidas-IOMS17.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/Publicación-de-resultados-IOMS-2017.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Reingreso1-SNI-2017/criterios-internos-sni-areaI.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Reingreso1-SNI-2017/criterios-internos-sni-areaII.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Reingreso1-SNI-2017/criterios-internos-sni-areaIII.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Reingreso1-SNI-2017/criterios-internos-sni-areaIV.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/Formulario-de-evaluaci%C3%B3n-R2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Reingreso1-SNI-2017/ley56-sni-panama.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Reingreso1-SNI-2017/reglamento-sni.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Reingreso1-SNI-2017/anuncio-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Anuncio-de-Resultados-Reingreso-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Resoluci%C3%B3n-de-respuesta-al-Recurso-de-Reconsideraci%C3%B3n-Dr.-Reinhardt-Pinz%C3%B3n.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-24-Dr.-Jose-Gonz%C3%A1lez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-25-Dra.-Sandra-L%C3%B3pez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-26-Dra.-Maritza-Bravo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-27-Dra.-Virginia-Nu%C3%B1ez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-28-Dr.-Eric-Flores.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-29-Dr.-Lorenzo-C%C3%A1ceres.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-30-Dra.-Claudia-Rengifo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-31-Dr.-Jos%C3%A9-F%C3%A1brega.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-32-Dr.-Miguel-Vargas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-33-Dr.-Jos%C3%A9-Rios-Yuil.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-34-Dr.-Ricardo-Lleonart.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-35-Dr.-Manuel-Jim%C3%A9nez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-36-Dr.-Vladimir-Villarreal.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-37-Dr.-Rolando-Gittens.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-38-Dr.-Rito-Herrera.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-39-Dr.-Carlos-R%C3%ADos.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-40-Dra.-Evelyn-Quir%C3%B3s.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-41-Dr.-Armando-Durant.pdf</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-id-orientada-por-mision-en-salud-ioms-2017/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-reingreso-de-miembros-al-sistema-nacional-de-investigacion-sni-de-panama-2017/</t>
         </is>
       </c>
     </row>
@@ -5452,22 +5483,22 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA PARA EL INGRESO DE NUEVOS  MIEMBROS DEL SISTEMA NACIONAL DE INVESTIGACIÓN (SNI)  DE PANAMÁ 2017</t>
+          <t>CONVOCATORIA PÚBLICA DE FOMENTO A I+D (FID) 2017</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Investigadores panameños o extranjeros residentes en Panamá e Investigadores panameños residentes en el extranjero; siempre que dichos investigadores cumplan con los requisitos establecidos en el Reglamento, los Criterios Internos de Evaluación y en el anuncio y formulario del SNI.  DURACIÓN: Ver Anuncio.  Fecha de apertura: 30 de marzo 2017  Fecha límite de entrega de solicitud: 31 de mayo de 2017 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Personas naturales o jurídicas, en calidad de investigadores o grupos de investigación, individuales o afiliados, de entidades públicas, empresas privadas, universidades, escuelas técnicas, organizaciones no gubernamentales, laboratorios y demás entidades, con o sin fines de lucro, con capacidad de llevar a cabo investigación básica, aplicada o desarrollo tecnológico.  DURACIÓN: Los proyectos adjudicados podrán tener una duración de hasta dos (2) años. (En casos excepcionales y debidamente justificados podrán extenderse hasta 36 meses).  MONTOS: A. MODALIDAD DE INVESTIGADORES: Hasta B/. 60,000.00; B. MODALIDAD DE GRUPOS DE INVESTIGACIÓN: Hasta B/. 100,000.00; C. MODALIDAD DE COLABORACIÓN INTERNACIONAL: Hasta B/. 120,000.00  Fecha de apertura: 26 de Septiembre de 2017  Plazo para entrega: 30 de Noviembre 2017 hasta las 1:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/03/Anuncio-de-Convocatoria-P%C3%BAblica-fecha-corregida.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/03/Ley-56-SNI-de-Panam%C3%A1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/03/Resoluci%C3%B3n-CDN-30-de-2016-Gaceta-Oficial-28221-Reglamento-del-SNI.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/03/C%C3%B3digo-de-%C3%89tica-del-SNI.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/03/Resoluci%C3%B3n-que-aprueba-los-Objetos-de-Gastos-Permisibles-del-SNI.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/03/Criterios-Internos-de-Evaluaci%C3%B3n-%C3%81rea-I-Ciencias-Naturales-Qu%C3%ADmicas-y-Biol%C3%B3gicas-y-Ciencias-de-la-Tierra.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/03/Criterios-Internos-de-Evaluaci%C3%B3n-%C3%81rea-II-Ciencias-M%C3%A9dicas-y-de-la-Salud.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/03/Criterios-Internos-de-Evaluaci%C3%B3n-%C3%81rea-III-Ciencias-Agr%C3%ADcolas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/03/Criterios-Internos-de-Evaluaci%C3%B3n-%C3%81rea-IV-Ciencias-Sociales-Human%C3%ADsticas-Administrativas-y-Econ%C3%B3micas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/03/Criterios-Internos-de-Evaluaci%C3%B3n-Area-V-Ingenier%C3%ADas-Ciencias-F%C3%ADsicas-y-Matem%C3%A1ticas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/03/Formulario-de-evaluaci%C3%B3n-inicializado.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Resoluci%C3%B3n-de-extensi%C3%B3n-de-resultados-NM2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Lista-para-la-Web-Estudiantes-NM2017-sellada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/Lista-para-la-Web-Investigadores-NM-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-de-la-Secretar%C3%ADa-T%C3%A9cnica-N%C2%B06.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-7-Dra.-Arlene-Calvo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-8-Dr.-Julio-Santamar%C3%ADa.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-9-Dr.-Silvio-Vega.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-42-Di%C3%B3genes-Mora.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-43-Arqu%C3%ADmedes-Barahona.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-44-Miguel-Moreno.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-45-Lizzi-Herrera.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-46-Ciara-Ordo%C3%B1ez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-47-Cely-Gonz%C3%A1lez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-48-Alejandro-Llanes.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-49-Christian-Martin.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-50-Ricardo-Correa.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-51-Davis-Beltr%C3%A1n.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-52-Cristopher-Boya.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-53-Yuliana-Christopher.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-54-Dr.-Iv%C3%A1n-Valdespino.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-55-Dr.-Salvador-Vargas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-56-Dr.-Jorge-Per%C3%A9n.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-57-Dr.-Jos%C3%A9-Garc%C3%ADa.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-58-Dra.-Virginia-Torres.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-59-Dra.-Eunice-Molinar.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-60-Dr.-Dumas-Galv%C3%A9s.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-61-Dra.-Zuleima-Caballero.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-62-Dr.-H%C3%A9ctor-Poveda.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-63-Dr.-Carlos-Rovetto.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-64-Dr.-Orlando-Aguilar.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-65-Dra.-Elia-Cano.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-66-Dra.-D%C3%A9lfida-Rodr%C3%ADguez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-67-Dra.-Mariel-Monrroy.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-68-Dra.-Leidys-Torres.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-69-Dr.-Abel-Batista.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-70-Dra.-Y%C3%A9ssica-S%C3%A1ez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-71-Dr.-Alexander-Mart%C3%ADnez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-72-Dra.-Griselda-Caballero.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-73-Dra.-Anilena-Mej%C3%ADa.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-74-Dra.-Milena-G%C3%B3mez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-75-Dra.-Jeanethe-Anguizola.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-76-Dr.-Dorindo-C%C3%A1rdenas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-77-Dra.-Ilais-Moreno.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-78-Dr.-Arthur-James.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-79-Dr.-Alcibiades-Villarreal.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-80-Dra.-Tania-Herrera.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-81-Dra.-Mayte%C3%A9-Zambrano.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-82-Dr.-Danilo-C%C3%A1ceres.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-83-Dr.-Luis-Herrera.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-84-Dr.-Roberto-Murgas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-85-Dra.-Oris-Rodr%C3%ADguez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-86-Dra.-Mar%C3%ADa-Carreira.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-87-Dr.-Luis-Ram%C3%ADrez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-88-Dra.-Zohre-Kurt.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-89-Dra.-Alma-Fern%C3%A1ndez.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/09/1.-Anuncio-detallado.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/04/2.-Bases-de-la-Convocatoria-FID-17.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/4.-Formulario-de-evaluación-FID2017-versión-17-09-22.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/5.-REGLAMENTO-DE-CONTRATACIÓN-POR-MÉRITO-DE-SENACYT-RESOLUCIÓN-NO.-191-DE-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/7.-Modelo-de-Contrato-por-Mérito.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/10.-PENCYT-2015-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/11.-Clasificación-de-las-ciencias.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/12-Listado-de-Propuestas-Recibidas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/Resolución-de-Extensión-de-tiempo-FID17.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/Lista-de-Resultados-FID-17.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resolución-Administrativa-No.128.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resolución-Administrativa-No.129.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resolución-de-Adjudicación-de-Fondos-No.-136.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resolución-de-Adjudicación-de-Fondos-No.-137.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/RESOLUCION-DE-ADJUDICACIÓN-FID17-031.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resolución-de-Adjudicación-de-Fondos-No.-143.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resolución-de-Adjudicación-de-Fondos-No.-144.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resolución-Administrativa-No-134.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resolución-de-Adjudicación-de-Fondos-No.-154.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resolución-Administrativa-No.159.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resolución-Administrativa-No.160.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resolución-Administrativa-No.161.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resolución-de-Adjudicación-de-Fondos-N.-163.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/06/Resolución-de-Adjudicación-de-Fondos-No.-166.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/06/RA-189.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/06/RA-190.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/06/RA-191.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resolución-Administrativa-N159.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resolución-Administrativa-N173.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resolucion-Administrativa-N169FID.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resolucion-Administrativa-N206FID.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resolucion-Administrativa-N210FID.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/Resolución-Administrativa-No.226.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/08/Resolución-Administrativa-No.262-FID17.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/10/Resolución-Administrativa-No.-322-FID17.pdf</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-ingreso-de-nuevos-miembros-del-sistema-nacional-de-investigacion-sni-de-panama-2017/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-fomento-a-id-fid-2017/</t>
         </is>
       </c>
     </row>
@@ -5477,18 +5508,22 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA DE PROYECTOS 2018</t>
+          <t>CONVOCATORIA PÚBLICA DE INNOVACIÓN SOCIAL 2017</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Personas naturales panameñas o extranjeras residentes en Panamá, o jurídicas panameñas inscritas en el Registro Público de Panamá, que pueden actuar de forma individual o afiliados a entidades públicas, instituciones académicas, públicas o privadas, empresas privadas, escuelas técnicas, organizaciones no gubernamentales, centros de investigación públicos o privados y demás entidades con o sin fines de lucro.  MONTOS: El monto máximo previsto de adjudicación de propuestas será de hasta B/. 30,000.00. La SENACYT otorgará los subsidios económicos de hasta el 100% del costo total del proyecto según las necesidades plenamente justificadas en el mismo. Los proponentes deben asegurarse que la distribución de fondos y los objetos de gastos presentados en el presupuesto vaya acorde al artículo 49 del Reglamento de Contratación por Mérito y al objetivo del Programa.  Fecha de apertura: 26 de Septiembre de 2017  Plazo para entrega: 01 de Febrero 2018 hasta las 3:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr"/>
+          <t>DIRIGIDA A: Personas jurídicas, fundaciones de interés privado, organizaciones no gubernamentales, asociaciones de interés público, todas debidamente inscritas en el Registro Público de Panamá, entidades del sector público, cooperativas certificadas por IPACOOP y universidades (con o sin fines de lucro) debidamente reconocidas por el organismo nacional de acreditación.  OBJETIVO: En estrecha consulta con la comunidad, el objetivo es generar propuestas de solución con enfoque de ciencia, tecnología o innovación, para las necesidades sociales en diez (10) comunidades del distrito de Ñurum, comarca Ngäbe Buglé.  ÁREAS TEMÁTICAS:  CATEGORÍA A: Plagas en cultivos agrícolas y semillas: control y prevención.  CATEGORÍA B: Suelos: mejores uso, restauración y productividad.  CATEGORÍA C: Suelos: Agua: manejo del recurso, tratamiento y disponibilidad.  MONTOS: El monto máximo del subsidio económico que otorgará la SENACYT es hasta la suma de B/. 40,000.00.  Fecha de apertura: 26 de Septiembre de 2017.  Fecha para entrega de intención de propuesta: 16 de octubre de 2017, hasta las 3:00 p.m. hora exacta.  Fecha para entrega de propuesta: 27 de noviembre de 2017, hasta las 3:00 p.m. hora exacta.  Consultas: innovacionsocial2017@senacyt.gob.pa o al teléfono 517-0049 Para mayores detalles ver los documentos descargables</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/09/2.-Anuncio-de-la-convocatoria-IS2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/3.-Bases-de-la-convocatoria-IS2017-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/1.-Resoluci%C3%B3n-191-de-31-de-julio-de-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/8.-Modelo-de-Contrato-por-M%C3%A9rito.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/Publicaci%C3%B3n-Di%C3%A1logo-de-Saberes-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/12/Publicaci%C3%B3n-de-Resultados.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/RESOLUCION-DE-EXTENSI%C3%93N-DE-PLAZO-PARA-ENTREGA-DE-PROPUESTAS-IS-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/2Anuncio-de-Resultados.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/06/Resouci%C3%B3n-de-Adjudicaci%C3%B3n-CIS17-P-017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/06/Resoluci%C3%B3n-de-Adjudicaci%C3%B3n-CIS17-P-018.pdf</t>
+        </is>
+      </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-proyectos-2018-2/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-innovacion-social-2017/</t>
         </is>
       </c>
     </row>
@@ -5498,22 +5533,22 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>CONVOCATORIA DE PREGRADO DE EXCELENCIA PARA ESTUDIOS DE CIENCIAS BÁSICAS O MATEMÁTICAS 2016</t>
+          <t>CONVOCATORIA PÚBLICA PREGRADO DE EXCELENCIA 2017</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Estudiantes panameños que vayan a ingresar por primera vez a la universidad o que se encuentren cursando las carreras de licenciaturas en Ciencias Básicas (Biología, Química, Física o Matemáticas) en universidades oficiales de la República de Panamá.  DURACIÓN: La beca tendra una duración máxima de hasta cinco (5) años, dependiendo del plan de estudio.  MONTOS: Ver Anuncio.  FECHA DE APERTURA DE LA CONVOCATORIA: 17 de octubre de 2016.  PLAZO DE ENTREGA DE LA PROPUESTA: 17 de febrero de 2017 hasta las 3:00 PM HORA EXACTA. Es responsabilidad del proponente y no de la SENACYT asegurarse que la propuesta recibida esté completa y entregada en el (los) plazo(s) previsto(s).  CONSULTAS: bpcb@senacyt.gob.pa o al 517-0014/517-0119 Documentos para descargar</t>
+          <t>DIRIGIDO A: Estudiantes panameños que posean título de bachiller o estén cursando el último año del bachillerato, en un centro de estudios de educación media, nacional o extranjera, debidamente reconocido por la entidad competente en Panamá.  DURACIÓN: La beca tendrá una duración máxima de cinco (5) años.  MONTOS: La SENACYT establecerá una tabla de asignación de fondos indicando el monto correspondiente al estipendio de manutención según el país, región y universidad donde realice los estudios. La escala de asignaciones monetarias será publicada en la página web de la SENACYT  Fecha de apertura: 26 de septiembre 2017.  Fecha para entrega: 20 de abril 2018 hasta las 3:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/Ciencias-Basicas-2016/Anuncio.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/Ciencias-Basicas-2016/Formulario.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/Ciencias-Basicas-2016/Paz-Salvo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/Ciencias-Basicas-2016/Pasos.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/Ciencias-Basicas-2016/Checklist.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/Ciencias-Basicas-2016/Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/Ciencias-Basicas-2016/Declaracion.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/Anuncio-de-Resultados-Ciencias-Básicas-o-Matemáticas-2016.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/09/Anuncio-Pregrado-de-Excelencia.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/BEGE-2017-2018-Declaración-Jurada-Nueva.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/BPGE-2017-2018Carreras.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/BPGE-2017-2018Checklist.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/BPGE-2017-2018Lista-de-Universidades-por-Materias.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/BPGE-2017-2018Pasos-a-Seguir.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/Reglamento-de-Becas-Nuevo-2017-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/TABLA-DE-BECAS-PARA-PUBLICAR.pdf</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-de-pregrado-de-excelencia-para-estudios-de-ciencias-basicas-o-matematicas-2016/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-pregrado-de-excelencia-2017/</t>
         </is>
       </c>
     </row>
@@ -5523,22 +5558,22 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>MAESTRÍAS EN ÁREAS ESPECÍFICAS O DE PRIORIDAD IDENTIFICADAS POR LA ACP</t>
+          <t>CONVOCATORIA PÚBLICA DOCTORADO DE INVESTIGACIÓN 2017-2018</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Profesionales panameños, con título de licenciatura, interesados en adquirir especialidades en grado de maestría en el extranjero que les permitan fortalecer y perfeccionar su desempeño en el ámbito laboral en el país.  DURACIÓN: La beca tendrá una duración máxima de hasta dos (2) años para realizar la maestría. Fecha de apertura: 31 de enero 2017 Fecha límite de entrega de solicitud: 19 de abril de 2017 hasta las 3:00 p.m. hora exacta.  CONSULTAS:  bmacp@senacyt.gob.pa o al 517-0014 ext. 1133 o al 517-0133</t>
+          <t>DIRIGIDO A: Panameños que deseen formarse como investigadores en centros de estudios de excelencia en el extranjero o que ya se encuentren estudiando un doctorado de investigación en centros de estudio de excelencia en el extranjero.  DURACIÓN: La beca tendrá una duración de hasta cuatro (4) años si el beneficiario posee grado de maestría y hasta seis (6) años si el beneficiario no posee grado de maestría.  MONTOS: Las becas podrán tener una asignación anual hasta B/.60,000.00. El presupuesto se elaborará según los rubros y la tabla de asignación de fondos publicada en la página web de la SENACYT.  Fecha de apertura: 26 de septiembre 2017.  Fecha para entrega: 16 de enero 2018 hasta las 3:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/ACP-2017/declaracion-Jurada-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/ACP-2017/Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Anuncio-de-Resultado-ACP-2017.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/09/Anuncio-de-Doctorado-de-Investigacion-2017-18.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/TABLA-DE-BECAS-PARA-PUBLICAR-2017-18.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/Reglamento-de-Becas-Nuevo-2017-18.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/BEPDE-III-Declaracion-Jurada-Nueva-2017-18.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/02/Anuncio-de-Resultados_Doctorado-Inv.pdf</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/maestrias-en-areas-especificas-o-de-prioridad-identificadas-por-la-acp/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-doctorado-de-investigacion-2017-2018/</t>
         </is>
       </c>
     </row>
@@ -5548,22 +5583,22 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>MAESTRÍA EN ÁREAS ESPECÍFICAS 2017</t>
+          <t>CONVOCATORIA PÚBLICA DEL PROGRAMA DE INSERCIÓN DE BECARIOS 2017-2018</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>DIRIGIDA A: Panameños que posean título universitario de licenciatura expedido por una universidad nacional o extranjera, reconocida por la entidad competente en Panamá.  DURACIÓN: Estas becas de maestrías en áreas específicas tendrán una duración máxima de hasta dos (2) años.  MONTOS: Finaciamiento de hasta B/. 60,000.00 de acuerdo a disponibilidad presupuestaria.  FECHA DE APERTURA DE LA CONVOCATORIA: 31 de Enero de 2017.  PLAZO PARA ENTREGA DE PROPUESTAS: 27 de Abril de 2017 hasta las 3:00 P.M. HORA EXACTA. Es responsabilidad del proponente y no de la SENACYT asegurarse que la propuesta recibida esté completa y entregada en el (los) plazo(s) previsto(s).  CONSULTAS:  : mbae@senacyt.gob.pa hasta la fecha y hora de cierre correspondiente. Documentos para descargar</t>
+          <t>DIRIGIDO A: Profesionales con grado de Doctorado, que hayan sido becados a través de los Programas de Becas financiados por la SENACYT y que quieran insertarse en el mercado laboral en la República de Panamá, en institutos, centros de investigación, universidades, instituciones públicas o empresas privadas, que hayan suscrito Convenio con la SENACYT. En esta Convocatoria podrán participar los ex-becarios de la SENACYT que hayan retornado al país en el período de Junio 2017 a Enero de 2018.  DURACIÓN: La duración del subsidio económico brindado por la SENACYT a las Organizaciones Participantes será de máximo tres (3) años, por cada Beneficiario del programa.  COMPENSACIÓN SALARIAL: La compensación salarial que pagarán las Organizaciones Participantes a los ex-becarios de la SENACYT seleccionados en esta Convocatoria, en adelante Beneficiarios, será por un monto bruto no menor a Dos Mil Quinientos Balboas con 00/100 (B/. 2,500.00) mensuales. La SENACYT otorgará subsidios económicos a las Organizaciones Participantes, según lo establecido en los Convenios de Cooperación suscritos con la SENACYT.  Fecha de apertura: 26 de Septiembre de 2017  Plazo para entrega: 06 de Febrero 2018 hasta las 3:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/MAESTRIA-EN-AREAS-ESPECIFICAS-2017/declaracion-Jurada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/MAESTRIA-EN-AREAS-ESPECIFICAS-2017/Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Anuncio-de-Resultado-MAE.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/09/ANUNCIO-APROBADO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/DECLARACION.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/02/ACTA-DE-CIERRE-DE-APLICACIONES-RECIBIDAS.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/ACTA-DE-ANUNCIO-DE-RESULTADOS-CONOVATORIA-PÚBLICA-DE-SEPTIEMBRE-DE-2017.pdf</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/maestria-en-areas-especificas-2017/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-del-programa-de-insercion-de-becarios-2017-2018/</t>
         </is>
       </c>
     </row>
@@ -5573,22 +5608,22 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>DOCTORADO PARA FORMAR INVESTIGADORES PARA UNIVERSIDADES OFICIALES, CENTRO DE INVESTIGACIÓN Y LABORATORIOS DE INTERÉS NACIONAL – RONDA I 2017</t>
+          <t>DOCTORADO PARA FORMAR INVESTIGADORES PARA UNIVERSIDADES, CENTROS DE INVESTIGACIÓN O LABORATORIOS DE INTERÉS NACIONAL 2017-2018</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>DIRIGIDA A: Profesores o Investigadores vinculados a universidades oficiales de Panamá, centro de investigación, laboratorio de interés nacional incluyendo laboratorios gubernamentales y laboratorios conformados como asociaciones de interés público que se desempeñen en las áreas de ciencia y tecnología; el nivel de entrenamiento o grado a obtener es doctorado en un centro de reconocida excelencia internacional.  DURACIÓN: La beca tendrá una duración máxima de hasta cuatro (4) años.  MONTOS: Financiamiento de hasta B/. 60,000.00 por año. La beca es hasta un 100% del costo, según tabla de presupuesto del Programa de Becas IFARHU-SENACYT. En caso de requerir materias de reforzamiento, estas deberán ser cubiertas por el becario. * Los estudios de doctorado deberán cursarse en la modalidad presencial y de tiempo completo, sin embargo, se apoyará la modalidad compartida para aquellos programas que permitan desarrollar la investigación en Panamá. Nota: El programa no cubrirá propedéuticos o materias que no sean parte del programa de doctorado.  FECHA DE APERTURA DE LA CONVOCATORIA: 31 de Enero de 2017  PLAZO PARA ENTREGA DE PROPUESTAS: 18 de Abril de 2017 hasta las 3:00 P.M. HORA EXACTA Es responsabilidad del proponente y no de la SENACYT asegurarse que la propuesta recibida esté completa y entregada en el (los) plazo(s) previsto(s).  CONSULTAS: docexce@senacyt.gob.pa o al 517-0014, ext. 1133 o 517-0133.</t>
+          <t>DIRIGIDO A: Profesores o panameños vinculados a universidades, centros de investigación o laboratorios de interés nacional ubicadas en panamá, que se desempeñen en las áreas de ciencia y tecnología. El doctorado debe realizarse en un centro internacional de reconocida excelencia.  DURACIÓN: La beca tendrá una duración de hasta cuatro (4) años si el beneficiario posee grado de maestría y hasta seis (6) años si el beneficiario no posee grado de maestría.  MONTOS: Las becas podrán tener una asignación anual hasta B/.60,000.00. El presupuesto se elaborará según los rubros y la tabla de asignación de fondos publicada en la página web de la SENACYT.  Fecha de apertura: 26 de septiembre 2017.  Fecha para entrega: 16 de enero 2018 hasta las 3:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/DOCTORADO-DE-EXCELENCIA-2017/BEPDE-I-Declaracion-Jurada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/DOCTORADO-DE-EXCELENCIA-2017/BEPDE-I-2017-Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Anuncio-de-Resultado-Doctorado-de-Excelencia.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/09/Anuncio-de-Doctorado-de-Excelencia.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/BEPDE-III-Declaración-Jurada-Nueva.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/Reglamento-de-Becas-Nuevo-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/TABLA-DE-BECAS-PARA-PUBLICAR-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/02/Anuncio-de-Resultados_-Doctorado-Excel.pdf</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/doctorado-para-formar-investigadores-para-universidades-oficiales-centro-de-investigacion-y-laboratorios-de-interes-nacional-ronda-i-2017/</t>
+          <t>https://www.senacyt.gob.pa/doctorado-para-formar-investigadores-para-universidades-centros-de-investigacion-o-laboratorios-de-interes-nacional-2017-2018/</t>
         </is>
       </c>
     </row>
@@ -5598,22 +5633,22 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>II CONVOCATORIA PÚBLICA PARA LA GESTIÓN DEL PROGRAMA DE CAMPAMENTO CIENTÍFICO Y TECNOLÓGICO</t>
+          <t>CONVOCATORIA PÚBLICA PARA PROYECTOS DE INNOVACIÓN EMPRESARIAL 2018</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>DIRIGIDA A: Universidades debidamente acreditadas por el CONEAUPA y Centros de Investagación públicos o privados sin fines de lucro, que operen en el territorio de la República de Panamá.  DURACIÓN: Todos los campamentos deberán desarrollarse en un período de 4 a 8 días, en vacaiones escolares. Sin embargo, los Contratos de Subsidio Económico que se suscriban para amparar su ejecución tendrán una duración de 6 meses contados a partor de la notificación del refrendo de Contraloría General de la República.  MONTOS: Se otorgarán subsidios económicos por el monto de B/. 50,000.00, para mayor detalle favor descargar el anuncio de la convocatoria.  FECHA DE APERTURA DE LA CONVOCATORIA: 31 de enero de 2017  PLAZO PARA ENTREGA DE PROPUESTAS: 30 de marzo de 2017 hasta las 3:00 P.M. HORA EXACTA Es responsabilidad del proponente y no de la SENACYT asegurarse que la propuesta recibida esté completa y entregada en el (los) plazo(s) previsto(s).  CONSULTAS: doctorado@senacyt.gob.pa o al 517-0014, ext. 1133 o 517-0133.</t>
+          <t>DIRIGIDO A: Personas jurídicas panameñas con fines de lucro debidamente inscritas en el Registro Público de Panamá, con un mínimo de veinticuatro (24) meses de operación en el país, a la fecha de apertura de esta convocatoria. En sus propuestas podrán incluir la participación de universidades nacionales o centros de investigación nacionales.  MONTOS: El monto máximo del subsidio económico que otorgará la SENACYT es hasta la suma de B/. 200,000.00.  Fecha de apertura: 26 de Septiembre de 2017  Plazo para entrega: 27 de Noviembre 2017 hasta las 2:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/A-Cientifica/CAMPAMENTO-CIENTIFICO-TECNOLOGICO-2017/anucio.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/A-Cientifica/CAMPAMENTO-CIENTIFICO-TECNOLOGICO-2017/formulario-Evaluacion.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/A-Cientifica/CAMPAMENTO-CIENTIFICO-TECNOLOGICO-2017/Lista-Documentos-Entregar.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/A-Cientifica/CAMPAMENTO-CIENTIFICO-TECNOLOGICO-2017/reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/A-Cientifica/CAMPAMENTO-CIENTIFICO-TECNOLOGICO-2017/Guia-Campamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/Acta-de-Cierre-de-Recepci%C3%B3n-de-Propuestas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/propuestas_avaladas_face_negociacion.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/09/1.-Resoluci%C3%B3n-191-de-31-de-julio-de-2017-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/2.-Anuncio_fie2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/3.-bases_fie2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/5.-Formulario-de-Evaluacion-FIE2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/6.-Modelo-de-Contrato-por-M%C3%A9rito.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/Propuestas-Admitidas-FIE-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/RESOLUCION-DE-EXTENSI%C3%93N-DE-PUBLICACI%C3%93N-DE-RESULTADOS-FIE-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/Publicaci%C3%B3n-de-Resultados-FIE2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/06/FIE18-P-003-Plywood-Orozco.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/FIE18-P-010-CALESA.pdf</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/ii-convocatoria-publica-para-la-gestion-del-programa-de-campamento-cientifico-y-tecnologico/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-proyectos-de-innovacion-empresarial-2018/</t>
         </is>
       </c>
     </row>
@@ -5623,22 +5658,22 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>CONVOCATORIAS PARA LAS UNIVERSIDADES ACREDITADAS EN LA REPÚBLICA DE PANAMÁ PARA PRESENTACIÓN DE PROPUESTAS DE PROGRAMAS DE POSTGRADO DE INVESTIGACIÓN – 2017</t>
+          <t>CONVOCATORIA PÚBLICA DE FOMENTO A NUEVOS EMPRENDIMIENTOS: CAPITAL SEMILLA 2018</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Universidades debidamente acreditadas por la CONEAUPA en la República de Panamá con programas de postgrado presenciales de tiempo completo.  DURACIÓN: Ver Anuncio  Fecha de apertura: 28 de enero 2017  Fecha límite de entrega de solicitud: 25 de abril de 2017 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: A)Nuevos emprendedores: personas naturales, de nacionalidad panameña, residentes en Panamá, mayores de edad; B)Microempresas: personas jurídicas, panameñas, debidamente registradas y en funcionamiento en la República de Panamá, por más de un (1) año antes de la fecha de apertura de esta convocatoria y que hayan generado en ese año ingresos brutos o facturación no mayor de doscientos mil balboas (B/.200,000.00).  MONTOS: El monto máximo del subsidio económico que otorgará la SENACYT es hasta la suma de B/. 25,000.00. Este monto máximo incluirá el desarrollo del proyecto y el proceso de incubación, que debe ser incluido con carácter obligatorio en todos los proyectos presentados en la Convocatoria. No deberá destinarse una suma mayor al veinte por ciento (20%) del monto total del proyecto, al proceso de incubación.  Fecha de apertura: 26 de Septiembre de 2017  Plazo para entrega: 15 de Noviembre 2017 hasta las 3:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Universidades/PROGRAMA-DE-FORTALECIMIENTO-A-LOS-POSTGRADOS-NACIONALES-DE-SENACYT-2017/anuncio.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Universidades/PROGRAMA-DE-FORTALECIMIENTO-A-LOS-POSTGRADOS-NACIONALES-DE-SENACYT-2017/FORMULARIO-EVALUADOR-PROPUESTA-120117.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Universidades/PROGRAMA-DE-FORTALECIMIENTO-A-LOS-POSTGRADOS-NACIONALES-DE-SENACYT-2017/Gaceta-Oficial.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Universidades/PROGRAMA-DE-FORTALECIMIENTO-A-LOS-POSTGRADOS-NACIONALES-DE-SENACYT-2017/Checklist.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Acta-de-Recepci%C3%B3n-de-Propuesta-Mes-de-abril-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/06/Resultados-de-Convocatoria-P%C3%BAblica-para-universidades-acreditadas-2017.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/09/1.-Resoluci%C3%B3n-191-de-31-de-julio-de-2017-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/2.-Anuncio_cs_2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/3.-Bases_cs_2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/7.-Modelo-de-Contrato-por-M%C3%A9rito-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/Intenciones-de-Propuesta-Admitidas-NECS2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/Propuestas-Admitidas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/Extensi%C3%B3n-de-Plazo-de-Publicaci%C3%B3n-de-resultados-NECS18.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/Publicaci%C3%B3n-de-Resultados-NECS2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/NECS18-P-108-Gerardo-Carvajal.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/NECS18-P-025-William-Mundo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/NECS18-P-040-Italpan-International-Corp..pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/06/NECS18-P-111-Jennifer-Salazar.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/06/NECS18-P-058-Juan-David-Kong-Man.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/06/NECS18-P-098-Dianet-Pinillo-Acosta.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/06/NECS18-P-075-AMBITEK-SERVICES.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/06/NECS18-P-091-Heber-Guerra.pdf</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatorias-para-las-universidades-acreditadas-en-la-republica-de-panama-para-presentacion-de-propuestas-de-programas-de-postgrado-de-investigacion-2017/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-fomento-a-nuevos-emprendimientos-capital-semilla-2018/</t>
         </is>
       </c>
     </row>
@@ -5648,22 +5683,22 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PARA EL FOMENTO A NUEVOS EMPRENDIMIENTOS 2017: CAPITAL PARA EMPRENDIMIENTOS EN FASE DE ESCALAMIENTO</t>
+          <t>CONVOCATORIA DE MAESTRÍAS A REALIZAR EN UNIVERSIDADES OFICIALES EN PANAMÁ, 2017</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: • Personas naturales, de nacionalidad panameña, mayores de edad, residentes en Panamá. • Personas Jurídicas panameñas de reciente creación (no más de 24 meses), con ventas anuales no mayores a ciento cincuenta mil balboas (B/.150,000.00).  DURACIÓN: Los proyectos adjudicados podrán tener una duración máxima de hasta doce (12) meses.  MONTOS: El monto máximo del subsidio económico que otorgará la SENACYT es por la suma de hasta B/. 50,000.00.  Fecha de apertura: 28 de enero 2017  Fecha límite de entrega de solicitud: 28 de marzo de 2017 hasta las 2:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Panameños que posean título de licenciatura y que estén interesados en cursar estudios de maestría en carreras de salud requeridas en el país en un centro universitario oficial de país.  DURACIÓN: Estas becas tendrán una duración máxima de acuerdo al Plan de estudio.  MONTOS: Se financiarán el 100% de los costos de matrícula y créditos académicos.  Fecha de apertura: 16 de Agosto 2017  Fecha para entrega: 12 de Diciembre 2017 hasta las 3:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Innovacion/Convocatoria-para-el-Fomento-a-Nuevos-Emprendimientos-2017/Resolucion-056.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/Propuestas-Admitidas-NEE-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Resolucion-de-Extension-No.1_140.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/06/Resoluci%C3%B3n-de-Extensi%C3%B3n-No.2_163.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/06/Publicaci%C3%B3n-de-Resultados-Fase-de-Escalamiento.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Anuncio..pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/CheckList-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Declaracion-Jurada-Reglamento-de-Becas-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Pasos-a-Seguir..pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Reglamento-de-Becas-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/Resoluci%C3%B3n-Desierta.pdf</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-para-el-fomento-a-nuevos-emprendimientos-2017-capital-para-emprendimientos-en-fase-de-escalamiento/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-de-maestrias-a-realizar-en-universidades-oficiales-en-panama-2017/</t>
         </is>
       </c>
     </row>
@@ -5673,18 +5708,22 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>NUEVOS INVESTIGADORES 2017</t>
+          <t>PROGRAMA DE BECAS DE PREGRADO DE EXCELENCIA PARA EL SECTOR SALUD</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>DIRIGIDA A: Panameños residentes en Panamá que estén cursando los dos últimos años de la licenciatura, o cursando un posgrado, afiliados a una entidad pública, universidad, organización no gubernamental, asociaciones de interés público o personas jurídicas con o sin fines de lucro, con capacidad para realizar investigación científicas y desarrollo tecnológico e innovación.  DURACIÓN: El contrato podrá tener una duración máxima de hasta un (1) año calendario.  MONTOS: Ver Anuncio.  FECHA DE APERTURA DE LA CONVOCATORIA: 26 de Enero de 2017.  PLAZO PARA ENTREGA DE PROPUESTAS (PRIMER CIERRE): 3 de Mayo de 2017  Hasta las 3:00 PM HORA EXACTA.  PLAZO PARA ENTREGA DE PROPUESTAS (SEGUNDO CIERRE): 5 de Septiembre de 2017 hasta las 3:00 P.M. HORA EXACTA. Es responsabilidad del proponente y no de la SENACYT asegurarse que la propuesta recibida esté completa y entregada en el (los) plazo(s) previsto(s).  CONSULTAS: ni@senacyt.gob.pa o al 517-0014 ext. 1047 ó 1170</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr"/>
+          <t>DIRIGIDO A: Panameños que estén interesados en cursar o que se encuentren cursando licenciaturas en el área de salud en universidades oficiales del país.  DURACIÓN: La beca tendrá una duración máxima de acuerdo al Plan de Estudio de la carrera.  MONTOS: El Financiamiento es de hasta el 100% del costo total de la carrera. La beca incluirá un estipendio de manutención de B/.600.00 mensuales por la duración de la carrera.  Fecha de apertura: 16 de Agosto 2017  Fecha para entrega: 20 de Diciembre 2017 hasta las 3:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Anuncio-6.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Checklist-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Declaración-Jurada-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Formulario-de-Solicitud-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Pasos-a-Seguir-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Paz-y-Salvo-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Reglamento-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/02/Anuncio-de-Resultados-Pregrado-de-Excelencia-para-el-sector-salud-2017.pdf</t>
+        </is>
+      </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/nuevos-investigadores-2017/</t>
+          <t>https://www.senacyt.gob.pa/programa-de-becas-de-pregrado-de-excelencia-para-el-sector-salud/</t>
         </is>
       </c>
     </row>
@@ -5694,22 +5733,22 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>PROGRAMA JÓVENES CIENTÍFICOS 2017</t>
+          <t>ESPECIALIDADES Y SUBESPECIALIDADES MÉDICAS EN ÁREAS PRIORITARIAS DEL SECTOR SALUD A REALIZAR EN EL EXTRANJERO</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Jóvenes estudiantes panameños pertenecientes al sistema educativo nacional que se encuentren cursando entre octavo y duodécimo grado, que deseen realizar investigaciones científicas.  MONTOS: Ver Anuncio.  FECHA DE APERTURA DE LA CONVOCATORIA: 26 de enero de 2017.  PLAZO DE ENTREGA DE LA PROPUESTA: 23 de marzo de 2017 hasta las 3:00 PM HORA EXACTA. Es responsabilidad del proponente y no de la SENACYT asegurarse que la propuesta recibida esté completa y entregada en el (los) plazo(s) previsto(s).  CONSULTAS: aguillen@senacyt.gob.pa o al 517-0056.</t>
+          <t>DIRIGIDO A: Médicos panameños idóneos que se encuentren o no laborando en el sistema público de salud, interesados en adquirir especialidades o subespecialidades médicas en el extranjero, con interés de perfeccionar su desempeño en el ambiente laboral en las áreas del conocimiento priorizadas por el sector salud.  DURACIÓN: La duración de esta beca será de acuerdo al programa de la especialidad o de la subespecialidad médica que va a realizar y de conformidad con lo establecido por el Consejo Técnico de Salud.  MONTOS: La beca cubrirá hasta el 100% de la especialidad o de la subespecialidad médica, según lo establecido en el Reglamento de Becas IFARHU-SENACYT.  Fecha de apertura: 16 de Agosto 2017  Fecha para entrega: 24 de Enero 2018 hasta las 3:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/A-Cientifica/jovenes-cientificos-2017/anuncio.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/A-Cientifica/jovenes-cientificos-2017/Carta-de-autorizacion-del-tutor-legal.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/A-Cientifica/jovenes-cientificos-2017/Carta-de-compromiso-Adulto-Coordinador-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/A-Cientifica/jovenes-cientificos-2017/Carta-de-compromiso-Participantes-y-Tutores-Legales-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/A-Cientifica/jovenes-cientificos-2017/Idea-de-proyecto-y-motivacion-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/A-Cientifica/jovenes-cientificos-2017/Lista-de-mentores-2017-ultimo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/A-Cientifica/jovenes-cientificos-2017/Reglamento-Jovenes-Cientificos-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/4743_170420105742_001.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/lista-de-recomendados-JC-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/07/Acta-de-Resultados-JC.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Anuncio-5.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Checklist.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Declaración-Jurada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Formulario-de-Solicitud.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Listado-de-Especialidades-y-Subespecialidades-Médicas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Pasos-a-Seguir-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Paz-y-Salvo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/3Anuncio-de-Resultado-1.pdf</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/programa-jovenes-cientificos-2017/</t>
+          <t>https://www.senacyt.gob.pa/especialidades-y-subespecialidades-medicas-en-areas-prioritarias-del-sector-salud-a-realizar-en-el-extranjero/</t>
         </is>
       </c>
     </row>
@@ -5719,22 +5758,22 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>GENERACIÓN DE CAPACIDADES CIENTÍFICAS Y TECNOLÓGICAS 2017</t>
+          <t>CONVOCATORIA DE MAESTRÍAS EN CARRERAS DE SALUD EN EL EXTRANJERO</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Personas jurídicas con o sin fines de lucro debidamente inscrita en el Registro Público de Panamá y personas naturales de nacionalidad panameña, residentes en el país dedicadas a realizar actividades que fortalezcan el sistema de ciencia, tecnología e innovación. Las personas naturales pueden participar individualmente o afiliados a entidades públicas o privadas, universidades, organizaciones no gubernamentales, asociaciones de interés público y centros de investigación.  DURACIÓN: Las actividades contempladas dentro del contrato deben ser desarrolladas dentro del término de un (1) año. Para las categorías 1 y 3 el tiempo máximo efectivo de la estadía o pasantía será de tres (3) meses, sin embargo, el contrato podrá contemplar hasta un (1) año calendario. Se requiere que las actividades a desarrollar, se inicien a partir de seis (6) meses después de la fecha del cierre de la convocatoria.  MONTOS: Financiamiento de hasta el 100% del costo de la propuesta según las necesidades plenamente justificadas de la misma. Hasta un máximo de B/. 15,000.00.  FECHA DE APERTURA DE LA CONVOCATORIA: 26 de enero de 2017  PLAZO PARA ENTREGA DE PROPUESTAS (PRIMER CIERRE): 26 de abril de 2017 Hasta las 3:00 PM HORA EXACTA.  PLAZO PARA ENTREGA DE PROPUESTAS (SEGUNDO CIERRE): 29 de agosto de 2017 Hasta las 3:00 PM HORA EXACTA. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Panameños que posean título de licenciatura y que estén interesados en cursar estudios de maestría internacionales en carreras de salud en el extranjero y que sean requeridas en el país.  DURACIÓN: La beca tendrá una duración de dos (2) años.  MONTOS: Financiamiento de hasta el 100% de la Maestría, según lo establecido en el Reglamento de becas IFARHU-SENACYT.  Fecha de apertura: 16 de Agosto 2017  Fecha para entrega: 18 de Enero 2018 hasta las 3:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Generacion-capacidades-2017/REGLAMENTO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/SCAN0000.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/06/Propuestas-Avaladas-a-la-Fase-de-Negociaci%C3%B3n-de-Generaci%C3%B3n-de-Capacidades-2017-Primer-Cierre.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/ACTA-DE-RECEPCI%C3%93N-DE-GENERACI%C3%93N-DE-CAPACIDADES-2017-SEGUNDO-CIERRE.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/RESOLUCION-216.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/resoluci%C3%B3n-223.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/resoluci%C3%B3n-224.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/RESOLUCION-227.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/RESOLUCION-228.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/Resoluci%C3%B3n-No.-234.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Resoluci%C3%B3n-N%C2%B0215.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Resoluci%C3%B3n-N%C2%B0238.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Resoluci%C3%B3n-N%C2%B0251.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Resoluci%C3%B3n-N%C2%B0254.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/PROPUESTAS-AVALADAS-DE-GENERACION-DE-CAPACIDADES-2017-SEGUNDO-CIERRE.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/RESOLUCION-272.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/Jose-Julio-Casas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/02/Edwin-Segura15-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/02/Clotilde-Arrocha-28-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/02/Celestino-Aguilar-30-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/02/Evgeni-Cruz-31-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/02/Reinhardt-Pinz%C3%B3n-32-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/02/Yamileth-Pitt%C3%AD-33-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/02/Roberto-Armando-38-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/02/Orlando-Melgar-41-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/02/INDICASAT-42-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/04/RESOLUCION-DE-ADJUDICACION-99.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Anuncio-3.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/CheckList.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Declaracion-Jurada-Reglamento-de-Becas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Pasos-a-seguir.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Reglamento-de-Becas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/Anuncio-de-Resultado-1.pdf</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/generacion-de-capacidades-cientificas-y-tecnologicas-2017/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-de-maestrias-en-carreras-de-salud-en-el-extranjero/</t>
         </is>
       </c>
     </row>
@@ -5744,22 +5783,22 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PARA PROYECTOS DE INNOVACIÓN EMPRESARIAL 2017</t>
+          <t>MAESTRÍA O DOCTORADO EN CIENCIAS AGROPECUARIAS, 2017</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Personas jurídicas panameñas con fines de lucro debidamente inscritas en el Registro Público de Panamá, con un mínimo de veinticuatro meses de operación en el país, a la fecha de apertura de esta convocatoria. En sus propuestas podrán incluir la participación de universidades nacionales o centros de investigación nacionales. En esta convocatoria las personas jurídicas serán clasificadas de la siguiente forma: •EMPRESAS TIPO A: Personas jurídicas con fines de lucro, debidamente inscritas en Panamá, que generen ingresos brutos o facturación anual hasta la suma de un millón de balboas (B/.1,000,000.00). •EMPRESAS TIPO B: Personas jurídicas con fines de lucro, debidamente inscritas en Panamá, que generen ingresos brutos o facturación anual desde un millón de balboas con 01/100 (B/.1,000,000.01) hasta la suma de treinta millones de balboas (B/.30,000,000.00). •EMPRESAS TIPO C: Personas jurídicas con fines de lucro, debidamente inscritas en Panamá, que generen ingresos brutos o facturación anual desde treinta millones de balboas con 01/100 (B/.30,000,000.01) en adelante.  DURACIÓN: Los proyectos adjudicados podrán tener una duración de hasta veinticuatro (24) meses  Fecha de apertura: 26 de enero 2017  Fecha límite de entrega de solicitud: 28 de marzo de 2017 hasta las 2:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Panameños, interesados en adquirir título de maestría o doctorado en el extranjero que le permitan fortalecer y perfeccionar su desempeño en el sector agropecuario.  DURACIÓN: Las becas de maestría tendrán una duración máxima de hasta dos (2) años y las becas de doctorado tendrán una duración máxima de hasta cuatro (4) años. Los aspirantes sólo podrán participar para concursar por una de las dos opciones.  MONTOS: Financiamiento de hasta B/.60,000.00 por año de acuerdo a disponibilidad presupuestaria de la SENACYT.  Fecha de apertura: 16 de Agosto 2017  Fecha para entrega: 12 de Diciembre 2017 hasta las 3:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Innovacion/Convocatoria-para-Proyectos-de-Innovacion-Empresarial-2017/Resolucion-056.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/Propuestas-Recibidas-FIE-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Resoluci%C3%B3n-de-Extensi%C3%B3n-No.1_136.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/06/Resoluci%C3%B3n-de-Extensi%C3%B3n-No.2_164.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/07/Publicacion-de-Resultados-DINE.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Resoluci%C3%B3n-Administrativa-No.-265.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Resoluci%C3%B3n-Administrativa-No.-266.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/12/Resoluci%C3%B3n-de-Adjudicaci%C3%B3n-No.-284-FIE17-P-012.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/12/Resoluci%C3%B3n-de-Adjudicaci%C3%B3n-No.-287-FIE17-P-001.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/Resoluci%C3%B3n-de-Adjudicaci%C3%B3n-No.-7-18-FIE17-P-011.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Anuncio-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/BEPA_CheckList.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/BEPA_Declaracion-Jurada-Reglamento-de-Becas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/BEPA_Pasos-a-seguir.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/BEPA_Reglamento-de-Becas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/02/Anuncio-de-Resultado.pdf</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-para-proyectos-de-innovacion-empresarial-2017/</t>
+          <t>https://www.senacyt.gob.pa/maestria-o-doctorado-en-ciencias-agropecuarias-2017/</t>
         </is>
       </c>
     </row>
@@ -5769,22 +5808,22 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>PREMIO A LA INNOVACIÓN EMPRESARIAL 2017</t>
+          <t>MAESTRÍA EN ÁREAS ESPECÍFICAS RONDA II, 2017</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Empresas con fines de lucro debidamente registradas en Panamá  OBJETIVO: Promover y fortalecer la capacida de innovación en las empresas de Panamá, mediante el reconocimiento de actividades exitosamente probadas de innovación empresarial.  Fecha de apertura: 5 de diciembre de 2016  Fecha límite de entrega de solicitud: 13 de febrero de 2017 hasta las 11:30 p.m. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Panameños que estén cursando su último semestre de licenciatura o que posean título universitario de licenciatura expedido por una universidad nacional o extranjera, reconocido por la entidad competente en Panamá.  DURACIÓN: Estas becas de maestrías en áreas específicas tendrán una duración máxima de hasta dos (2) años.  MONTOS: Financiamiento de hasta B/.60,000.00 por año de acuerdo a disponibilidad presupuestaria de la SENACYT.  Fecha de apertura: 16 de Agosto 2017  Fecha para entrega: 31 de Octubre 2017 hasta las 3:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Innovacion/Premio_la_innovacion_empresarial-2017/Formulario_Evaluacion_Propuesta.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Innovacion/Premio_la_innovacion_empresarial-2017/Reglamento.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Anuncio-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Chesli.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/declaracion-Jurada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Pasos-a-Seguir.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Reglamento-de-becas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/12/Anuncio-de-Resultado.pdf</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/premio-a-la-innovacion-empresarial-2017/</t>
+          <t>https://www.senacyt.gob.pa/maestria-en-areas-especificas-ronda-ii-2017/</t>
         </is>
       </c>
     </row>
@@ -5794,22 +5833,22 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA PARA EL TERCER REINGRESO DE MIEMBROS AL SISTEMA NACIONAL DE INVESTIGACIÓN (SNI) DE PANAMÁ 2017</t>
+          <t>PROGRAMA DE BECAS DE CARRERAS TÉCNICAS EN SALUD</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Miembros actuales del SNI, que hayan reingresado por segunda vez al Sistema en la Convocatoria Pública de septiembre del 2014, en la categoría de Investigador Nacional o Investigador Distinguido. Siempre que dichos investigadores cumplan con los requisitos y criterios de evaluación del SNI.  Fecha de apertura: 5 de octubre de 2016  Fecha de cierre de convocatoria: 28 de abril de 2017 (3:00 PM HORA EXACTA) de 2017 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Panameños interesados en ingresar o que se encuentren cursando una formación técnica universitaria en las áreas de Control de Vectores, Enfermería, Saneamiento Ambiental o Asistente de laboratorio clínico.  DURACIÓN: Tendrá una duración de acuerdo al Programa Académico de cada carrera.  MONTOS: Financiamiento de hasta el 100% de la carrera, según lo establecido en el Reglamento de Becas IFARHU-SENACYT.  Fecha de apertura: 16 de Agosto 2017  Fecha para entrega: 19 de Diciembre 2017 hasta las 3:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Reingreso3-SNI-2017/criterios-internos-sni-areaI.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Reingreso3-SNI-2017/criterios-internos-sni-areaII.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Reingreso3-SNI-2017/criterios-internos-sni-areaIII.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Reingreso3-SNI-2017/criterios-internos-sni-areaIV.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/Formulario-de-evaluaci%C3%B3n-3R2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Reingreso3-SNI-2017/ley56-sni-panama.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Reingreso3-SNI-2017/reglamento-sni.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Reingreso3-SNI-2017/anuncio-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Anuncio-de-Resultados-Tercer-Reingreso-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-06-Dr.-Roberto-Iba%C3%B1ez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-07-Dr.-Alexis-Mojica.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-08-Dr.-Blas-Armi%C3%A9n.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-09-Dr.-Juan-Ja%C3%A9n.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-10-Dr.-Ismael-Camargo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-11-Dr.-Herm%C3%B3genes-Fern%C3%A1ndez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-12-Dr.-Gabriel-Quintero.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-13-Dr.-Bruno-Zachrisson.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-14-Dr.-Gabrielle-Britton.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Anuncio.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Check-List.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Declaración-Jurada-Reglamento-de-Becas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/pasos-seguir.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/Anuncio-de-Resultados_SALUD.pdf</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-tercer-reingreso-de-miembros-al-sistema-nacional-de-investigacion-sni-de-panama-2017/</t>
+          <t>https://www.senacyt.gob.pa/programa-de-becas-de-carreras-tecnicas-en-salud/</t>
         </is>
       </c>
     </row>
@@ -5819,22 +5858,22 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA PARA EL SEGUNDO REINGRESO DE MIEMBROS AL SISTEMA NACIONAL DE INVESTIGACIÓN (SNI) DE PANAMÁ 2017</t>
+          <t>BECAS PARA ESTUDIOS DEL PROGRAMA DE MAESTRÍA DUAL EN SUPPLY CHAIN ENGINEERING</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Miembros actuales del SNI, que hayan reingresado por primera vez al Sistema en la Convocatoria Pública de marzo del 2015, en la categoría de Investigador Nacional o Investigador Distinguido. Siempre que dichos investigadores cumplan con los requisitos y criterios de evaluación del SNI.  Fecha de apertura: 5 de octubre de 2016  Fecha de cierre de la convocatoria: 28 de abril de 2017 (3:00 PM HORA EXACTA) Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Panameños (as) con formación académica o experiencia en Ingeniería, Logística o carreras afines.  DURACIÓN: Un (1) año (ver detalles en Anuncio).  MONTOS: Financiamiento de hasta B/.60,000.00 por el período de duración de la maestría.  Fecha de apertura: 01 de Agosto 2017  Plazo para trámite de admisión condicional: 15 de Febrero 2018  Fecha para entrega: 24 de Mayo 2018 hasta las 3:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Reingreso2-SNI-2017/criterios-internos-sni-areaI.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Reingreso2-SNI-2017/criterios-internos-sni-areaII.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Reingreso2-SNI-2017/criterios-internos-sni-areaIII.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Reingreso2-SNI-2017/criterios-internos-sni-areaIV.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/Formulario-de-evaluaci%C3%B3n-2R2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Reingreso2-SNI-2017/ley56-sni-panama.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Reingreso2-SNI-2017/reglamento-sni.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Reingreso2-SNI-2017/anuncio-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Anuncio-de-Resultados-Segundo-Reingreso-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Resoluci%C3%B3n-de-respuesta-al-Recurso-de-Reconsideraci%C3%B3n-Dra.-Indira-Franco.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/REsoluci%C3%B3n-4-del-24Octubre-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/REsoluci%C3%B3n-5-del-24Octubre-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-15-Dr.-Amador-Goodridge.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-16-Dr.-Fernando-Merch%C3%A1n.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-17-Dr.-Enrique-Medianero.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-18-Dra.-Anayansi-Valderrama.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-19-Dr.-H%C3%A9ctor-Guzm%C3%A1n.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-20-Dr.-Luis-Mej%C3%ADa.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-21-Dr.-Rafael-Andrade.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-22-Dr.-Jos%C3%A9-Loaiza.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-23-Dr.-Jagannatha-Rao.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/07/Anuncio-GATECH.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/07/Check-List.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/07/Declaración-Jurada-Reglamento-de-Becas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/07/Formulario.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/07/PASOS-A-SEGUIR-.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/07/Reglamento-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/07/ACTA-DE-RECEPCION-DE-PROPUESTASGATECH.pdf</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-segundo-reingreso-de-miembros-al-sistema-nacional-de-investigacion-sni-de-panama-2017/</t>
+          <t>https://www.senacyt.gob.pa/becas-para-estudios-del-programa-de-maestria-dual-en-supply-chain-engineering/</t>
         </is>
       </c>
     </row>
@@ -5844,18 +5883,18 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>FOMENTO A LA INNOVACIÓN EDUCATIVA 2017</t>
+          <t>CONVOCATORIA CONTINUA DE FOMENTO A LA INSERCIÓN DE TALENTO ESPECIALIZADO (ITE) 2017</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Personas naturales panameñas o extranjeras, residentes en Panamá, o jurídicas panameñas inscritas en el Registro Público de Panamá, que puedan actuar de forma individual o afiliados a entidades públicas, instituciones académicas, públicas o privadas, empresas privadas, escuelas técnicas, organizaciones no gubernamentales, centros de investigación públicos o privados y demás entidades con o sin fines de lucro.  DURACIÓN: La propuesta podrá tener una duración máxima de hasta dos (2) año calendario, a partir de la entrega de la orden de proceder, una vez refrendado el contrato por la Contraloría General de la República.  MONTOS: Categorías 1 y 2 hasta B/.5,000 y las categorías 3, 4, 5 hasta B/.30,000, financiamiento de hasta el 100% del costo de la propuesta según las necesidades plenamente justificadas de la misma. Los proponentes deben asegurarse que la distribución de fondos entre los objetos de gasto permisibles presentados en el presupuesto, vaya acorde al objetivo del Programa. Es responsabilidad de los proponentes sustentar los méritos de innovación, calidad, originalidad e impacto de la propuesta.  Fecha de apertura: 10 de agosto de 2016  Fecha límite de entrega de solicitud: 10 de enero de 2017 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Exbecarios del Sub Programa de Becas Doctorales y Postdoctorales del Programa de Becas IFARHU-SENACYT; y panameños egresados de otros programas de doctorados de investigación no financiados por la SENACYT, que finalizaron sus estudios entre los años 2012 al 2016, con el fin de insertarse en una universidad, institución de investigación o de desarrollo tecnológico del sector público y/o empresa privada, con o sin fines de lucro, con capacidad de llevar a cabo investigación y desarrollo científico o tecnológico.  DURACIÓN: Los proyectos adjudicados podrán tener una duración de hasta dos (2) años.  MONTOS: La SENACYT financiará hasta Cincuenta Mil Balboas (B/. 50,000.00) de la totalidad del proyecto. El fondo constituye un capital semilla que permitirá al doctor desarrollar investigaciones en ciencia básica, investigación aplicada y/o desarrollo tecnológico. Esta convocatoria cumplirá con todas las reglas de evaluación y adjudicación establecidas en el Reglamento Interno de Contrataciones por Mérito. Los proponentes deben asegurarse que la distribución de fondos de su propuesta aplique a los objetos de gasto acorde al objetivo del Programa de Fomento a la Investigación y Desarrollo, correspondiente al Anexo I de la Resolución 056 de 22 de marzo de 2010. Es responsabilidad del proponente sustentar los méritos científicos y el impacto de la propuesta que justifica la solicitud de fondos.  Fecha de apertura: 18 de Abril 2017  Plazo para entrega de propuestas (I Ronda): 04 de Julio 2017 hasta las 1:00 p.m. hora exacta.  Plazo para entrega de propuestas (II Ronda): 17 de Octubre 2017 hasta las 1:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/fomento-a-la-innovacion-educativa-2017/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-continua-de-fomento-a-la-insercion-de-talento-especializado-ite-2017/</t>
         </is>
       </c>
     </row>
@@ -5865,22 +5904,22 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PARA PROYECTOS DE INNOVACIÓN AL SECTOR AGROPECUARIO DE PANAMÁ 2017</t>
+          <t>CONVOCATORIA PÚBLICA DE APOYO AL FORTALECIMIENTO DE CENTROS DE PENSAMIENTO NACIONALES 2017</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Personas naturales panameñas que sean pequeños productores agropecuarios, personas jurídicas panameñas debidamente inscritas en el Registro Público de Panamá, entidades públicas, organizaciones no gubernamentales, fundaciones con o sin fines de lucro, asociaciones de interés público, formalmente registradas en la República de Panamá y universidades públicas o privadas, debidamente acreditadas  DURACIÓN: Los proyectos adjudicados podrán tener una duración de hasta veinticuatro (24) meses.  Fecha de apertura: 10 de agosto 2016  Fecha límite de entrega de solicitud: 23 de noviembre de 2016 hasta las 2:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar.</t>
+          <t>DIRIGIDO A: Organizaciones que realicen investigación orientada a las políticas públicas, constituidas como asociaciones de interés público, personas jurídicas sin fines de lucro, y centros de investigación de universidades (con o sin fines de lucro) debidamente reconocidas por el organismo nacional de acreditación; domiciliadas en Panamá y con capacidad para realizar investigación científica, desarrollo tecnológico o innovación.  DURACIÓN: Las propuestas podrán tener una duración máxima de hasta treinta y seis (36) meses.  MONTOS: Financiamiento de hasta 80% del costo total de la propuesta, hasta un máximo de noventa mil balboas (B/.90,000.00).  Fecha de apertura: 04 de Julio de 2017  Plazo para entrega de intención de propuesta: 04 de Agosto de 2017 hasta las 3:00 p.m. Hora exacta.  Sesión de inducción: SENACYT informará a cada proponente la Fecha, Hora y Lugar (Obligatorio)  Plazo para entrega de propuestas: 08 de Septiembre de 2017 hasta las 3:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Innovacion/CONV-PRO-SECTOR-AGROPECUARIO-DE-PANAMA-2017/anuncio-agro-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Innovacion/CONV-PRO-SECTOR-AGROPECUARIO-DE-PANAMA-2017/Resolucion-Administrativa-056.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Innovacion/CONV-PRO-SECTOR-AGROPECUARIO-DE-PANAMA-2017/Listado_Recepcion-Propuestas2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Innovacion/CONV-PRO-SECTOR-AGROPECUARIO-DE-PANAMA-2017/Res1-Adm-No-07-de-16-de-enero-de-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Innovacion/CONV-PRO-SECTOR-AGROPECUARIO-DE-PANAMA-2017/resolucion-exttension-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Innovacion/CONV-PRO-SECTOR-AGROPECUARIO-DE-PANAMA-2017/propuestas-avaladas-negociacion.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Resoluci%C3%B3n-Administrativa-No.127-IAP17-P-003.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Resoluci%C3%B3n-Administrativa-No.128-IAP17-P-038.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Resolucion-Administrativa-No-129-IAP17-P-045-.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/RESOLUCI%C3%93N-NO.-139-24-DE-MAYO-DE-2017-IAP17-074.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/06/Resolucion-Administrativa-N%C2%B0150-IAP17-P-047.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/07/Resoluci%C3%B3n-No.181-2017-IAP17-P-018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/07/Resolucion-Administrativa-184-IAP17-P-071.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/RESOLUCION-DE-ADJUDICACI%C3%93N-IAP17-P-031-Priscila-Mu%C3%B1%C3%B3z.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/RESOLUCI%C3%93N-NO.-237-27-DE-SEPTIEMBRE-DE-2017-IAP17-064.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/Resolucion-Administrativa-72-IAP17-P-029.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resoluci%C3%B3n-No.150-2018-IAP17-P-054.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/RESOLUCI%C3%93N-NO.-151-22-DE-MAYO-DE-2018-IAP17-067.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/06/IAP17-P-005-Norberto-Pitty-Joly.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/06/IAP17-P-006-Norberto-Pitty-Joly.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/RESOLUCION-DE-ADJUDICACIÓN-IAP17-P-028-AYMEE-VALDES-1.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/07/05-Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/07/09-PENCYT-2015-2019.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/10-Acta-de-recepci%C3%B3n-de-intenciones-de-propuesta.pdf.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/Acta-de-recepci%C3%B3n-de-propuestas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Propuestas-avaladas-a-la-fase-de-negociaci%C3%B3n.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/04/09a-Resoluci%C3%B3n-de-adjudicaci%C3%B3n-APY-CENPEN-009.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/04/09a-Resoluci%C3%B3n-de-adjudicaci%C3%B3n-APY-CENPEN-015.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/04/09a-Resoluci%C3%B3n-de-adjudicaci%C3%B3n-APY-CENPEN-018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/04/09a-Resoluci%C3%B3n-de-adjudicaci%C3%B3n-APY-CENPEN-004.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/06/Resolucion-de-Adjudicacion-APY-CENPEN-010.pdf</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-para-proyectos-de-innovacion-al-sector-agropecuario-de-panama-2017/</t>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-apoyo-al-fortalecimiento-de-centros-de-pensamiento-nacionales-2017/</t>
         </is>
       </c>
     </row>
@@ -5890,22 +5929,22 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA PARA EL TERCER REINGRESO AL SISTEMA NACIONAL DE INVESTIGACIÓN (SNI) DE PANAMÁ 2016</t>
+          <t>BECAS PARA ESTUDIOS DE DOCTORADO DE INVESTIGACIÓN BIOMÉDICA Y CLÍNICA</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>DIRIGIDO A: Miembros que hayan reingresado por segunda vez al SNI en la Convocatoria Pública lanzada en abril del año 2013, en categoría de Investigador Nacional o Investigador Distinguido, nacionales o extranjeros residentes en Panamá, afiliados a organismos públicos o privados, con o sin fines de lucro, tales como entidades públicas, empresas privadas u organizaciones sin fines de lucro, que operen desde el territorio de la República de Panamá, siempre que dichos investigadores cumplan con los requisitos y criterios de evaluación del SNI.  Fecha de apertura: 15 de diciembre de 2015  Fecha de cierre de la convocatoria: 28 de enero de 2016 (3:00 P.M. HORA EXACTA) Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Médicos panameños que deseen formarse como investigadores, y den respuesta a la necesidad que tiene la sociedad a nivel nacional de médicos con formación científica que realicen investigaciones y contribuyan al diagnóstico, tratamiento, pronóstico y prevención de enfermedades.  DURACIÓN: La beca tendrá una duración de tres (3) años.  MONTOS: La beca hasta un 100% del costo, según Anexo I del Convenio IFARHU-SENACYT-UP-INDICASAT AIP.  Fecha de apertura: 04 de Julio 2017  Fecha límite de entrega de solicitud: 03 de Agosto 2017 hasta las 3:00 p.m. Hora exacta.  Extensión del plazo para entrega de solicitud: 31 de Agosto 2017 hasta las 3:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Tercer_Reingreso_2016/Criterios-internos-de-evaluacion/Criterios-internos-SNI-Area-I.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Tercer_Reingreso_2016/Criterios-internos-de-evaluacion/Criterios-internos-SNI-Area-II.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Tercer_Reingreso_2016/Criterios-internos-de-evaluacion/Criterios-internos-SNI-Area-III.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Tercer_Reingreso_2016/Criterios-internos-de-evaluacion/Criterios-internos-SNI-Area-IV.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Tercer_Reingreso_2016/Documentacion-adicional/Ley56-SNI-Panama.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Tercer_Reingreso_2016/Documentacion-adicional/Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Tercer_Reingreso_2016/Documentos-para-descargar/Anuncio-2016.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/07/BDIBC-2017-ANUNCIO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/07/declaracion-Jurada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/07/Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Resolución-de-Extensión-de-tiempo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Anuncio-de-resultados-Investigación-Biomédica-y-Clínica.pdf</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-tercer-reingreso-al-sistema-nacional-de-investigacion-sni-de-panama-2016/</t>
+          <t>https://www.senacyt.gob.pa/becas-para-estudios-de-doctorado-de-investigacion-biomedica-y-clinica/</t>
         </is>
       </c>
     </row>
@@ -5915,22 +5954,22 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA PARA FORTALECER CONOCIMIENTOS DE INNOVACIÓN Y EMPRENDIMIENTO 2021</t>
+          <t>PROGRAMA DE BECAS DE PREGRADO DE EXCELENCIA PARA ESTUDIOS EN CIENCIAS BÁSICAS O MATEMÁTICAS RONDA II, 2017</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>DIRIGIDA A: Sociedades anónimas, entidades Académicas (Universidades / Escuelas), Asociaciones de Interés Privado (AIP), Centro de Investigación Públicos o Privados sin fines de lucro, formalmente registradas en la República de Panamá y Fundaciones con y sin fines de lucro. OBJETIVO: Apoyar las actividades que impulsen y fortalezcan el desarrollo de la innovación y el emprendimiento, proporcionando subsidio económico, total o parcial, que propicie valor agregado, capacitación e impacto a los participantes. CATEGORÍAS DE EVALUACIÓN: Estas categorías no se evaluarán como categorías separadas: • Categoría A: Eventos de Alta Convocatoria: Desarrollo de Congresos, Seminarios y Talleres. Esta categoría cubre la realización de al menos 2 días de la actividad, y que conste con la participación de un máximo de hasta 3 expertos panameños y/o internacionales en modalidad virtual. Dirigidos a los sectores establecidos en el Plan Estratégico Nacional de Ciencia, Tecnología e Innovación 2024. • Categoría B: Eventos de Alta Convocatoria: Desarrollo de Eventos, tales como: Charlas, Conferencias y Paneles, dictados en la Semana del Emprendimiento 2022. Esta categoría cubre el desarrollo de eventos con la participación de un máximo de hasta 3 expertos panameños y/o internacionales, modalidad virtual. Los eventos serán dirigidos a los sectores establecidos en el Plan Estratégico Nacional de Ciencia, Tecnología e Innovación 2024. • Categoría C: Metodología para el Emprendimiento y la Innovación: Desarrollo de metodologías que apunten a fortalecer y mejorar los métodos de emprendimiento e innovación con los que cuenta el ecosistema nacional de Emprendimiento: Cursos de capacitación en emprendimiento e innovación, Cursos de capacitación para Mentores en emprendimiento e innovación, Cursos de capacitación en el diseño, metodología e implementación de incubadoras de emprendimiento. Estos cursos pueden ser dictados por expertos panameños y/o extranjeros, modalidad virtual. Los curos serán dirigidos a los sectores establecidos en el Plan Estratégico Nacional de Ciencia, Tecnología e Innovación 2024. • Categoría D: Módulos en Emprendimiento e Innovación. Esta categoría consiste en el diseño de módulos de emprendimiento e innovación que podrían incluirse en los planes de estudios de Educación Básica, Media, Premedia y Universidades. • Categoría E: Impulso del Emprendimiento y la Innovación en las Escuelas: Desarrollo de Charlas y Talleres que promuevan el Emprendimiento y la Innovación en las Escuelas. Estos cursos pueden ser dictados por expertos panameños y/o extranjeros, modalidad virtual. CATEGORIA Y MONTOS • Categoría A: Eventos de Alta Convocatoria: la SENACYT, podrá otorgar subsidio económico hasta el 75% del costo total de la propuesta, hasta la suma máxima de B/. 15,000.00. • Categoría B: Eventos de Alta Convocatoria: la SENACYT, podrá otorgar subsidio económico hasta el 75% del costo total de la propuesta, hasta la suma máxima de B/. 15,000.00. • Categoría C: Metodología para el Emprendimiento y la Innovación: la SENACYT, podrá otorgar subsidio económico hasta el 100% del costo de la propuesta, hasta la suma máxima de B/.10,000.00. • Categoría D: Módulos en Emprendimiento e Innovación: la SENACYT, podrá otorgar subsidio económico hasta el 100% del costo total de la propuesta, hasta la suma máxima de B/. 7,000.00. • Categoría E: Impulso del Emprendimiento y la Innovación en las Escuelas: la SENACYT, podrá otorgar subsidio económico hasta el 100% del costo de la propuesta, hasta la suma máxima de B/. 7,000.00. Es responsabilidad de los proponentes justificar a satisfacción de los evaluadores los méritos de la propuesta y la carencia de recursos que justifica la solicitud de fondos. Los proponentes deben asegurarse que la distribución de fondos entre los objetos de gastos presentados en el presupuesto de su propuesta vaya acorde al objetivo del Programa de Fomento a la Innovación Empresarial (artículo 49 de la Resolución Administrativa No. 191 del 31 de julio de 2017). FECHA DE APERTURA DE LA CONVOCATORIA: 17 DE FEBRERO DE 2021 PLAZO PARA ENTREGA DE PROPUESTAS: 22 DE ABRIL DE 2021. HASTA LAS 3:00 P.M., HORA EXACTA. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Estudiantes panameños que vayan a ingresar por primera vez a la universidad o que se encuentren cursando las carreras de licenciaturas en Ciencias Básicas (Biología, Química, Física o Matemáticas) en universidades oficiales de la República de Panamá.  DURACIÓN: La beca tendrá una duración máxima de hasta cinco (5) años, dependiendo del plan de estudio.  MONTOS: El financiamiento es de hasta el 100% del costo total de la carrera. La beca incluirá un estipendio de manutención de B/. 600.00 mensuales por la duración de la carrera, siempre y cuando se mantenga en el índice mínimo de 1.75 de 3.0. En caso de que el estudiante mantenga un índice igual o mayor a 2.00, se le ajustará el estipendio de manutención a B/.700.00 mensuales.  Fecha de apertura: 29 de Junio 2017  Fecha límite de entrega de solicitud: 01 de Agosto 2017 hasta las 3:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2021/02/11.-Resolucion-Administrativa-191-de-31-de-julio-de-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2021/02/11.-Modelo-Contrato-por-Merito-Rev.-Julio2018.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/06/Anuncio-Ciencias-Básicas-Ronda-II-2017-Subido-a-la-página-web.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/06/Checklist-Ciencias-Básicas-Ronda-II-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/06/Formulario-Ciencias-Básicas-Ronda-II-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/06/Pasos-a-Seguir-Ciencias-Básicas-Ronda-II-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/06/Paz-y-Salvo-Ciencias-Básicas-Ronda-II-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/06/Declaracion-Jurada-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/06/Reglamento-de-Becas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Anuncio-de-Resultados-de-Ciencias-Básicas-o-Matemáticas-Ronda-II-2017..pdf</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-fortalecer-conocimientos-de-innovacion-y-emprendimiento-2021/</t>
+          <t>https://www.senacyt.gob.pa/programa-de-becas-de-pregrado-de-excelencia-para-estudios-en-ciencias-basicas-o-matematicas-ronda-ii-2017/</t>
         </is>
       </c>
     </row>
@@ -5940,22 +5979,22 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>DOCTORADO DE INVESTIGACIÓN EN EL ÁREA DE SALUD</t>
+          <t>CURSOS CORTOS DE PERFECCIONAMIENTO PARA COLABORADORES DE LA ACP RONDA II, 2017</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>DIRIGIDA A: Panameños que deseen formarse como investigadores en centros de estudios de excelencia en el extranjero o que ya se encuentren estudiando en centros de estudio de excelencia en el extranjero. OBJETIVO: Este programa tiene como objetivo la formación de investigadores para la República de Panamá, que garanticen el incremento del capital humano con altas capacidades para actividades científicas y tecnológicas. DURACIÓN : La beca tendrá una duración de hasta cuatro (4) años para estudios doctorales si el beneficiario posee grado de maestría y hasta seis (6) años para estudios doctorales si el beneficiario no posee grado de maestría. MONTOS: Las becas podrán tener una asignación anual de hasta B/. 60,000.00 y la asignación total de la beca no podrá exceder la suma de B/. 250,000.00. El presupuesto se elaborará según los rubros y la tabla de asignación de fondos publicada en la página web de la SENACYT. FECHA DE APERTURA DE LA CONVOCATORIA: 09 DE FEBRERO DE 2021 PLAZO PARA ENTREGA DE PROPUESTAS: 05 DE MAYO DE 2021 hasta las 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
+          <t>DIRIGIDO A: Profesionales panameños que estén laborando en la ACP en el campo de levantamientos Hidrográficos, en el campo marítimo, servicios hidrográficos, ambiente costero y portuario, petróleo o industria de gas, construcciones marinas.  DURACIÓN: 1. Trece (13) semanas presenciales en el centro Skilltrade en Ijmuiden, Holanda. 2. Doce (12) semanas presenciales en United Kingdom Hydrographic Office (UKHO) en Tauton, Inglaterra.  Fecha de apertura: 16 de Junio 2017  Plazo para entrega de propuesta: 18 de Julio 2017 hasta las 3:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2021/02/ANUNCIO-DOCTORADO-EN-SALUD.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2021/02/Declaracion-Jurada-Nueva.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2021/02/Pasos-a-seguir.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2021/02/Reglamento-de-Becas-Nuevo-2017-1.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/06/Anuncio-C.-C.-ACP-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/06/Formulario-C.-C.-ACP-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/06/Checklist-C.-C.-ACP-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/06/P.-a-S.-C.-C.-ACP-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/06/Declaracion-Jurada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/06/Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/06/Lista-de-Cursos-Cortos-ACP-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/A.-de-R.-C.-C.-ACP-Ronda-II-2017.pdf</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/doctorado-de-investigacion-en-el-area-de-salud/</t>
+          <t>https://www.senacyt.gob.pa/cursos-cortos-de-perfeccionamiento-para-colaboradores-de-la-acp-ronda-ii-2017/</t>
         </is>
       </c>
     </row>
@@ -5965,22 +6004,22 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>CONVOCATORIA PÚBLICA PARA EL FOMENTO A LA INNOVACIÓN EDUCATIVA</t>
+          <t>CURSOS CORTOS DE PERFECCIONAMIENTO PARA COLABORADORES DE LA ACP 2017</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>OBJETIVO: Generar innovaciones para la educación formal y no formal del país, que propicien una mejora en la formación y actitud hacia las ciencias, y estén acordes con las políticas educativas nacionales. DIRIGIDO A: Personas naturales panameñas o extranjeras residentes en Panamá, Personas Jurídicas panameñas inscritas en el Registro Público de Panamá con o sin fines de lucro, Instituciones Públicas, Patronatos creados por Ley, Organizaciones no gubernamentales, Fundaciones de interés privado, con o sin fines de lucro, Asociaciones de interés público. Podrán participar de manera individual o afiliados. ÁREAS TEMÁTICAS -Matemáticas -Física -Química -Ciencias de la Vida -Pedagogía -Ciencias Tecnológicas -Astronomía y Astrofísica -Ciencias de la Tierra y del Espacio -Ciencias Agrarias. DURACIÓN: • Categoría de Evaluación A: 24 Meses • Categoría de Evaluación B: 12 Meses MONTOS: • Categoría de Evaluación A: B/. 30,000. • Categoría de Evaluación B: B/. 15,000. FECHA Y PLAZOS DE PRESENTACIÓN FECHA DE APERTURA DE LA CONVOCATORIA: 28 DE DICIEMBRE DE 2020 PLAZO PARA ENTREGA DE PROPUESTAS: 2 DE MARZO DE 2021 (HASTA LAS 3:00 PM, HORA EXACTA)</t>
+          <t>DIRIGIDO A: Profesionales panameños que estén laborando en la ACP en el campo de levantamientos Hidrográficos, en el campo marítimo, servicios hidrográficos, ambiente costero y portuario, petróleo o industria de gas, construcciones marinas.  DURACIÓN: 1. Trece (13) semanas presenciales en el centro Skilltrade en Ijmuiden, Holanda. 2. Doce (12) semanas presenciales en United Kingdom Hydrographic Office (UKHO) en Tauton, Inglaterra.  Fecha de apertura: 10 de Mayo 2017  Plazo para entrega de propuesta: 06 de Junio 2017 hasta las 3:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/wp-content/uploads/2020/12/Anuncio_Convocatoria-FINAL.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/12/Bases_Convocatoria-final.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/12/manual-para-aplicar-en-CENIT.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/12/Modelo-de-referencia-para-la-Fundamentacion-Tecnica.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/12/Resolucion-Administrativa-No.191-que-norma-los-procesos-de-convocatorias-publicas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2021/03/Acta-de-Recepcion-de-Propuestas.pdf</t>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/05/1_Anuncio-de-Cursos-Cortos-ACP-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/2_Formulario-Cursos-Cortos-ACP-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/3_CheckList-Cursos-Cortos-ACP-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/4_Pasos-a-seguir-Cursos-Cortos-ACP-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/5_Declaracion-Jurada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/6_Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/7_Paz-y-Salvo-Cursos-Cortos-ACP-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/8_Lista-de-Cursos-Cortos-ACP-2017.pdf</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-fomento-a-la-innovacion-educativa-2/</t>
+          <t>https://www.senacyt.gob.pa/cursos-cortos-de-perfeccionamiento-para-colaboradores-de-la-acp-2017/</t>
         </is>
       </c>
     </row>
@@ -5990,20 +6029,758 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
+          <t>CONVOCATORIA PÚBLICA DEL PROGRAMA DE FORTALECIMIENTO A LOS POSTGRADOS NACIONALES PARA MAESTRÍAS NUEVAS</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>DIRIGIDO A: Universidades debidamente acreditadas por CONEAUPA en la República de Panamá con programas de maestrías presenciales de tiempo completo.  DURACIÓN: Todos los programas académicos deberán desarrollarse en un período de 24 meses. Sin embargo, los Convenios de colaboración educativa que se suscriban para amparar su ejecución tendrán una duración de 30 meses contados a partir del refrendo por parte de la Contraloría General de la República.  MONTOS: Hasta B./340,000.00 de acuerdo al programa propuesto.  Fecha de apertura: 02 de Mayo 2017  Fecha límite de entrega de solicitud: 02 de Agosto 2017 hasta las 3:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Anuncio.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Documentos-que-deben-incluirse-con-la-propuesta.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/FORMULARIO-EVALUADOR-PROPUESTA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Gaceta-Oficial-de-Programa-de-Posgrados-Nacionales.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Acta-de-Recepci%C3%B3n-de-Propuestas-de-la-Convocatoria-P%C3%BAblica-del-Programa-de-Fortalecimiento-a-los-Postgrados-Nacionales-para-Maestr%C3%ADas-Nuevas-2017.pdf</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-del-programa-de-fortalecimiento-a-los-postgrados-nacionales-para-maestrias-nuevas/</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>CONVOCATORIA PARA EL FOMENTO A NUEVOS EMPRENDIMIENTOS: CAPITAL SEMILLA 2017</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>DIRIGIDO A: &gt;Nuevos emprendedores: personas naturales, de nacionalidad panameña, residentes en Panamá, mayores de edad. &gt;Microempresas: personas jurídicas, panameñas, debidamente registradas y en funcionamiento en la República de Panamá, por más de un (1) año antes de la fecha de apertura de esta convocatoria y que hayan generado en ese año ingresos brutos o facturación no mayor a doscientos mil balboas (B/. 200,000.00).  DURACIÓN: Los proyectos presentados deberán tener una duración máxima de seis (6) meses. Fase 1. Descubrimiento y validación: Fase en la que el emprendimiento debe plantear un problema a resolver, la solución a ofrecer y el posible mercado, a través de herramientas de validación. Esta fase tendrá una duración de hasta dos (2) meses. Fase 2. Creación del prototipo. Fase en la que el emprendedor pasa de la idea a la creación de un prototipo que se pueda vender. Esta fase tendrá una duración de hasta cuatro (4) meses.  MONTOS: El monto máximo del subsidio económico que otorgará la SENACYT es hasta la suma de B/. 25,000.00. Este monto máximo incluirá el desarrollo del proyecto y el proceso de incubación, que debe ser incluido con carácter obligatorio en todos los proyectos presentados en la Convocatoria. No deberá destinarse una suma mayor al veinte por ciento (20%) del monto total del proyecto, al proceso de incubación. El subsidio económico será dividido en las siguientes fases: Fase 1: Subsidio económico inicial del 30% del monto total del proyecto. Fase 2: Subsidio económico del 70% del monto total del proyecto. Los proponentes deben asegurarse que la distribución de fondos de su propuesta y los objetos de gasto presentados en su presupuesto vayan acorde al objetivo del Programa de Fomento a la Innovación Empresarial.  Fecha de apertura: 02 de Mayo 2017  Plazo para entrega de intención de propuestas: 12 de Junio hasta las 3:00 p.m. Hora exacta.  Plazo para entrega de propuestas: 28 de Julio 2017 hasta las 3:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/05/anuncio_cs_20171904-vf.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/7.-Resolucion-056.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Publicaci%C3%B3n-de-Resultados.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Formularios-de-Propuestas-Admitidos.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/Propuestas-para-Fase-de-Negociacion-NECS17.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/Resoluci%C3%B3n-Administrativa-No.-65_NECS17-P-049.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/Resoluci%C3%B3n-Administrativa-No.-66_NECS17-P-022.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/Resoluci%C3%B3n-Administrativa-No.-67_NECS17-P-015.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/Resoluci%C3%B3n-Administrativa-No.-68_NECS17-P-083.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/Resoluci%C3%B3n-Administrativa-No.-73_NECS17-P-035.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/Resoluci%C3%B3n-Administrativa-No.-74_NECS17-P-105.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/Resoluci%C3%B3n-Administrativa-No.-75_NECS17-P-147.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/Resoluci%C3%B3n-Adm.-No.-87.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resoluci%C3%B3n-Administrativa-No.-148-NECS17-P-051.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resoluci%C3%B3n-Administrativa-No.-149-NECS17-P-236.pdf</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/convocatoria-para-el-fomento-a-nuevos-emprendimientos-capital-semilla-2017/</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>CONVOCATORIA PÚBLICA DE INVESTIGACIÓN Y DESARROLLO ORIENTADA POR MISIÓN AGUA (IOMA) 2017</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>DIRIGIDO A: Entidades públicas, personas jurídicas, con o sin fines de lucro, organizaciones no gubernamentales y asociaciones de interés público, que representen a grupos de investigación interdisciplinarios para la generación de conocimiento afín al tema agua. Los grupos de investigación podrán estar conformados por entidades o instituciones panameñas o extranjeras; sin embargo, en todos los casos la entidad que presente la propuesta, deberá tener la capacidad legal requerida por las leyes de la República de Panamá para contraer obligaciones, así como deberá estar radicada y desarrollar la investigación en la República de Panamá. La entidad que presente la propuesta representará a las demás entidades del grupo de investigación, por lo que la propuesta debe incluir como mínimo una carta de compromiso institucional por cada entidad participante del grupo de investigación y describir cómo realizarán la colaboración, cómo se fortalecerán o generarán capacidades nacionales. Los grupos de investigación deben promover la unión de esfuerzos con el sector público, empresas privadas, universidades, organizaciones no gubernamentales (ONG), laboratorios u otras entidades; orientando al grupo a la solución del problema planteado, de acuerdo a un objetivo y plan de trabajo a corto y mediano plazo, con capacidad de llevar a cabo investigación científica o desarrollo tecnológico.  DURACIÓN: Los proyectos adjudicados podrán tener una duración de hasta tres (3) años.  MONTOS: La SENACYT financiará hasta Doscientos Mil balboas (B/.200,000.00) de la totalidad del proyecto. El proponente debe contar con un compromiso tangible de contraparte (en especie o en efectivo) del monto total de proyecto. El proponente debe asegurarse que la distribución de fondos de su propuesta vaya acorde al objetivo del Programa. Es responsabilidad del proponente sustentar el impacto de la propuesta, su pertinencia con el PNSH y el mérito científico de la misma. Las propuestas seleccionadas podrán ser financiadas con recursos del BID.  Fecha de apertura: 18 de Abril 2017  Fecha límite de entrega de solicitud: 20 de Junio 2017 hasta las 1:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/04/0.-Afiche-IOMA17-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/1.-Anuncio-IOMA-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/2.-Plan-Nacional-de-Seguridad-Hidrica-2015-2050-Agua-para-Todos.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/4.-Formulario-evaluacion-IOMA.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/5.-Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/7.-Modelo-de-Contrato-por-Mérito.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/07/Listado-de-Propuestas-recibidas-IOMA2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/LISTADO-DE-PROPUESTAS-AVALADAS.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Resolución-Administrativa-No.-262.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Resolución-Administrativa-No.-269.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resolución-Administrativa-No.-277.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/Resolución-Administrativa-No.-05-de-10-de-enero-de-2018.pdf</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-investigacion-y-desarrollo-orientada-por-mision-agua-ioma-2017/</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>CONVOCATORIA PÚBLICA DE I+D ORIENTADA POR MISIÓN EN SALUD (IOMS) 2017</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>DIRIGIDO A: Entidades públicas, personas jurídicas, con o sin fines de lucro, organizaciones no gubernamentales y asociaciones de interés público, que representen a grupos de investigación interdisciplinarios para la generación de conocimiento afín al sector salud. Los grupos de investigación podrán estar conformados por entidades o instituciones panameñas o extranjeras; sin embargo, en todos los casos la entidad que presente la propuesta, deberá tener la capacidad legal requerida por las leyes de la República de Panamá para contraer obligaciones, así como deberá estar radicada y desarrollar la investigación en la República de Panamá. La entidad que presente la propuesta representará a las demás entidades del grupo de investigación, por lo que la propuesta debe incluir como mínimo una carta de compromiso institucional por cada entidad participante del grupo de investigación. Los grupos de investigación deben promover la unión de esfuerzos con el sector público, empresas privadas, universidades, organizaciones no gubernamentales (ONG), laboratorios u otras entidades; orientando al grupo a la solución del problema planteado, de acuerdo a un objetivo y plan de trabajo a corto y mediano plazo, con capacidad de llevar a cabo investigación científica o desarrollo tecnológico.  DURACIÓN: Los proyectos adjudicados podrán tener una duración de hasta tres (3) años.  MONTOS: La SENACYT financiará hasta Doscientos Mil balboas (B/.200,000.00) de la totalidad del proyecto. El proponente debe contar con un compromiso tangible de contraparte (en especie o en efectivo) del monto total de proyecto. El proponente debe asegurarse que la distribución de fondos de su propuesta vaya acorde al objetivo del Programa. Es responsabilidad del proponente sustentar el impacto de la propuesta, su pertinencia con el ANPIS y el mérito científico de la misma. Las propuestas seleccionadas podrán ser financiadas con recursos del BID.  Fecha de apertura: 18 de Abril 2017  Fecha límite de entrega de solicitud: 20 de Junio 2017 hasta las 1:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar.</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/04/0.-Afiche-IOMS17.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/1.-Anuncio-saludiom17.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/2.-ANPIS.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/4.-Formulario-de-Evaluación.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/5.-Reglamento-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/7.-Modelo-de-Contrato-por-Mérito-2.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/07/Listado-de-Propuestas-Recibidas-IOMS17.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/Publicación-de-resultados-IOMS-2017.pdf</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-id-orientada-por-mision-en-salud-ioms-2017/</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>CONVOCATORIA PÚBLICA DEL PROGRAMA DE INSERCIÓN DE BECARIOS 2017</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>DIRIGIDO A: Profesionales con grado de doctorado, que hayan sido becados a través de los Programas de Becas financiados por la SENACYT y que quieran insertarse en el mercado laboral de la República de Panamá, específicamente en Institutos, Centros de Investigación, Universidades, Instituciones Públicas o Empresas Privadas, aprobados por la SENACYT. En esta Convocatoria podrán participar los ex becarios de la SENACYT que hayan retornado al país en el período comprendido de septiembre 2015 a junio 2017.  DURACIÓN: La duración del subsidio económico brindado por la SENACYT a las Instituciones Participantes será de máximo tres (3) años, por cada beneficiario del Programa.  COMPENSACIÓN SALARIAL: La compensación salarial que pagarán las Instituciones Participantes a los ex becarios de la SENACYT seleccionados en esta Convocatoria, en adelante Beneficiarios, será por un monto bruto no menor a Dos Mil Quinientos Balboas con 00/100 (B/. 2,500.00) mensuales. La SENACYT otorgará subsidios económicos a las Instituciones Participantes, según lo establecido en los Convenios de Cooperación suscritos entre la SENACYT y estas Instituciones Participantes.  Fecha de apertura: 12 de Abril 2017  Fecha límite de entrega de solicitud: 14 de Julio 2017 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/04/ANUNCIO-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/PASOS-A-SEGUIR.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/DECLARACION.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/PAZ-Y-SALVO-SENACYT.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/LISTA-DE-VERIFICACIÓN.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/07/Acta-de-Propuesta-de-Convocatoria-Publica-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/ANUNCIO-DE-RESULTADOS-DE-LA-CONVOCATORIA-2017.pdf</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-del-programa-de-insercion-de-becarios-2017/</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>CONVOCATORIA PÚBLICA PARA EL INGRESO DE NUEVOS  MIEMBROS DEL SISTEMA NACIONAL DE INVESTIGACIÓN (SNI)  DE PANAMÁ 2017</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>DIRIGIDO A: Investigadores panameños o extranjeros residentes en Panamá e Investigadores panameños residentes en el extranjero; siempre que dichos investigadores cumplan con los requisitos establecidos en el Reglamento, los Criterios Internos de Evaluación y en el anuncio y formulario del SNI.  DURACIÓN: Ver Anuncio.  Fecha de apertura: 30 de marzo 2017  Fecha límite de entrega de solicitud: 31 de mayo de 2017 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2017/03/Anuncio-de-Convocatoria-P%C3%BAblica-fecha-corregida.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/03/Ley-56-SNI-de-Panam%C3%A1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/03/Resoluci%C3%B3n-CDN-30-de-2016-Gaceta-Oficial-28221-Reglamento-del-SNI.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/03/C%C3%B3digo-de-%C3%89tica-del-SNI.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/03/Resoluci%C3%B3n-que-aprueba-los-Objetos-de-Gastos-Permisibles-del-SNI.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/03/Criterios-Internos-de-Evaluaci%C3%B3n-%C3%81rea-I-Ciencias-Naturales-Qu%C3%ADmicas-y-Biol%C3%B3gicas-y-Ciencias-de-la-Tierra.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/03/Criterios-Internos-de-Evaluaci%C3%B3n-%C3%81rea-II-Ciencias-M%C3%A9dicas-y-de-la-Salud.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/03/Criterios-Internos-de-Evaluaci%C3%B3n-%C3%81rea-III-Ciencias-Agr%C3%ADcolas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/03/Criterios-Internos-de-Evaluaci%C3%B3n-%C3%81rea-IV-Ciencias-Sociales-Human%C3%ADsticas-Administrativas-y-Econ%C3%B3micas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/03/Criterios-Internos-de-Evaluaci%C3%B3n-Area-V-Ingenier%C3%ADas-Ciencias-F%C3%ADsicas-y-Matem%C3%A1ticas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/03/Formulario-de-evaluaci%C3%B3n-inicializado.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Resoluci%C3%B3n-de-extensi%C3%B3n-de-resultados-NM2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Lista-para-la-Web-Estudiantes-NM2017-sellada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/Lista-para-la-Web-Investigadores-NM-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-de-la-Secretar%C3%ADa-T%C3%A9cnica-N%C2%B06.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-7-Dra.-Arlene-Calvo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-8-Dr.-Julio-Santamar%C3%ADa.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-9-Dr.-Silvio-Vega.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-42-Di%C3%B3genes-Mora.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-43-Arqu%C3%ADmedes-Barahona.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-44-Miguel-Moreno.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-45-Lizzi-Herrera.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-46-Ciara-Ordo%C3%B1ez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-47-Cely-Gonz%C3%A1lez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-48-Alejandro-Llanes.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-49-Christian-Martin.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-50-Ricardo-Correa.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-51-Davis-Beltr%C3%A1n.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-52-Cristopher-Boya.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-53-Yuliana-Christopher.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-54-Dr.-Iv%C3%A1n-Valdespino.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-55-Dr.-Salvador-Vargas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-56-Dr.-Jorge-Per%C3%A9n.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-57-Dr.-Jos%C3%A9-Garc%C3%ADa.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-58-Dra.-Virginia-Torres.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-59-Dra.-Eunice-Molinar.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-60-Dr.-Dumas-Galv%C3%A9s.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-61-Dra.-Zuleima-Caballero.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-62-Dr.-H%C3%A9ctor-Poveda.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-63-Dr.-Carlos-Rovetto.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-64-Dr.-Orlando-Aguilar.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-65-Dra.-Elia-Cano.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-66-Dra.-D%C3%A9lfida-Rodr%C3%ADguez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-67-Dra.-Mariel-Monrroy.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-68-Dra.-Leidys-Torres.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-69-Dr.-Abel-Batista.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-70-Dra.-Y%C3%A9ssica-S%C3%A1ez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-71-Dr.-Alexander-Mart%C3%ADnez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-72-Dra.-Griselda-Caballero.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-73-Dra.-Anilena-Mej%C3%ADa.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-74-Dra.-Milena-G%C3%B3mez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-75-Dra.-Jeanethe-Anguizola.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-76-Dr.-Dorindo-C%C3%A1rdenas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-77-Dra.-Ilais-Moreno.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-78-Dr.-Arthur-James.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-79-Dr.-Alcibiades-Villarreal.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-80-Dra.-Tania-Herrera.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-81-Dra.-Mayte%C3%A9-Zambrano.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-82-Dr.-Danilo-C%C3%A1ceres.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-83-Dr.-Luis-Herrera.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-84-Dr.-Roberto-Murgas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-85-Dra.-Oris-Rodr%C3%ADguez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-86-Dra.-Mar%C3%ADa-Carreira.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-87-Dr.-Luis-Ram%C3%ADrez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-88-Dra.-Zohre-Kurt.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-89-Dra.-Alma-Fern%C3%A1ndez.pdf</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-ingreso-de-nuevos-miembros-del-sistema-nacional-de-investigacion-sni-de-panama-2017/</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>CONVOCATORIA PÚBLICA DE PROYECTOS 2018</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>DIRIGIDO A: Personas naturales panameñas o extranjeras residentes en Panamá, o jurídicas panameñas inscritas en el Registro Público de Panamá, que pueden actuar de forma individual o afiliados a entidades públicas, instituciones académicas, públicas o privadas, empresas privadas, escuelas técnicas, organizaciones no gubernamentales, centros de investigación públicos o privados y demás entidades con o sin fines de lucro.  MONTOS: El monto máximo previsto de adjudicación de propuestas será de hasta B/. 30,000.00. La SENACYT otorgará los subsidios económicos de hasta el 100% del costo total del proyecto según las necesidades plenamente justificadas en el mismo. Los proponentes deben asegurarse que la distribución de fondos y los objetos de gastos presentados en el presupuesto vaya acorde al artículo 49 del Reglamento de Contratación por Mérito y al objetivo del Programa.  Fecha de apertura: 26 de Septiembre de 2017  Plazo para entrega: 01 de Febrero 2018 hasta las 3:00 p.m. Hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr"/>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-de-proyectos-2018-2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>CONVOCATORIA DE PREGRADO DE EXCELENCIA PARA ESTUDIOS DE CIENCIAS BÁSICAS O MATEMÁTICAS 2016</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>DIRIGIDO A: Estudiantes panameños que vayan a ingresar por primera vez a la universidad o que se encuentren cursando las carreras de licenciaturas en Ciencias Básicas (Biología, Química, Física o Matemáticas) en universidades oficiales de la República de Panamá.  DURACIÓN: La beca tendra una duración máxima de hasta cinco (5) años, dependiendo del plan de estudio.  MONTOS: Ver Anuncio.  FECHA DE APERTURA DE LA CONVOCATORIA: 17 de octubre de 2016.  PLAZO DE ENTREGA DE LA PROPUESTA: 17 de febrero de 2017 hasta las 3:00 PM HORA EXACTA. Es responsabilidad del proponente y no de la SENACYT asegurarse que la propuesta recibida esté completa y entregada en el (los) plazo(s) previsto(s).  CONSULTAS: bpcb@senacyt.gob.pa o al 517-0014/517-0119 Documentos para descargar</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/Ciencias-Basicas-2016/Anuncio.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/Ciencias-Basicas-2016/Formulario.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/Ciencias-Basicas-2016/Paz-Salvo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/Ciencias-Basicas-2016/Pasos.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/Ciencias-Basicas-2016/Checklist.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/Ciencias-Basicas-2016/Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/Ciencias-Basicas-2016/Declaracion.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/Anuncio-de-Resultados-Ciencias-Básicas-o-Matemáticas-2016.pdf</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/convocatoria-de-pregrado-de-excelencia-para-estudios-de-ciencias-basicas-o-matematicas-2016/</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>BECAS PARA ESTUDIOS DOCTORALES EN TAIWAN 2017</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>DIRIGIDA A: panameños interesados en estudiar un doctorado en Taiwán.  DURACIÓN: La beca tendrá una duración máxima de hasta cuatro (4) años para estudios doctorales.  MONTOS: Los montos de la beca serán cubiertos por la Embajada de Taiwán en Panamá. * La embajada de Taiwán cubrirá boleto aéreo de ida y vuelta Panamá-Taipei-Panamá, en clase económica, un subsidio económico mensual para un año de estudios del idioma chino-mandarín y un subsidio económico mensual para los siguientes años de la carrera. El monto de los subsidios económicos los indica el Programa de Beca Diplomática de la República de China (Taiwán).  FECHA DE APERTURA DE LA CONVOCATORIA: 14 de febrero de 2017  PLAZO PARA ENTREGA DE PROPUESTAS: 1 de marzo de 2017 hasta las 3:00 P.M. HORA EXACTA  Es responsabilidad del proponente y no de la SENACYT asegurarse que la propuesta recibida esté completa y entregada en el (los) plazo(s) previsto(s).  CONSULTAS: btdoctorado@senacyt.gob.pa o al 517-0014, ext. 1119 o 517-0119</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/Taiwan-2017/anuncio-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/Taiwan-2017/Formulario-Solicitud-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/Taiwan-2017/declaracion-Jurada-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/Taiwan-2017/Paz-Salvo-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/Taiwan-2017/Reglamento-becas-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/Taiwan-2017/Pasos-Seguir-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/Taiwan-2017/checklist-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/Resoluci%C3%B3n-Administrativa-que-declara-desierta-la-convocatoria.pdf</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/becas-para-estudios-doctorales-en-taiwan-2017/</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>MAESTRÍAS EN ÁREAS ESPECÍFICAS O DE PRIORIDAD IDENTIFICADAS POR LA ACP</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>DIRIGIDO A: Profesionales panameños, con título de licenciatura, interesados en adquirir especialidades en grado de maestría en el extranjero que les permitan fortalecer y perfeccionar su desempeño en el ámbito laboral en el país.  DURACIÓN: La beca tendrá una duración máxima de hasta dos (2) años para realizar la maestría. Fecha de apertura: 31 de enero 2017 Fecha límite de entrega de solicitud: 19 de abril de 2017 hasta las 3:00 p.m. hora exacta.  CONSULTAS:  bmacp@senacyt.gob.pa o al 517-0014 ext. 1133 o al 517-0133</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/ACP-2017/declaracion-Jurada-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/ACP-2017/Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Anuncio-de-Resultado-ACP-2017.pdf</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/maestrias-en-areas-especificas-o-de-prioridad-identificadas-por-la-acp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>MAESTRÍA EN ÁREAS ESPECÍFICAS 2017</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>DIRIGIDA A: Panameños que posean título universitario de licenciatura expedido por una universidad nacional o extranjera, reconocida por la entidad competente en Panamá.  DURACIÓN: Estas becas de maestrías en áreas específicas tendrán una duración máxima de hasta dos (2) años.  MONTOS: Finaciamiento de hasta B/. 60,000.00 de acuerdo a disponibilidad presupuestaria.  FECHA DE APERTURA DE LA CONVOCATORIA: 31 de Enero de 2017.  PLAZO PARA ENTREGA DE PROPUESTAS: 27 de Abril de 2017 hasta las 3:00 P.M. HORA EXACTA. Es responsabilidad del proponente y no de la SENACYT asegurarse que la propuesta recibida esté completa y entregada en el (los) plazo(s) previsto(s).  CONSULTAS:  : mbae@senacyt.gob.pa hasta la fecha y hora de cierre correspondiente. Documentos para descargar</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/MAESTRIA-EN-AREAS-ESPECIFICAS-2017/declaracion-Jurada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/MAESTRIA-EN-AREAS-ESPECIFICAS-2017/Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Anuncio-de-Resultado-MAE.pdf</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/maestria-en-areas-especificas-2017/</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>DOCTORADO PARA FORMAR INVESTIGADORES PARA UNIVERSIDADES OFICIALES, CENTRO DE INVESTIGACIÓN Y LABORATORIOS DE INTERÉS NACIONAL – RONDA I 2017</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>DIRIGIDA A: Profesores o Investigadores vinculados a universidades oficiales de Panamá, centro de investigación, laboratorio de interés nacional incluyendo laboratorios gubernamentales y laboratorios conformados como asociaciones de interés público que se desempeñen en las áreas de ciencia y tecnología; el nivel de entrenamiento o grado a obtener es doctorado en un centro de reconocida excelencia internacional.  DURACIÓN: La beca tendrá una duración máxima de hasta cuatro (4) años.  MONTOS: Financiamiento de hasta B/. 60,000.00 por año. La beca es hasta un 100% del costo, según tabla de presupuesto del Programa de Becas IFARHU-SENACYT. En caso de requerir materias de reforzamiento, estas deberán ser cubiertas por el becario. * Los estudios de doctorado deberán cursarse en la modalidad presencial y de tiempo completo, sin embargo, se apoyará la modalidad compartida para aquellos programas que permitan desarrollar la investigación en Panamá. Nota: El programa no cubrirá propedéuticos o materias que no sean parte del programa de doctorado.  FECHA DE APERTURA DE LA CONVOCATORIA: 31 de Enero de 2017  PLAZO PARA ENTREGA DE PROPUESTAS: 18 de Abril de 2017 hasta las 3:00 P.M. HORA EXACTA Es responsabilidad del proponente y no de la SENACYT asegurarse que la propuesta recibida esté completa y entregada en el (los) plazo(s) previsto(s).  CONSULTAS: docexce@senacyt.gob.pa o al 517-0014, ext. 1133 o 517-0133.</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/DOCTORADO-DE-EXCELENCIA-2017/BEPDE-I-Declaracion-Jurada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/DOCTORADO-DE-EXCELENCIA-2017/BEPDE-I-2017-Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Anuncio-de-Resultado-Doctorado-de-Excelencia.pdf</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/doctorado-para-formar-investigadores-para-universidades-oficiales-centro-de-investigacion-y-laboratorios-de-interes-nacional-ronda-i-2017/</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>II CONVOCATORIA PÚBLICA PARA LA GESTIÓN DEL PROGRAMA DE CAMPAMENTO CIENTÍFICO Y TECNOLÓGICO</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>DIRIGIDA A: Universidades debidamente acreditadas por el CONEAUPA y Centros de Investagación públicos o privados sin fines de lucro, que operen en el territorio de la República de Panamá.  DURACIÓN: Todos los campamentos deberán desarrollarse en un período de 4 a 8 días, en vacaiones escolares. Sin embargo, los Contratos de Subsidio Económico que se suscriban para amparar su ejecución tendrán una duración de 6 meses contados a partor de la notificación del refrendo de Contraloría General de la República.  MONTOS: Se otorgarán subsidios económicos por el monto de B/. 50,000.00, para mayor detalle favor descargar el anuncio de la convocatoria.  FECHA DE APERTURA DE LA CONVOCATORIA: 31 de enero de 2017  PLAZO PARA ENTREGA DE PROPUESTAS: 30 de marzo de 2017 hasta las 3:00 P.M. HORA EXACTA Es responsabilidad del proponente y no de la SENACYT asegurarse que la propuesta recibida esté completa y entregada en el (los) plazo(s) previsto(s).  CONSULTAS: doctorado@senacyt.gob.pa o al 517-0014, ext. 1133 o 517-0133.</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/A-Cientifica/CAMPAMENTO-CIENTIFICO-TECNOLOGICO-2017/anucio.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/A-Cientifica/CAMPAMENTO-CIENTIFICO-TECNOLOGICO-2017/formulario-Evaluacion.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/A-Cientifica/CAMPAMENTO-CIENTIFICO-TECNOLOGICO-2017/Lista-Documentos-Entregar.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/A-Cientifica/CAMPAMENTO-CIENTIFICO-TECNOLOGICO-2017/reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/A-Cientifica/CAMPAMENTO-CIENTIFICO-TECNOLOGICO-2017/Guia-Campamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/Acta-de-Cierre-de-Recepci%C3%B3n-de-Propuestas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/propuestas_avaladas_face_negociacion.pdf</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/ii-convocatoria-publica-para-la-gestion-del-programa-de-campamento-cientifico-y-tecnologico/</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>CONVOCATORIAS PARA LAS UNIVERSIDADES ACREDITADAS EN LA REPÚBLICA DE PANAMÁ PARA PRESENTACIÓN DE PROPUESTAS DE PROGRAMAS DE POSTGRADO DE INVESTIGACIÓN – 2017</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>DIRIGIDO A: Universidades debidamente acreditadas por la CONEAUPA en la República de Panamá con programas de postgrado presenciales de tiempo completo.  DURACIÓN: Ver Anuncio  Fecha de apertura: 28 de enero 2017  Fecha límite de entrega de solicitud: 25 de abril de 2017 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Universidades/PROGRAMA-DE-FORTALECIMIENTO-A-LOS-POSTGRADOS-NACIONALES-DE-SENACYT-2017/anuncio.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Universidades/PROGRAMA-DE-FORTALECIMIENTO-A-LOS-POSTGRADOS-NACIONALES-DE-SENACYT-2017/FORMULARIO-EVALUADOR-PROPUESTA-120117.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Universidades/PROGRAMA-DE-FORTALECIMIENTO-A-LOS-POSTGRADOS-NACIONALES-DE-SENACYT-2017/Gaceta-Oficial.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Universidades/PROGRAMA-DE-FORTALECIMIENTO-A-LOS-POSTGRADOS-NACIONALES-DE-SENACYT-2017/Checklist.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Acta-de-Recepci%C3%B3n-de-Propuesta-Mes-de-abril-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/06/Resultados-de-Convocatoria-P%C3%BAblica-para-universidades-acreditadas-2017.pdf</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/convocatorias-para-las-universidades-acreditadas-en-la-republica-de-panama-para-presentacion-de-propuestas-de-programas-de-postgrado-de-investigacion-2017/</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>CONVOCATORIA PARA EL FOMENTO A NUEVOS EMPRENDIMIENTOS 2017: CAPITAL PARA EMPRENDIMIENTOS EN FASE DE ESCALAMIENTO</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>DIRIGIDO A: • Personas naturales, de nacionalidad panameña, mayores de edad, residentes en Panamá. • Personas Jurídicas panameñas de reciente creación (no más de 24 meses), con ventas anuales no mayores a ciento cincuenta mil balboas (B/.150,000.00).  DURACIÓN: Los proyectos adjudicados podrán tener una duración máxima de hasta doce (12) meses.  MONTOS: El monto máximo del subsidio económico que otorgará la SENACYT es por la suma de hasta B/. 50,000.00.  Fecha de apertura: 28 de enero 2017  Fecha límite de entrega de solicitud: 28 de marzo de 2017 hasta las 2:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Innovacion/Convocatoria-para-el-Fomento-a-Nuevos-Emprendimientos-2017/Resolucion-056.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/Propuestas-Admitidas-NEE-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Resolucion-de-Extension-No.1_140.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/06/Resoluci%C3%B3n-de-Extensi%C3%B3n-No.2_163.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/06/Publicaci%C3%B3n-de-Resultados-Fase-de-Escalamiento.pdf</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/convocatoria-para-el-fomento-a-nuevos-emprendimientos-2017-capital-para-emprendimientos-en-fase-de-escalamiento/</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>NUEVOS INVESTIGADORES 2017</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>DIRIGIDA A: Panameños residentes en Panamá que estén cursando los dos últimos años de la licenciatura, o cursando un posgrado, afiliados a una entidad pública, universidad, organización no gubernamental, asociaciones de interés público o personas jurídicas con o sin fines de lucro, con capacidad para realizar investigación científicas y desarrollo tecnológico e innovación.  DURACIÓN: El contrato podrá tener una duración máxima de hasta un (1) año calendario.  MONTOS: Ver Anuncio.  FECHA DE APERTURA DE LA CONVOCATORIA: 26 de Enero de 2017.  PLAZO PARA ENTREGA DE PROPUESTAS (PRIMER CIERRE): 3 de Mayo de 2017  Hasta las 3:00 PM HORA EXACTA.  PLAZO PARA ENTREGA DE PROPUESTAS (SEGUNDO CIERRE): 5 de Septiembre de 2017 hasta las 3:00 P.M. HORA EXACTA. Es responsabilidad del proponente y no de la SENACYT asegurarse que la propuesta recibida esté completa y entregada en el (los) plazo(s) previsto(s).  CONSULTAS: ni@senacyt.gob.pa o al 517-0014 ext. 1047 ó 1170</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr"/>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/nuevos-investigadores-2017/</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>PROGRAMA JÓVENES CIENTÍFICOS 2017</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>DIRIGIDO A: Jóvenes estudiantes panameños pertenecientes al sistema educativo nacional que se encuentren cursando entre octavo y duodécimo grado, que deseen realizar investigaciones científicas.  MONTOS: Ver Anuncio.  FECHA DE APERTURA DE LA CONVOCATORIA: 26 de enero de 2017.  PLAZO DE ENTREGA DE LA PROPUESTA: 23 de marzo de 2017 hasta las 3:00 PM HORA EXACTA. Es responsabilidad del proponente y no de la SENACYT asegurarse que la propuesta recibida esté completa y entregada en el (los) plazo(s) previsto(s).  CONSULTAS: aguillen@senacyt.gob.pa o al 517-0056.</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/A-Cientifica/jovenes-cientificos-2017/anuncio.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/A-Cientifica/jovenes-cientificos-2017/Carta-de-autorizacion-del-tutor-legal.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/A-Cientifica/jovenes-cientificos-2017/Carta-de-compromiso-Adulto-Coordinador-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/A-Cientifica/jovenes-cientificos-2017/Carta-de-compromiso-Participantes-y-Tutores-Legales-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/A-Cientifica/jovenes-cientificos-2017/Idea-de-proyecto-y-motivacion-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/A-Cientifica/jovenes-cientificos-2017/Lista-de-mentores-2017-ultimo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/A-Cientifica/jovenes-cientificos-2017/Reglamento-Jovenes-Cientificos-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/4743_170420105742_001.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/lista-de-recomendados-JC-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/07/Acta-de-Resultados-JC.pdf</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/programa-jovenes-cientificos-2017/</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>GENERACIÓN DE CAPACIDADES CIENTÍFICAS Y TECNOLÓGICAS 2017</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>DIRIGIDO A: Personas jurídicas con o sin fines de lucro debidamente inscrita en el Registro Público de Panamá y personas naturales de nacionalidad panameña, residentes en el país dedicadas a realizar actividades que fortalezcan el sistema de ciencia, tecnología e innovación. Las personas naturales pueden participar individualmente o afiliados a entidades públicas o privadas, universidades, organizaciones no gubernamentales, asociaciones de interés público y centros de investigación.  DURACIÓN: Las actividades contempladas dentro del contrato deben ser desarrolladas dentro del término de un (1) año. Para las categorías 1 y 3 el tiempo máximo efectivo de la estadía o pasantía será de tres (3) meses, sin embargo, el contrato podrá contemplar hasta un (1) año calendario. Se requiere que las actividades a desarrollar, se inicien a partir de seis (6) meses después de la fecha del cierre de la convocatoria.  MONTOS: Financiamiento de hasta el 100% del costo de la propuesta según las necesidades plenamente justificadas de la misma. Hasta un máximo de B/. 15,000.00.  FECHA DE APERTURA DE LA CONVOCATORIA: 26 de enero de 2017  PLAZO PARA ENTREGA DE PROPUESTAS (PRIMER CIERRE): 26 de abril de 2017 Hasta las 3:00 PM HORA EXACTA.  PLAZO PARA ENTREGA DE PROPUESTAS (SEGUNDO CIERRE): 29 de agosto de 2017 Hasta las 3:00 PM HORA EXACTA. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Generacion-capacidades-2017/REGLAMENTO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/SCAN0000.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/06/Propuestas-Avaladas-a-la-Fase-de-Negociaci%C3%B3n-de-Generaci%C3%B3n-de-Capacidades-2017-Primer-Cierre.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/ACTA-DE-RECEPCI%C3%93N-DE-GENERACI%C3%93N-DE-CAPACIDADES-2017-SEGUNDO-CIERRE.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/RESOLUCION-216.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/resoluci%C3%B3n-223.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/resoluci%C3%B3n-224.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/RESOLUCION-227.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/RESOLUCION-228.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/Resoluci%C3%B3n-No.-234.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Resoluci%C3%B3n-N%C2%B0215.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Resoluci%C3%B3n-N%C2%B0238.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Resoluci%C3%B3n-N%C2%B0251.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Resoluci%C3%B3n-N%C2%B0254.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/PROPUESTAS-AVALADAS-DE-GENERACION-DE-CAPACIDADES-2017-SEGUNDO-CIERRE.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/RESOLUCION-272.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/Jose-Julio-Casas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/02/Edwin-Segura15-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/02/Clotilde-Arrocha-28-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/02/Celestino-Aguilar-30-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/02/Evgeni-Cruz-31-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/02/Reinhardt-Pinz%C3%B3n-32-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/02/Yamileth-Pitt%C3%AD-33-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/02/Roberto-Armando-38-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/02/Orlando-Melgar-41-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/02/INDICASAT-42-2018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/04/RESOLUCION-DE-ADJUDICACION-99.pdf</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/generacion-de-capacidades-cientificas-y-tecnologicas-2017/</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>CONVOCATORIA PARA PROYECTOS DE INNOVACIÓN EMPRESARIAL 2017</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>DIRIGIDO A: Personas jurídicas panameñas con fines de lucro debidamente inscritas en el Registro Público de Panamá, con un mínimo de veinticuatro meses de operación en el país, a la fecha de apertura de esta convocatoria. En sus propuestas podrán incluir la participación de universidades nacionales o centros de investigación nacionales. En esta convocatoria las personas jurídicas serán clasificadas de la siguiente forma: •EMPRESAS TIPO A: Personas jurídicas con fines de lucro, debidamente inscritas en Panamá, que generen ingresos brutos o facturación anual hasta la suma de un millón de balboas (B/.1,000,000.00). •EMPRESAS TIPO B: Personas jurídicas con fines de lucro, debidamente inscritas en Panamá, que generen ingresos brutos o facturación anual desde un millón de balboas con 01/100 (B/.1,000,000.01) hasta la suma de treinta millones de balboas (B/.30,000,000.00). •EMPRESAS TIPO C: Personas jurídicas con fines de lucro, debidamente inscritas en Panamá, que generen ingresos brutos o facturación anual desde treinta millones de balboas con 01/100 (B/.30,000,000.01) en adelante.  DURACIÓN: Los proyectos adjudicados podrán tener una duración de hasta veinticuatro (24) meses  Fecha de apertura: 26 de enero 2017  Fecha límite de entrega de solicitud: 28 de marzo de 2017 hasta las 2:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Innovacion/Convocatoria-para-Proyectos-de-Innovacion-Empresarial-2017/Resolucion-056.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/Propuestas-Recibidas-FIE-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Resoluci%C3%B3n-de-Extensi%C3%B3n-No.1_136.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/06/Resoluci%C3%B3n-de-Extensi%C3%B3n-No.2_164.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/07/Publicacion-de-Resultados-DINE.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Resoluci%C3%B3n-Administrativa-No.-265.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Resoluci%C3%B3n-Administrativa-No.-266.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/12/Resoluci%C3%B3n-de-Adjudicaci%C3%B3n-No.-284-FIE17-P-012.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/12/Resoluci%C3%B3n-de-Adjudicaci%C3%B3n-No.-287-FIE17-P-001.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/01/Resoluci%C3%B3n-de-Adjudicaci%C3%B3n-No.-7-18-FIE17-P-011.pdf</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/convocatoria-para-proyectos-de-innovacion-empresarial-2017/</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>PREMIO A LA INNOVACIÓN EMPRESARIAL 2017</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>DIRIGIDO A: Empresas con fines de lucro debidamente registradas en Panamá  OBJETIVO: Promover y fortalecer la capacida de innovación en las empresas de Panamá, mediante el reconocimiento de actividades exitosamente probadas de innovación empresarial.  Fecha de apertura: 5 de diciembre de 2016  Fecha límite de entrega de solicitud: 13 de febrero de 2017 hasta las 11:30 p.m. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Innovacion/Premio_la_innovacion_empresarial-2017/Formulario_Evaluacion_Propuesta.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Innovacion/Premio_la_innovacion_empresarial-2017/Reglamento.pdf</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/premio-a-la-innovacion-empresarial-2017/</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>CONVOCATORIA PÚBLICA PARA EL TERCER REINGRESO DE MIEMBROS AL SISTEMA NACIONAL DE INVESTIGACIÓN (SNI) DE PANAMÁ 2017</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>DIRIGIDO A: Miembros actuales del SNI, que hayan reingresado por segunda vez al Sistema en la Convocatoria Pública de septiembre del 2014, en la categoría de Investigador Nacional o Investigador Distinguido. Siempre que dichos investigadores cumplan con los requisitos y criterios de evaluación del SNI.  Fecha de apertura: 5 de octubre de 2016  Fecha de cierre de convocatoria: 28 de abril de 2017 (3:00 PM HORA EXACTA) de 2017 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Reingreso3-SNI-2017/criterios-internos-sni-areaI.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Reingreso3-SNI-2017/criterios-internos-sni-areaII.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Reingreso3-SNI-2017/criterios-internos-sni-areaIII.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Reingreso3-SNI-2017/criterios-internos-sni-areaIV.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/Formulario-de-evaluaci%C3%B3n-3R2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Reingreso3-SNI-2017/ley56-sni-panama.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Reingreso3-SNI-2017/reglamento-sni.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Reingreso3-SNI-2017/anuncio-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Anuncio-de-Resultados-Tercer-Reingreso-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-06-Dr.-Roberto-Iba%C3%B1ez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-07-Dr.-Alexis-Mojica.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-08-Dr.-Blas-Armi%C3%A9n.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-09-Dr.-Juan-Ja%C3%A9n.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-10-Dr.-Ismael-Camargo.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-11-Dr.-Herm%C3%B3genes-Fern%C3%A1ndez.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-12-Dr.-Gabriel-Quintero.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-13-Dr.-Bruno-Zachrisson.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-14-Dr.-Gabrielle-Britton.pdf</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-tercer-reingreso-de-miembros-al-sistema-nacional-de-investigacion-sni-de-panama-2017/</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>CONVOCATORIA PÚBLICA PARA EL SEGUNDO REINGRESO DE MIEMBROS AL SISTEMA NACIONAL DE INVESTIGACIÓN (SNI) DE PANAMÁ 2017</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>DIRIGIDO A: Miembros actuales del SNI, que hayan reingresado por primera vez al Sistema en la Convocatoria Pública de marzo del 2015, en la categoría de Investigador Nacional o Investigador Distinguido. Siempre que dichos investigadores cumplan con los requisitos y criterios de evaluación del SNI.  Fecha de apertura: 5 de octubre de 2016  Fecha de cierre de la convocatoria: 28 de abril de 2017 (3:00 PM HORA EXACTA) Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Reingreso2-SNI-2017/criterios-internos-sni-areaI.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Reingreso2-SNI-2017/criterios-internos-sni-areaII.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Reingreso2-SNI-2017/criterios-internos-sni-areaIII.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Reingreso2-SNI-2017/criterios-internos-sni-areaIV.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/04/Formulario-de-evaluaci%C3%B3n-2R2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Reingreso2-SNI-2017/ley56-sni-panama.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Reingreso2-SNI-2017/reglamento-sni.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Reingreso2-SNI-2017/anuncio-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/Anuncio-de-Resultados-Segundo-Reingreso-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/Resoluci%C3%B3n-de-respuesta-al-Recurso-de-Reconsideraci%C3%B3n-Dra.-Indira-Franco.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/REsoluci%C3%B3n-4-del-24Octubre-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/10/REsoluci%C3%B3n-5-del-24Octubre-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-15-Dr.-Amador-Goodridge.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-16-Dr.-Fernando-Merch%C3%A1n.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-17-Dr.-Enrique-Medianero.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-18-Dra.-Anayansi-Valderrama.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-19-Dr.-H%C3%A9ctor-Guzm%C3%A1n.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-20-Dr.-Luis-Mej%C3%ADa.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-21-Dr.-Rafael-Andrade.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-22-Dr.-Jos%C3%A9-Loaiza.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/11/Resoluci%C3%B3n-No.-23-Dr.-Jagannatha-Rao.pdf</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-segundo-reingreso-de-miembros-al-sistema-nacional-de-investigacion-sni-de-panama-2017/</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>FOMENTO A LA INNOVACIÓN EDUCATIVA 2017</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>DIRIGIDO A: Personas naturales panameñas o extranjeras, residentes en Panamá, o jurídicas panameñas inscritas en el Registro Público de Panamá, que puedan actuar de forma individual o afiliados a entidades públicas, instituciones académicas, públicas o privadas, empresas privadas, escuelas técnicas, organizaciones no gubernamentales, centros de investigación públicos o privados y demás entidades con o sin fines de lucro.  DURACIÓN: La propuesta podrá tener una duración máxima de hasta dos (2) año calendario, a partir de la entrega de la orden de proceder, una vez refrendado el contrato por la Contraloría General de la República.  MONTOS: Categorías 1 y 2 hasta B/.5,000 y las categorías 3, 4, 5 hasta B/.30,000, financiamiento de hasta el 100% del costo de la propuesta según las necesidades plenamente justificadas de la misma. Los proponentes deben asegurarse que la distribución de fondos entre los objetos de gasto permisibles presentados en el presupuesto, vaya acorde al objetivo del Programa. Es responsabilidad de los proponentes sustentar los méritos de innovación, calidad, originalidad e impacto de la propuesta.  Fecha de apertura: 10 de agosto de 2016  Fecha límite de entrega de solicitud: 10 de enero de 2017 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr"/>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/fomento-a-la-innovacion-educativa-2017/</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>CONVOCATORIA PARA PROYECTOS DE INNOVACIÓN AL SECTOR AGROPECUARIO DE PANAMÁ 2017</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>DIRIGIDO A: Personas naturales panameñas que sean pequeños productores agropecuarios, personas jurídicas panameñas debidamente inscritas en el Registro Público de Panamá, entidades públicas, organizaciones no gubernamentales, fundaciones con o sin fines de lucro, asociaciones de interés público, formalmente registradas en la República de Panamá y universidades públicas o privadas, debidamente acreditadas  DURACIÓN: Los proyectos adjudicados podrán tener una duración de hasta veinticuatro (24) meses.  Fecha de apertura: 10 de agosto 2016  Fecha límite de entrega de solicitud: 23 de noviembre de 2016 hasta las 2:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar.</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Innovacion/CONV-PRO-SECTOR-AGROPECUARIO-DE-PANAMA-2017/anuncio-agro-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Innovacion/CONV-PRO-SECTOR-AGROPECUARIO-DE-PANAMA-2017/Resolucion-Administrativa-056.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Innovacion/CONV-PRO-SECTOR-AGROPECUARIO-DE-PANAMA-2017/Listado_Recepcion-Propuestas2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Innovacion/CONV-PRO-SECTOR-AGROPECUARIO-DE-PANAMA-2017/Res1-Adm-No-07-de-16-de-enero-de-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Innovacion/CONV-PRO-SECTOR-AGROPECUARIO-DE-PANAMA-2017/resolucion-exttension-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Innovacion/CONV-PRO-SECTOR-AGROPECUARIO-DE-PANAMA-2017/propuestas-avaladas-negociacion.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Resoluci%C3%B3n-Administrativa-No.127-IAP17-P-003.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Resoluci%C3%B3n-Administrativa-No.128-IAP17-P-038.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Resolucion-Administrativa-No-129-IAP17-P-045-.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/RESOLUCI%C3%93N-NO.-139-24-DE-MAYO-DE-2017-IAP17-074.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/06/Resolucion-Administrativa-N%C2%B0150-IAP17-P-047.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/07/Resoluci%C3%B3n-No.181-2017-IAP17-P-018.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/07/Resolucion-Administrativa-184-IAP17-P-071.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/08/RESOLUCION-DE-ADJUDICACI%C3%93N-IAP17-P-031-Priscila-Mu%C3%B1%C3%B3z.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/09/RESOLUCI%C3%93N-NO.-237-27-DE-SEPTIEMBRE-DE-2017-IAP17-064.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/03/Resolucion-Administrativa-72-IAP17-P-029.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/Resoluci%C3%B3n-No.150-2018-IAP17-P-054.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/05/RESOLUCI%C3%93N-NO.-151-22-DE-MAYO-DE-2018-IAP17-067.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/06/IAP17-P-005-Norberto-Pitty-Joly.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2018/06/IAP17-P-006-Norberto-Pitty-Joly.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2019/08/RESOLUCION-DE-ADJUDICACIÓN-IAP17-P-028-AYMEE-VALDES-1.pdf</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/convocatoria-para-proyectos-de-innovacion-al-sector-agropecuario-de-panama-2017/</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>CONVOCATORIA DE BECAS DE PREGRADO DE EXCELENCIA 2016</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>DIRIGIDA A: Estudiantes panameños que posean título de bachiller otorgado por un centro de estudios secundarios, nacional o extranjero, debidamente reconocido por la entidad competente en Panamá, que tengan la intención de realizar estudios en universidades de excelencia en el extranjero o que se encuentren iniciando sus estudios universitarios. Documentos para descargar</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/pregradoexcelencia2016/TABLAS_M.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/pregradoexcelencia2016/declaracion-jurada.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/pregradoexcelencia2016/Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/pregradoexcelencia2016/Listado-Universidades.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/Becas/pregradoexcelencia2016/Resolucion_de_Extension_Pregrado.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2017/05/Anuncio-de-Resultados-de-Pregrado-de-Excelencia-2016.pdf</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/convocatoria-de-becas-de-pregrado-de-excelencia-2016/</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>CONVOCATORIA PÚBLICA PARA EL TERCER REINGRESO AL SISTEMA NACIONAL DE INVESTIGACIÓN (SNI) DE PANAMÁ 2016</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>DIRIGIDO A: Miembros que hayan reingresado por segunda vez al SNI en la Convocatoria Pública lanzada en abril del año 2013, en categoría de Investigador Nacional o Investigador Distinguido, nacionales o extranjeros residentes en Panamá, afiliados a organismos públicos o privados, con o sin fines de lucro, tales como entidades públicas, empresas privadas u organizaciones sin fines de lucro, que operen desde el territorio de la República de Panamá, siempre que dichos investigadores cumplan con los requisitos y criterios de evaluación del SNI.  Fecha de apertura: 15 de diciembre de 2015  Fecha de cierre de la convocatoria: 28 de enero de 2016 (3:00 P.M. HORA EXACTA) Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Tercer_Reingreso_2016/Criterios-internos-de-evaluacion/Criterios-internos-SNI-Area-I.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Tercer_Reingreso_2016/Criterios-internos-de-evaluacion/Criterios-internos-SNI-Area-II.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Tercer_Reingreso_2016/Criterios-internos-de-evaluacion/Criterios-internos-SNI-Area-III.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Tercer_Reingreso_2016/Criterios-internos-de-evaluacion/Criterios-internos-SNI-Area-IV.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Tercer_Reingreso_2016/Documentacion-adicional/Ley56-SNI-Panama.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Tercer_Reingreso_2016/Documentacion-adicional/Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/convocatorias/F-Investigacion/Tercer_Reingreso_2016/Documentos-para-descargar/Anuncio-2016.pdf</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-tercer-reingreso-al-sistema-nacional-de-investigacion-sni-de-panama-2016/</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>CONVOCATORIA PÚBLICA PARA FORTALECER CONOCIMIENTOS DE INNOVACIÓN Y EMPRENDIMIENTO 2021</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>DIRIGIDA A: Sociedades anónimas, entidades Académicas (Universidades / Escuelas), Asociaciones de Interés Privado (AIP), Centro de Investigación Públicos o Privados sin fines de lucro, formalmente registradas en la República de Panamá y Fundaciones con y sin fines de lucro. OBJETIVO: Apoyar las actividades que impulsen y fortalezcan el desarrollo de la innovación y el emprendimiento, proporcionando subsidio económico, total o parcial, que propicie valor agregado, capacitación e impacto a los participantes. CATEGORÍAS DE EVALUACIÓN: Estas categorías no se evaluarán como categorías separadas: • Categoría A: Eventos de Alta Convocatoria: Desarrollo de Congresos, Seminarios y Talleres. Esta categoría cubre la realización de al menos 2 días de la actividad, y que conste con la participación de un máximo de hasta 3 expertos panameños y/o internacionales en modalidad virtual. Dirigidos a los sectores establecidos en el Plan Estratégico Nacional de Ciencia, Tecnología e Innovación 2024. • Categoría B: Eventos de Alta Convocatoria: Desarrollo de Eventos, tales como: Charlas, Conferencias y Paneles, dictados en la Semana del Emprendimiento 2022. Esta categoría cubre el desarrollo de eventos con la participación de un máximo de hasta 3 expertos panameños y/o internacionales, modalidad virtual. Los eventos serán dirigidos a los sectores establecidos en el Plan Estratégico Nacional de Ciencia, Tecnología e Innovación 2024. • Categoría C: Metodología para el Emprendimiento y la Innovación: Desarrollo de metodologías que apunten a fortalecer y mejorar los métodos de emprendimiento e innovación con los que cuenta el ecosistema nacional de Emprendimiento: Cursos de capacitación en emprendimiento e innovación, Cursos de capacitación para Mentores en emprendimiento e innovación, Cursos de capacitación en el diseño, metodología e implementación de incubadoras de emprendimiento. Estos cursos pueden ser dictados por expertos panameños y/o extranjeros, modalidad virtual. Los curos serán dirigidos a los sectores establecidos en el Plan Estratégico Nacional de Ciencia, Tecnología e Innovación 2024. • Categoría D: Módulos en Emprendimiento e Innovación. Esta categoría consiste en el diseño de módulos de emprendimiento e innovación que podrían incluirse en los planes de estudios de Educación Básica, Media, Premedia y Universidades. • Categoría E: Impulso del Emprendimiento y la Innovación en las Escuelas: Desarrollo de Charlas y Talleres que promuevan el Emprendimiento y la Innovación en las Escuelas. Estos cursos pueden ser dictados por expertos panameños y/o extranjeros, modalidad virtual. CATEGORIA Y MONTOS • Categoría A: Eventos de Alta Convocatoria: la SENACYT, podrá otorgar subsidio económico hasta el 75% del costo total de la propuesta, hasta la suma máxima de B/. 15,000.00. • Categoría B: Eventos de Alta Convocatoria: la SENACYT, podrá otorgar subsidio económico hasta el 75% del costo total de la propuesta, hasta la suma máxima de B/. 15,000.00. • Categoría C: Metodología para el Emprendimiento y la Innovación: la SENACYT, podrá otorgar subsidio económico hasta el 100% del costo de la propuesta, hasta la suma máxima de B/.10,000.00. • Categoría D: Módulos en Emprendimiento e Innovación: la SENACYT, podrá otorgar subsidio económico hasta el 100% del costo total de la propuesta, hasta la suma máxima de B/. 7,000.00. • Categoría E: Impulso del Emprendimiento y la Innovación en las Escuelas: la SENACYT, podrá otorgar subsidio económico hasta el 100% del costo de la propuesta, hasta la suma máxima de B/. 7,000.00. Es responsabilidad de los proponentes justificar a satisfacción de los evaluadores los méritos de la propuesta y la carencia de recursos que justifica la solicitud de fondos. Los proponentes deben asegurarse que la distribución de fondos entre los objetos de gastos presentados en el presupuesto de su propuesta vaya acorde al objetivo del Programa de Fomento a la Innovación Empresarial (artículo 49 de la Resolución Administrativa No. 191 del 31 de julio de 2017). FECHA DE APERTURA DE LA CONVOCATORIA: 17 DE FEBRERO DE 2021 PLAZO PARA ENTREGA DE PROPUESTAS: 22 DE ABRIL DE 2021. HASTA LAS 3:00 P.M., HORA EXACTA. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2021/02/11.-Resolucion-Administrativa-191-de-31-de-julio-de-2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2021/02/11.-Modelo-Contrato-por-Merito-Rev.-Julio2018.pdf</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-fortalecer-conocimientos-de-innovacion-y-emprendimiento-2021/</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>DOCTORADO DE INVESTIGACIÓN EN EL ÁREA DE SALUD</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>DIRIGIDA A: Panameños que deseen formarse como investigadores en centros de estudios de excelencia en el extranjero o que ya se encuentren estudiando en centros de estudio de excelencia en el extranjero. OBJETIVO: Este programa tiene como objetivo la formación de investigadores para la República de Panamá, que garanticen el incremento del capital humano con altas capacidades para actividades científicas y tecnológicas. DURACIÓN : La beca tendrá una duración de hasta cuatro (4) años para estudios doctorales si el beneficiario posee grado de maestría y hasta seis (6) años para estudios doctorales si el beneficiario no posee grado de maestría. MONTOS: Las becas podrán tener una asignación anual de hasta B/. 60,000.00 y la asignación total de la beca no podrá exceder la suma de B/. 250,000.00. El presupuesto se elaborará según los rubros y la tabla de asignación de fondos publicada en la página web de la SENACYT. FECHA DE APERTURA DE LA CONVOCATORIA: 09 DE FEBRERO DE 2021 PLAZO PARA ENTREGA DE PROPUESTAS: 05 DE MAYO DE 2021 hasta las 3:00 P.M. HORA EXACTA Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2021/02/ANUNCIO-DOCTORADO-EN-SALUD.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2021/02/Declaracion-Jurada-Nueva.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2021/02/Pasos-a-seguir.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2021/02/Reglamento-de-Becas-Nuevo-2017-1.pdf</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/doctorado-de-investigacion-en-el-area-de-salud/</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>PROGRAMA DE BECAS FULBRIGHT-SENACYT-IFARHU En Ciencias, Tecnología, Innovación e Ingenierías 2022-2023</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>DIRIGIDO A: Profesionales panameños residentes en Panamá que han terminado su licenciatura al 29 de abril del 2021, incluyendo el proyecto final de graduación. Los panameños con residencia en Estados Unidos o con doble nacionalidad (panameño/estadounidense) no serán considerados. Se les dará preferencia a aquellos candidatos que nunca han estudiado en Estados Unidos. Personas que hayan recibido una beca Fulbright anteriormente no son elegibles para este programa. DURACIÓN: La maestría tiene una duración máxima de dos (2) años. El doctorado tiene una duración máxima de cuatro (4) años. De ser necesario, si el programa de doctorado es de cinco (5) años, el candidato deberá hacer sus propios arreglos para obtener el financiamiento adicional por el tiempo restante de su programa. Fecha de apertura: 5 de Febrero de 2021 Fecha límite de entrega de solicitud: 29 de abril de 2021 hasta las 3:00 p.m. hora exacta. Para mayores detalles ver anuncio entre los documentos a descargar</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2021/02/Fulbright-SENACYT-22-23-Anuncio-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2021/02/Areas-tematicas-FUL-SEN-2021.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2021/02/Lista-de-Documentos-BEFUL-2021.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2021/02/Como-aplicar-1.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2021/02/Paz-Salvo-SENACYT.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2021/02/Declaracion-Jurada-de-lectura-de-Reglamento.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2021/02/Reglamento-de-Becas-Nuevo-2017.pdf</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/programa-de-becas-fulbright-senacyt-ifarhu-en-ciencias-tecnologia-innovacion-e-ingenierias-2022-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>CONVOCATORIA PÚBLICA PARA EL FOMENTO A LA INNOVACIÓN EDUCATIVA</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>OBJETIVO: Generar innovaciones para la educación formal y no formal del país, que propicien una mejora en la formación y actitud hacia las ciencias, y estén acordes con las políticas educativas nacionales. DIRIGIDO A: Personas naturales panameñas o extranjeras residentes en Panamá, Personas Jurídicas panameñas inscritas en el Registro Público de Panamá con o sin fines de lucro, Instituciones Públicas, Patronatos creados por Ley, Organizaciones no gubernamentales, Fundaciones de interés privado, con o sin fines de lucro, Asociaciones de interés público. Podrán participar de manera individual o afiliados. ÁREAS TEMÁTICAS -Matemáticas -Física -Química -Ciencias de la Vida -Pedagogía -Ciencias Tecnológicas -Astronomía y Astrofísica -Ciencias de la Tierra y del Espacio -Ciencias Agrarias. DURACIÓN: • Categoría de Evaluación A: 24 Meses • Categoría de Evaluación B: 12 Meses MONTOS: • Categoría de Evaluación A: B/. 30,000. • Categoría de Evaluación B: B/. 15,000. FECHA Y PLAZOS DE PRESENTACIÓN FECHA DE APERTURA DE LA CONVOCATORIA: 28 DE DICIEMBRE DE 2020 PLAZO PARA ENTREGA DE PROPUESTAS: 2 DE MARZO DE 2021 (HASTA LAS 3:00 PM, HORA EXACTA)</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/wp-content/uploads/2020/12/Anuncio_Convocatoria-FINAL.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/12/Bases_Convocatoria-final.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/12/manual-para-aplicar-en-CENIT.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/12/Modelo-de-referencia-para-la-Fundamentacion-Tecnica.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/12/Resolucion-Administrativa-No.191-que-norma-los-procesos-de-convocatorias-publicas.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2021/03/Acta-de-Recepcion-de-Propuestas.pdf</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>https://www.senacyt.gob.pa/convocatoria-publica-para-el-fomento-a-la-innovacion-educativa-2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
           <t>CONVOCATORIA PÚBLICA DE FOMENTO A I+D ORIENTADA POR MISIÓN LOGÍSTICA (IOML) 2020</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr">
+      <c r="C249" t="inlineStr">
         <is>
           <t>DIRIGIDO A: Grupos interdisciplinarios, con interés específico en los temas de esta convocatoria, representado por: entidades públicas, personas jurídicas, con o sin fines de lucro, organizaciones no gubernamentales (ONG’s) o asociaciones de interés público (AIP). OBJETIVO: Apoyar iniciativas de I+D+i que, a través de proyectos innovadores favorezcan el fortalecimiento de un sistema logístico eficiente, accesible, sostenible y seguro. ÁREAS TEMÁTICAS -Ciencias Agrarias -Ciencias Médicas -Ciencias Tecnológicas DURACIÓN: Las propuestas podrán tener una duración de hasta doce (12) meses. MONTOS: El financiamiento podrá ser de hasta Doscientos Mil Balboas (B/. 200,000.00) de la totalidad del proyecto. FECHA DE APERTURA DE LA CONVOCATORIA: 9 DE DICIEMBRE DE 2020 PLAZO PARA ENTREGA DE PROPUESTAS: 23 DE FEBRERO DE 2021(HASTA LAS 1:00 PM, HORA EXACTA) Para mayores detalles ver anuncio entre los documentos a descargar</t>
         </is>
       </c>
-      <c r="D219" t="inlineStr">
+      <c r="D249" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/wp-content/uploads/2020/12/2-Anuncio-IOML-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/12/3-Bases-IOML-2020.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/12/11-Modelo-de-Contrato-por-Merito.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/12/12-Estrategia-Logistica-Nacional-2030-Documento-Final2017.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/12/13-PENCYT-2019-2024.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/12/14-Reglamento-de-la-Convocatoria.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2020/12/15-CODIGO-UNESCO.pdf, https://www.senacyt.gob.pa/wp-content/uploads/2021/03/Acta-de-Recepcion-de-Propuesta.pdf</t>
         </is>
       </c>
-      <c r="E219" t="inlineStr">
+      <c r="E249" t="inlineStr">
         <is>
           <t>https://www.senacyt.gob.pa/convocatoria-publica-de-fomento-a-id-orientada-por-mision-logistica-ioml-2020/</t>
         </is>
